--- a/mappings/package_F01/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F01/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="969">
   <si>
     <t>Field</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.1.1-TDArc.1</t>
+    <t>2.1.1-TDAbeta.1</t>
   </si>
   <si>
     <r>
@@ -3512,28 +3512,6 @@
     <t>Award criteria</t>
   </si>
   <si>
-    <t>II.2.5.1.2.1</t>
-  </si>
-  <si>
-    <t>The criteria described below (Criterion:)</t>
-  </si>
-  <si>
-    <t>BT-543</t>
-  </si>
-  <si>
-    <t>Award Criterion complicated</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_CRITERION
-OBJECT_CONTRACT/OBJECT_DESCR/AC_CRITERION</t>
-  </si>
-  <si>
-    <t>epo:AwardCriterion / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this cccev:description ?value .</t>
-  </si>
-  <si>
     <t>II.2.5.1</t>
   </si>
   <si>
@@ -3550,6 +3528,35 @@
 OBJECT_CONTRACT/OBJECT_DESCR/AC_QUALITY</t>
   </si>
   <si>
+    <t xml:space="preserve">epo:Lot / epo:AwardCriterion </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:specifiesAwardCriterion </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
     <t>epo:AwardCriterion / at-voc:award-criterion-type</t>
   </si>
   <si>
@@ -3607,6 +3614,9 @@
 OBJECT_CONTRACT/OBJECT_DESCR/AC_QUALITY/AC_CRITERION</t>
   </si>
   <si>
+    <t>epo:AwardCriterion / rdf:langString</t>
+  </si>
+  <si>
     <t>?this cccev:name ?value .</t>
   </si>
   <si>
@@ -3614,6 +3624,12 @@
   </si>
   <si>
     <t>Weighting</t>
+  </si>
+  <si>
+    <t>BT-543</t>
+  </si>
+  <si>
+    <t>Award Criterion complicated</t>
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_QUALITY/AC_WEIGHTING
@@ -3636,6 +3652,32 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:specifiesAwardCriterion </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
       <t>?</t>
@@ -3698,6 +3740,32 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:specifiesAwardCriterion </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
       <t>?</t>
@@ -3750,6 +3818,32 @@
 OBJECT_CONTRACT/OBJECT_DESCR/AC_PROCUREMENT_DOC</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve"> epo:specifiesAwardCriterion </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
     <t>II.2.6</t>
   </si>
   <si>
@@ -3925,15 +4019,18 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/RENEWAL</t>
   </si>
   <si>
-    <t>epo:Lot / epo:ContractTerm /</t>
-  </si>
-  <si>
-    <t>?this epo:foreseesContractSpecificTerm / epo:isRenewalIndicator ?value .</t>
+    <t>epo:Lot / epo:ContractTerm / xsd:boolean</t>
+  </si>
+  <si>
+    <t>?this epo:foreseesContractSpecificTerm / epo:isRenewalIndicator true .</t>
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_RENEWAL</t>
   </si>
   <si>
+    <t>?this epo:foreseesContractSpecificTerm / epo:isRenewalIndicator false .</t>
+  </si>
+  <si>
     <t>II.2.7.6</t>
   </si>
   <si>
@@ -3973,18 +4070,61 @@
     <t>Variants</t>
   </si>
   <si>
-    <t xml:space="preserve">OBJECT_CONTRACT/OBJECT_DESCR/ACCEPTED_VARIANTS
-</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/ACCEPTED_VARIANTS</t>
   </si>
   <si>
     <t>epo:Lot / epo:SubmissionTerm / at-voc:permission</t>
   </si>
   <si>
-    <t>?this epo:isSubjectToLotSpecificTerm / epo:hasVariantPermission ?value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBJECT_CONTRACT/OBJECT_DESCR/NO_ACCEPTED_VARIANTS
-</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:isSubjectToLotSpecificTerm / epo:hasVariantPermission &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/permission/allowed</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_ACCEPTED_VARIANTS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:isSubjectToLotSpecificTerm / epo:hasVariantPermission &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/permission/not-allowed</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
   </si>
   <si>
     <t>II.2.11</t>
@@ -4002,12 +4142,15 @@
     <t>BT-53</t>
   </si>
   <si>
+    <t>II.2.11.1.1</t>
+  </si>
+  <si>
+    <t>Options (checked / yes)</t>
+  </si>
+  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/OPTIONS</t>
   </si>
   <si>
-    <t>epo:Lot / epo:ContractTerm / xsd:boolean</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -4042,6 +4185,12 @@
     </r>
   </si>
   <si>
+    <t>II.2.11.1.2</t>
+  </si>
+  <si>
+    <t>Options (unchecked / no)</t>
+  </si>
+  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_OPTIONS</t>
   </si>
   <si>
@@ -4103,6 +4252,12 @@
   </si>
   <si>
     <t>EU Funds</t>
+  </si>
+  <si>
+    <t>II.2.13.1.1</t>
+  </si>
+  <si>
+    <t>The procurement is related to a project and/or programme financed by European Union funds (yes)</t>
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/EU_PROGR_RELATED</t>
@@ -4137,6 +4292,12 @@
     </r>
   </si>
   <si>
+    <t>II.2.13.1.2</t>
+  </si>
+  <si>
+    <t>The procurement is related to a project and/or programme financed by European Union funds (no)</t>
+  </si>
+  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_EU_PROGR_RELATED</t>
   </si>
   <si>
@@ -4287,20 +4448,55 @@
     <t>Suitability to pursue the professional activity, including requirements relating to enrolment on professional or trade registers</t>
   </si>
   <si>
+    <t>LEFTI/SUITABILITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:Lot / epo:SelectionCriterion / at-voc:selection-criterion </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/selection-criterion/sui-act</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
     <t>III.1.1.1</t>
   </si>
   <si>
     <t>List and brief description of conditions, indication of information and documentation required</t>
   </si>
   <si>
-    <t>BT-749; BT-750</t>
-  </si>
-  <si>
-    <t>Selection Criteria Name; 
-Selection Criteria Description</t>
-  </si>
-  <si>
-    <t>LEFTI/SUITABILITY/P/FT</t>
+    <t>BT-750</t>
+  </si>
+  <si>
+    <t>Selection Criteria Description</t>
+  </si>
+  <si>
+    <t>LEFTI/SUITABILITY/P</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:SelectionCriterion / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:specifiesSelectionCriterion / ccev:description ?value .</t>
   </si>
   <si>
     <t>III.1.2</t>
@@ -4309,18 +4505,47 @@
     <t>Economic and financial standing</t>
   </si>
   <si>
+    <t>BT-747</t>
+  </si>
+  <si>
+    <t>Selection Criteria Type</t>
+  </si>
+  <si>
+    <t>LEFTI/ECONOMIC_CRITERIA_DOC
+LEFTI/ECONOMIC_FINANCIAL_INFO
+LEFTI/ECONOMIC_FINANCIAL_MIN_LEVEL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/selection-criterion/ef-stand</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
     <t>III.1.2.1</t>
   </si>
   <si>
     <t>Selection criteria as stated in the procurement documents</t>
   </si>
   <si>
-    <t>BT-747</t>
-  </si>
-  <si>
-    <t>Selection Criteria Type</t>
-  </si>
-  <si>
     <t>LEFTI/ECONOMIC_CRITERIA_DOC</t>
   </si>
   <si>
@@ -4342,10 +4567,45 @@
     <t>LEFTI/ECONOMIC_FINANCIAL_MIN_LEVEL</t>
   </si>
   <si>
+    <t>epo:Lot / epo:SelectionCriterion / cccev:Constraint / cccev:InformationConcept / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:specifiesSelectionCriterion / epo:hasConstraint / cccev:constrains / epo:hasDescription ?value .</t>
+  </si>
+  <si>
     <t>III.1.3</t>
   </si>
   <si>
     <t>Technical and professional ability</t>
+  </si>
+  <si>
+    <t>LEFTI/TECHNICAL_CRITERIA_DOC
+LEFTI/TECHNICAL_PROFESSIONAL_INFO
+LEFTI/TECHNICAL_PROFESSIONAL_MIN_LEVEL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/selection-criterion/tp-abil</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
   </si>
   <si>
     <t>III.1.3.1</t>
@@ -4572,7 +4832,7 @@
     <t>IV.1.3.1.1</t>
   </si>
   <si>
-    <t>Framework agreement with single operators</t>
+    <t>Framework agreement with single operator</t>
   </si>
   <si>
     <t>BT-778</t>
@@ -4596,7 +4856,7 @@
     <t>IV.1.3.1.3</t>
   </si>
   <si>
-    <t>Envisaged maximum number of participants to the framework</t>
+    <t>Envisaged maximum number of participants to the framework agreement</t>
   </si>
   <si>
     <t>BT-113</t>
@@ -4629,19 +4889,61 @@
     <t>PROCEDURE/DPS</t>
   </si>
   <si>
+    <t>epo:Procedure / epo:DynamicPurchaseSystemTechniqueUsage</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:usesTechnique ?value .</t>
+    </r>
+  </si>
+  <si>
+    <t>IV.1.3.2.1</t>
+  </si>
+  <si>
+    <t>The dynamic purchasing system might be used by additional purchasers</t>
+  </si>
+  <si>
+    <t>PROCEDURE/DPS_ADDITIONAL_PURCHASERS</t>
+  </si>
+  <si>
     <t>epo:DynamicPurchaseSystemTechniqueUsage / at-voc:dps-usage</t>
   </si>
   <si>
-    <t>?this epo:hasDPSScope ?value .</t>
-  </si>
-  <si>
-    <t>IV.1.3.2.1</t>
-  </si>
-  <si>
-    <t>The dynamic purchasing system might be used by additional purchasers</t>
-  </si>
-  <si>
-    <t>PROCEDURE/DPS_ADDITIONAL_PURCHASERS</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:hasDPSScope &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/dps-usage/dps-nlist</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
   </si>
   <si>
     <t>In the case of framework agreements, provide justification for any duration exceeding 8 years</t>
@@ -4735,6 +5037,12 @@
     <t>GPA Coverage</t>
   </si>
   <si>
+    <t>IV.1.8.1</t>
+  </si>
+  <si>
+    <t>The procurement is covered by the Government Procurement Agreement (yes)</t>
+  </si>
+  <si>
     <t>PROCEDURE/CONTRACT_COVERED_GPA</t>
   </si>
   <si>
@@ -4773,6 +5081,12 @@
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
+  </si>
+  <si>
+    <t>IV.1.8.2</t>
+  </si>
+  <si>
+    <t>The procurement is covered by the Government Procurement Agreement (no)</t>
   </si>
   <si>
     <t>PROCEDURE/NO_CONTRACT_COVERED_GPA</t>
@@ -5455,7 +5769,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="34">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -5555,7 +5869,27 @@
     </font>
     <font>
       <b/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -5602,7 +5936,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5673,6 +6007,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -5772,7 +6112,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6062,13 +6402,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6083,13 +6417,28 @@
     <xf borderId="0" fillId="7" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6102,34 +6451,31 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -6137,38 +6483,35 @@
     <xf borderId="0" fillId="12" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6192,13 +6535,13 @@
     <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6210,23 +6553,23 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -13271,10 +13614,10 @@
       <c r="K118" s="7"/>
     </row>
     <row r="119">
-      <c r="A119" s="99" t="s">
+      <c r="A119" s="51" t="s">
         <v>498</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="52" t="s">
         <v>499</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -13283,44 +13626,42 @@
       <c r="D119" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="E119" s="40" t="s">
+      <c r="E119" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="F119" s="4"/>
-      <c r="G119" s="35" t="s">
+      <c r="F119" s="36"/>
+      <c r="G119" s="36" t="s">
         <v>503</v>
       </c>
-      <c r="H119" s="4" t="s">
+      <c r="H119" s="97" t="s">
         <v>504</v>
       </c>
-      <c r="I119" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
     </row>
     <row r="120">
-      <c r="A120" s="51" t="s">
-        <v>505</v>
-      </c>
-      <c r="B120" s="52" t="s">
-        <v>506</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>508</v>
+      <c r="A120" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="B120" s="79" t="s">
+        <v>499</v>
+      </c>
+      <c r="C120" s="99" t="s">
+        <v>500</v>
+      </c>
+      <c r="D120" s="99" t="s">
+        <v>501</v>
       </c>
       <c r="E120" s="40" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F120" s="47"/>
       <c r="G120" s="4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H120" s="100" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
@@ -13328,26 +13669,26 @@
     </row>
     <row r="121">
       <c r="A121" s="69" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B121" s="70" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C121" s="57" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D121" s="57" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E121" s="35" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F121" s="47"/>
       <c r="G121" s="4" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="H121" s="35" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>71</v>
@@ -13357,26 +13698,26 @@
     </row>
     <row r="122">
       <c r="A122" s="69" t="s">
+        <v>514</v>
+      </c>
+      <c r="B122" s="70" t="s">
+        <v>515</v>
+      </c>
+      <c r="C122" s="57" t="s">
+        <v>516</v>
+      </c>
+      <c r="D122" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="E122" s="35" t="s">
         <v>518</v>
-      </c>
-      <c r="B122" s="70" t="s">
-        <v>519</v>
-      </c>
-      <c r="C122" s="57" t="s">
-        <v>500</v>
-      </c>
-      <c r="D122" s="57" t="s">
-        <v>501</v>
-      </c>
-      <c r="E122" s="35" t="s">
-        <v>520</v>
       </c>
       <c r="F122" s="47"/>
       <c r="G122" s="4" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="H122" s="35" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I122" s="7" t="s">
         <v>71</v>
@@ -13386,82 +13727,80 @@
     </row>
     <row r="123">
       <c r="A123" s="51" t="s">
+        <v>520</v>
+      </c>
+      <c r="B123" s="52" t="s">
+        <v>521</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="E123" s="35" t="s">
         <v>522</v>
       </c>
-      <c r="B123" s="52" t="s">
+      <c r="F123" s="36"/>
+      <c r="G123" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="H123" s="97" t="s">
         <v>523</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="E123" s="40" t="s">
-        <v>524</v>
-      </c>
-      <c r="F123" s="47"/>
-      <c r="G123" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="H123" s="100" t="s">
-        <v>525</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
     </row>
     <row r="124">
-      <c r="A124" s="69" t="s">
-        <v>526</v>
-      </c>
-      <c r="B124" s="70" t="s">
-        <v>513</v>
-      </c>
-      <c r="C124" s="57" t="s">
-        <v>514</v>
-      </c>
-      <c r="D124" s="57" t="s">
-        <v>515</v>
-      </c>
-      <c r="E124" s="35" t="s">
-        <v>527</v>
+      <c r="A124" s="78" t="s">
+        <v>520</v>
+      </c>
+      <c r="B124" s="79" t="s">
+        <v>521</v>
+      </c>
+      <c r="C124" s="99" t="s">
+        <v>500</v>
+      </c>
+      <c r="D124" s="99" t="s">
+        <v>501</v>
+      </c>
+      <c r="E124" s="40" t="s">
+        <v>522</v>
       </c>
       <c r="F124" s="47"/>
       <c r="G124" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="H124" s="35" t="s">
-        <v>517</v>
-      </c>
-      <c r="I124" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="H124" s="100" t="s">
+        <v>524</v>
+      </c>
+      <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
     </row>
     <row r="125">
       <c r="A125" s="69" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B125" s="70" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C125" s="57" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="D125" s="57" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="E125" s="35" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F125" s="47"/>
       <c r="G125" s="4" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="H125" s="35" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="I125" s="7" t="s">
         <v>71</v>
@@ -13470,155 +13809,165 @@
       <c r="K125" s="7"/>
     </row>
     <row r="126">
-      <c r="A126" s="51" t="s">
-        <v>530</v>
-      </c>
-      <c r="B126" s="52" t="s">
-        <v>531</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="E126" s="101" t="s">
-        <v>532</v>
+      <c r="A126" s="69" t="s">
+        <v>527</v>
+      </c>
+      <c r="B126" s="70" t="s">
+        <v>515</v>
+      </c>
+      <c r="C126" s="57" t="s">
+        <v>516</v>
+      </c>
+      <c r="D126" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="E126" s="72" t="s">
+        <v>528</v>
       </c>
       <c r="F126" s="57"/>
       <c r="G126" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="H126" s="102" t="s">
-        <v>533</v>
-      </c>
-      <c r="I126" s="7"/>
+        <v>512</v>
+      </c>
+      <c r="H126" s="72" t="s">
+        <v>519</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
     </row>
     <row r="127">
-      <c r="A127" s="69" t="s">
-        <v>534</v>
-      </c>
-      <c r="B127" s="70" t="s">
-        <v>519</v>
-      </c>
-      <c r="C127" s="57" t="s">
+      <c r="A127" s="51" t="s">
+        <v>529</v>
+      </c>
+      <c r="B127" s="52" t="s">
+        <v>530</v>
+      </c>
+      <c r="C127" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="D127" s="57" t="s">
+      <c r="D127" s="7" t="s">
         <v>501</v>
       </c>
       <c r="E127" s="72" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F127" s="56"/>
-      <c r="G127" s="4" t="s">
+      <c r="G127" s="36" t="s">
         <v>503</v>
       </c>
-      <c r="H127" s="35" t="s">
-        <v>521</v>
-      </c>
-      <c r="I127" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="H127" s="97" t="s">
+        <v>532</v>
+      </c>
+      <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="103" t="s">
-        <v>536</v>
-      </c>
-      <c r="B128" s="104" t="s">
-        <v>537</v>
-      </c>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="105" t="s">
-        <v>538</v>
-      </c>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
+      <c r="A128" s="78" t="s">
+        <v>529</v>
+      </c>
+      <c r="B128" s="79" t="s">
+        <v>530</v>
+      </c>
+      <c r="C128" s="99" t="s">
+        <v>500</v>
+      </c>
+      <c r="D128" s="99" t="s">
+        <v>501</v>
+      </c>
+      <c r="E128" s="40" t="s">
+        <v>531</v>
+      </c>
+      <c r="F128" s="47"/>
+      <c r="G128" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="H128" s="100" t="s">
+        <v>533</v>
+      </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="45" t="s">
-        <v>539</v>
-      </c>
-      <c r="B129" s="46" t="s">
-        <v>540</v>
-      </c>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="7"/>
+      <c r="A129" s="69" t="s">
+        <v>534</v>
+      </c>
+      <c r="B129" s="70" t="s">
+        <v>515</v>
+      </c>
+      <c r="C129" s="57" t="s">
+        <v>516</v>
+      </c>
+      <c r="D129" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="E129" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="F129" s="36"/>
+      <c r="G129" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H129" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="51" t="s">
-        <v>541</v>
-      </c>
-      <c r="B130" s="52" t="s">
-        <v>409</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>543</v>
+      <c r="A130" s="101" t="s">
+        <v>536</v>
+      </c>
+      <c r="B130" s="102" t="s">
+        <v>537</v>
+      </c>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="103" t="s">
+        <v>538</v>
       </c>
       <c r="F130" s="4"/>
-      <c r="G130" s="77" t="s">
-        <v>544</v>
-      </c>
-      <c r="H130" s="61" t="s">
-        <v>545</v>
+      <c r="G130" s="104" t="s">
+        <v>503</v>
+      </c>
+      <c r="H130" s="105" t="s">
+        <v>539</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="51" t="s">
-        <v>546</v>
-      </c>
-      <c r="B131" s="52" t="s">
-        <v>416</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>237</v>
-      </c>
+      <c r="A131" s="101" t="s">
+        <v>536</v>
+      </c>
+      <c r="B131" s="102" t="s">
+        <v>537</v>
+      </c>
+      <c r="C131" s="7"/>
       <c r="D131" s="7"/>
-      <c r="E131" s="7" t="s">
-        <v>547</v>
+      <c r="E131" s="106" t="s">
+        <v>538</v>
       </c>
       <c r="F131" s="7"/>
-      <c r="G131" s="82" t="s">
-        <v>548</v>
-      </c>
-      <c r="H131" s="82" t="s">
-        <v>549</v>
-      </c>
+      <c r="G131" s="107"/>
+      <c r="H131" s="107"/>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
     </row>
     <row r="132">
       <c r="A132" s="45" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B132" s="46" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -13632,449 +13981,439 @@
     </row>
     <row r="133">
       <c r="A133" s="51" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="B133" s="52" t="s">
-        <v>553</v>
-      </c>
-      <c r="C133" s="106" t="s">
-        <v>554</v>
+        <v>409</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>543</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>555</v>
+        <v>411</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="F133" s="4"/>
-      <c r="G133" s="35" t="s">
-        <v>557</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>558</v>
+      <c r="G133" s="77" t="s">
+        <v>545</v>
+      </c>
+      <c r="H133" s="61" t="s">
+        <v>546</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
     </row>
     <row r="134">
-      <c r="A134" s="69" t="s">
-        <v>559</v>
-      </c>
-      <c r="B134" s="70"/>
-      <c r="C134" s="106"/>
+      <c r="A134" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="B134" s="52" t="s">
+        <v>416</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="D134" s="7"/>
       <c r="E134" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="G134" s="35" t="s">
-        <v>562</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>563</v>
+        <v>548</v>
+      </c>
+      <c r="F134" s="4"/>
+      <c r="G134" s="61" t="s">
+        <v>549</v>
+      </c>
+      <c r="H134" s="61" t="s">
+        <v>550</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
     </row>
     <row r="135">
-      <c r="A135" s="69" t="s">
-        <v>564</v>
-      </c>
-      <c r="B135" s="70"/>
-      <c r="C135" s="106"/>
+      <c r="A135" s="45" t="s">
+        <v>551</v>
+      </c>
+      <c r="B135" s="46" t="s">
+        <v>552</v>
+      </c>
+      <c r="C135" s="7"/>
       <c r="D135" s="7"/>
-      <c r="E135" s="40" t="s">
-        <v>560</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="G135" s="35" t="s">
-        <v>562</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
     </row>
     <row r="136">
       <c r="A136" s="51" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="B136" s="52" t="s">
-        <v>568</v>
-      </c>
-      <c r="C136" s="106" t="s">
-        <v>569</v>
+        <v>554</v>
+      </c>
+      <c r="C136" s="108" t="s">
+        <v>555</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="F136" s="4"/>
       <c r="G136" s="35" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="51" t="s">
-        <v>574</v>
-      </c>
-      <c r="B137" s="52" t="s">
-        <v>575</v>
-      </c>
-      <c r="C137" s="106" t="s">
-        <v>576</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>577</v>
-      </c>
+      <c r="A137" s="69" t="s">
+        <v>560</v>
+      </c>
+      <c r="B137" s="70"/>
+      <c r="C137" s="108"/>
+      <c r="D137" s="7"/>
       <c r="E137" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="F137" s="4"/>
+        <v>561</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>562</v>
+      </c>
       <c r="G137" s="35" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="103" t="s">
-        <v>580</v>
-      </c>
-      <c r="B138" s="104" t="s">
-        <v>581</v>
-      </c>
-      <c r="C138" s="107" t="s">
-        <v>582</v>
-      </c>
-      <c r="D138" s="107" t="s">
-        <v>583</v>
-      </c>
-      <c r="E138" s="108" t="s">
-        <v>584</v>
-      </c>
-      <c r="F138" s="4"/>
-      <c r="G138" s="109" t="s">
-        <v>585</v>
-      </c>
-      <c r="H138" s="109" t="s">
-        <v>586</v>
+      <c r="A138" s="69" t="s">
+        <v>565</v>
+      </c>
+      <c r="B138" s="70"/>
+      <c r="C138" s="108"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="40" t="s">
+        <v>561</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="G138" s="35" t="s">
+        <v>563</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>567</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="103" t="s">
-        <v>580</v>
-      </c>
-      <c r="B139" s="104" t="s">
-        <v>581</v>
-      </c>
-      <c r="C139" s="107" t="s">
-        <v>582</v>
-      </c>
-      <c r="D139" s="107" t="s">
-        <v>583</v>
-      </c>
-      <c r="E139" s="108" t="s">
-        <v>587</v>
+      <c r="A139" s="51" t="s">
+        <v>568</v>
+      </c>
+      <c r="B139" s="52" t="s">
+        <v>569</v>
+      </c>
+      <c r="C139" s="108" t="s">
+        <v>570</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="F139" s="4"/>
-      <c r="G139" s="109" t="s">
-        <v>585</v>
-      </c>
-      <c r="H139" s="109" t="s">
-        <v>586</v>
+      <c r="G139" s="35" t="s">
+        <v>573</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>574</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="103" t="s">
-        <v>588</v>
-      </c>
-      <c r="B140" s="104" t="s">
-        <v>589</v>
-      </c>
-      <c r="C140" s="107" t="s">
-        <v>590</v>
-      </c>
-      <c r="D140" s="107" t="s">
-        <v>591</v>
-      </c>
-      <c r="E140" s="108" t="s">
-        <v>592</v>
+      <c r="A140" s="51" t="s">
+        <v>575</v>
+      </c>
+      <c r="B140" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="C140" s="108" t="s">
+        <v>577</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>579</v>
       </c>
       <c r="F140" s="4"/>
-      <c r="G140" s="109" t="s">
-        <v>593</v>
-      </c>
-      <c r="H140" s="109" t="s">
-        <v>594</v>
+      <c r="G140" s="35" t="s">
+        <v>573</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="110" t="s">
-        <v>595</v>
-      </c>
-      <c r="B141" s="111" t="s">
-        <v>596</v>
-      </c>
-      <c r="C141" s="36"/>
-      <c r="D141" s="56"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="36"/>
-      <c r="G141" s="36"/>
-      <c r="H141" s="36"/>
+      <c r="A141" s="101" t="s">
+        <v>581</v>
+      </c>
+      <c r="B141" s="102" t="s">
+        <v>582</v>
+      </c>
+      <c r="C141" s="109" t="s">
+        <v>583</v>
+      </c>
+      <c r="D141" s="110" t="s">
+        <v>584</v>
+      </c>
+      <c r="E141" s="104" t="s">
+        <v>585</v>
+      </c>
+      <c r="F141" s="4"/>
+      <c r="G141" s="111" t="s">
+        <v>586</v>
+      </c>
+      <c r="H141" s="111" t="s">
+        <v>587</v>
+      </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
     </row>
     <row r="142">
-      <c r="A142" s="103" t="s">
-        <v>597</v>
-      </c>
-      <c r="B142" s="104" t="s">
-        <v>598</v>
-      </c>
-      <c r="C142" s="56" t="s">
-        <v>599</v>
-      </c>
-      <c r="D142" s="56" t="s">
-        <v>600</v>
-      </c>
-      <c r="E142" s="112" t="s">
-        <v>601</v>
-      </c>
-      <c r="F142" s="56"/>
-      <c r="G142" s="36" t="s">
-        <v>602</v>
-      </c>
-      <c r="H142" s="36" t="s">
-        <v>603</v>
+      <c r="A142" s="101" t="s">
+        <v>581</v>
+      </c>
+      <c r="B142" s="102" t="s">
+        <v>582</v>
+      </c>
+      <c r="C142" s="110" t="s">
+        <v>583</v>
+      </c>
+      <c r="D142" s="110" t="s">
+        <v>584</v>
+      </c>
+      <c r="E142" s="104" t="s">
+        <v>588</v>
+      </c>
+      <c r="F142" s="7"/>
+      <c r="G142" s="111" t="s">
+        <v>586</v>
+      </c>
+      <c r="H142" s="111" t="s">
+        <v>589</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="103" t="s">
-        <v>597</v>
-      </c>
-      <c r="B143" s="104" t="s">
-        <v>598</v>
-      </c>
-      <c r="C143" s="56" t="s">
-        <v>599</v>
-      </c>
-      <c r="D143" s="56" t="s">
-        <v>600</v>
-      </c>
-      <c r="E143" s="112" t="s">
-        <v>604</v>
-      </c>
-      <c r="F143" s="36"/>
-      <c r="G143" s="36" t="s">
-        <v>602</v>
-      </c>
-      <c r="H143" s="36" t="s">
-        <v>603</v>
+      <c r="A143" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="B143" s="102" t="s">
+        <v>591</v>
+      </c>
+      <c r="C143" s="112" t="s">
+        <v>592</v>
+      </c>
+      <c r="D143" s="112" t="s">
+        <v>593</v>
+      </c>
+      <c r="E143" s="104" t="s">
+        <v>594</v>
+      </c>
+      <c r="F143" s="4"/>
+      <c r="G143" s="111" t="s">
+        <v>595</v>
+      </c>
+      <c r="H143" s="111" t="s">
+        <v>596</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
     </row>
     <row r="144">
-      <c r="A144" s="45" t="s">
-        <v>605</v>
-      </c>
-      <c r="B144" s="46" t="s">
-        <v>606</v>
-      </c>
-      <c r="C144" s="57"/>
-      <c r="D144" s="57"/>
-      <c r="E144" s="35"/>
-      <c r="F144" s="47"/>
-      <c r="G144" s="36"/>
+      <c r="A144" s="113" t="s">
+        <v>597</v>
+      </c>
+      <c r="B144" s="114" t="s">
+        <v>598</v>
+      </c>
+      <c r="C144" s="115"/>
+      <c r="D144" s="115"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="104"/>
+      <c r="G144" s="104"/>
       <c r="H144" s="36"/>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="51" t="s">
-        <v>607</v>
-      </c>
-      <c r="B145" s="52" t="s">
-        <v>608</v>
-      </c>
-      <c r="C145" s="57" t="s">
-        <v>609</v>
-      </c>
-      <c r="D145" s="57" t="s">
-        <v>608</v>
-      </c>
-      <c r="E145" s="47" t="s">
-        <v>610</v>
-      </c>
-      <c r="F145" s="35"/>
-      <c r="G145" s="36" t="s">
-        <v>611</v>
-      </c>
-      <c r="H145" s="97" t="s">
-        <v>612</v>
+      <c r="A145" s="101" t="s">
+        <v>599</v>
+      </c>
+      <c r="B145" s="102" t="s">
+        <v>600</v>
+      </c>
+      <c r="C145" s="115" t="s">
+        <v>601</v>
+      </c>
+      <c r="D145" s="115" t="s">
+        <v>602</v>
+      </c>
+      <c r="E145" s="104" t="s">
+        <v>603</v>
+      </c>
+      <c r="F145" s="104"/>
+      <c r="G145" s="104" t="s">
+        <v>604</v>
+      </c>
+      <c r="H145" s="116" t="s">
+        <v>605</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="78" t="s">
+      <c r="A146" s="101" t="s">
+        <v>599</v>
+      </c>
+      <c r="B146" s="102" t="s">
+        <v>600</v>
+      </c>
+      <c r="C146" s="115" t="s">
+        <v>601</v>
+      </c>
+      <c r="D146" s="115" t="s">
+        <v>602</v>
+      </c>
+      <c r="E146" s="104" t="s">
+        <v>606</v>
+      </c>
+      <c r="F146" s="104"/>
+      <c r="G146" s="104" t="s">
+        <v>604</v>
+      </c>
+      <c r="H146" s="116" t="s">
         <v>607</v>
-      </c>
-      <c r="B146" s="79" t="s">
-        <v>608</v>
-      </c>
-      <c r="C146" s="113" t="s">
-        <v>609</v>
-      </c>
-      <c r="D146" s="113" t="s">
-        <v>608</v>
-      </c>
-      <c r="E146" s="47" t="s">
-        <v>613</v>
-      </c>
-      <c r="F146" s="35"/>
-      <c r="G146" s="36" t="s">
-        <v>611</v>
-      </c>
-      <c r="H146" s="47" t="s">
-        <v>614</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="51" t="s">
-        <v>615</v>
-      </c>
-      <c r="B147" s="52" t="s">
-        <v>616</v>
-      </c>
-      <c r="C147" s="57" t="s">
-        <v>617</v>
-      </c>
-      <c r="D147" s="57" t="s">
-        <v>618</v>
-      </c>
-      <c r="E147" s="47" t="s">
-        <v>619</v>
-      </c>
+      <c r="A147" s="45" t="s">
+        <v>608</v>
+      </c>
+      <c r="B147" s="46" t="s">
+        <v>609</v>
+      </c>
+      <c r="C147" s="57"/>
+      <c r="D147" s="57"/>
+      <c r="E147" s="35"/>
       <c r="F147" s="47"/>
-      <c r="G147" s="47" t="s">
-        <v>593</v>
-      </c>
-      <c r="H147" s="47" t="s">
-        <v>620</v>
-      </c>
-      <c r="I147" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="G147" s="36"/>
+      <c r="H147" s="36"/>
+      <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
     </row>
     <row r="148">
-      <c r="A148" s="45" t="s">
-        <v>621</v>
-      </c>
-      <c r="B148" s="46" t="s">
-        <v>622</v>
-      </c>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
+      <c r="A148" s="51" t="s">
+        <v>610</v>
+      </c>
+      <c r="B148" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="C148" s="57" t="s">
+        <v>612</v>
+      </c>
+      <c r="D148" s="57" t="s">
+        <v>611</v>
+      </c>
+      <c r="E148" s="47"/>
+      <c r="F148" s="35"/>
+      <c r="G148" s="36"/>
+      <c r="H148" s="36"/>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
     </row>
     <row r="149">
-      <c r="A149" s="51" t="s">
-        <v>623</v>
-      </c>
-      <c r="B149" s="52" t="s">
-        <v>624</v>
+      <c r="A149" s="69" t="s">
+        <v>613</v>
+      </c>
+      <c r="B149" s="70" t="s">
+        <v>614</v>
       </c>
       <c r="C149" s="57" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="D149" s="57" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="E149" s="47" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="F149" s="35"/>
-      <c r="G149" s="47" t="s">
-        <v>628</v>
-      </c>
-      <c r="H149" s="114" t="s">
-        <v>629</v>
+      <c r="G149" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="H149" s="97" t="s">
+        <v>616</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="64" t="s">
-        <v>623</v>
-      </c>
-      <c r="B150" s="65" t="s">
-        <v>624</v>
-      </c>
-      <c r="C150" s="115" t="s">
-        <v>625</v>
-      </c>
-      <c r="D150" s="116" t="s">
-        <v>626</v>
+      <c r="A150" s="69" t="s">
+        <v>617</v>
+      </c>
+      <c r="B150" s="70" t="s">
+        <v>618</v>
+      </c>
+      <c r="C150" s="36" t="s">
+        <v>612</v>
+      </c>
+      <c r="D150" s="56" t="s">
+        <v>611</v>
       </c>
       <c r="E150" s="47" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="F150" s="35"/>
-      <c r="G150" s="47" t="s">
-        <v>628</v>
-      </c>
-      <c r="H150" s="114" t="s">
-        <v>631</v>
+      <c r="G150" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="H150" s="47" t="s">
+        <v>620</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
@@ -14082,26 +14421,26 @@
     </row>
     <row r="151">
       <c r="A151" s="51" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="B151" s="52" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="C151" s="57" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="D151" s="57" t="s">
-        <v>635</v>
-      </c>
-      <c r="E151" s="40" t="s">
-        <v>627</v>
+        <v>624</v>
+      </c>
+      <c r="E151" s="47" t="s">
+        <v>625</v>
       </c>
       <c r="F151" s="47"/>
       <c r="G151" s="47" t="s">
-        <v>636</v>
-      </c>
-      <c r="H151" s="114" t="s">
-        <v>637</v>
+        <v>595</v>
+      </c>
+      <c r="H151" s="47" t="s">
+        <v>626</v>
       </c>
       <c r="I151" s="7" t="s">
         <v>71</v>
@@ -14111,480 +14450,534 @@
     </row>
     <row r="152">
       <c r="A152" s="45" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B152" s="46" t="s">
-        <v>639</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>642</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="4"/>
       <c r="F152" s="4"/>
-      <c r="G152" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="H152" s="117" t="s">
-        <v>643</v>
-      </c>
-      <c r="I152" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="38" t="s">
-        <v>644</v>
-      </c>
-      <c r="B153" s="39" t="s">
-        <v>645</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="D153" s="7"/>
-      <c r="E153" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="F153" s="4"/>
-      <c r="G153" s="35" t="s">
-        <v>648</v>
-      </c>
-      <c r="H153" s="4" t="s">
-        <v>649</v>
-      </c>
+      <c r="A153" s="51" t="s">
+        <v>629</v>
+      </c>
+      <c r="B153" s="52" t="s">
+        <v>630</v>
+      </c>
+      <c r="C153" s="57" t="s">
+        <v>631</v>
+      </c>
+      <c r="D153" s="57" t="s">
+        <v>632</v>
+      </c>
+      <c r="E153" s="47"/>
+      <c r="F153" s="35"/>
+      <c r="G153" s="47"/>
+      <c r="H153" s="36"/>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
-      <c r="K153" s="7" t="s">
-        <v>650</v>
-      </c>
+      <c r="K153" s="7"/>
     </row>
     <row r="154">
-      <c r="A154" s="33" t="s">
-        <v>651</v>
-      </c>
-      <c r="B154" s="89" t="s">
-        <v>652</v>
-      </c>
-      <c r="C154" s="56"/>
-      <c r="D154" s="56"/>
-      <c r="E154" s="47"/>
-      <c r="F154" s="36"/>
-      <c r="G154" s="47"/>
-      <c r="H154" s="47"/>
+      <c r="A154" s="69" t="s">
+        <v>633</v>
+      </c>
+      <c r="B154" s="70" t="s">
+        <v>634</v>
+      </c>
+      <c r="C154" s="57" t="s">
+        <v>631</v>
+      </c>
+      <c r="D154" s="57" t="s">
+        <v>632</v>
+      </c>
+      <c r="E154" s="47" t="s">
+        <v>635</v>
+      </c>
+      <c r="F154" s="35"/>
+      <c r="G154" s="47" t="s">
+        <v>636</v>
+      </c>
+      <c r="H154" s="117" t="s">
+        <v>637</v>
+      </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
     </row>
     <row r="155">
-      <c r="A155" s="38" t="s">
-        <v>653</v>
-      </c>
-      <c r="B155" s="39" t="s">
-        <v>654</v>
-      </c>
-      <c r="C155" s="56"/>
-      <c r="D155" s="56"/>
-      <c r="E155" s="47"/>
-      <c r="F155" s="36"/>
-      <c r="G155" s="47"/>
-      <c r="H155" s="47"/>
+      <c r="A155" s="69" t="s">
+        <v>638</v>
+      </c>
+      <c r="B155" s="70" t="s">
+        <v>639</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="E155" s="47" t="s">
+        <v>640</v>
+      </c>
+      <c r="F155" s="35"/>
+      <c r="G155" s="47" t="s">
+        <v>636</v>
+      </c>
+      <c r="H155" s="117" t="s">
+        <v>641</v>
+      </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
     </row>
     <row r="156">
-      <c r="A156" s="110" t="s">
+      <c r="A156" s="51" t="s">
+        <v>642</v>
+      </c>
+      <c r="B156" s="52" t="s">
+        <v>643</v>
+      </c>
+      <c r="C156" s="57" t="s">
+        <v>644</v>
+      </c>
+      <c r="D156" s="57" t="s">
+        <v>645</v>
+      </c>
+      <c r="E156" s="118" t="s">
+        <v>635</v>
+      </c>
+      <c r="F156" s="57"/>
+      <c r="G156" s="47" t="s">
+        <v>646</v>
+      </c>
+      <c r="H156" s="117" t="s">
+        <v>647</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="45" t="s">
+        <v>648</v>
+      </c>
+      <c r="B157" s="46" t="s">
+        <v>649</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="H157" s="119" t="s">
+        <v>653</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="38" t="s">
+        <v>654</v>
+      </c>
+      <c r="B158" s="39" t="s">
         <v>655</v>
       </c>
-      <c r="B156" s="111" t="s">
+      <c r="C158" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="C156" s="56"/>
-      <c r="D156" s="56"/>
-      <c r="E156" s="118"/>
-      <c r="F156" s="56"/>
-      <c r="G156" s="47"/>
-      <c r="H156" s="47"/>
-      <c r="I156" s="56"/>
-      <c r="J156" s="56"/>
-      <c r="K156" s="56"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="103" t="s">
+      <c r="D158" s="7"/>
+      <c r="E158" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="B157" s="104" t="s">
+      <c r="F158" s="4"/>
+      <c r="G158" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="C157" s="119" t="s">
+      <c r="H158" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="D157" s="107" t="s">
-        <v>660</v>
-      </c>
-      <c r="E157" s="108" t="s">
-        <v>661</v>
-      </c>
-      <c r="F157" s="36"/>
-      <c r="G157" s="47"/>
-      <c r="H157" s="47"/>
-      <c r="I157" s="56"/>
-      <c r="J157" s="56"/>
-      <c r="K157" s="56"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="110" t="s">
-        <v>662</v>
-      </c>
-      <c r="B158" s="111" t="s">
-        <v>663</v>
-      </c>
-      <c r="C158" s="119"/>
-      <c r="D158" s="119"/>
-      <c r="E158" s="108"/>
-      <c r="F158" s="108"/>
-      <c r="G158" s="36"/>
-      <c r="H158" s="36"/>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
-      <c r="K158" s="7"/>
+      <c r="K158" s="7" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" s="103" t="s">
-        <v>664</v>
-      </c>
-      <c r="B159" s="104" t="s">
-        <v>665</v>
-      </c>
-      <c r="C159" s="119" t="s">
-        <v>666</v>
-      </c>
-      <c r="D159" s="119" t="s">
-        <v>667</v>
-      </c>
-      <c r="E159" s="108" t="s">
-        <v>668</v>
-      </c>
-      <c r="F159" s="108"/>
-      <c r="G159" s="36"/>
-      <c r="H159" s="36"/>
+      <c r="A159" s="33" t="s">
+        <v>661</v>
+      </c>
+      <c r="B159" s="89" t="s">
+        <v>662</v>
+      </c>
+      <c r="C159" s="56"/>
+      <c r="D159" s="56"/>
+      <c r="E159" s="47"/>
+      <c r="F159" s="36"/>
+      <c r="G159" s="47"/>
+      <c r="H159" s="47"/>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
     </row>
     <row r="160">
-      <c r="A160" s="103" t="s">
-        <v>669</v>
-      </c>
-      <c r="B160" s="104" t="s">
-        <v>670</v>
-      </c>
-      <c r="C160" s="119" t="s">
-        <v>659</v>
-      </c>
-      <c r="D160" s="107" t="s">
-        <v>660</v>
-      </c>
-      <c r="E160" s="108" t="s">
-        <v>671</v>
-      </c>
-      <c r="F160" s="108"/>
-      <c r="G160" s="36"/>
-      <c r="H160" s="36"/>
+      <c r="A160" s="38" t="s">
+        <v>663</v>
+      </c>
+      <c r="B160" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="C160" s="56"/>
+      <c r="D160" s="56"/>
+      <c r="E160" s="47"/>
+      <c r="F160" s="36"/>
+      <c r="G160" s="47"/>
+      <c r="H160" s="47"/>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="103" t="s">
+      <c r="A161" s="113" t="s">
+        <v>665</v>
+      </c>
+      <c r="B161" s="114" t="s">
+        <v>666</v>
+      </c>
+      <c r="C161" s="56"/>
+      <c r="D161" s="56"/>
+      <c r="E161" s="104" t="s">
+        <v>667</v>
+      </c>
+      <c r="F161" s="36"/>
+      <c r="G161" s="104" t="s">
+        <v>668</v>
+      </c>
+      <c r="H161" s="116" t="s">
+        <v>669</v>
+      </c>
+      <c r="I161" s="56"/>
+      <c r="J161" s="56"/>
+      <c r="K161" s="56"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="101" t="s">
+        <v>670</v>
+      </c>
+      <c r="B162" s="102" t="s">
+        <v>671</v>
+      </c>
+      <c r="C162" s="115" t="s">
         <v>672</v>
       </c>
-      <c r="B161" s="104" t="s">
+      <c r="D162" s="112" t="s">
         <v>673</v>
       </c>
-      <c r="C161" s="119" t="s">
-        <v>659</v>
-      </c>
-      <c r="D161" s="107" t="s">
-        <v>660</v>
-      </c>
-      <c r="E161" s="108" t="s">
+      <c r="E162" s="104" t="s">
         <v>674</v>
       </c>
-      <c r="F161" s="108"/>
-      <c r="G161" s="36"/>
-      <c r="H161" s="36"/>
-      <c r="I161" s="7"/>
-      <c r="J161" s="7"/>
-      <c r="K161" s="7"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="110" t="s">
+      <c r="F162" s="36"/>
+      <c r="G162" s="104" t="s">
         <v>675</v>
       </c>
-      <c r="B162" s="111" t="s">
+      <c r="H162" s="104" t="s">
         <v>676</v>
       </c>
-      <c r="C162" s="56"/>
-      <c r="D162" s="56"/>
-      <c r="E162" s="47"/>
-      <c r="F162" s="36"/>
-      <c r="G162" s="47"/>
-      <c r="H162" s="47"/>
-      <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
-      <c r="K162" s="7"/>
+      <c r="I162" s="56"/>
+      <c r="J162" s="56"/>
+      <c r="K162" s="56"/>
     </row>
     <row r="163">
-      <c r="A163" s="103" t="s">
+      <c r="A163" s="113" t="s">
         <v>677</v>
       </c>
-      <c r="B163" s="104" t="s">
-        <v>665</v>
-      </c>
-      <c r="C163" s="119" t="s">
-        <v>666</v>
-      </c>
-      <c r="D163" s="119" t="s">
-        <v>667</v>
-      </c>
-      <c r="E163" s="119" t="s">
+      <c r="B163" s="114" t="s">
         <v>678</v>
       </c>
+      <c r="C163" s="115" t="s">
+        <v>679</v>
+      </c>
+      <c r="D163" s="115" t="s">
+        <v>680</v>
+      </c>
+      <c r="E163" s="115" t="s">
+        <v>681</v>
+      </c>
       <c r="F163" s="56"/>
-      <c r="G163" s="57"/>
-      <c r="H163" s="57"/>
+      <c r="G163" s="115" t="s">
+        <v>668</v>
+      </c>
+      <c r="H163" s="120" t="s">
+        <v>682</v>
+      </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
     </row>
     <row r="164">
-      <c r="A164" s="103" t="s">
-        <v>679</v>
-      </c>
-      <c r="B164" s="104" t="s">
-        <v>670</v>
-      </c>
-      <c r="C164" s="119" t="s">
-        <v>659</v>
-      </c>
-      <c r="D164" s="107" t="s">
-        <v>660</v>
-      </c>
-      <c r="E164" s="108" t="s">
-        <v>680</v>
+      <c r="A164" s="101" t="s">
+        <v>683</v>
+      </c>
+      <c r="B164" s="102" t="s">
+        <v>684</v>
+      </c>
+      <c r="C164" s="107"/>
+      <c r="D164" s="107"/>
+      <c r="E164" s="104" t="s">
+        <v>685</v>
       </c>
       <c r="F164" s="36"/>
-      <c r="G164" s="47"/>
-      <c r="H164" s="47"/>
+      <c r="G164" s="109"/>
+      <c r="H164" s="109"/>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
     <row r="165">
-      <c r="A165" s="103" t="s">
-        <v>681</v>
-      </c>
-      <c r="B165" s="104" t="s">
-        <v>682</v>
-      </c>
-      <c r="C165" s="119" t="s">
-        <v>659</v>
-      </c>
-      <c r="D165" s="107" t="s">
-        <v>660</v>
-      </c>
-      <c r="E165" s="119" t="s">
-        <v>683</v>
+      <c r="A165" s="101" t="s">
+        <v>686</v>
+      </c>
+      <c r="B165" s="102" t="s">
+        <v>687</v>
+      </c>
+      <c r="C165" s="115" t="s">
+        <v>672</v>
+      </c>
+      <c r="D165" s="112" t="s">
+        <v>673</v>
+      </c>
+      <c r="E165" s="115" t="s">
+        <v>688</v>
       </c>
       <c r="F165" s="56"/>
-      <c r="G165" s="57"/>
-      <c r="H165" s="57"/>
+      <c r="G165" s="115" t="s">
+        <v>675</v>
+      </c>
+      <c r="H165" s="115" t="s">
+        <v>676</v>
+      </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
     </row>
     <row r="166">
-      <c r="A166" s="45" t="s">
-        <v>684</v>
-      </c>
-      <c r="B166" s="46" t="s">
-        <v>685</v>
-      </c>
-      <c r="C166" s="36"/>
-      <c r="D166" s="36"/>
-      <c r="E166" s="47"/>
+      <c r="A166" s="101" t="s">
+        <v>689</v>
+      </c>
+      <c r="B166" s="102" t="s">
+        <v>690</v>
+      </c>
+      <c r="C166" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="D166" s="109" t="s">
+        <v>673</v>
+      </c>
+      <c r="E166" s="104" t="s">
+        <v>691</v>
+      </c>
       <c r="F166" s="36"/>
-      <c r="G166" s="47"/>
-      <c r="H166" s="47"/>
+      <c r="G166" s="109" t="s">
+        <v>692</v>
+      </c>
+      <c r="H166" s="109" t="s">
+        <v>693</v>
+      </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="51" t="s">
-        <v>686</v>
-      </c>
-      <c r="B167" s="52" t="s">
-        <v>687</v>
-      </c>
-      <c r="C167" s="56" t="s">
-        <v>688</v>
-      </c>
-      <c r="D167" s="57"/>
-      <c r="E167" s="47" t="s">
-        <v>689</v>
+      <c r="A167" s="113" t="s">
+        <v>694</v>
+      </c>
+      <c r="B167" s="114" t="s">
+        <v>695</v>
+      </c>
+      <c r="C167" s="115" t="s">
+        <v>679</v>
+      </c>
+      <c r="D167" s="115" t="s">
+        <v>680</v>
+      </c>
+      <c r="E167" s="104" t="s">
+        <v>696</v>
       </c>
       <c r="F167" s="36"/>
-      <c r="G167" s="47"/>
-      <c r="H167" s="47"/>
+      <c r="G167" s="104" t="s">
+        <v>668</v>
+      </c>
+      <c r="H167" s="116" t="s">
+        <v>697</v>
+      </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
-      <c r="K167" s="7" t="s">
-        <v>690</v>
-      </c>
+      <c r="K167" s="7"/>
     </row>
     <row r="168">
-      <c r="A168" s="51" t="s">
-        <v>691</v>
-      </c>
-      <c r="B168" s="52" t="s">
-        <v>692</v>
-      </c>
-      <c r="C168" s="56" t="s">
-        <v>693</v>
-      </c>
-      <c r="D168" s="56"/>
-      <c r="E168" s="120" t="s">
-        <v>694</v>
-      </c>
-      <c r="F168" s="121"/>
-      <c r="G168" s="47"/>
-      <c r="H168" s="47"/>
+      <c r="A168" s="101" t="s">
+        <v>698</v>
+      </c>
+      <c r="B168" s="102" t="s">
+        <v>684</v>
+      </c>
+      <c r="C168" s="107"/>
+      <c r="D168" s="107"/>
+      <c r="E168" s="121" t="s">
+        <v>699</v>
+      </c>
+      <c r="F168" s="122"/>
+      <c r="G168" s="109"/>
+      <c r="H168" s="109"/>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
-      <c r="K168" s="7" t="s">
-        <v>690</v>
-      </c>
+      <c r="K168" s="7"/>
     </row>
     <row r="169">
-      <c r="A169" s="38" t="s">
-        <v>695</v>
-      </c>
-      <c r="B169" s="39" t="s">
-        <v>696</v>
-      </c>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="18"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="4"/>
-      <c r="H169" s="4"/>
+      <c r="A169" s="101" t="s">
+        <v>700</v>
+      </c>
+      <c r="B169" s="102" t="s">
+        <v>687</v>
+      </c>
+      <c r="C169" s="115" t="s">
+        <v>672</v>
+      </c>
+      <c r="D169" s="112" t="s">
+        <v>673</v>
+      </c>
+      <c r="E169" s="121" t="s">
+        <v>701</v>
+      </c>
+      <c r="F169" s="122"/>
+      <c r="G169" s="104" t="s">
+        <v>675</v>
+      </c>
+      <c r="H169" s="104" t="s">
+        <v>676</v>
+      </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
     </row>
     <row r="170">
-      <c r="A170" s="45" t="s">
-        <v>697</v>
-      </c>
-      <c r="B170" s="46" t="s">
-        <v>698</v>
-      </c>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="18"/>
-      <c r="F170" s="18"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
+      <c r="A170" s="101" t="s">
+        <v>702</v>
+      </c>
+      <c r="B170" s="102" t="s">
+        <v>703</v>
+      </c>
+      <c r="C170" s="110" t="s">
+        <v>672</v>
+      </c>
+      <c r="D170" s="110" t="s">
+        <v>673</v>
+      </c>
+      <c r="E170" s="121" t="s">
+        <v>704</v>
+      </c>
+      <c r="F170" s="122"/>
+      <c r="G170" s="110" t="s">
+        <v>692</v>
+      </c>
+      <c r="H170" s="110" t="s">
+        <v>693</v>
+      </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="51" t="s">
-        <v>699</v>
-      </c>
-      <c r="B171" s="52" t="s">
-        <v>700</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D171" s="4"/>
-      <c r="E171" s="18" t="s">
-        <v>701</v>
-      </c>
-      <c r="F171" s="18"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="4"/>
+      <c r="A171" s="45" t="s">
+        <v>705</v>
+      </c>
+      <c r="B171" s="46" t="s">
+        <v>706</v>
+      </c>
+      <c r="C171" s="56"/>
+      <c r="D171" s="36"/>
+      <c r="E171" s="123"/>
+      <c r="F171" s="122"/>
+      <c r="G171" s="47"/>
+      <c r="H171" s="47"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
-      <c r="K171" s="7" t="s">
-        <v>690</v>
-      </c>
+      <c r="K171" s="7"/>
     </row>
     <row r="172">
-      <c r="A172" s="103" t="s">
-        <v>702</v>
+      <c r="A172" s="51" t="s">
+        <v>707</v>
       </c>
       <c r="B172" s="52" t="s">
-        <v>703</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="D172" s="7"/>
-      <c r="E172" s="18" t="s">
-        <v>705</v>
-      </c>
-      <c r="F172" s="18"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
-      <c r="I172" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="C172" s="56" t="s">
+        <v>709</v>
+      </c>
+      <c r="D172" s="57"/>
+      <c r="E172" s="123" t="s">
+        <v>710</v>
+      </c>
+      <c r="F172" s="122"/>
+      <c r="G172" s="57"/>
+      <c r="H172" s="57"/>
+      <c r="I172" s="7"/>
       <c r="J172" s="7"/>
       <c r="K172" s="7" t="s">
-        <v>690</v>
+        <v>711</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="45" t="s">
-        <v>706</v>
-      </c>
-      <c r="B173" s="46" t="s">
-        <v>707</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="D173" s="7"/>
-      <c r="E173" s="18" t="s">
-        <v>709</v>
-      </c>
-      <c r="F173" s="18"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
+      <c r="A173" s="51" t="s">
+        <v>712</v>
+      </c>
+      <c r="B173" s="52" t="s">
+        <v>713</v>
+      </c>
+      <c r="C173" s="56" t="s">
+        <v>714</v>
+      </c>
+      <c r="D173" s="56"/>
+      <c r="E173" s="123" t="s">
+        <v>715</v>
+      </c>
+      <c r="F173" s="122"/>
+      <c r="G173" s="47"/>
+      <c r="H173" s="47"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
       <c r="K173" s="7" t="s">
-        <v>690</v>
+        <v>711</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="45" t="s">
-        <v>710</v>
-      </c>
-      <c r="B174" s="46" t="s">
-        <v>711</v>
+      <c r="A174" s="38" t="s">
+        <v>716</v>
+      </c>
+      <c r="B174" s="39" t="s">
+        <v>717</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
@@ -14597,230 +14990,208 @@
       <c r="K174" s="7"/>
     </row>
     <row r="175">
-      <c r="A175" s="51" t="s">
-        <v>712</v>
-      </c>
-      <c r="B175" s="52" t="s">
-        <v>713</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>714</v>
-      </c>
+      <c r="A175" s="45" t="s">
+        <v>718</v>
+      </c>
+      <c r="B175" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="C175" s="7"/>
       <c r="D175" s="7"/>
-      <c r="E175" s="18" t="s">
-        <v>715</v>
-      </c>
+      <c r="E175" s="18"/>
       <c r="F175" s="18"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
-      <c r="K175" s="7" t="s">
-        <v>690</v>
-      </c>
+      <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="33" t="s">
-        <v>716</v>
-      </c>
-      <c r="B176" s="89" t="s">
-        <v>717</v>
-      </c>
-      <c r="C176" s="7"/>
+      <c r="A176" s="51" t="s">
+        <v>720</v>
+      </c>
+      <c r="B176" s="52" t="s">
+        <v>721</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>679</v>
+      </c>
       <c r="D176" s="7"/>
-      <c r="E176" s="84" t="s">
-        <v>718</v>
+      <c r="E176" s="18" t="s">
+        <v>722</v>
       </c>
       <c r="F176" s="18"/>
-      <c r="G176" s="61"/>
-      <c r="H176" s="61"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
-      <c r="K176" s="7"/>
+      <c r="K176" s="7" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="177">
-      <c r="A177" s="38" t="s">
-        <v>719</v>
-      </c>
-      <c r="B177" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" s="7"/>
+      <c r="A177" s="101" t="s">
+        <v>723</v>
+      </c>
+      <c r="B177" s="52" t="s">
+        <v>724</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>725</v>
+      </c>
       <c r="D177" s="7"/>
-      <c r="E177" s="18"/>
+      <c r="E177" s="18" t="s">
+        <v>726</v>
+      </c>
       <c r="F177" s="18"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
-      <c r="I177" s="7"/>
+      <c r="I177" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J177" s="7"/>
-      <c r="K177" s="7"/>
+      <c r="K177" s="7" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="45" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="B178" s="46" t="s">
-        <v>721</v>
-      </c>
-      <c r="C178" s="7"/>
+        <v>728</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>729</v>
+      </c>
       <c r="D178" s="7"/>
-      <c r="E178" s="18"/>
+      <c r="E178" s="18" t="s">
+        <v>730</v>
+      </c>
       <c r="F178" s="18"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
-      <c r="K178" s="7"/>
+      <c r="K178" s="7" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="179">
-      <c r="A179" s="51" t="s">
-        <v>722</v>
-      </c>
-      <c r="B179" s="52" t="s">
-        <v>723</v>
-      </c>
-      <c r="C179" s="36" t="s">
-        <v>724</v>
-      </c>
-      <c r="D179" s="56" t="s">
-        <v>725</v>
-      </c>
-      <c r="E179" s="120" t="s">
-        <v>726</v>
-      </c>
-      <c r="F179" s="120"/>
-      <c r="G179" s="36" t="s">
-        <v>727</v>
-      </c>
-      <c r="H179" s="97" t="s">
-        <v>728</v>
-      </c>
+      <c r="A179" s="45" t="s">
+        <v>731</v>
+      </c>
+      <c r="B179" s="46" t="s">
+        <v>732</v>
+      </c>
+      <c r="C179" s="4"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="18"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
     </row>
     <row r="180">
       <c r="A180" s="51" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B180" s="52" t="s">
-        <v>730</v>
-      </c>
-      <c r="C180" s="56" t="s">
-        <v>724</v>
-      </c>
-      <c r="D180" s="56" t="s">
-        <v>725</v>
-      </c>
-      <c r="E180" s="47" t="s">
-        <v>731</v>
-      </c>
-      <c r="F180" s="47"/>
-      <c r="G180" s="36" t="s">
-        <v>727</v>
-      </c>
-      <c r="H180" s="47" t="s">
-        <v>732</v>
-      </c>
+        <v>734</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="D180" s="7"/>
+      <c r="E180" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
-      <c r="K180" s="7"/>
+      <c r="K180" s="7" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="181">
-      <c r="A181" s="51" t="s">
-        <v>733</v>
-      </c>
-      <c r="B181" s="52" t="s">
-        <v>734</v>
-      </c>
-      <c r="C181" s="56" t="s">
-        <v>735</v>
-      </c>
-      <c r="D181" s="56" t="s">
-        <v>736</v>
-      </c>
-      <c r="E181" s="47" t="s">
+      <c r="A181" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="F181" s="47"/>
-      <c r="G181" s="36" t="s">
+      <c r="B181" s="89" t="s">
         <v>738</v>
       </c>
-      <c r="H181" s="36" t="s">
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="35" t="s">
         <v>739</v>
       </c>
+      <c r="F181" s="4"/>
+      <c r="G181" s="61"/>
+      <c r="H181" s="61"/>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
     </row>
     <row r="182">
-      <c r="A182" s="122" t="s">
+      <c r="A182" s="38" t="s">
         <v>740</v>
       </c>
-      <c r="B182" s="123" t="s">
-        <v>741</v>
-      </c>
-      <c r="C182" s="107" t="s">
-        <v>742</v>
-      </c>
-      <c r="D182" s="56" t="s">
-        <v>743</v>
-      </c>
-      <c r="E182" s="109" t="s">
-        <v>744</v>
-      </c>
-      <c r="F182" s="109"/>
-      <c r="G182" s="109"/>
+      <c r="B182" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
       <c r="H182" s="4"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
     </row>
     <row r="183">
-      <c r="A183" s="122" t="s">
-        <v>745</v>
-      </c>
-      <c r="B183" s="123" t="s">
-        <v>746</v>
-      </c>
-      <c r="C183" s="107" t="s">
+      <c r="A183" s="45" t="s">
+        <v>741</v>
+      </c>
+      <c r="B183" s="46" t="s">
         <v>742</v>
       </c>
-      <c r="D183" s="56" t="s">
-        <v>743</v>
-      </c>
-      <c r="E183" s="109" t="s">
-        <v>747</v>
-      </c>
-      <c r="F183" s="107"/>
-      <c r="G183" s="109"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="122" t="s">
+      <c r="A184" s="51" t="s">
+        <v>743</v>
+      </c>
+      <c r="B184" s="52" t="s">
+        <v>744</v>
+      </c>
+      <c r="C184" s="56" t="s">
+        <v>745</v>
+      </c>
+      <c r="D184" s="56" t="s">
+        <v>746</v>
+      </c>
+      <c r="E184" s="47" t="s">
+        <v>747</v>
+      </c>
+      <c r="F184" s="47"/>
+      <c r="G184" s="36" t="s">
         <v>748</v>
       </c>
-      <c r="B184" s="123" t="s">
+      <c r="H184" s="97" t="s">
         <v>749</v>
-      </c>
-      <c r="C184" s="107" t="s">
-        <v>750</v>
-      </c>
-      <c r="D184" s="107" t="s">
-        <v>751</v>
-      </c>
-      <c r="E184" s="109" t="s">
-        <v>752</v>
-      </c>
-      <c r="F184" s="109"/>
-      <c r="G184" s="109" t="s">
-        <v>753</v>
-      </c>
-      <c r="H184" s="4" t="s">
-        <v>754</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
@@ -14828,153 +15199,153 @@
     </row>
     <row r="185">
       <c r="A185" s="51" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B185" s="52" t="s">
-        <v>756</v>
-      </c>
-      <c r="C185" s="107" t="s">
-        <v>757</v>
-      </c>
-      <c r="D185" s="107" t="s">
-        <v>758</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="F185" s="4"/>
-      <c r="G185" s="109" t="s">
-        <v>760</v>
-      </c>
-      <c r="H185" s="109" t="s">
-        <v>761</v>
+        <v>751</v>
+      </c>
+      <c r="C185" s="56" t="s">
+        <v>745</v>
+      </c>
+      <c r="D185" s="56" t="s">
+        <v>746</v>
+      </c>
+      <c r="E185" s="47" t="s">
+        <v>752</v>
+      </c>
+      <c r="F185" s="47"/>
+      <c r="G185" s="36" t="s">
+        <v>748</v>
+      </c>
+      <c r="H185" s="47" t="s">
+        <v>753</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
     </row>
     <row r="186">
-      <c r="A186" s="122" t="s">
-        <v>762</v>
-      </c>
-      <c r="B186" s="123" t="s">
-        <v>763</v>
-      </c>
-      <c r="C186" s="107" t="s">
+      <c r="A186" s="51" t="s">
+        <v>754</v>
+      </c>
+      <c r="B186" s="52" t="s">
+        <v>755</v>
+      </c>
+      <c r="C186" s="56" t="s">
+        <v>756</v>
+      </c>
+      <c r="D186" s="56" t="s">
         <v>757</v>
       </c>
-      <c r="D186" s="107" t="s">
+      <c r="E186" s="47" t="s">
         <v>758</v>
       </c>
-      <c r="E186" s="109" t="s">
-        <v>764</v>
-      </c>
-      <c r="F186" s="4"/>
-      <c r="G186" s="109" t="s">
+      <c r="F186" s="47"/>
+      <c r="G186" s="36" t="s">
+        <v>759</v>
+      </c>
+      <c r="H186" s="36" t="s">
         <v>760</v>
       </c>
-      <c r="H186" s="109" t="s">
-        <v>761</v>
-      </c>
-      <c r="I186" s="107"/>
+      <c r="I186" s="7"/>
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
     </row>
     <row r="187">
-      <c r="A187" s="51" t="s">
-        <v>755</v>
-      </c>
-      <c r="B187" s="52" t="s">
+      <c r="A187" s="124" t="s">
+        <v>761</v>
+      </c>
+      <c r="B187" s="125" t="s">
+        <v>762</v>
+      </c>
+      <c r="C187" s="110" t="s">
+        <v>763</v>
+      </c>
+      <c r="D187" s="110" t="s">
+        <v>764</v>
+      </c>
+      <c r="E187" s="111" t="s">
         <v>765</v>
       </c>
-      <c r="C187" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="D187" s="7"/>
-      <c r="E187" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="F187" s="4"/>
-      <c r="G187" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="H187" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="I187" s="7" t="s">
-        <v>770</v>
-      </c>
+      <c r="F187" s="111"/>
+      <c r="G187" s="109"/>
+      <c r="H187" s="109"/>
+      <c r="I187" s="7"/>
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
     </row>
     <row r="188">
-      <c r="A188" s="45" t="s">
-        <v>771</v>
-      </c>
-      <c r="B188" s="46" t="s">
-        <v>772</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>773</v>
-      </c>
-      <c r="D188" s="56"/>
-      <c r="E188" s="36"/>
-      <c r="F188" s="36"/>
-      <c r="G188" s="36"/>
-      <c r="H188" s="36"/>
+      <c r="A188" s="124" t="s">
+        <v>766</v>
+      </c>
+      <c r="B188" s="125" t="s">
+        <v>767</v>
+      </c>
+      <c r="C188" s="110" t="s">
+        <v>763</v>
+      </c>
+      <c r="D188" s="110" t="s">
+        <v>764</v>
+      </c>
+      <c r="E188" s="111" t="s">
+        <v>768</v>
+      </c>
+      <c r="F188" s="111"/>
+      <c r="G188" s="109"/>
+      <c r="H188" s="109"/>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
     </row>
     <row r="189">
-      <c r="A189" s="51" t="s">
+      <c r="A189" s="124" t="s">
+        <v>769</v>
+      </c>
+      <c r="B189" s="125" t="s">
+        <v>770</v>
+      </c>
+      <c r="C189" s="111" t="s">
+        <v>771</v>
+      </c>
+      <c r="D189" s="112" t="s">
+        <v>772</v>
+      </c>
+      <c r="E189" s="111" t="s">
+        <v>773</v>
+      </c>
+      <c r="F189" s="111"/>
+      <c r="G189" s="111" t="s">
         <v>774</v>
       </c>
-      <c r="B189" s="52" t="s">
+      <c r="H189" s="111" t="s">
         <v>775</v>
-      </c>
-      <c r="C189" s="36" t="s">
-        <v>776</v>
-      </c>
-      <c r="D189" s="56" t="s">
-        <v>777</v>
-      </c>
-      <c r="E189" s="47" t="s">
-        <v>778</v>
-      </c>
-      <c r="F189" s="47"/>
-      <c r="G189" s="36" t="s">
-        <v>779</v>
-      </c>
-      <c r="H189" s="97" t="s">
-        <v>780</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
     </row>
     <row r="190">
-      <c r="A190" s="45" t="s">
+      <c r="A190" s="51" t="s">
+        <v>776</v>
+      </c>
+      <c r="B190" s="52" t="s">
+        <v>777</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="B190" s="46" t="s">
+      <c r="H190" s="98" t="s">
         <v>782</v>
-      </c>
-      <c r="C190" s="56" t="s">
-        <v>783</v>
-      </c>
-      <c r="D190" s="56" t="s">
-        <v>784</v>
-      </c>
-      <c r="E190" s="47" t="s">
-        <v>785</v>
-      </c>
-      <c r="F190" s="36"/>
-      <c r="G190" s="36" t="s">
-        <v>786</v>
-      </c>
-      <c r="H190" s="97" t="s">
-        <v>787</v>
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
@@ -14982,97 +15353,99 @@
     </row>
     <row r="191">
       <c r="A191" s="124" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B191" s="125" t="s">
-        <v>782</v>
-      </c>
-      <c r="C191" s="116" t="s">
-        <v>783</v>
-      </c>
-      <c r="D191" s="116" t="s">
         <v>784</v>
       </c>
-      <c r="E191" s="47" t="s">
-        <v>788</v>
-      </c>
-      <c r="F191" s="36"/>
-      <c r="G191" s="36" t="s">
+      <c r="C191" s="112" t="s">
+        <v>778</v>
+      </c>
+      <c r="D191" s="112" t="s">
+        <v>779</v>
+      </c>
+      <c r="E191" s="111" t="s">
+        <v>785</v>
+      </c>
+      <c r="F191" s="4"/>
+      <c r="G191" s="111" t="s">
         <v>786</v>
       </c>
-      <c r="H191" s="97" t="s">
-        <v>789</v>
-      </c>
-      <c r="I191" s="7"/>
+      <c r="H191" s="126" t="s">
+        <v>787</v>
+      </c>
+      <c r="I191" s="112"/>
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
     </row>
     <row r="192">
-      <c r="A192" s="38" t="s">
+      <c r="A192" s="51" t="s">
+        <v>776</v>
+      </c>
+      <c r="B192" s="52" t="s">
+        <v>788</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="D192" s="7"/>
+      <c r="E192" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="B192" s="39" t="s">
+      <c r="F192" s="4"/>
+      <c r="G192" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="C192" s="7"/>
-      <c r="D192" s="7"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="4"/>
-      <c r="G192" s="4"/>
-      <c r="H192" s="4"/>
-      <c r="I192" s="7"/>
+      <c r="H192" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="I192" s="7" t="s">
+        <v>793</v>
+      </c>
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
     </row>
     <row r="193">
       <c r="A193" s="45" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B193" s="46" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="D193" s="7"/>
-      <c r="E193" s="35" t="s">
-        <v>794</v>
-      </c>
-      <c r="F193" s="35" t="s">
-        <v>795</v>
-      </c>
-      <c r="G193" s="35" t="s">
         <v>796</v>
       </c>
-      <c r="H193" s="35" t="s">
-        <v>797</v>
-      </c>
+      <c r="D193" s="56"/>
+      <c r="E193" s="36"/>
+      <c r="F193" s="36"/>
+      <c r="G193" s="36"/>
+      <c r="H193" s="36"/>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
-      <c r="K193" s="72" t="s">
+      <c r="K193" s="7"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="51" t="s">
+        <v>797</v>
+      </c>
+      <c r="B194" s="52" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="45" t="s">
+      <c r="C194" s="56" t="s">
         <v>799</v>
       </c>
-      <c r="B194" s="46" t="s">
+      <c r="D194" s="56" t="s">
         <v>800</v>
       </c>
-      <c r="C194" s="7" t="s">
+      <c r="E194" s="47" t="s">
         <v>801</v>
       </c>
-      <c r="D194" s="7"/>
-      <c r="E194" s="35" t="s">
+      <c r="F194" s="57"/>
+      <c r="G194" s="36" t="s">
         <v>802</v>
       </c>
-      <c r="F194" s="7"/>
-      <c r="G194" s="4" t="s">
+      <c r="H194" s="97" t="s">
         <v>803</v>
-      </c>
-      <c r="H194" s="35" t="s">
-        <v>804</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
@@ -15080,25 +15453,171 @@
     </row>
     <row r="195">
       <c r="A195" s="45" t="s">
+        <v>804</v>
+      </c>
+      <c r="B195" s="46" t="s">
         <v>805</v>
       </c>
-      <c r="B195" s="46" t="s">
+      <c r="C195" s="56" t="s">
         <v>806</v>
       </c>
-      <c r="C195" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="D195" s="7"/>
-      <c r="E195" s="4" t="s">
+      <c r="D195" s="56" t="s">
         <v>807</v>
       </c>
-      <c r="F195" s="4"/>
-      <c r="G195" s="35"/>
-      <c r="H195" s="4"/>
+      <c r="E195" s="47"/>
+      <c r="F195" s="36"/>
+      <c r="G195" s="36"/>
+      <c r="H195" s="36"/>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
-      <c r="K195" s="7" t="s">
-        <v>690</v>
+      <c r="K195" s="7"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="51" t="s">
+        <v>808</v>
+      </c>
+      <c r="B196" s="52" t="s">
+        <v>809</v>
+      </c>
+      <c r="C196" s="56" t="s">
+        <v>806</v>
+      </c>
+      <c r="D196" s="56" t="s">
+        <v>807</v>
+      </c>
+      <c r="E196" s="47" t="s">
+        <v>810</v>
+      </c>
+      <c r="F196" s="36"/>
+      <c r="G196" s="36" t="s">
+        <v>811</v>
+      </c>
+      <c r="H196" s="97" t="s">
+        <v>812</v>
+      </c>
+      <c r="I196" s="7"/>
+      <c r="J196" s="7"/>
+      <c r="K196" s="7"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="B197" s="52" t="s">
+        <v>814</v>
+      </c>
+      <c r="C197" s="56" t="s">
+        <v>806</v>
+      </c>
+      <c r="D197" s="56" t="s">
+        <v>807</v>
+      </c>
+      <c r="E197" s="47" t="s">
+        <v>815</v>
+      </c>
+      <c r="F197" s="36"/>
+      <c r="G197" s="36" t="s">
+        <v>811</v>
+      </c>
+      <c r="H197" s="97" t="s">
+        <v>816</v>
+      </c>
+      <c r="I197" s="7"/>
+      <c r="J197" s="7"/>
+      <c r="K197" s="7"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="38" t="s">
+        <v>817</v>
+      </c>
+      <c r="B198" s="39" t="s">
+        <v>818</v>
+      </c>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
+      <c r="I198" s="7"/>
+      <c r="J198" s="7"/>
+      <c r="K198" s="7"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="45" t="s">
+        <v>819</v>
+      </c>
+      <c r="B199" s="46" t="s">
+        <v>820</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="D199" s="7"/>
+      <c r="E199" s="35" t="s">
+        <v>821</v>
+      </c>
+      <c r="F199" s="35" t="s">
+        <v>822</v>
+      </c>
+      <c r="G199" s="35" t="s">
+        <v>823</v>
+      </c>
+      <c r="H199" s="35" t="s">
+        <v>824</v>
+      </c>
+      <c r="I199" s="7"/>
+      <c r="J199" s="7"/>
+      <c r="K199" s="72" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="45" t="s">
+        <v>826</v>
+      </c>
+      <c r="B200" s="46" t="s">
+        <v>827</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="D200" s="7"/>
+      <c r="E200" s="35" t="s">
+        <v>829</v>
+      </c>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="H200" s="35" t="s">
+        <v>831</v>
+      </c>
+      <c r="I200" s="7"/>
+      <c r="J200" s="7"/>
+      <c r="K200" s="7"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="45" t="s">
+        <v>832</v>
+      </c>
+      <c r="B201" s="46" t="s">
+        <v>833</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="D201" s="7"/>
+      <c r="E201" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="F201" s="4"/>
+      <c r="G201" s="35"/>
+      <c r="H201" s="4"/>
+      <c r="I201" s="7"/>
+      <c r="J201" s="7"/>
+      <c r="K201" s="7" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -15106,27 +15625,27 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="G1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:B195">
+  <conditionalFormatting sqref="A3:B201">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>REGEXMATCH($A3,"^[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B195">
+  <conditionalFormatting sqref="A3:B201">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B195">
+  <conditionalFormatting sqref="A3:B201">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B195">
+  <conditionalFormatting sqref="A3:B201">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B195">
+  <conditionalFormatting sqref="A3:B201">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
@@ -15142,8 +15661,14 @@
     <hyperlink r:id="rId8" ref="H104"/>
     <hyperlink r:id="rId9" ref="H105"/>
     <hyperlink r:id="rId10" ref="H106"/>
+    <hyperlink r:id="rId11" ref="H145"/>
+    <hyperlink r:id="rId12" ref="H146"/>
+    <hyperlink r:id="rId13" ref="H161"/>
+    <hyperlink r:id="rId14" ref="H163"/>
+    <hyperlink r:id="rId15" ref="H167"/>
+    <hyperlink r:id="rId16" ref="H191"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -15165,7 +15690,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -15201,7 +15726,7 @@
         <v>392</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>808</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3">
@@ -15212,14 +15737,14 @@
         <v>423</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>809</v>
+        <v>836</v>
       </c>
       <c r="D3" s="57"/>
       <c r="E3" s="35" t="s">
-        <v>810</v>
+        <v>837</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>811</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4">
@@ -15230,14 +15755,14 @@
         <v>423</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>809</v>
+        <v>836</v>
       </c>
       <c r="D4" s="57"/>
       <c r="E4" s="35" t="s">
-        <v>812</v>
+        <v>839</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>813</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5">
@@ -15257,211 +15782,211 @@
         <v>475</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>814</v>
-      </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
+        <v>841</v>
+      </c>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>815</v>
+        <v>842</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>816</v>
+        <v>843</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>817</v>
+        <v>844</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>818</v>
+        <v>845</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>819</v>
+        <v>846</v>
       </c>
       <c r="F6" s="35"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="127"/>
-      <c r="Y6" s="127"/>
-      <c r="Z6" s="127"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="128"/>
+      <c r="T6" s="128"/>
+      <c r="U6" s="128"/>
+      <c r="V6" s="128"/>
+      <c r="W6" s="128"/>
+      <c r="X6" s="128"/>
+      <c r="Y6" s="128"/>
+      <c r="Z6" s="128"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>820</v>
+        <v>847</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>821</v>
+        <v>848</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>822</v>
+        <v>849</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>823</v>
+        <v>850</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>824</v>
+        <v>851</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>825</v>
+        <v>852</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>826</v>
+        <v>853</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>827</v>
+        <v>854</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="72" t="s">
-        <v>828</v>
+        <v>855</v>
       </c>
       <c r="F8" s="72" t="s">
-        <v>829</v>
+        <v>856</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="82" t="s">
-        <v>830</v>
+        <v>857</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>831</v>
+        <v>858</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="D9" s="82"/>
       <c r="E9" s="82" t="s">
-        <v>832</v>
+        <v>859</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>829</v>
+        <v>856</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>833</v>
+        <v>860</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>834</v>
-      </c>
-      <c r="C10" s="128" t="s">
-        <v>835</v>
+        <v>861</v>
+      </c>
+      <c r="C10" s="129" t="s">
+        <v>862</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="72" t="s">
-        <v>836</v>
+        <v>863</v>
       </c>
       <c r="F10" s="72" t="s">
-        <v>837</v>
+        <v>864</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>838</v>
+        <v>865</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>840</v>
+        <v>867</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>841</v>
+        <v>868</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>842</v>
+        <v>869</v>
       </c>
       <c r="F11" s="72" t="s">
-        <v>843</v>
+        <v>870</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="81" t="s">
-        <v>844</v>
+        <v>871</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D12" s="81" t="s">
         <v>411</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>846</v>
-      </c>
-      <c r="F12" s="129" t="s">
-        <v>847</v>
+        <v>873</v>
+      </c>
+      <c r="F12" s="130" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>848</v>
+        <v>875</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>849</v>
+        <v>876</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="72" t="s">
-        <v>850</v>
-      </c>
-      <c r="F13" s="130" t="s">
-        <v>851</v>
+        <v>877</v>
+      </c>
+      <c r="F13" s="131" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="120" t="s">
-        <v>852</v>
-      </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
+      <c r="A14" s="123" t="s">
+        <v>879</v>
+      </c>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
       <c r="D14" s="57" t="s">
-        <v>853</v>
+        <v>880</v>
       </c>
       <c r="E14" s="72" t="s">
-        <v>854</v>
-      </c>
-      <c r="F14" s="130" t="s">
-        <v>855</v>
+        <v>881</v>
+      </c>
+      <c r="F14" s="131" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="15">
@@ -19442,108 +19967,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="131" t="s">
-        <v>856</v>
-      </c>
-      <c r="B2" s="132" t="s">
-        <v>857</v>
+      <c r="A2" s="132" t="s">
+        <v>883</v>
+      </c>
+      <c r="B2" s="133" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="133" t="s">
-        <v>858</v>
-      </c>
-      <c r="B3" s="132" t="s">
-        <v>859</v>
+      <c r="A3" s="134" t="s">
+        <v>885</v>
+      </c>
+      <c r="B3" s="133" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="134" t="s">
-        <v>860</v>
+      <c r="A4" s="135" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="135" t="s">
-        <v>861</v>
-      </c>
-      <c r="B6" s="132" t="s">
-        <v>862</v>
+      <c r="A6" s="136" t="s">
+        <v>888</v>
+      </c>
+      <c r="B6" s="133" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="132" t="s">
-        <v>863</v>
+      <c r="B7" s="133" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="132"/>
+      <c r="B8" s="133"/>
     </row>
     <row r="9">
-      <c r="B9" s="132"/>
+      <c r="B9" s="133"/>
     </row>
     <row r="10">
-      <c r="A10" s="135" t="s">
-        <v>864</v>
+      <c r="A10" s="136" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="135" t="s">
-        <v>865</v>
-      </c>
-      <c r="B11" s="136" t="s">
-        <v>866</v>
+      <c r="A11" s="136" t="s">
+        <v>892</v>
+      </c>
+      <c r="B11" s="137" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="137" t="s">
-        <v>867</v>
+      <c r="B12" s="138" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="138"/>
-      <c r="B13" s="139" t="s">
-        <v>868</v>
+      <c r="A13" s="139"/>
+      <c r="B13" s="140" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="140" t="s">
-        <v>869</v>
+      <c r="B14" s="141" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="141" t="s">
-        <v>870</v>
+      <c r="B15" s="142" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="142" t="s">
-        <v>871</v>
+      <c r="B16" s="143" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="135"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="135" t="s">
-        <v>872</v>
-      </c>
-      <c r="B18" s="143" t="s">
-        <v>873</v>
+      <c r="A18" s="136" t="s">
+        <v>899</v>
+      </c>
+      <c r="B18" s="144" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>874</v>
-      </c>
-      <c r="B19" s="144"/>
+        <v>901</v>
+      </c>
+      <c r="B19" s="145"/>
     </row>
     <row r="21">
-      <c r="A21" s="135" t="s">
-        <v>875</v>
-      </c>
-      <c r="B21" s="145" t="s">
-        <v>876</v>
+      <c r="A21" s="136" t="s">
+        <v>902</v>
+      </c>
+      <c r="B21" s="146" t="s">
+        <v>903</v>
       </c>
     </row>
   </sheetData>
@@ -19568,48 +20093,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="135" t="s">
-        <v>877</v>
+      <c r="A1" s="136" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="146" t="s">
-        <v>878</v>
+      <c r="A2" s="147" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="132" t="s">
-        <v>879</v>
+      <c r="A3" s="133" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="146" t="s">
-        <v>880</v>
+      <c r="A4" s="147" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="132" t="s">
-        <v>881</v>
+      <c r="A5" s="133" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="132" t="s">
-        <v>882</v>
+      <c r="A6" s="133" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="132" t="s">
-        <v>883</v>
+      <c r="A7" s="133" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="146" t="s">
-        <v>884</v>
+      <c r="A8" s="147" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="132" t="s">
-        <v>885</v>
+      <c r="A9" s="133" t="s">
+        <v>912</v>
       </c>
     </row>
   </sheetData>
@@ -19635,48 +20160,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="B1" s="147" t="s">
-        <v>886</v>
+        <v>904</v>
+      </c>
+      <c r="B1" s="148" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="148" t="s">
-        <v>887</v>
+      <c r="A2" s="149" t="s">
+        <v>914</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>888</v>
+        <v>915</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>889</v>
+        <v>916</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>890</v>
+        <v>917</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>891</v>
+        <v>918</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>892</v>
+        <v>919</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>893</v>
+        <v>920</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>894</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -19695,7 +20220,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="136"/>
+      <c r="A1" s="137"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -19719,40 +20244,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="149" t="s">
-        <v>895</v>
-      </c>
-      <c r="C1" s="149" t="s">
-        <v>896</v>
-      </c>
-      <c r="E1" s="150" t="s">
+      <c r="A1" s="150" t="s">
+        <v>922</v>
+      </c>
+      <c r="C1" s="150" t="s">
+        <v>923</v>
+      </c>
+      <c r="E1" s="151" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>897</v>
+        <v>924</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>898</v>
+        <v>925</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>899</v>
+        <v>926</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>900</v>
+        <v>927</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>901</v>
+        <v>928</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>902</v>
+        <v>929</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>903</v>
+        <v>930</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -19762,13 +20287,13 @@
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>904</v>
+        <v>931</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>902</v>
+        <v>929</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>903</v>
+        <v>930</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -19778,287 +20303,287 @@
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
-        <v>905</v>
+        <v>932</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>906</v>
+        <v>933</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>903</v>
+        <v>930</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>907</v>
+        <v>934</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>908</v>
+        <v>935</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>909</v>
+        <v>936</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>910</v>
+        <v>937</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>903</v>
+        <v>930</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>911</v>
+        <v>938</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>912</v>
+        <v>939</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>913</v>
+        <v>940</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>914</v>
+        <v>941</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>903</v>
+        <v>930</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>915</v>
+        <v>942</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>916</v>
+        <v>943</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>917</v>
+        <v>944</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>918</v>
+        <v>945</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>903</v>
+        <v>930</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>919</v>
+        <v>946</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>920</v>
+        <v>947</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="151" t="s">
-        <v>921</v>
-      </c>
-      <c r="B9" s="152" t="s">
-        <v>922</v>
-      </c>
-      <c r="C9" s="152" t="s">
-        <v>903</v>
-      </c>
-      <c r="D9" s="152" t="s">
-        <v>923</v>
-      </c>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="152"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="152"/>
-      <c r="Y9" s="152"/>
-      <c r="Z9" s="152"/>
+      <c r="A9" s="152" t="s">
+        <v>948</v>
+      </c>
+      <c r="B9" s="153" t="s">
+        <v>949</v>
+      </c>
+      <c r="C9" s="153" t="s">
+        <v>930</v>
+      </c>
+      <c r="D9" s="153" t="s">
+        <v>950</v>
+      </c>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="153"/>
+      <c r="R9" s="153"/>
+      <c r="S9" s="153"/>
+      <c r="T9" s="153"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="153"/>
+      <c r="W9" s="153"/>
+      <c r="X9" s="153"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="153"/>
     </row>
     <row r="10">
-      <c r="A10" s="151" t="s">
-        <v>924</v>
-      </c>
-      <c r="B10" s="152" t="s">
-        <v>922</v>
-      </c>
-      <c r="C10" s="152" t="s">
-        <v>903</v>
-      </c>
-      <c r="D10" s="152" t="s">
-        <v>925</v>
-      </c>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="153"/>
+      <c r="A10" s="152" t="s">
+        <v>951</v>
+      </c>
+      <c r="B10" s="153" t="s">
+        <v>949</v>
+      </c>
+      <c r="C10" s="153" t="s">
+        <v>930</v>
+      </c>
+      <c r="D10" s="153" t="s">
+        <v>952</v>
+      </c>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="154"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="154"/>
+      <c r="U10" s="154"/>
+      <c r="V10" s="154"/>
+      <c r="W10" s="154"/>
+      <c r="X10" s="154"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="154"/>
     </row>
     <row r="11">
-      <c r="A11" s="151" t="s">
-        <v>926</v>
-      </c>
-      <c r="B11" s="152" t="s">
-        <v>927</v>
-      </c>
-      <c r="C11" s="152" t="s">
-        <v>903</v>
-      </c>
-      <c r="D11" s="152" t="s">
-        <v>928</v>
-      </c>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="153"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="153"/>
-      <c r="T11" s="153"/>
-      <c r="U11" s="153"/>
-      <c r="V11" s="153"/>
-      <c r="W11" s="153"/>
-      <c r="X11" s="153"/>
-      <c r="Y11" s="153"/>
-      <c r="Z11" s="153"/>
+      <c r="A11" s="152" t="s">
+        <v>953</v>
+      </c>
+      <c r="B11" s="153" t="s">
+        <v>954</v>
+      </c>
+      <c r="C11" s="153" t="s">
+        <v>930</v>
+      </c>
+      <c r="D11" s="153" t="s">
+        <v>955</v>
+      </c>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="154"/>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="154"/>
+      <c r="R11" s="154"/>
+      <c r="S11" s="154"/>
+      <c r="T11" s="154"/>
+      <c r="U11" s="154"/>
+      <c r="V11" s="154"/>
+      <c r="W11" s="154"/>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="154"/>
+      <c r="Z11" s="154"/>
     </row>
     <row r="12">
-      <c r="A12" s="151" t="s">
-        <v>929</v>
-      </c>
-      <c r="B12" s="152" t="s">
-        <v>927</v>
-      </c>
-      <c r="C12" s="152" t="s">
-        <v>903</v>
-      </c>
-      <c r="D12" s="152" t="s">
+      <c r="A12" s="152" t="s">
+        <v>956</v>
+      </c>
+      <c r="B12" s="153" t="s">
+        <v>954</v>
+      </c>
+      <c r="C12" s="153" t="s">
         <v>930</v>
       </c>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="153"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="153"/>
-      <c r="X12" s="153"/>
-      <c r="Y12" s="153"/>
-      <c r="Z12" s="153"/>
+      <c r="D12" s="153" t="s">
+        <v>957</v>
+      </c>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="154"/>
+      <c r="P12" s="154"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="154"/>
+      <c r="S12" s="154"/>
+      <c r="T12" s="154"/>
+      <c r="U12" s="154"/>
+      <c r="V12" s="154"/>
+      <c r="W12" s="154"/>
+      <c r="X12" s="154"/>
+      <c r="Y12" s="154"/>
+      <c r="Z12" s="154"/>
     </row>
     <row r="13">
-      <c r="A13" s="151" t="s">
-        <v>931</v>
-      </c>
-      <c r="B13" s="151" t="s">
-        <v>906</v>
-      </c>
-      <c r="C13" s="152" t="s">
-        <v>903</v>
-      </c>
-      <c r="D13" s="152" t="s">
-        <v>932</v>
-      </c>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="153"/>
-      <c r="T13" s="153"/>
-      <c r="U13" s="153"/>
-      <c r="V13" s="153"/>
-      <c r="W13" s="153"/>
-      <c r="X13" s="153"/>
-      <c r="Y13" s="153"/>
-      <c r="Z13" s="153"/>
+      <c r="A13" s="152" t="s">
+        <v>958</v>
+      </c>
+      <c r="B13" s="152" t="s">
+        <v>933</v>
+      </c>
+      <c r="C13" s="153" t="s">
+        <v>930</v>
+      </c>
+      <c r="D13" s="153" t="s">
+        <v>959</v>
+      </c>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
+      <c r="N13" s="154"/>
+      <c r="O13" s="154"/>
+      <c r="P13" s="154"/>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="154"/>
+      <c r="S13" s="154"/>
+      <c r="T13" s="154"/>
+      <c r="U13" s="154"/>
+      <c r="V13" s="154"/>
+      <c r="W13" s="154"/>
+      <c r="X13" s="154"/>
+      <c r="Y13" s="154"/>
+      <c r="Z13" s="154"/>
     </row>
     <row r="14">
-      <c r="A14" s="151" t="s">
+      <c r="A14" s="152" t="s">
+        <v>960</v>
+      </c>
+      <c r="B14" s="152" t="s">
         <v>933</v>
       </c>
-      <c r="B14" s="151" t="s">
-        <v>906</v>
-      </c>
-      <c r="C14" s="152" t="s">
-        <v>903</v>
-      </c>
-      <c r="D14" s="152" t="s">
-        <v>934</v>
-      </c>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="153"/>
-      <c r="T14" s="153"/>
-      <c r="U14" s="153"/>
-      <c r="V14" s="153"/>
-      <c r="W14" s="153"/>
-      <c r="X14" s="153"/>
-      <c r="Y14" s="153"/>
-      <c r="Z14" s="153"/>
+      <c r="C14" s="153" t="s">
+        <v>930</v>
+      </c>
+      <c r="D14" s="153" t="s">
+        <v>961</v>
+      </c>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="154"/>
+      <c r="O14" s="154"/>
+      <c r="P14" s="154"/>
+      <c r="Q14" s="154"/>
+      <c r="R14" s="154"/>
+      <c r="S14" s="154"/>
+      <c r="T14" s="154"/>
+      <c r="U14" s="154"/>
+      <c r="V14" s="154"/>
+      <c r="W14" s="154"/>
+      <c r="X14" s="154"/>
+      <c r="Y14" s="154"/>
+      <c r="Z14" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -20086,52 +20611,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="154" t="s">
-        <v>895</v>
+      <c r="A1" s="155" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="135" t="s">
-        <v>897</v>
-      </c>
-      <c r="B2" s="135" t="s">
-        <v>898</v>
-      </c>
-      <c r="C2" s="135" t="s">
-        <v>899</v>
-      </c>
-      <c r="D2" s="135" t="s">
-        <v>900</v>
+      <c r="A2" s="136" t="s">
+        <v>924</v>
+      </c>
+      <c r="B2" s="136" t="s">
+        <v>925</v>
+      </c>
+      <c r="C2" s="136" t="s">
+        <v>926</v>
+      </c>
+      <c r="D2" s="136" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="132" t="s">
-        <v>935</v>
-      </c>
-      <c r="B3" s="132" t="s">
-        <v>936</v>
+      <c r="A3" s="133" t="s">
+        <v>962</v>
+      </c>
+      <c r="B3" s="133" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="132" t="s">
-        <v>937</v>
-      </c>
-      <c r="B4" s="132" t="s">
-        <v>938</v>
+      <c r="A4" s="133" t="s">
+        <v>964</v>
+      </c>
+      <c r="B4" s="133" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="132" t="s">
-        <v>939</v>
-      </c>
-      <c r="B5" s="132" t="s">
-        <v>940</v>
-      </c>
-      <c r="C5" s="155" t="s">
-        <v>938</v>
-      </c>
-      <c r="D5" s="132" t="s">
-        <v>941</v>
+      <c r="A5" s="133" t="s">
+        <v>966</v>
+      </c>
+      <c r="B5" s="133" t="s">
+        <v>967</v>
+      </c>
+      <c r="C5" s="156" t="s">
+        <v>965</v>
+      </c>
+      <c r="D5" s="133" t="s">
+        <v>968</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F01/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F01/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.1.1-TDAbeta.1</t>
+    <t>2.1.2-alpha.1</t>
   </si>
   <si>
     <r>

--- a/mappings/package_F01/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F01/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="987">
   <si>
     <t>Field</t>
   </si>
@@ -670,9 +670,6 @@
     <t>BT-502</t>
   </si>
   <si>
-    <t>Organisation Contact Point</t>
-  </si>
-  <si>
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/CONTACT_POINT</t>
   </si>
   <si>
@@ -1303,6 +1300,9 @@
     </r>
   </si>
   <si>
+    <t>Organisation Contact Point</t>
+  </si>
+  <si>
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/CONTACT_POINT</t>
   </si>
   <si>
@@ -3259,12 +3259,6 @@
     <t>OBJECT_CONTRACT</t>
   </si>
   <si>
-    <t>epo:Notice / epo:Lot</t>
-  </si>
-  <si>
-    <t>?this epo:refersToLot ?value .</t>
-  </si>
-  <si>
     <t>epo:Procedure / epo:Lot</t>
   </si>
   <si>
@@ -3844,6 +3838,10 @@
     </r>
   </si>
   <si>
+    <t>Mapping in EPO 4.0.0:
+epo:AwardCriterion epo:awardCriteriaStatedInProcurementDocuments true .</t>
+  </si>
+  <si>
     <t>II.2.6</t>
   </si>
   <si>
@@ -4016,6 +4014,9 @@
     <t>Renewal Maximum</t>
   </si>
   <si>
+    <t>II.2.7.5.1</t>
+  </si>
+  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/RENEWAL</t>
   </si>
   <si>
@@ -4023,6 +4024,9 @@
   </si>
   <si>
     <t>?this epo:foreseesContractSpecificTerm / epo:isRenewalIndicator true .</t>
+  </si>
+  <si>
+    <t>II.2.7.5.2</t>
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_RENEWAL</t>
@@ -4478,6 +4482,16 @@
     </r>
   </si>
   <si>
+    <t>epo:Procedure / epo:ProfessionalSuitabilitySummary</t>
+  </si>
+  <si>
+    <t>?this epo:specifiesProcurementCriteriaSummary ?value.</t>
+  </si>
+  <si>
+    <t>Should not be mapped to EPO 3.1.0, as the information is provided for Procedure in Standard forms. Only in eForms it is provided per lot
+Check EPO 4.0.0 class and instance diagrams for mappings.</t>
+  </si>
+  <si>
     <t>III.1.1.1</t>
   </si>
   <si>
@@ -4499,6 +4513,12 @@
     <t>?this epo:specifiesSelectionCriterion / ccev:description ?value .</t>
   </si>
   <si>
+    <t>epo:ProfessionalSuitabilitySummary / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:hasQualificationCondition ?value .</t>
+  </si>
+  <si>
     <t>III.1.2</t>
   </si>
   <si>
@@ -4511,9 +4531,7 @@
     <t>Selection Criteria Type</t>
   </si>
   <si>
-    <t>LEFTI/ECONOMIC_CRITERIA_DOC
-LEFTI/ECONOMIC_FINANCIAL_INFO
-LEFTI/ECONOMIC_FINANCIAL_MIN_LEVEL</t>
+    <t>LEFTI/ECONOMIC_CRITERIA_DOC</t>
   </si>
   <si>
     <r>
@@ -4540,13 +4558,22 @@
     </r>
   </si>
   <si>
+    <t>epo:Procedure / epo:EconomicStandingSummary</t>
+  </si>
+  <si>
     <t>III.1.2.1</t>
   </si>
   <si>
     <t>Selection criteria as stated in the procurement documents</t>
   </si>
   <si>
-    <t>LEFTI/ECONOMIC_CRITERIA_DOC</t>
+    <t>epo:EconomicStandingSummary / xsd:boolean</t>
+  </si>
+  <si>
+    <t>?this epo:hasSelectionCriteriaStatedInProcurementDocuments true .</t>
+  </si>
+  <si>
+    <t>Check EPO 4.0.0 class and instance diagrams for mappings.</t>
   </si>
   <si>
     <t>III.1.2.2</t>
@@ -4558,6 +4585,9 @@
     <t>LEFTI/ECONOMIC_FINANCIAL_INFO</t>
   </si>
   <si>
+    <t>epo:EconomicStandingSummary / rdf:langString</t>
+  </si>
+  <si>
     <t>III.1.2.3</t>
   </si>
   <si>
@@ -4573,15 +4603,16 @@
     <t>?this epo:specifiesSelectionCriterion / epo:hasConstraint / cccev:constrains / epo:hasDescription ?value .</t>
   </si>
   <si>
+    <t>?this epo:describesMinimumLevelOfStandards ?value .</t>
+  </si>
+  <si>
     <t>III.1.3</t>
   </si>
   <si>
     <t>Technical and professional ability</t>
   </si>
   <si>
-    <t>LEFTI/TECHNICAL_CRITERIA_DOC
-LEFTI/TECHNICAL_PROFESSIONAL_INFO
-LEFTI/TECHNICAL_PROFESSIONAL_MIN_LEVEL</t>
+    <t>LEFTI/TECHNICAL_CRITERIA_DOC</t>
   </si>
   <si>
     <r>
@@ -4608,16 +4639,22 @@
     </r>
   </si>
   <si>
+    <t>epo:Procedure / epo:TechnicalAbilitySummary</t>
+  </si>
+  <si>
     <t>III.1.3.1</t>
   </si>
   <si>
-    <t>LEFTI/TECHNICAL_CRITERIA_DOC</t>
+    <t>epo:TechnicalAbilitySummary / xsd:boolean</t>
   </si>
   <si>
     <t>III.1.3.2</t>
   </si>
   <si>
     <t>LEFTI/TECHNICAL_PROFESSIONAL_INFO</t>
+  </si>
+  <si>
+    <t>epo:TechnicalAbilitySummary / rdf:langString</t>
   </si>
   <si>
     <t>III.1.3.3</t>
@@ -4684,6 +4721,12 @@
     <t>LEFTI/PARTICULAR_PROFESSION</t>
   </si>
   <si>
+    <t>epo:Procedure / epo:ProfessionalSuitabilitySummary / xsd:boolean</t>
+  </si>
+  <si>
+    <t>?this epo:specifiesProcurementCriteriaSummary / epo:hasServiceReservedToParticularProfession true .</t>
+  </si>
+  <si>
     <t>III.2.1.2</t>
   </si>
   <si>
@@ -4694,6 +4737,26 @@
   </si>
   <si>
     <t>LEFTI/REFERENCE_TO_LAW</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">[gen_language_tags_exist.ask.rq]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>epo:Procedure / epo:ProfessionalSuitabilitySummary / rdf:langString</t>
+    </r>
+  </si>
+  <si>
+    <t>?this specifiesProcurementCriteriaSummary  / epo:describesProfessionRelevantLaw?value .</t>
   </si>
   <si>
     <t>III.2.2</t>
@@ -4844,6 +4907,10 @@
     <t>PROCEDURE/FRAMEWORK/SINGLE_OPERATOR</t>
   </si>
   <si>
+    <t xml:space="preserve">We likely need a dedicated property for this, in EPO 4.0.0
+</t>
+  </si>
+  <si>
     <t>IV.1.3.1.2</t>
   </si>
   <si>
@@ -4896,7 +4963,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>?this</t>
     </r>
@@ -4904,7 +4970,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:usesTechnique ?value .</t>
     </r>
@@ -5769,7 +5834,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -5893,6 +5958,17 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FFB7B7B7"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -5936,7 +6012,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6011,8 +6087,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -6112,7 +6200,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="169">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6185,11 +6273,11 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -6199,6 +6287,9 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -6219,6 +6310,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -6321,9 +6415,6 @@
     <xf borderId="0" fillId="11" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -6332,6 +6423,9 @@
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -6429,13 +6523,22 @@
     <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="13" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6450,68 +6553,89 @@
     <xf borderId="0" fillId="8" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6535,13 +6659,13 @@
     <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6553,23 +6677,23 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -10022,25 +10146,25 @@
       <c r="D2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="31" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="33" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="28"/>
@@ -10060,27 +10184,27 @@
       <c r="Z2" s="28"/>
     </row>
     <row r="3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="36"/>
+      <c r="K3" s="36" t="s">
         <v>49</v>
       </c>
       <c r="L3" s="28"/>
@@ -10092,25 +10216,25 @@
       <c r="R3" s="28"/>
     </row>
     <row r="4">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="7" t="s">
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="39" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="28"/>
@@ -10122,20 +10246,20 @@
       <c r="R4" s="28"/>
     </row>
     <row r="5">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
       <c r="K5" s="7"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -10146,20 +10270,20 @@
       <c r="R5" s="28"/>
     </row>
     <row r="6">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
       <c r="K6" s="7"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -10170,26 +10294,26 @@
       <c r="R6" s="28"/>
     </row>
     <row r="7">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="41" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="36"/>
+      <c r="G7" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
       <c r="K7" s="7"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
@@ -10200,26 +10324,26 @@
       <c r="R7" s="28"/>
     </row>
     <row r="8">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="41" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="7"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
@@ -10230,32 +10354,32 @@
       <c r="R8" s="28"/>
     </row>
     <row r="9">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43" t="s">
+      <c r="F9" s="45"/>
+      <c r="G9" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="36"/>
       <c r="K9" s="7"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -10266,32 +10390,32 @@
       <c r="R9" s="28"/>
     </row>
     <row r="10">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44" t="s">
+      <c r="F10" s="46"/>
+      <c r="G10" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="36"/>
       <c r="K10" s="7"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
@@ -10302,10 +10426,10 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -10314,18 +10438,18 @@
       <c r="D11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="36"/>
+      <c r="G11" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
       <c r="K11" s="7"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
@@ -10336,10 +10460,10 @@
       <c r="R11" s="28"/>
     </row>
     <row r="12">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="48" t="s">
         <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -10348,18 +10472,18 @@
       <c r="D12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="36"/>
+      <c r="G12" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="7"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
@@ -10370,32 +10494,32 @@
       <c r="R12" s="28"/>
     </row>
     <row r="13">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
       <c r="K13" s="7"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
@@ -10406,10 +10530,10 @@
       <c r="R13" s="28"/>
     </row>
     <row r="14">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="48" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -10418,18 +10542,18 @@
       <c r="D14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="36"/>
+      <c r="G14" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="7"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
@@ -10440,30 +10564,30 @@
       <c r="R14" s="28"/>
     </row>
     <row r="15">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43" t="s">
+      <c r="F15" s="45"/>
+      <c r="G15" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="7"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
@@ -10474,32 +10598,32 @@
       <c r="R15" s="28"/>
     </row>
     <row r="16">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="48" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="36"/>
+      <c r="G16" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="36" t="s">
+      <c r="H16" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="H16" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="7"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -10510,30 +10634,30 @@
       <c r="R16" s="28"/>
     </row>
     <row r="17">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="C17" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="36"/>
+      <c r="G17" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="7"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
@@ -10544,30 +10668,30 @@
       <c r="R17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="C18" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="36"/>
+      <c r="G18" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="36" t="s">
+      <c r="H18" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
       <c r="K18" s="7"/>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
@@ -10578,30 +10702,30 @@
       <c r="R18" s="28"/>
     </row>
     <row r="19">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="C19" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="36"/>
+      <c r="G19" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
       <c r="K19" s="7"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
@@ -10612,20 +10736,20 @@
       <c r="R19" s="28"/>
     </row>
     <row r="20">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="48" t="s">
         <v>141</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>142</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
       <c r="K20" s="7"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
@@ -10636,30 +10760,30 @@
       <c r="R20" s="28"/>
     </row>
     <row r="21">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="C21" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="D21" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="E21" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="F21" s="45"/>
+      <c r="G21" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
       <c r="K21" s="7"/>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
@@ -10670,30 +10794,30 @@
       <c r="R21" s="28"/>
     </row>
     <row r="22">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="C22" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="36"/>
+      <c r="G22" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
       <c r="K22" s="7"/>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
@@ -10704,103 +10828,103 @@
       <c r="R22" s="28"/>
     </row>
     <row r="23">
-      <c r="A23" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
     </row>
     <row r="24">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="41" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="43" t="s">
+      <c r="F25" s="45"/>
+      <c r="G25" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="55"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
@@ -10810,33 +10934,33 @@
       <c r="R25" s="28"/>
     </row>
     <row r="26">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="55"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="57"/>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
       <c r="N26" s="28"/>
@@ -10846,10 +10970,10 @@
       <c r="R26" s="28"/>
     </row>
     <row r="27">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -10858,18 +10982,18 @@
       <c r="D27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
       <c r="K27" s="7"/>
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
@@ -10880,10 +11004,10 @@
       <c r="R27" s="28"/>
     </row>
     <row r="28">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="48" t="s">
         <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -10892,18 +11016,18 @@
       <c r="D28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
       <c r="K28" s="7"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
@@ -10914,54 +11038,54 @@
       <c r="R28" s="28"/>
     </row>
     <row r="29">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="G29" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
     </row>
     <row r="30">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="48" t="s">
         <v>102</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -10970,18 +11094,18 @@
       <c r="D30" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H30" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
       <c r="K30" s="7"/>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
@@ -10992,31 +11116,31 @@
       <c r="R30" s="28"/>
     </row>
     <row r="31">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="H31" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="55"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="57"/>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
       <c r="N31" s="28"/>
@@ -11026,32 +11150,32 @@
       <c r="R31" s="28"/>
     </row>
     <row r="32">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="48" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32" s="47" t="s">
+      <c r="F32" s="36"/>
+      <c r="G32" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J32" s="36"/>
       <c r="K32" s="7"/>
       <c r="L32" s="28"/>
       <c r="M32" s="28"/>
@@ -11062,30 +11186,30 @@
       <c r="R32" s="28"/>
     </row>
     <row r="33">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="C33" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="H33" s="48" t="s">
+      <c r="F33" s="36"/>
+      <c r="G33" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
       <c r="K33" s="7"/>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
@@ -11096,30 +11220,30 @@
       <c r="R33" s="28"/>
     </row>
     <row r="34">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="C34" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="H34" s="47" t="s">
+      <c r="F34" s="36"/>
+      <c r="G34" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
       <c r="K34" s="7"/>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
@@ -11130,62 +11254,62 @@
       <c r="R34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="C35" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="H35" s="57" t="s">
+      <c r="F35" s="36"/>
+      <c r="G35" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
     </row>
     <row r="36">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="48" t="s">
         <v>141</v>
-      </c>
-      <c r="B36" s="46" t="s">
-        <v>142</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
       <c r="K36" s="7"/>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
@@ -11196,31 +11320,31 @@
       <c r="R36" s="28"/>
     </row>
     <row r="37">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="C37" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="D37" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="H37" s="60" t="s">
+      <c r="F37" s="61"/>
+      <c r="G37" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="55"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="57"/>
       <c r="L37" s="28"/>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
@@ -11230,29 +11354,29 @@
       <c r="R37" s="28"/>
     </row>
     <row r="38">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="C38" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H38" s="47" t="s">
+      <c r="F38" s="36"/>
+      <c r="G38" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="H38" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="I38" s="7"/>
+      <c r="I38" s="39"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="28"/>
@@ -11264,10 +11388,10 @@
       <c r="R38" s="28"/>
     </row>
     <row r="39">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="41" t="s">
         <v>186</v>
       </c>
       <c r="C39" s="4"/>
@@ -11276,7 +11400,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="7"/>
+      <c r="I39" s="39"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="28"/>
@@ -11288,67 +11412,67 @@
       <c r="R39" s="28"/>
     </row>
     <row r="40">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36" t="s">
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="36" t="s">
+      <c r="F40" s="45"/>
+      <c r="G40" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="H40" s="47" t="s">
+      <c r="H40" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="I40" s="7"/>
+      <c r="I40" s="39"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="54"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="56"/>
     </row>
     <row r="41">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36" t="s">
+      <c r="F41" s="37"/>
+      <c r="G41" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="H41" s="47" t="s">
+      <c r="H41" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="39" t="s">
         <v>199</v>
       </c>
       <c r="J41" s="7"/>
@@ -11362,25 +11486,25 @@
       <c r="R41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44" t="s">
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="4" t="s">
+      <c r="F42" s="45"/>
+      <c r="G42" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="H42" s="35" t="s">
+      <c r="H42" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="I42" s="7"/>
+      <c r="I42" s="39"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="28"/>
@@ -11392,24 +11516,24 @@
       <c r="R42" s="28"/>
     </row>
     <row r="43">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="41" t="s">
         <v>206</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="61" t="s">
+      <c r="E43" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="F43" s="61" t="s">
+      <c r="F43" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="G43" s="61" t="s">
+      <c r="G43" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="H43" s="61" t="s">
+      <c r="H43" s="63" t="s">
         <v>210</v>
       </c>
       <c r="I43" s="7"/>
@@ -11424,24 +11548,24 @@
       <c r="R43" s="28"/>
     </row>
     <row r="44">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47" t="s">
+      <c r="D44" s="49"/>
+      <c r="E44" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47" t="s">
+      <c r="F44" s="49"/>
+      <c r="G44" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="H44" s="47" t="s">
+      <c r="H44" s="49" t="s">
         <v>216</v>
       </c>
       <c r="I44" s="7"/>
@@ -11456,26 +11580,26 @@
       <c r="R44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47" t="s">
+      <c r="D45" s="49"/>
+      <c r="E45" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="F45" s="47" t="s">
+      <c r="F45" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="G45" s="47" t="s">
+      <c r="G45" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="H45" s="47" t="s">
+      <c r="H45" s="49" t="s">
         <v>223</v>
       </c>
       <c r="I45" s="7"/>
@@ -11490,24 +11614,24 @@
       <c r="R45" s="28"/>
     </row>
     <row r="46">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57" t="s">
+      <c r="D46" s="59"/>
+      <c r="E46" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57" t="s">
+      <c r="F46" s="59"/>
+      <c r="G46" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="H46" s="63" t="s">
+      <c r="H46" s="65" t="s">
         <v>227</v>
       </c>
       <c r="I46" s="7"/>
@@ -11522,26 +11646,26 @@
       <c r="R46" s="28"/>
     </row>
     <row r="47">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="40" t="s">
+      <c r="D47" s="49"/>
+      <c r="E47" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F47" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="G47" s="47" t="s">
+      <c r="G47" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="H47" s="47" t="s">
+      <c r="H47" s="49" t="s">
         <v>232</v>
       </c>
       <c r="I47" s="4"/>
@@ -11556,16 +11680,16 @@
       <c r="R47" s="28"/>
     </row>
     <row r="48">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -11580,10 +11704,10 @@
       <c r="R48" s="28"/>
     </row>
     <row r="49">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="54" t="s">
         <v>236</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -11594,50 +11718,50 @@
         <v>238</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="61" t="s">
+      <c r="G49" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="H49" s="61" t="s">
+      <c r="H49" s="63" t="s">
         <v>61</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="54"/>
-      <c r="U49" s="54"/>
-      <c r="V49" s="54"/>
-      <c r="W49" s="54"/>
-      <c r="X49" s="54"/>
-      <c r="Y49" s="54"/>
-      <c r="Z49" s="54"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
     </row>
     <row r="50">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="D50" s="66"/>
-      <c r="E50" s="67" t="s">
+      <c r="D50" s="68"/>
+      <c r="E50" s="69" t="s">
         <v>238</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="61" t="s">
+      <c r="G50" s="63" t="s">
         <v>239</v>
       </c>
-      <c r="H50" s="61" t="s">
+      <c r="H50" s="63" t="s">
         <v>240</v>
       </c>
       <c r="I50" s="7"/>
@@ -11652,10 +11776,10 @@
       <c r="R50" s="28"/>
     </row>
     <row r="51">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="54" t="s">
         <v>242</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -11666,15 +11790,15 @@
         <v>243</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="68" t="s">
+      <c r="G51" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="68" t="s">
+      <c r="H51" s="70" t="s">
         <v>61</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
-      <c r="K51" s="55"/>
+      <c r="K51" s="57"/>
       <c r="L51" s="28"/>
       <c r="M51" s="28"/>
       <c r="N51" s="28"/>
@@ -11684,10 +11808,10 @@
       <c r="R51" s="28"/>
     </row>
     <row r="52">
-      <c r="A52" s="69" t="s">
+      <c r="A52" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="B52" s="70" t="s">
+      <c r="B52" s="72" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -11700,13 +11824,13 @@
         <v>245</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="68" t="s">
+      <c r="G52" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H52" s="71" t="s">
+      <c r="H52" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="I52" s="72" t="s">
+      <c r="I52" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J52" s="7"/>
@@ -11720,29 +11844,29 @@
       <c r="R52" s="28"/>
     </row>
     <row r="53">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="71" t="s">
         <v>247</v>
       </c>
-      <c r="B53" s="70" t="s">
+      <c r="B53" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="57" t="s">
+      <c r="D53" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="47" t="s">
+      <c r="E53" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="F53" s="47"/>
-      <c r="G53" s="68" t="s">
+      <c r="F53" s="49"/>
+      <c r="G53" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="H53" s="71" t="s">
+      <c r="H53" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="I53" s="72" t="s">
+      <c r="I53" s="39" t="s">
         <v>79</v>
       </c>
       <c r="J53" s="7"/>
@@ -11756,10 +11880,10 @@
       <c r="R53" s="28"/>
     </row>
     <row r="54">
-      <c r="A54" s="69" t="s">
+      <c r="A54" s="71" t="s">
         <v>250</v>
       </c>
-      <c r="B54" s="70" t="s">
+      <c r="B54" s="72" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -11772,10 +11896,10 @@
         <v>251</v>
       </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="73" t="s">
+      <c r="G54" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="H54" s="74" t="s">
+      <c r="H54" s="75" t="s">
         <v>252</v>
       </c>
       <c r="I54" s="7"/>
@@ -11790,10 +11914,10 @@
       <c r="R54" s="28"/>
     </row>
     <row r="55">
-      <c r="A55" s="69" t="s">
+      <c r="A55" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="72" t="s">
         <v>88</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -11806,10 +11930,10 @@
         <v>254</v>
       </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="73" t="s">
+      <c r="G55" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="H55" s="74" t="s">
+      <c r="H55" s="75" t="s">
         <v>255</v>
       </c>
       <c r="I55" s="7"/>
@@ -11824,28 +11948,28 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56">
-      <c r="A56" s="69" t="s">
+      <c r="A56" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="B56" s="70" t="s">
+      <c r="B56" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="47" t="s">
+      <c r="D56" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="F56" s="35" t="s">
+      <c r="F56" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="G56" s="68" t="s">
+      <c r="G56" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="H56" s="71" t="s">
+      <c r="H56" s="73" t="s">
         <v>259</v>
       </c>
       <c r="I56" s="7"/>
@@ -11860,10 +11984,10 @@
       <c r="R56" s="28"/>
     </row>
     <row r="57">
-      <c r="A57" s="69" t="s">
+      <c r="A57" s="71" t="s">
         <v>260</v>
       </c>
-      <c r="B57" s="70" t="s">
+      <c r="B57" s="72" t="s">
         <v>102</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -11876,10 +12000,10 @@
         <v>261</v>
       </c>
       <c r="F57" s="4"/>
-      <c r="G57" s="68" t="s">
+      <c r="G57" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="H57" s="71" t="s">
+      <c r="H57" s="73" t="s">
         <v>262</v>
       </c>
       <c r="I57" s="7"/>
@@ -11894,10 +12018,10 @@
       <c r="R57" s="28"/>
     </row>
     <row r="58">
-      <c r="A58" s="69" t="s">
+      <c r="A58" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="B58" s="70" t="s">
+      <c r="B58" s="72" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -11910,10 +12034,10 @@
         <v>264</v>
       </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="68" t="s">
+      <c r="G58" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="H58" s="71" t="s">
+      <c r="H58" s="73" t="s">
         <v>265</v>
       </c>
       <c r="I58" s="7"/>
@@ -11928,29 +12052,29 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="69" t="s">
+      <c r="A59" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="B59" s="70" t="s">
+      <c r="B59" s="72" t="s">
         <v>116</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>267</v>
       </c>
       <c r="F59" s="4"/>
-      <c r="G59" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="H59" s="71" t="s">
+      <c r="G59" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="I59" s="72" t="s">
+      <c r="I59" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J59" s="7"/>
@@ -11964,26 +12088,26 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="69" t="s">
+      <c r="A60" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>270</v>
       </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="H60" s="71" t="s">
+      <c r="G60" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="H60" s="73" t="s">
         <v>271</v>
       </c>
       <c r="I60" s="7"/>
@@ -11998,26 +12122,26 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="69" t="s">
+      <c r="A61" s="71" t="s">
         <v>272</v>
       </c>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="H61" s="71" t="s">
+      <c r="G61" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="H61" s="73" t="s">
         <v>274</v>
       </c>
       <c r="I61" s="7"/>
@@ -12032,26 +12156,26 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="71" t="s">
         <v>275</v>
       </c>
-      <c r="B62" s="70" t="s">
+      <c r="B62" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F62" s="7"/>
-      <c r="G62" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="H62" s="71" t="s">
+      <c r="G62" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="H62" s="73" t="s">
         <v>277</v>
       </c>
       <c r="I62" s="7"/>
@@ -12066,11 +12190,11 @@
       <c r="R62" s="28"/>
     </row>
     <row r="63">
-      <c r="A63" s="69" t="s">
+      <c r="A63" s="71" t="s">
         <v>278</v>
       </c>
-      <c r="B63" s="70" t="s">
-        <v>142</v>
+      <c r="B63" s="72" t="s">
+        <v>141</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -12090,31 +12214,31 @@
       <c r="R63" s="28"/>
     </row>
     <row r="64">
-      <c r="A64" s="75" t="s">
+      <c r="A64" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="D64" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="D64" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E64" s="43" t="s">
+      <c r="E64" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="F64" s="43"/>
-      <c r="G64" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="H64" s="76" t="s">
+      <c r="F64" s="77"/>
+      <c r="G64" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="H64" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
       <c r="N64" s="28"/>
@@ -12124,10 +12248,10 @@
       <c r="R64" s="28"/>
     </row>
     <row r="65">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="48" t="s">
         <v>283</v>
       </c>
       <c r="C65" s="4"/>
@@ -12148,24 +12272,24 @@
       <c r="R65" s="28"/>
     </row>
     <row r="66">
-      <c r="A66" s="51" t="s">
+      <c r="A66" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="54" t="s">
         <v>285</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>286</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="61" t="s">
+      <c r="E66" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="F66" s="77"/>
-      <c r="G66" s="61" t="s">
+      <c r="F66" s="79"/>
+      <c r="G66" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="H66" s="61" t="s">
+      <c r="H66" s="63" t="s">
         <v>289</v>
       </c>
       <c r="I66" s="7"/>
@@ -12180,24 +12304,24 @@
       <c r="R66" s="28"/>
     </row>
     <row r="67">
-      <c r="A67" s="51" t="s">
+      <c r="A67" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="B67" s="52" t="s">
+      <c r="B67" s="54" t="s">
         <v>291</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="61" t="s">
+      <c r="E67" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="F67" s="77"/>
-      <c r="G67" s="61" t="s">
+      <c r="F67" s="79"/>
+      <c r="G67" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="H67" s="61" t="s">
+      <c r="H67" s="63" t="s">
         <v>61</v>
       </c>
       <c r="I67" s="7"/>
@@ -12212,27 +12336,27 @@
       <c r="R67" s="28"/>
     </row>
     <row r="68">
-      <c r="A68" s="78" t="s">
+      <c r="A68" s="80" t="s">
         <v>290</v>
       </c>
-      <c r="B68" s="79" t="s">
+      <c r="B68" s="81" t="s">
         <v>291</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="80" t="s">
+      <c r="E68" s="82" t="s">
         <v>293</v>
       </c>
-      <c r="F68" s="81"/>
-      <c r="G68" s="82" t="s">
+      <c r="F68" s="83"/>
+      <c r="G68" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="H68" s="82" t="s">
+      <c r="H68" s="84" t="s">
         <v>240</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="72" t="s">
+      <c r="K68" s="39" t="s">
         <v>294</v>
       </c>
       <c r="L68" s="28"/>
@@ -12244,24 +12368,24 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="53" t="s">
         <v>295</v>
       </c>
-      <c r="B69" s="52" t="s">
+      <c r="B69" s="54" t="s">
         <v>296</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D69" s="4"/>
-      <c r="E69" s="61" t="s">
+      <c r="E69" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="F69" s="77"/>
-      <c r="G69" s="61" t="s">
+      <c r="F69" s="79"/>
+      <c r="G69" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="H69" s="61" t="s">
+      <c r="H69" s="63" t="s">
         <v>61</v>
       </c>
       <c r="I69" s="7"/>
@@ -12276,29 +12400,29 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="69" t="s">
+      <c r="A70" s="71" t="s">
         <v>298</v>
       </c>
-      <c r="B70" s="70" t="s">
+      <c r="B70" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="E70" s="61" t="s">
+      <c r="E70" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="F70" s="77"/>
-      <c r="G70" s="61" t="s">
+      <c r="F70" s="79"/>
+      <c r="G70" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="H70" s="61" t="s">
+      <c r="H70" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="I70" s="72" t="s">
+      <c r="I70" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J70" s="7"/>
@@ -12312,29 +12436,29 @@
       <c r="R70" s="28"/>
     </row>
     <row r="71">
-      <c r="A71" s="69" t="s">
+      <c r="A71" s="71" t="s">
         <v>301</v>
       </c>
-      <c r="B71" s="70" t="s">
+      <c r="B71" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D71" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E71" s="61" t="s">
+      <c r="E71" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="F71" s="77"/>
-      <c r="G71" s="61" t="s">
+      <c r="F71" s="79"/>
+      <c r="G71" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="H71" s="61" t="s">
+      <c r="H71" s="63" t="s">
         <v>303</v>
       </c>
-      <c r="I71" s="72" t="s">
+      <c r="I71" s="39" t="s">
         <v>79</v>
       </c>
       <c r="J71" s="7"/>
@@ -12348,26 +12472,26 @@
       <c r="R71" s="28"/>
     </row>
     <row r="72">
-      <c r="A72" s="69" t="s">
+      <c r="A72" s="71" t="s">
         <v>304</v>
       </c>
-      <c r="B72" s="70" t="s">
+      <c r="B72" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="72" t="s">
+      <c r="C72" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="72" t="s">
+      <c r="D72" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="61" t="s">
+      <c r="E72" s="63" t="s">
         <v>305</v>
       </c>
-      <c r="F72" s="81"/>
-      <c r="G72" s="61" t="s">
+      <c r="F72" s="83"/>
+      <c r="G72" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="H72" s="61" t="s">
+      <c r="H72" s="63" t="s">
         <v>306</v>
       </c>
       <c r="I72" s="7"/>
@@ -12382,26 +12506,26 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="69" t="s">
+      <c r="A73" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="B73" s="70" t="s">
+      <c r="B73" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D73" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E73" s="61" t="s">
+      <c r="E73" s="63" t="s">
         <v>308</v>
       </c>
-      <c r="F73" s="81"/>
-      <c r="G73" s="61" t="s">
+      <c r="F73" s="83"/>
+      <c r="G73" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="H73" s="83" t="s">
+      <c r="H73" s="85" t="s">
         <v>309</v>
       </c>
       <c r="I73" s="7"/>
@@ -12416,28 +12540,28 @@
       <c r="R73" s="28"/>
     </row>
     <row r="74">
-      <c r="A74" s="69" t="s">
+      <c r="A74" s="71" t="s">
         <v>310</v>
       </c>
-      <c r="B74" s="70" t="s">
+      <c r="B74" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="61" t="s">
+      <c r="E74" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="F74" s="61" t="s">
+      <c r="F74" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="G74" s="61" t="s">
+      <c r="G74" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="H74" s="83" t="s">
+      <c r="H74" s="85" t="s">
         <v>313</v>
       </c>
       <c r="I74" s="7"/>
@@ -12452,26 +12576,26 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="69" t="s">
+      <c r="A75" s="71" t="s">
         <v>314</v>
       </c>
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E75" s="61" t="s">
+      <c r="E75" s="63" t="s">
         <v>315</v>
       </c>
-      <c r="F75" s="77"/>
-      <c r="G75" s="61" t="s">
+      <c r="F75" s="79"/>
+      <c r="G75" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="H75" s="61" t="s">
+      <c r="H75" s="63" t="s">
         <v>316</v>
       </c>
       <c r="I75" s="7"/>
@@ -12486,26 +12610,26 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="69" t="s">
+      <c r="A76" s="71" t="s">
         <v>317</v>
       </c>
-      <c r="B76" s="70" t="s">
+      <c r="B76" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D76" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="E76" s="61" t="s">
+      <c r="E76" s="63" t="s">
         <v>318</v>
       </c>
-      <c r="F76" s="77"/>
-      <c r="G76" s="61" t="s">
+      <c r="F76" s="79"/>
+      <c r="G76" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="H76" s="83" t="s">
+      <c r="H76" s="85" t="s">
         <v>319</v>
       </c>
       <c r="I76" s="7"/>
@@ -12520,29 +12644,29 @@
       <c r="R76" s="28"/>
     </row>
     <row r="77">
-      <c r="A77" s="69" t="s">
+      <c r="A77" s="71" t="s">
         <v>320</v>
       </c>
-      <c r="B77" s="70" t="s">
+      <c r="B77" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E77" s="61" t="s">
+      <c r="D77" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77" s="63" t="s">
         <v>321</v>
       </c>
-      <c r="F77" s="81"/>
-      <c r="G77" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="H77" s="83" t="s">
+      <c r="F77" s="83"/>
+      <c r="G77" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H77" s="85" t="s">
         <v>322</v>
       </c>
-      <c r="I77" s="72" t="s">
+      <c r="I77" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J77" s="7"/>
@@ -12556,26 +12680,26 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="69" t="s">
+      <c r="A78" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="B78" s="70" t="s">
+      <c r="B78" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="D78" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D78" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="E78" s="61" t="s">
+      <c r="E78" s="63" t="s">
         <v>324</v>
       </c>
-      <c r="F78" s="77"/>
-      <c r="G78" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="H78" s="83" t="s">
+      <c r="F78" s="79"/>
+      <c r="G78" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H78" s="85" t="s">
         <v>325</v>
       </c>
       <c r="I78" s="7"/>
@@ -12590,26 +12714,26 @@
       <c r="R78" s="28"/>
     </row>
     <row r="79">
-      <c r="A79" s="69" t="s">
+      <c r="A79" s="71" t="s">
         <v>326</v>
       </c>
-      <c r="B79" s="70" t="s">
+      <c r="B79" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="D79" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D79" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E79" s="61" t="s">
+      <c r="E79" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="F79" s="77"/>
-      <c r="G79" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="H79" s="61" t="s">
+      <c r="F79" s="79"/>
+      <c r="G79" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="H79" s="63" t="s">
         <v>328</v>
       </c>
       <c r="I79" s="7"/>
@@ -12624,26 +12748,26 @@
       <c r="R79" s="28"/>
     </row>
     <row r="80">
-      <c r="A80" s="69" t="s">
+      <c r="A80" s="71" t="s">
         <v>329</v>
       </c>
-      <c r="B80" s="70" t="s">
+      <c r="B80" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C80" s="35" t="s">
+      <c r="D80" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D80" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E80" s="61" t="s">
+      <c r="E80" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="F80" s="77"/>
-      <c r="G80" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="H80" s="61" t="s">
+      <c r="F80" s="79"/>
+      <c r="G80" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H80" s="63" t="s">
         <v>331</v>
       </c>
       <c r="I80" s="7"/>
@@ -12658,18 +12782,18 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="69" t="s">
+      <c r="A81" s="71" t="s">
         <v>332</v>
       </c>
-      <c r="B81" s="70" t="s">
-        <v>142</v>
+      <c r="B81" s="72" t="s">
+        <v>141</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="81"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="63"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -12682,26 +12806,26 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="84" t="s">
+      <c r="A82" s="86" t="s">
         <v>333</v>
       </c>
-      <c r="B82" s="35" t="s">
+      <c r="B82" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="D82" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="D82" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="E82" s="61" t="s">
+      <c r="E82" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="F82" s="77"/>
-      <c r="G82" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="H82" s="61" t="s">
+      <c r="F82" s="79"/>
+      <c r="G82" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="H82" s="63" t="s">
         <v>335</v>
       </c>
       <c r="I82" s="7"/>
@@ -12716,24 +12840,24 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="45" t="s">
+      <c r="A83" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="C83" s="47" t="s">
+      <c r="C83" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47" t="s">
+      <c r="D83" s="49"/>
+      <c r="E83" s="49" t="s">
         <v>339</v>
       </c>
-      <c r="F83" s="57"/>
-      <c r="G83" s="47" t="s">
+      <c r="F83" s="59"/>
+      <c r="G83" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="H83" s="47" t="s">
+      <c r="H83" s="49" t="s">
         <v>341</v>
       </c>
       <c r="I83" s="7"/>
@@ -12748,24 +12872,24 @@
       <c r="R83" s="28"/>
     </row>
     <row r="84">
-      <c r="A84" s="85" t="s">
+      <c r="A84" s="87" t="s">
         <v>336</v>
       </c>
-      <c r="B84" s="86" t="s">
+      <c r="B84" s="88" t="s">
         <v>337</v>
       </c>
-      <c r="C84" s="87" t="s">
+      <c r="C84" s="89" t="s">
         <v>338</v>
       </c>
-      <c r="D84" s="87"/>
-      <c r="E84" s="88" t="s">
+      <c r="D84" s="89"/>
+      <c r="E84" s="90" t="s">
         <v>339</v>
       </c>
-      <c r="F84" s="87"/>
-      <c r="G84" s="87" t="s">
+      <c r="F84" s="37"/>
+      <c r="G84" s="89" t="s">
         <v>342</v>
       </c>
-      <c r="H84" s="87" t="s">
+      <c r="H84" s="89" t="s">
         <v>343</v>
       </c>
       <c r="I84" s="7"/>
@@ -12780,10 +12904,10 @@
       <c r="R84" s="28"/>
     </row>
     <row r="85">
-      <c r="A85" s="38" t="s">
+      <c r="A85" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="41" t="s">
         <v>345</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -12792,14 +12916,14 @@
       <c r="D85" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4" t="s">
+      <c r="F85" s="36"/>
+      <c r="G85" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="H85" s="35" t="s">
+      <c r="H85" s="36" t="s">
         <v>350</v>
       </c>
       <c r="I85" s="7"/>
@@ -12814,20 +12938,20 @@
       <c r="R85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="45" t="s">
+      <c r="A86" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="B86" s="46"/>
+      <c r="B86" s="48"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4" t="s">
+      <c r="F86" s="36"/>
+      <c r="G86" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="H86" s="35" t="s">
+      <c r="H86" s="36" t="s">
         <v>354</v>
       </c>
       <c r="I86" s="7"/>
@@ -12842,10 +12966,10 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="38" t="s">
+      <c r="A87" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="B87" s="39" t="s">
+      <c r="B87" s="41" t="s">
         <v>356</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -12854,14 +12978,14 @@
       <c r="D87" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7" t="s">
+      <c r="F87" s="39"/>
+      <c r="G87" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="H87" s="72" t="s">
+      <c r="H87" s="39" t="s">
         <v>361</v>
       </c>
       <c r="I87" s="7"/>
@@ -12869,20 +12993,20 @@
       <c r="K87" s="7"/>
     </row>
     <row r="88">
-      <c r="A88" s="45" t="s">
+      <c r="A88" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="B88" s="46"/>
+      <c r="B88" s="48"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4" t="s">
+      <c r="F88" s="36"/>
+      <c r="G88" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="H88" s="35" t="s">
+      <c r="H88" s="36" t="s">
         <v>364</v>
       </c>
       <c r="I88" s="7"/>
@@ -12890,10 +13014,10 @@
       <c r="K88" s="7"/>
     </row>
     <row r="89">
-      <c r="A89" s="33" t="s">
+      <c r="A89" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="B89" s="89" t="s">
+      <c r="B89" s="91" t="s">
         <v>366</v>
       </c>
       <c r="C89" s="4"/>
@@ -12907,27 +13031,27 @@
       <c r="K89" s="7"/>
     </row>
     <row r="90">
-      <c r="A90" s="38" t="s">
+      <c r="A90" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="B90" s="39" t="s">
+      <c r="B90" s="41" t="s">
         <v>368</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="35"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
       <c r="K90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="45" t="s">
+      <c r="A91" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="B91" s="46" t="s">
+      <c r="B91" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="7" t="s">
@@ -12936,56 +13060,56 @@
       <c r="D91" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="F91" s="7"/>
-      <c r="G91" s="4" t="s">
+      <c r="F91" s="39"/>
+      <c r="G91" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="H91" s="35" t="s">
+      <c r="H91" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="I91" s="7" t="s">
+      <c r="I91" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="39"/>
     </row>
     <row r="92">
-      <c r="A92" s="49" t="s">
+      <c r="A92" s="51" t="s">
         <v>374</v>
       </c>
-      <c r="B92" s="50" t="s">
+      <c r="B92" s="52" t="s">
         <v>375</v>
       </c>
-      <c r="C92" s="60" t="s">
+      <c r="C92" s="62" t="s">
         <v>376</v>
       </c>
-      <c r="D92" s="60" t="s">
+      <c r="D92" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="E92" s="60" t="s">
+      <c r="E92" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="F92" s="60"/>
-      <c r="G92" s="60" t="s">
+      <c r="F92" s="62"/>
+      <c r="G92" s="62" t="s">
         <v>379</v>
       </c>
-      <c r="H92" s="60" t="s">
+      <c r="H92" s="62" t="s">
         <v>380</v>
       </c>
-      <c r="I92" s="59" t="s">
+      <c r="I92" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="J92" s="55"/>
+      <c r="J92" s="57"/>
       <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="45" t="s">
+      <c r="A93" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="48" t="s">
         <v>382</v>
       </c>
       <c r="C93" s="7" t="s">
@@ -12994,14 +13118,14 @@
       <c r="D93" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7" t="s">
+      <c r="F93" s="39"/>
+      <c r="G93" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="H93" s="82" t="s">
+      <c r="H93" s="84" t="s">
         <v>387</v>
       </c>
       <c r="I93" s="7"/>
@@ -13009,10 +13133,10 @@
       <c r="K93" s="7"/>
     </row>
     <row r="94">
-      <c r="A94" s="51" t="s">
+      <c r="A94" s="53" t="s">
         <v>388</v>
       </c>
-      <c r="B94" s="52" t="s">
+      <c r="B94" s="54" t="s">
         <v>389</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -13021,23 +13145,23 @@
       <c r="D94" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="35"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
-      <c r="K94" s="7" t="s">
+      <c r="K94" s="39" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="45" t="s">
+      <c r="A95" s="47" t="s">
         <v>394</v>
       </c>
-      <c r="B95" s="46" t="s">
+      <c r="B95" s="48" t="s">
         <v>395</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -13046,14 +13170,14 @@
       <c r="D95" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4" t="s">
+      <c r="F95" s="36"/>
+      <c r="G95" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="H95" s="35" t="s">
+      <c r="H95" s="36" t="s">
         <v>400</v>
       </c>
       <c r="I95" s="7"/>
@@ -13061,39 +13185,39 @@
       <c r="K95" s="7"/>
     </row>
     <row r="96">
-      <c r="A96" s="45" t="s">
+      <c r="A96" s="47" t="s">
         <v>401</v>
       </c>
-      <c r="B96" s="46" t="s">
+      <c r="B96" s="48" t="s">
         <v>402</v>
       </c>
-      <c r="C96" s="36" t="s">
+      <c r="C96" s="49" t="s">
         <v>403</v>
       </c>
-      <c r="D96" s="47" t="s">
+      <c r="D96" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E96" s="36" t="s">
+      <c r="E96" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36" t="s">
+      <c r="F96" s="37"/>
+      <c r="G96" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="H96" s="90" t="s">
+      <c r="H96" s="92" t="s">
         <v>405</v>
       </c>
-      <c r="I96" s="7" t="s">
+      <c r="I96" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
     </row>
     <row r="97">
-      <c r="A97" s="45" t="s">
+      <c r="A97" s="47" t="s">
         <v>406</v>
       </c>
-      <c r="B97" s="46" t="s">
+      <c r="B97" s="48" t="s">
         <v>407</v>
       </c>
       <c r="C97" s="4"/>
@@ -13107,10 +13231,10 @@
       <c r="K97" s="7"/>
     </row>
     <row r="98">
-      <c r="A98" s="51" t="s">
+      <c r="A98" s="53" t="s">
         <v>408</v>
       </c>
-      <c r="B98" s="52" t="s">
+      <c r="B98" s="54" t="s">
         <v>409</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -13134,13 +13258,13 @@
       <c r="K98" s="7"/>
     </row>
     <row r="99">
-      <c r="A99" s="51" t="s">
+      <c r="A99" s="53" t="s">
         <v>415</v>
       </c>
-      <c r="B99" s="52" t="s">
+      <c r="B99" s="54" t="s">
         <v>416</v>
       </c>
-      <c r="C99" s="35" t="s">
+      <c r="C99" s="36" t="s">
         <v>237</v>
       </c>
       <c r="D99" s="4"/>
@@ -13148,10 +13272,10 @@
         <v>417</v>
       </c>
       <c r="F99" s="4"/>
-      <c r="G99" s="35" t="s">
+      <c r="G99" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="H99" s="35" t="s">
+      <c r="H99" s="36" t="s">
         <v>419</v>
       </c>
       <c r="I99" s="7"/>
@@ -13159,16 +13283,16 @@
       <c r="K99" s="7"/>
     </row>
     <row r="100">
-      <c r="A100" s="45" t="s">
+      <c r="A100" s="47" t="s">
         <v>420</v>
       </c>
-      <c r="B100" s="46" t="s">
+      <c r="B100" s="48" t="s">
         <v>421</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="7"/>
@@ -13176,10 +13300,10 @@
       <c r="K100" s="7"/>
     </row>
     <row r="101">
-      <c r="A101" s="51" t="s">
+      <c r="A101" s="53" t="s">
         <v>422</v>
       </c>
-      <c r="B101" s="52" t="s">
+      <c r="B101" s="54" t="s">
         <v>423</v>
       </c>
       <c r="C101" s="4"/>
@@ -13190,22 +13314,22 @@
       <c r="H101" s="4"/>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
-      <c r="K101" s="57" t="s">
+      <c r="K101" s="59" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="69" t="s">
+      <c r="A102" s="71" t="s">
         <v>425</v>
       </c>
-      <c r="B102" s="70" t="s">
+      <c r="B102" s="72" t="s">
         <v>426</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E102" s="91" t="s">
+      <c r="E102" s="93" t="s">
         <v>428</v>
       </c>
       <c r="F102" s="4"/>
@@ -13220,14 +13344,14 @@
       <c r="K102" s="7"/>
     </row>
     <row r="103">
-      <c r="A103" s="69" t="s">
+      <c r="A103" s="71" t="s">
         <v>431</v>
       </c>
-      <c r="B103" s="70" t="s">
+      <c r="B103" s="72" t="s">
         <v>432</v>
       </c>
       <c r="C103" s="4"/>
-      <c r="D103" s="92" t="s">
+      <c r="D103" s="94" t="s">
         <v>433</v>
       </c>
       <c r="E103" s="4" t="s">
@@ -13237,7 +13361,7 @@
       <c r="G103" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="H103" s="93" t="s">
+      <c r="H103" s="95" t="s">
         <v>436</v>
       </c>
       <c r="I103" s="7"/>
@@ -13245,10 +13369,10 @@
       <c r="K103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="69" t="s">
+      <c r="A104" s="71" t="s">
         <v>437</v>
       </c>
-      <c r="B104" s="70" t="s">
+      <c r="B104" s="72" t="s">
         <v>438</v>
       </c>
       <c r="C104" s="4"/>
@@ -13262,7 +13386,7 @@
       <c r="G104" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H104" s="93" t="s">
+      <c r="H104" s="95" t="s">
         <v>440</v>
       </c>
       <c r="I104" s="7"/>
@@ -13270,10 +13394,10 @@
       <c r="K104" s="7"/>
     </row>
     <row r="105">
-      <c r="A105" s="51" t="s">
+      <c r="A105" s="53" t="s">
         <v>441</v>
       </c>
-      <c r="B105" s="52" t="s">
+      <c r="B105" s="54" t="s">
         <v>442</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -13287,7 +13411,7 @@
       <c r="G105" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="H105" s="93" t="s">
+      <c r="H105" s="95" t="s">
         <v>445</v>
       </c>
       <c r="I105" s="7"/>
@@ -13295,10 +13419,10 @@
       <c r="K105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="51" t="s">
+      <c r="A106" s="53" t="s">
         <v>446</v>
       </c>
-      <c r="B106" s="52" t="s">
+      <c r="B106" s="54" t="s">
         <v>447</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -13312,7 +13436,7 @@
       <c r="G106" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="H106" s="94" t="s">
+      <c r="H106" s="96" t="s">
         <v>450</v>
       </c>
       <c r="I106" s="7"/>
@@ -13320,115 +13444,111 @@
       <c r="K106" s="7"/>
     </row>
     <row r="107">
-      <c r="A107" s="38" t="s">
+      <c r="A107" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="B107" s="39" t="s">
+      <c r="B107" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="40" t="s">
+      <c r="E107" s="42" t="s">
         <v>452</v>
       </c>
       <c r="F107" s="4"/>
-      <c r="G107" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="H107" s="35" t="s">
-        <v>454</v>
-      </c>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="95" t="s">
+      <c r="A108" s="97" t="s">
         <v>451</v>
       </c>
-      <c r="B108" s="96" t="s">
+      <c r="B108" s="98" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="40" t="s">
+      <c r="E108" s="42" t="s">
         <v>452</v>
       </c>
       <c r="F108" s="4"/>
-      <c r="G108" s="61" t="s">
-        <v>455</v>
-      </c>
-      <c r="H108" s="61" t="s">
-        <v>456</v>
+      <c r="G108" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="H108" s="63" t="s">
+        <v>454</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
     </row>
     <row r="109">
-      <c r="A109" s="45" t="s">
+      <c r="A109" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="B109" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="D109" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="F109" s="59"/>
+      <c r="G109" s="58" t="s">
         <v>457</v>
       </c>
-      <c r="B109" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C109" s="47" t="s">
-        <v>370</v>
-      </c>
-      <c r="D109" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="E109" s="57" t="s">
+      <c r="H109" s="59" t="s">
         <v>458</v>
       </c>
-      <c r="F109" s="57"/>
-      <c r="G109" s="56" t="s">
-        <v>459</v>
-      </c>
-      <c r="H109" s="57" t="s">
-        <v>460</v>
-      </c>
-      <c r="I109" s="7" t="s">
+      <c r="I109" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
     </row>
     <row r="110">
-      <c r="A110" s="51" t="s">
+      <c r="A110" s="53" t="s">
+        <v>459</v>
+      </c>
+      <c r="B110" s="54" t="s">
+        <v>460</v>
+      </c>
+      <c r="C110" s="49" t="s">
         <v>461</v>
       </c>
-      <c r="B110" s="52" t="s">
+      <c r="D110" s="49" t="s">
         <v>462</v>
       </c>
-      <c r="C110" s="47" t="s">
+      <c r="E110" s="49" t="s">
         <v>463</v>
       </c>
-      <c r="D110" s="47" t="s">
+      <c r="F110" s="49"/>
+      <c r="G110" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="E110" s="47" t="s">
+      <c r="H110" s="49" t="s">
         <v>465</v>
       </c>
-      <c r="F110" s="47"/>
-      <c r="G110" s="36" t="s">
-        <v>466</v>
-      </c>
-      <c r="H110" s="47" t="s">
-        <v>467</v>
-      </c>
-      <c r="I110" s="7" t="s">
+      <c r="I110" s="39" t="s">
         <v>79</v>
       </c>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
     </row>
     <row r="111">
-      <c r="A111" s="45" t="s">
-        <v>468</v>
-      </c>
-      <c r="B111" s="46" t="s">
-        <v>469</v>
+      <c r="A111" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="B111" s="48" t="s">
+        <v>467</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -13441,10 +13561,10 @@
       <c r="K111" s="7"/>
     </row>
     <row r="112">
-      <c r="A112" s="51" t="s">
-        <v>470</v>
-      </c>
-      <c r="B112" s="52" t="s">
+      <c r="A112" s="53" t="s">
+        <v>468</v>
+      </c>
+      <c r="B112" s="54" t="s">
         <v>382</v>
       </c>
       <c r="C112" s="7" t="s">
@@ -13453,25 +13573,25 @@
       <c r="D112" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="F112" s="39"/>
+      <c r="G112" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="H112" s="39" t="s">
         <v>471</v>
-      </c>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="H112" s="72" t="s">
-        <v>473</v>
       </c>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
     </row>
     <row r="113">
-      <c r="A113" s="51" t="s">
-        <v>474</v>
-      </c>
-      <c r="B113" s="52" t="s">
+      <c r="A113" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="B113" s="54" t="s">
         <v>389</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -13480,24 +13600,24 @@
       <c r="D113" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="35"/>
+      <c r="E113" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
-      <c r="K113" s="7" t="s">
+      <c r="K113" s="39" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="45" t="s">
-        <v>476</v>
-      </c>
-      <c r="B114" s="46" t="s">
-        <v>477</v>
+      <c r="A114" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="B114" s="48" t="s">
+        <v>475</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -13510,464 +13630,466 @@
       <c r="K114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="51" t="s">
+      <c r="A115" s="53" t="s">
+        <v>476</v>
+      </c>
+      <c r="B115" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B115" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="C115" s="4" t="s">
+      <c r="E115" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="F115" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="G115" s="37" t="s">
         <v>481</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="H115" s="99" t="s">
         <v>482</v>
-      </c>
-      <c r="G115" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="H115" s="97" t="s">
-        <v>484</v>
       </c>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
     </row>
     <row r="116">
-      <c r="A116" s="51" t="s">
+      <c r="A116" s="53" t="s">
+        <v>483</v>
+      </c>
+      <c r="B116" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="C116" s="59" t="s">
         <v>485</v>
       </c>
-      <c r="B116" s="52" t="s">
+      <c r="D116" s="59" t="s">
         <v>486</v>
       </c>
-      <c r="C116" s="56" t="s">
+      <c r="E116" s="39" t="s">
         <v>487</v>
       </c>
-      <c r="D116" s="56" t="s">
+      <c r="F116" s="39"/>
+      <c r="G116" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="H116" s="58" t="s">
         <v>489</v>
       </c>
-      <c r="F116" s="7"/>
-      <c r="G116" s="36" t="s">
-        <v>490</v>
-      </c>
-      <c r="H116" s="56" t="s">
-        <v>491</v>
-      </c>
-      <c r="I116" s="7" t="s">
+      <c r="I116" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
     </row>
     <row r="117">
-      <c r="A117" s="45" t="s">
+      <c r="A117" s="47" t="s">
+        <v>490</v>
+      </c>
+      <c r="B117" s="48" t="s">
+        <v>491</v>
+      </c>
+      <c r="C117" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D117" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="36" t="s">
         <v>492</v>
       </c>
-      <c r="B117" s="46" t="s">
+      <c r="F117" s="36"/>
+      <c r="G117" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="H117" s="100" t="s">
         <v>493</v>
       </c>
-      <c r="C117" s="36" t="s">
-        <v>403</v>
-      </c>
-      <c r="D117" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="H117" s="98" t="s">
-        <v>495</v>
-      </c>
-      <c r="I117" s="7" t="s">
+      <c r="I117" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
     </row>
     <row r="118">
-      <c r="A118" s="45" t="s">
-        <v>496</v>
-      </c>
-      <c r="B118" s="46" t="s">
-        <v>497</v>
-      </c>
-      <c r="C118" s="36"/>
-      <c r="D118" s="56"/>
-      <c r="E118" s="72"/>
+      <c r="A118" s="47" t="s">
+        <v>494</v>
+      </c>
+      <c r="B118" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="C118" s="37"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="39"/>
       <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="72"/>
+      <c r="G118" s="39"/>
+      <c r="H118" s="39"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
     </row>
     <row r="119">
-      <c r="A119" s="51" t="s">
+      <c r="A119" s="53" t="s">
+        <v>496</v>
+      </c>
+      <c r="B119" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B119" s="52" t="s">
+      <c r="D119" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="E119" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="F119" s="37"/>
+      <c r="G119" s="37" t="s">
         <v>501</v>
       </c>
-      <c r="E119" s="35" t="s">
+      <c r="H119" s="99" t="s">
         <v>502</v>
-      </c>
-      <c r="F119" s="36"/>
-      <c r="G119" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="H119" s="97" t="s">
-        <v>504</v>
       </c>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
     </row>
     <row r="120">
-      <c r="A120" s="78" t="s">
+      <c r="A120" s="80" t="s">
+        <v>496</v>
+      </c>
+      <c r="B120" s="81" t="s">
+        <v>497</v>
+      </c>
+      <c r="C120" s="101" t="s">
         <v>498</v>
       </c>
-      <c r="B120" s="79" t="s">
+      <c r="D120" s="101" t="s">
         <v>499</v>
       </c>
-      <c r="C120" s="99" t="s">
+      <c r="E120" s="42" t="s">
         <v>500</v>
       </c>
-      <c r="D120" s="99" t="s">
-        <v>501</v>
-      </c>
-      <c r="E120" s="40" t="s">
-        <v>502</v>
-      </c>
-      <c r="F120" s="47"/>
-      <c r="G120" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="H120" s="100" t="s">
-        <v>506</v>
+      <c r="F120" s="49"/>
+      <c r="G120" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="H120" s="102" t="s">
+        <v>504</v>
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
     </row>
     <row r="121">
-      <c r="A121" s="69" t="s">
+      <c r="A121" s="71" t="s">
+        <v>505</v>
+      </c>
+      <c r="B121" s="72" t="s">
+        <v>506</v>
+      </c>
+      <c r="C121" s="59" t="s">
         <v>507</v>
       </c>
-      <c r="B121" s="70" t="s">
+      <c r="D121" s="59" t="s">
         <v>508</v>
       </c>
-      <c r="C121" s="57" t="s">
+      <c r="E121" s="36" t="s">
         <v>509</v>
       </c>
-      <c r="D121" s="57" t="s">
+      <c r="F121" s="49"/>
+      <c r="G121" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="E121" s="35" t="s">
+      <c r="H121" s="36" t="s">
         <v>511</v>
       </c>
-      <c r="F121" s="47"/>
-      <c r="G121" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H121" s="35" t="s">
-        <v>513</v>
-      </c>
-      <c r="I121" s="7" t="s">
+      <c r="I121" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
     </row>
     <row r="122">
-      <c r="A122" s="69" t="s">
+      <c r="A122" s="71" t="s">
+        <v>512</v>
+      </c>
+      <c r="B122" s="72" t="s">
+        <v>513</v>
+      </c>
+      <c r="C122" s="59" t="s">
         <v>514</v>
       </c>
-      <c r="B122" s="70" t="s">
+      <c r="D122" s="59" t="s">
         <v>515</v>
       </c>
-      <c r="C122" s="57" t="s">
+      <c r="E122" s="36" t="s">
         <v>516</v>
       </c>
-      <c r="D122" s="57" t="s">
+      <c r="F122" s="49"/>
+      <c r="G122" s="36" t="s">
+        <v>510</v>
+      </c>
+      <c r="H122" s="36" t="s">
         <v>517</v>
       </c>
-      <c r="E122" s="35" t="s">
-        <v>518</v>
-      </c>
-      <c r="F122" s="47"/>
-      <c r="G122" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H122" s="35" t="s">
-        <v>519</v>
-      </c>
-      <c r="I122" s="7" t="s">
+      <c r="I122" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
     </row>
     <row r="123">
-      <c r="A123" s="51" t="s">
+      <c r="A123" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B123" s="54" t="s">
+        <v>519</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="E123" s="36" t="s">
         <v>520</v>
       </c>
-      <c r="B123" s="52" t="s">
+      <c r="F123" s="37"/>
+      <c r="G123" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="H123" s="99" t="s">
         <v>521</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="E123" s="35" t="s">
-        <v>522</v>
-      </c>
-      <c r="F123" s="36"/>
-      <c r="G123" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="H123" s="97" t="s">
-        <v>523</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
     </row>
     <row r="124">
-      <c r="A124" s="78" t="s">
+      <c r="A124" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="B124" s="81" t="s">
+        <v>519</v>
+      </c>
+      <c r="C124" s="101" t="s">
+        <v>498</v>
+      </c>
+      <c r="D124" s="101" t="s">
+        <v>499</v>
+      </c>
+      <c r="E124" s="42" t="s">
         <v>520</v>
       </c>
-      <c r="B124" s="79" t="s">
-        <v>521</v>
-      </c>
-      <c r="C124" s="99" t="s">
-        <v>500</v>
-      </c>
-      <c r="D124" s="99" t="s">
-        <v>501</v>
-      </c>
-      <c r="E124" s="40" t="s">
+      <c r="F124" s="49"/>
+      <c r="G124" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="H124" s="102" t="s">
         <v>522</v>
-      </c>
-      <c r="F124" s="47"/>
-      <c r="G124" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="H124" s="100" t="s">
-        <v>524</v>
       </c>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="69" t="s">
-        <v>525</v>
-      </c>
-      <c r="B125" s="70" t="s">
+      <c r="A125" s="71" t="s">
+        <v>523</v>
+      </c>
+      <c r="B125" s="72" t="s">
+        <v>506</v>
+      </c>
+      <c r="C125" s="59" t="s">
+        <v>507</v>
+      </c>
+      <c r="D125" s="59" t="s">
         <v>508</v>
       </c>
-      <c r="C125" s="57" t="s">
-        <v>509</v>
-      </c>
-      <c r="D125" s="57" t="s">
+      <c r="E125" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="F125" s="49"/>
+      <c r="G125" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="E125" s="35" t="s">
-        <v>526</v>
-      </c>
-      <c r="F125" s="47"/>
-      <c r="G125" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H125" s="35" t="s">
-        <v>513</v>
-      </c>
-      <c r="I125" s="7" t="s">
+      <c r="H125" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="I125" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
     </row>
     <row r="126">
-      <c r="A126" s="69" t="s">
-        <v>527</v>
-      </c>
-      <c r="B126" s="70" t="s">
+      <c r="A126" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="B126" s="72" t="s">
+        <v>513</v>
+      </c>
+      <c r="C126" s="59" t="s">
+        <v>514</v>
+      </c>
+      <c r="D126" s="59" t="s">
         <v>515</v>
       </c>
-      <c r="C126" s="57" t="s">
-        <v>516</v>
-      </c>
-      <c r="D126" s="57" t="s">
+      <c r="E126" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="F126" s="59"/>
+      <c r="G126" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="H126" s="39" t="s">
         <v>517</v>
       </c>
-      <c r="E126" s="72" t="s">
-        <v>528</v>
-      </c>
-      <c r="F126" s="57"/>
-      <c r="G126" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H126" s="72" t="s">
-        <v>519</v>
-      </c>
-      <c r="I126" s="7" t="s">
+      <c r="I126" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
     </row>
     <row r="127">
-      <c r="A127" s="51" t="s">
+      <c r="A127" s="53" t="s">
+        <v>527</v>
+      </c>
+      <c r="B127" s="54" t="s">
+        <v>528</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="E127" s="39" t="s">
         <v>529</v>
       </c>
-      <c r="B127" s="52" t="s">
+      <c r="F127" s="58"/>
+      <c r="G127" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="H127" s="99" t="s">
         <v>530</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="E127" s="72" t="s">
-        <v>531</v>
-      </c>
-      <c r="F127" s="56"/>
-      <c r="G127" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="H127" s="97" t="s">
-        <v>532</v>
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="78" t="s">
+      <c r="A128" s="80" t="s">
+        <v>527</v>
+      </c>
+      <c r="B128" s="81" t="s">
+        <v>528</v>
+      </c>
+      <c r="C128" s="101" t="s">
+        <v>498</v>
+      </c>
+      <c r="D128" s="101" t="s">
+        <v>499</v>
+      </c>
+      <c r="E128" s="42" t="s">
         <v>529</v>
       </c>
-      <c r="B128" s="79" t="s">
-        <v>530</v>
-      </c>
-      <c r="C128" s="99" t="s">
-        <v>500</v>
-      </c>
-      <c r="D128" s="99" t="s">
-        <v>501</v>
-      </c>
-      <c r="E128" s="40" t="s">
+      <c r="F128" s="49"/>
+      <c r="G128" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="H128" s="102" t="s">
         <v>531</v>
-      </c>
-      <c r="F128" s="47"/>
-      <c r="G128" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="H128" s="100" t="s">
-        <v>533</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="69" t="s">
-        <v>534</v>
-      </c>
-      <c r="B129" s="70" t="s">
+      <c r="A129" s="71" t="s">
+        <v>532</v>
+      </c>
+      <c r="B129" s="72" t="s">
+        <v>513</v>
+      </c>
+      <c r="C129" s="59" t="s">
+        <v>514</v>
+      </c>
+      <c r="D129" s="59" t="s">
         <v>515</v>
       </c>
-      <c r="C129" s="57" t="s">
-        <v>516</v>
-      </c>
-      <c r="D129" s="57" t="s">
+      <c r="E129" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="F129" s="37"/>
+      <c r="G129" s="36" t="s">
+        <v>510</v>
+      </c>
+      <c r="H129" s="36" t="s">
         <v>517</v>
       </c>
-      <c r="E129" s="35" t="s">
-        <v>535</v>
-      </c>
-      <c r="F129" s="36"/>
-      <c r="G129" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H129" s="35" t="s">
-        <v>519</v>
-      </c>
-      <c r="I129" s="7" t="s">
+      <c r="I129" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="101" t="s">
-        <v>536</v>
-      </c>
-      <c r="B130" s="102" t="s">
-        <v>537</v>
+      <c r="A130" s="103" t="s">
+        <v>534</v>
+      </c>
+      <c r="B130" s="104" t="s">
+        <v>535</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
-      <c r="E130" s="103" t="s">
-        <v>538</v>
+      <c r="E130" s="105" t="s">
+        <v>536</v>
       </c>
       <c r="F130" s="4"/>
-      <c r="G130" s="104" t="s">
-        <v>503</v>
-      </c>
-      <c r="H130" s="105" t="s">
-        <v>539</v>
-      </c>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
+      <c r="G130" s="106" t="s">
+        <v>501</v>
+      </c>
+      <c r="H130" s="107" t="s">
+        <v>537</v>
+      </c>
+      <c r="I130" s="58"/>
+      <c r="J130" s="58"/>
       <c r="K130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="101" t="s">
-        <v>536</v>
-      </c>
-      <c r="B131" s="102" t="s">
-        <v>537</v>
+      <c r="A131" s="103" t="s">
+        <v>534</v>
+      </c>
+      <c r="B131" s="104" t="s">
+        <v>535</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
-      <c r="E131" s="106" t="s">
+      <c r="E131" s="108" t="s">
+        <v>536</v>
+      </c>
+      <c r="F131" s="7"/>
+      <c r="G131" s="109"/>
+      <c r="H131" s="109"/>
+      <c r="I131" s="58"/>
+      <c r="J131" s="58"/>
+      <c r="K131" s="110" t="s">
         <v>538</v>
       </c>
-      <c r="F131" s="7"/>
-      <c r="G131" s="107"/>
-      <c r="H131" s="107"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="45" t="s">
+      <c r="A132" s="47" t="s">
+        <v>539</v>
+      </c>
+      <c r="B132" s="48" t="s">
         <v>540</v>
-      </c>
-      <c r="B132" s="46" t="s">
-        <v>541</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -13980,37 +14102,37 @@
       <c r="K132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="51" t="s">
+      <c r="A133" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="B133" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="C133" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="B133" s="52" t="s">
-        <v>409</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>411</v>
       </c>
       <c r="E133" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="F133" s="4"/>
+      <c r="G133" s="79" t="s">
         <v>544</v>
       </c>
-      <c r="F133" s="4"/>
-      <c r="G133" s="77" t="s">
+      <c r="H133" s="63" t="s">
         <v>545</v>
-      </c>
-      <c r="H133" s="61" t="s">
-        <v>546</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
     </row>
     <row r="134">
-      <c r="A134" s="51" t="s">
-        <v>547</v>
-      </c>
-      <c r="B134" s="52" t="s">
+      <c r="A134" s="53" t="s">
+        <v>546</v>
+      </c>
+      <c r="B134" s="54" t="s">
         <v>416</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -14018,25 +14140,25 @@
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="F134" s="4"/>
+      <c r="G134" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="F134" s="4"/>
-      <c r="G134" s="61" t="s">
+      <c r="H134" s="63" t="s">
         <v>549</v>
-      </c>
-      <c r="H134" s="61" t="s">
-        <v>550</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
     </row>
     <row r="135">
-      <c r="A135" s="45" t="s">
+      <c r="A135" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="B135" s="48" t="s">
         <v>551</v>
-      </c>
-      <c r="B135" s="46" t="s">
-        <v>552</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -14049,952 +14171,1016 @@
       <c r="K135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="51" t="s">
+      <c r="A136" s="53" t="s">
+        <v>552</v>
+      </c>
+      <c r="B136" s="54" t="s">
         <v>553</v>
       </c>
-      <c r="B136" s="52" t="s">
+      <c r="C136" s="111" t="s">
         <v>554</v>
       </c>
-      <c r="C136" s="108" t="s">
+      <c r="D136" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="E136" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="E136" s="4" t="s">
+      <c r="F136" s="4"/>
+      <c r="G136" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="F136" s="4"/>
-      <c r="G136" s="35" t="s">
+      <c r="H136" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>559</v>
       </c>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="69" t="s">
-        <v>560</v>
-      </c>
-      <c r="B137" s="70"/>
-      <c r="C137" s="108"/>
+      <c r="A137" s="71" t="s">
+        <v>559</v>
+      </c>
+      <c r="B137" s="72"/>
+      <c r="C137" s="111"/>
       <c r="D137" s="7"/>
       <c r="E137" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="F137" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="G137" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="G137" s="35" t="s">
+      <c r="H137" s="4" t="s">
         <v>563</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>564</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="69" t="s">
+      <c r="A138" s="71" t="s">
+        <v>564</v>
+      </c>
+      <c r="B138" s="72"/>
+      <c r="C138" s="111"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="F138" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="B138" s="70"/>
-      <c r="C138" s="108"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="40" t="s">
-        <v>561</v>
-      </c>
-      <c r="F138" s="4" t="s">
+      <c r="G138" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="H138" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="G138" s="35" t="s">
-        <v>563</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>567</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="51" t="s">
+      <c r="A139" s="53" t="s">
+        <v>567</v>
+      </c>
+      <c r="B139" s="54" t="s">
         <v>568</v>
       </c>
-      <c r="B139" s="52" t="s">
+      <c r="C139" s="111" t="s">
         <v>569</v>
       </c>
-      <c r="C139" s="108" t="s">
+      <c r="D139" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="E139" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="E139" s="4" t="s">
+      <c r="F139" s="4"/>
+      <c r="G139" s="36" t="s">
         <v>572</v>
       </c>
-      <c r="F139" s="4"/>
-      <c r="G139" s="35" t="s">
+      <c r="H139" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>574</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="51" t="s">
+      <c r="A140" s="53" t="s">
+        <v>574</v>
+      </c>
+      <c r="B140" s="54" t="s">
         <v>575</v>
       </c>
-      <c r="B140" s="52" t="s">
+      <c r="C140" s="111" t="s">
         <v>576</v>
       </c>
-      <c r="C140" s="108" t="s">
+      <c r="D140" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="E140" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="E140" s="4" t="s">
+      <c r="F140" s="4"/>
+      <c r="G140" s="36" t="s">
+        <v>572</v>
+      </c>
+      <c r="H140" s="4" t="s">
         <v>579</v>
-      </c>
-      <c r="F140" s="4"/>
-      <c r="G140" s="35" t="s">
-        <v>573</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>580</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="101" t="s">
+      <c r="A141" s="103" t="s">
+        <v>580</v>
+      </c>
+      <c r="B141" s="104" t="s">
         <v>581</v>
       </c>
-      <c r="B141" s="102" t="s">
+      <c r="C141" s="112" t="s">
         <v>582</v>
       </c>
-      <c r="C141" s="109" t="s">
+      <c r="D141" s="113" t="s">
         <v>583</v>
       </c>
-      <c r="D141" s="110" t="s">
+      <c r="E141" s="37"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="37"/>
+      <c r="H141" s="37"/>
+      <c r="I141" s="58"/>
+      <c r="J141" s="58"/>
+      <c r="K141" s="7"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="114" t="s">
         <v>584</v>
       </c>
-      <c r="E141" s="104" t="s">
+      <c r="B142" s="115" t="s">
+        <v>581</v>
+      </c>
+      <c r="C142" s="113" t="s">
+        <v>582</v>
+      </c>
+      <c r="D142" s="113" t="s">
+        <v>583</v>
+      </c>
+      <c r="E142" s="37" t="s">
         <v>585</v>
       </c>
-      <c r="F141" s="4"/>
-      <c r="G141" s="111" t="s">
+      <c r="F142" s="7"/>
+      <c r="G142" s="116" t="s">
         <v>586</v>
       </c>
-      <c r="H141" s="111" t="s">
+      <c r="H142" s="116" t="s">
         <v>587</v>
-      </c>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="7"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="101" t="s">
-        <v>581</v>
-      </c>
-      <c r="B142" s="102" t="s">
-        <v>582</v>
-      </c>
-      <c r="C142" s="110" t="s">
-        <v>583</v>
-      </c>
-      <c r="D142" s="110" t="s">
-        <v>584</v>
-      </c>
-      <c r="E142" s="104" t="s">
-        <v>588</v>
-      </c>
-      <c r="F142" s="7"/>
-      <c r="G142" s="111" t="s">
-        <v>586</v>
-      </c>
-      <c r="H142" s="111" t="s">
-        <v>589</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="101" t="s">
+      <c r="A143" s="114" t="s">
+        <v>588</v>
+      </c>
+      <c r="B143" s="115" t="s">
+        <v>581</v>
+      </c>
+      <c r="C143" s="113" t="s">
+        <v>582</v>
+      </c>
+      <c r="D143" s="113" t="s">
+        <v>583</v>
+      </c>
+      <c r="E143" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="F143" s="4"/>
+      <c r="G143" s="116" t="s">
+        <v>586</v>
+      </c>
+      <c r="H143" s="116" t="s">
         <v>590</v>
-      </c>
-      <c r="B143" s="102" t="s">
-        <v>591</v>
-      </c>
-      <c r="C143" s="112" t="s">
-        <v>592</v>
-      </c>
-      <c r="D143" s="112" t="s">
-        <v>593</v>
-      </c>
-      <c r="E143" s="104" t="s">
-        <v>594</v>
-      </c>
-      <c r="F143" s="4"/>
-      <c r="G143" s="111" t="s">
-        <v>595</v>
-      </c>
-      <c r="H143" s="111" t="s">
-        <v>596</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
     </row>
     <row r="144">
-      <c r="A144" s="113" t="s">
+      <c r="A144" s="103" t="s">
+        <v>591</v>
+      </c>
+      <c r="B144" s="104" t="s">
+        <v>592</v>
+      </c>
+      <c r="C144" s="117" t="s">
+        <v>593</v>
+      </c>
+      <c r="D144" s="117" t="s">
+        <v>594</v>
+      </c>
+      <c r="E144" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="F144" s="4"/>
+      <c r="G144" s="116" t="s">
+        <v>596</v>
+      </c>
+      <c r="H144" s="116" t="s">
         <v>597</v>
       </c>
-      <c r="B144" s="114" t="s">
-        <v>598</v>
-      </c>
-      <c r="C144" s="115"/>
-      <c r="D144" s="115"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="104"/>
-      <c r="G144" s="104"/>
-      <c r="H144" s="36"/>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="101" t="s">
+      <c r="A145" s="118" t="s">
+        <v>598</v>
+      </c>
+      <c r="B145" s="119" t="s">
         <v>599</v>
       </c>
-      <c r="B145" s="102" t="s">
-        <v>600</v>
-      </c>
-      <c r="C145" s="115" t="s">
-        <v>601</v>
-      </c>
-      <c r="D145" s="115" t="s">
-        <v>602</v>
-      </c>
-      <c r="E145" s="104" t="s">
-        <v>603</v>
-      </c>
-      <c r="F145" s="104"/>
-      <c r="G145" s="104" t="s">
-        <v>604</v>
-      </c>
-      <c r="H145" s="116" t="s">
-        <v>605</v>
-      </c>
+      <c r="C145" s="58"/>
+      <c r="D145" s="58"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="106"/>
+      <c r="G145" s="37"/>
+      <c r="H145" s="37"/>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="101" t="s">
-        <v>599</v>
-      </c>
-      <c r="B146" s="102" t="s">
+      <c r="A146" s="103" t="s">
         <v>600</v>
       </c>
-      <c r="C146" s="115" t="s">
+      <c r="B146" s="104" t="s">
         <v>601</v>
       </c>
-      <c r="D146" s="115" t="s">
+      <c r="C146" s="58" t="s">
         <v>602</v>
       </c>
-      <c r="E146" s="104" t="s">
+      <c r="D146" s="58" t="s">
+        <v>603</v>
+      </c>
+      <c r="E146" s="106" t="s">
+        <v>604</v>
+      </c>
+      <c r="F146" s="106"/>
+      <c r="G146" s="106" t="s">
+        <v>605</v>
+      </c>
+      <c r="H146" s="120" t="s">
         <v>606</v>
-      </c>
-      <c r="F146" s="104"/>
-      <c r="G146" s="104" t="s">
-        <v>604</v>
-      </c>
-      <c r="H146" s="116" t="s">
-        <v>607</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="45" t="s">
+      <c r="A147" s="103" t="s">
+        <v>600</v>
+      </c>
+      <c r="B147" s="104" t="s">
+        <v>601</v>
+      </c>
+      <c r="C147" s="58" t="s">
+        <v>602</v>
+      </c>
+      <c r="D147" s="58" t="s">
+        <v>603</v>
+      </c>
+      <c r="E147" s="106" t="s">
+        <v>607</v>
+      </c>
+      <c r="F147" s="106"/>
+      <c r="G147" s="106" t="s">
+        <v>605</v>
+      </c>
+      <c r="H147" s="120" t="s">
         <v>608</v>
       </c>
-      <c r="B147" s="46" t="s">
-        <v>609</v>
-      </c>
-      <c r="C147" s="57"/>
-      <c r="D147" s="57"/>
-      <c r="E147" s="35"/>
-      <c r="F147" s="47"/>
-      <c r="G147" s="36"/>
-      <c r="H147" s="36"/>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
     </row>
     <row r="148">
-      <c r="A148" s="51" t="s">
+      <c r="A148" s="47" t="s">
+        <v>609</v>
+      </c>
+      <c r="B148" s="48" t="s">
         <v>610</v>
       </c>
-      <c r="B148" s="52" t="s">
-        <v>611</v>
-      </c>
-      <c r="C148" s="57" t="s">
-        <v>612</v>
-      </c>
-      <c r="D148" s="57" t="s">
-        <v>611</v>
-      </c>
-      <c r="E148" s="47"/>
-      <c r="F148" s="35"/>
-      <c r="G148" s="36"/>
-      <c r="H148" s="36"/>
+      <c r="C148" s="59"/>
+      <c r="D148" s="59"/>
+      <c r="E148" s="36"/>
+      <c r="F148" s="49"/>
+      <c r="G148" s="37"/>
+      <c r="H148" s="37"/>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
     </row>
     <row r="149">
-      <c r="A149" s="69" t="s">
+      <c r="A149" s="53" t="s">
+        <v>611</v>
+      </c>
+      <c r="B149" s="54" t="s">
+        <v>612</v>
+      </c>
+      <c r="C149" s="59" t="s">
         <v>613</v>
       </c>
-      <c r="B149" s="70" t="s">
-        <v>614</v>
-      </c>
-      <c r="C149" s="57" t="s">
+      <c r="D149" s="59" t="s">
         <v>612</v>
       </c>
-      <c r="D149" s="57" t="s">
-        <v>611</v>
-      </c>
-      <c r="E149" s="47" t="s">
-        <v>615</v>
-      </c>
-      <c r="F149" s="35"/>
-      <c r="G149" s="36" t="s">
-        <v>586</v>
-      </c>
-      <c r="H149" s="97" t="s">
-        <v>616</v>
-      </c>
+      <c r="E149" s="49"/>
+      <c r="F149" s="36"/>
+      <c r="G149" s="37"/>
+      <c r="H149" s="37"/>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="69" t="s">
+      <c r="A150" s="71" t="s">
+        <v>614</v>
+      </c>
+      <c r="B150" s="72" t="s">
+        <v>615</v>
+      </c>
+      <c r="C150" s="49" t="s">
+        <v>613</v>
+      </c>
+      <c r="D150" s="59" t="s">
+        <v>612</v>
+      </c>
+      <c r="E150" s="49" t="s">
+        <v>616</v>
+      </c>
+      <c r="F150" s="36"/>
+      <c r="G150" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="H150" s="99" t="s">
         <v>617</v>
-      </c>
-      <c r="B150" s="70" t="s">
-        <v>618</v>
-      </c>
-      <c r="C150" s="36" t="s">
-        <v>612</v>
-      </c>
-      <c r="D150" s="56" t="s">
-        <v>611</v>
-      </c>
-      <c r="E150" s="47" t="s">
-        <v>619</v>
-      </c>
-      <c r="F150" s="35"/>
-      <c r="G150" s="36" t="s">
-        <v>586</v>
-      </c>
-      <c r="H150" s="47" t="s">
-        <v>620</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="51" t="s">
+      <c r="A151" s="71" t="s">
+        <v>618</v>
+      </c>
+      <c r="B151" s="72" t="s">
+        <v>619</v>
+      </c>
+      <c r="C151" s="59" t="s">
+        <v>613</v>
+      </c>
+      <c r="D151" s="59" t="s">
+        <v>612</v>
+      </c>
+      <c r="E151" s="49" t="s">
+        <v>620</v>
+      </c>
+      <c r="F151" s="36"/>
+      <c r="G151" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="H151" s="49" t="s">
         <v>621</v>
       </c>
-      <c r="B151" s="52" t="s">
-        <v>622</v>
-      </c>
-      <c r="C151" s="57" t="s">
-        <v>623</v>
-      </c>
-      <c r="D151" s="57" t="s">
-        <v>624</v>
-      </c>
-      <c r="E151" s="47" t="s">
-        <v>625</v>
-      </c>
-      <c r="F151" s="47"/>
-      <c r="G151" s="47" t="s">
-        <v>595</v>
-      </c>
-      <c r="H151" s="47" t="s">
-        <v>626</v>
-      </c>
-      <c r="I151" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="45" t="s">
+      <c r="A152" s="53" t="s">
+        <v>622</v>
+      </c>
+      <c r="B152" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="C152" s="59" t="s">
+        <v>624</v>
+      </c>
+      <c r="D152" s="59" t="s">
+        <v>625</v>
+      </c>
+      <c r="E152" s="49" t="s">
+        <v>626</v>
+      </c>
+      <c r="F152" s="49"/>
+      <c r="G152" s="49" t="s">
+        <v>596</v>
+      </c>
+      <c r="H152" s="49" t="s">
         <v>627</v>
       </c>
-      <c r="B152" s="46" t="s">
-        <v>628</v>
-      </c>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="7"/>
+      <c r="I152" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="51" t="s">
+      <c r="A153" s="47" t="s">
+        <v>628</v>
+      </c>
+      <c r="B153" s="48" t="s">
         <v>629</v>
       </c>
-      <c r="B153" s="52" t="s">
-        <v>630</v>
-      </c>
-      <c r="C153" s="57" t="s">
-        <v>631</v>
-      </c>
-      <c r="D153" s="57" t="s">
-        <v>632</v>
-      </c>
-      <c r="E153" s="47"/>
-      <c r="F153" s="35"/>
-      <c r="G153" s="47"/>
-      <c r="H153" s="36"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
     </row>
     <row r="154">
-      <c r="A154" s="69" t="s">
+      <c r="A154" s="53" t="s">
+        <v>630</v>
+      </c>
+      <c r="B154" s="54" t="s">
+        <v>631</v>
+      </c>
+      <c r="C154" s="59" t="s">
+        <v>632</v>
+      </c>
+      <c r="D154" s="59" t="s">
         <v>633</v>
       </c>
-      <c r="B154" s="70" t="s">
-        <v>634</v>
-      </c>
-      <c r="C154" s="57" t="s">
-        <v>631</v>
-      </c>
-      <c r="D154" s="57" t="s">
-        <v>632</v>
-      </c>
-      <c r="E154" s="47" t="s">
-        <v>635</v>
-      </c>
-      <c r="F154" s="35"/>
-      <c r="G154" s="47" t="s">
-        <v>636</v>
-      </c>
-      <c r="H154" s="117" t="s">
-        <v>637</v>
-      </c>
+      <c r="E154" s="49"/>
+      <c r="F154" s="36"/>
+      <c r="G154" s="49"/>
+      <c r="H154" s="37"/>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
     </row>
     <row r="155">
-      <c r="A155" s="69" t="s">
+      <c r="A155" s="71" t="s">
+        <v>634</v>
+      </c>
+      <c r="B155" s="72" t="s">
+        <v>635</v>
+      </c>
+      <c r="C155" s="59" t="s">
+        <v>632</v>
+      </c>
+      <c r="D155" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="E155" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="F155" s="36"/>
+      <c r="G155" s="49" t="s">
+        <v>637</v>
+      </c>
+      <c r="H155" s="121" t="s">
         <v>638</v>
-      </c>
-      <c r="B155" s="70" t="s">
-        <v>639</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="E155" s="47" t="s">
-        <v>640</v>
-      </c>
-      <c r="F155" s="35"/>
-      <c r="G155" s="47" t="s">
-        <v>636</v>
-      </c>
-      <c r="H155" s="117" t="s">
-        <v>641</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
     </row>
     <row r="156">
-      <c r="A156" s="51" t="s">
+      <c r="A156" s="71" t="s">
+        <v>639</v>
+      </c>
+      <c r="B156" s="72" t="s">
+        <v>640</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="E156" s="59" t="s">
+        <v>641</v>
+      </c>
+      <c r="F156" s="39"/>
+      <c r="G156" s="49" t="s">
+        <v>637</v>
+      </c>
+      <c r="H156" s="121" t="s">
         <v>642</v>
       </c>
-      <c r="B156" s="52" t="s">
-        <v>643</v>
-      </c>
-      <c r="C156" s="57" t="s">
-        <v>644</v>
-      </c>
-      <c r="D156" s="57" t="s">
-        <v>645</v>
-      </c>
-      <c r="E156" s="118" t="s">
-        <v>635</v>
-      </c>
-      <c r="F156" s="57"/>
-      <c r="G156" s="47" t="s">
-        <v>646</v>
-      </c>
-      <c r="H156" s="117" t="s">
-        <v>647</v>
-      </c>
-      <c r="I156" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="I156" s="7"/>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
     </row>
     <row r="157">
-      <c r="A157" s="45" t="s">
+      <c r="A157" s="53" t="s">
+        <v>643</v>
+      </c>
+      <c r="B157" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="C157" s="59" t="s">
+        <v>645</v>
+      </c>
+      <c r="D157" s="59" t="s">
+        <v>646</v>
+      </c>
+      <c r="E157" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="F157" s="49"/>
+      <c r="G157" s="49" t="s">
+        <v>647</v>
+      </c>
+      <c r="H157" s="121" t="s">
         <v>648</v>
       </c>
-      <c r="B157" s="46" t="s">
-        <v>649</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="H157" s="119" t="s">
-        <v>653</v>
-      </c>
-      <c r="I157" s="7" t="s">
+      <c r="I157" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
     </row>
     <row r="158">
-      <c r="A158" s="38" t="s">
+      <c r="A158" s="47" t="s">
+        <v>649</v>
+      </c>
+      <c r="B158" s="48" t="s">
+        <v>650</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="E158" s="36" t="s">
+        <v>653</v>
+      </c>
+      <c r="F158" s="36"/>
+      <c r="G158" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="H158" s="122" t="s">
         <v>654</v>
       </c>
-      <c r="B158" s="39" t="s">
+      <c r="I158" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="40" t="s">
         <v>655</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="B159" s="41" t="s">
         <v>656</v>
       </c>
-      <c r="D158" s="7"/>
-      <c r="E158" s="4" t="s">
+      <c r="C159" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="F158" s="4"/>
-      <c r="G158" s="35" t="s">
+      <c r="D159" s="7"/>
+      <c r="E159" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="H158" s="4" t="s">
+      <c r="F159" s="4"/>
+      <c r="G159" s="36" t="s">
         <v>659</v>
       </c>
-      <c r="I158" s="7"/>
-      <c r="J158" s="7"/>
-      <c r="K158" s="7" t="s">
+      <c r="H159" s="4" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="33" t="s">
-        <v>661</v>
-      </c>
-      <c r="B159" s="89" t="s">
-        <v>662</v>
-      </c>
-      <c r="C159" s="56"/>
-      <c r="D159" s="56"/>
-      <c r="E159" s="47"/>
-      <c r="F159" s="36"/>
-      <c r="G159" s="47"/>
-      <c r="H159" s="47"/>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
-      <c r="K159" s="7"/>
+      <c r="K159" s="39" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" s="38" t="s">
+      <c r="A160" s="34" t="s">
+        <v>662</v>
+      </c>
+      <c r="B160" s="91" t="s">
         <v>663</v>
       </c>
-      <c r="B160" s="39" t="s">
-        <v>664</v>
-      </c>
-      <c r="C160" s="56"/>
-      <c r="D160" s="56"/>
-      <c r="E160" s="47"/>
-      <c r="F160" s="36"/>
-      <c r="G160" s="47"/>
-      <c r="H160" s="47"/>
+      <c r="C160" s="58"/>
+      <c r="D160" s="58"/>
+      <c r="E160" s="49"/>
+      <c r="F160" s="37"/>
+      <c r="G160" s="49"/>
+      <c r="H160" s="49"/>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="113" t="s">
+      <c r="A161" s="40" t="s">
+        <v>664</v>
+      </c>
+      <c r="B161" s="41" t="s">
         <v>665</v>
       </c>
-      <c r="B161" s="114" t="s">
+      <c r="C161" s="58"/>
+      <c r="D161" s="58"/>
+      <c r="E161" s="49"/>
+      <c r="F161" s="37"/>
+      <c r="G161" s="49"/>
+      <c r="H161" s="49"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="118" t="s">
         <v>666</v>
       </c>
-      <c r="C161" s="56"/>
-      <c r="D161" s="56"/>
-      <c r="E161" s="104" t="s">
+      <c r="B162" s="119" t="s">
         <v>667</v>
       </c>
-      <c r="F161" s="36"/>
-      <c r="G161" s="104" t="s">
+      <c r="C162" s="58"/>
+      <c r="D162" s="58"/>
+      <c r="E162" s="37" t="s">
         <v>668</v>
       </c>
-      <c r="H161" s="116" t="s">
+      <c r="F162" s="37"/>
+      <c r="G162" s="123" t="s">
         <v>669</v>
       </c>
-      <c r="I161" s="56"/>
-      <c r="J161" s="56"/>
-      <c r="K161" s="56"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="101" t="s">
+      <c r="H162" s="124" t="s">
         <v>670</v>
       </c>
-      <c r="B162" s="102" t="s">
+      <c r="I162" s="117" t="s">
         <v>671</v>
       </c>
-      <c r="C162" s="115" t="s">
+      <c r="J162" s="117" t="s">
         <v>672</v>
       </c>
-      <c r="D162" s="112" t="s">
+      <c r="K162" s="125" t="s">
         <v>673</v>
       </c>
-      <c r="E162" s="104" t="s">
+    </row>
+    <row r="163">
+      <c r="A163" s="103" t="s">
         <v>674</v>
       </c>
-      <c r="F162" s="36"/>
-      <c r="G162" s="104" t="s">
+      <c r="B163" s="104" t="s">
         <v>675</v>
       </c>
-      <c r="H162" s="104" t="s">
+      <c r="C163" s="126" t="s">
         <v>676</v>
       </c>
-      <c r="I162" s="56"/>
-      <c r="J162" s="56"/>
-      <c r="K162" s="56"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="113" t="s">
+      <c r="D163" s="117" t="s">
         <v>677</v>
       </c>
-      <c r="B163" s="114" t="s">
+      <c r="E163" s="58" t="s">
         <v>678</v>
       </c>
-      <c r="C163" s="115" t="s">
+      <c r="F163" s="58"/>
+      <c r="G163" s="127" t="s">
         <v>679</v>
       </c>
-      <c r="D163" s="115" t="s">
+      <c r="H163" s="128" t="s">
         <v>680</v>
       </c>
-      <c r="E163" s="115" t="s">
+      <c r="I163" s="117" t="s">
         <v>681</v>
       </c>
-      <c r="F163" s="56"/>
-      <c r="G163" s="115" t="s">
-        <v>668</v>
-      </c>
-      <c r="H163" s="120" t="s">
+      <c r="J163" s="117" t="s">
         <v>682</v>
       </c>
-      <c r="I163" s="7"/>
-      <c r="J163" s="7"/>
-      <c r="K163" s="7"/>
+      <c r="K163" s="125" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" s="101" t="s">
+      <c r="A164" s="118" t="s">
         <v>683</v>
       </c>
-      <c r="B164" s="102" t="s">
+      <c r="B164" s="119" t="s">
         <v>684</v>
       </c>
-      <c r="C164" s="107"/>
-      <c r="D164" s="107"/>
-      <c r="E164" s="104" t="s">
+      <c r="C164" s="126" t="s">
         <v>685</v>
       </c>
-      <c r="F164" s="36"/>
-      <c r="G164" s="109"/>
-      <c r="H164" s="109"/>
-      <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
-      <c r="K164" s="7"/>
+      <c r="D164" s="126" t="s">
+        <v>686</v>
+      </c>
+      <c r="E164" s="37" t="s">
+        <v>687</v>
+      </c>
+      <c r="F164" s="37"/>
+      <c r="G164" s="123" t="s">
+        <v>669</v>
+      </c>
+      <c r="H164" s="124" t="s">
+        <v>688</v>
+      </c>
+      <c r="I164" s="117" t="s">
+        <v>689</v>
+      </c>
+      <c r="J164" s="117" t="s">
+        <v>672</v>
+      </c>
+      <c r="K164" s="125" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" s="101" t="s">
+      <c r="A165" s="103" t="s">
+        <v>690</v>
+      </c>
+      <c r="B165" s="104" t="s">
+        <v>691</v>
+      </c>
+      <c r="C165" s="129"/>
+      <c r="D165" s="129"/>
+      <c r="E165" s="108" t="s">
+        <v>687</v>
+      </c>
+      <c r="F165" s="58"/>
+      <c r="G165" s="109"/>
+      <c r="H165" s="109"/>
+      <c r="I165" s="58" t="s">
+        <v>692</v>
+      </c>
+      <c r="J165" s="58" t="s">
+        <v>693</v>
+      </c>
+      <c r="K165" s="125" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="103" t="s">
+        <v>695</v>
+      </c>
+      <c r="B166" s="104" t="s">
+        <v>696</v>
+      </c>
+      <c r="C166" s="106" t="s">
+        <v>676</v>
+      </c>
+      <c r="D166" s="116" t="s">
+        <v>677</v>
+      </c>
+      <c r="E166" s="37" t="s">
+        <v>697</v>
+      </c>
+      <c r="F166" s="37"/>
+      <c r="G166" s="123" t="s">
+        <v>679</v>
+      </c>
+      <c r="H166" s="123" t="s">
+        <v>680</v>
+      </c>
+      <c r="I166" s="58" t="s">
+        <v>698</v>
+      </c>
+      <c r="J166" s="58" t="s">
+        <v>682</v>
+      </c>
+      <c r="K166" s="125" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="103" t="s">
+        <v>699</v>
+      </c>
+      <c r="B167" s="104" t="s">
+        <v>700</v>
+      </c>
+      <c r="C167" s="113" t="s">
+        <v>676</v>
+      </c>
+      <c r="D167" s="113" t="s">
+        <v>677</v>
+      </c>
+      <c r="E167" s="37" t="s">
+        <v>701</v>
+      </c>
+      <c r="F167" s="37"/>
+      <c r="G167" s="123" t="s">
+        <v>702</v>
+      </c>
+      <c r="H167" s="124" t="s">
+        <v>703</v>
+      </c>
+      <c r="I167" s="58" t="s">
+        <v>698</v>
+      </c>
+      <c r="J167" s="58" t="s">
+        <v>704</v>
+      </c>
+      <c r="K167" s="125" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="118" t="s">
+        <v>705</v>
+      </c>
+      <c r="B168" s="119" t="s">
+        <v>706</v>
+      </c>
+      <c r="C168" s="126" t="s">
+        <v>685</v>
+      </c>
+      <c r="D168" s="126" t="s">
         <v>686</v>
       </c>
-      <c r="B165" s="102" t="s">
-        <v>687</v>
-      </c>
-      <c r="C165" s="115" t="s">
+      <c r="E168" s="130" t="s">
+        <v>707</v>
+      </c>
+      <c r="F168" s="130"/>
+      <c r="G168" s="123" t="s">
+        <v>669</v>
+      </c>
+      <c r="H168" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="I168" s="117" t="s">
+        <v>709</v>
+      </c>
+      <c r="J168" s="117" t="s">
         <v>672</v>
       </c>
-      <c r="D165" s="112" t="s">
+      <c r="K168" s="125" t="s">
         <v>673</v>
       </c>
-      <c r="E165" s="115" t="s">
-        <v>688</v>
-      </c>
-      <c r="F165" s="56"/>
-      <c r="G165" s="115" t="s">
-        <v>675</v>
-      </c>
-      <c r="H165" s="115" t="s">
+    </row>
+    <row r="169">
+      <c r="A169" s="103" t="s">
+        <v>710</v>
+      </c>
+      <c r="B169" s="104" t="s">
+        <v>691</v>
+      </c>
+      <c r="C169" s="129"/>
+      <c r="D169" s="129"/>
+      <c r="E169" s="131" t="s">
+        <v>707</v>
+      </c>
+      <c r="F169" s="130"/>
+      <c r="G169" s="132"/>
+      <c r="H169" s="132"/>
+      <c r="I169" s="58" t="s">
+        <v>711</v>
+      </c>
+      <c r="J169" s="58" t="s">
+        <v>693</v>
+      </c>
+      <c r="K169" s="125" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="103" t="s">
+        <v>712</v>
+      </c>
+      <c r="B170" s="104" t="s">
+        <v>696</v>
+      </c>
+      <c r="C170" s="126" t="s">
         <v>676</v>
       </c>
-      <c r="I165" s="7"/>
-      <c r="J165" s="7"/>
-      <c r="K165" s="7"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="101" t="s">
-        <v>689</v>
-      </c>
-      <c r="B166" s="102" t="s">
-        <v>690</v>
-      </c>
-      <c r="C166" s="109" t="s">
-        <v>672</v>
-      </c>
-      <c r="D166" s="109" t="s">
+      <c r="D170" s="117" t="s">
+        <v>677</v>
+      </c>
+      <c r="E170" s="130" t="s">
+        <v>713</v>
+      </c>
+      <c r="F170" s="130"/>
+      <c r="G170" s="127" t="s">
+        <v>679</v>
+      </c>
+      <c r="H170" s="127" t="s">
+        <v>680</v>
+      </c>
+      <c r="I170" s="58" t="s">
+        <v>714</v>
+      </c>
+      <c r="J170" s="58" t="s">
+        <v>682</v>
+      </c>
+      <c r="K170" s="125" t="s">
         <v>673</v>
       </c>
-      <c r="E166" s="104" t="s">
-        <v>691</v>
-      </c>
-      <c r="F166" s="36"/>
-      <c r="G166" s="109" t="s">
-        <v>692</v>
-      </c>
-      <c r="H166" s="109" t="s">
-        <v>693</v>
-      </c>
-      <c r="I166" s="7"/>
-      <c r="J166" s="7"/>
-      <c r="K166" s="7"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="113" t="s">
+    </row>
+    <row r="171">
+      <c r="A171" s="103" t="s">
+        <v>715</v>
+      </c>
+      <c r="B171" s="104" t="s">
+        <v>716</v>
+      </c>
+      <c r="C171" s="113" t="s">
+        <v>676</v>
+      </c>
+      <c r="D171" s="112" t="s">
+        <v>677</v>
+      </c>
+      <c r="E171" s="130" t="s">
+        <v>717</v>
+      </c>
+      <c r="F171" s="130"/>
+      <c r="G171" s="123" t="s">
+        <v>702</v>
+      </c>
+      <c r="H171" s="123" t="s">
+        <v>703</v>
+      </c>
+      <c r="I171" s="58" t="s">
+        <v>714</v>
+      </c>
+      <c r="J171" s="58" t="s">
+        <v>704</v>
+      </c>
+      <c r="K171" s="125" t="s">
         <v>694</v>
       </c>
-      <c r="B167" s="114" t="s">
-        <v>695</v>
-      </c>
-      <c r="C167" s="115" t="s">
-        <v>679</v>
-      </c>
-      <c r="D167" s="115" t="s">
-        <v>680</v>
-      </c>
-      <c r="E167" s="104" t="s">
-        <v>696</v>
-      </c>
-      <c r="F167" s="36"/>
-      <c r="G167" s="104" t="s">
-        <v>668</v>
-      </c>
-      <c r="H167" s="116" t="s">
-        <v>697</v>
-      </c>
-      <c r="I167" s="7"/>
-      <c r="J167" s="7"/>
-      <c r="K167" s="7"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="101" t="s">
-        <v>698</v>
-      </c>
-      <c r="B168" s="102" t="s">
-        <v>684</v>
-      </c>
-      <c r="C168" s="107"/>
-      <c r="D168" s="107"/>
-      <c r="E168" s="121" t="s">
-        <v>699</v>
-      </c>
-      <c r="F168" s="122"/>
-      <c r="G168" s="109"/>
-      <c r="H168" s="109"/>
-      <c r="I168" s="7"/>
-      <c r="J168" s="7"/>
-      <c r="K168" s="7"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="101" t="s">
-        <v>700</v>
-      </c>
-      <c r="B169" s="102" t="s">
-        <v>687</v>
-      </c>
-      <c r="C169" s="115" t="s">
-        <v>672</v>
-      </c>
-      <c r="D169" s="112" t="s">
-        <v>673</v>
-      </c>
-      <c r="E169" s="121" t="s">
-        <v>701</v>
-      </c>
-      <c r="F169" s="122"/>
-      <c r="G169" s="104" t="s">
-        <v>675</v>
-      </c>
-      <c r="H169" s="104" t="s">
-        <v>676</v>
-      </c>
-      <c r="I169" s="7"/>
-      <c r="J169" s="7"/>
-      <c r="K169" s="7"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="101" t="s">
-        <v>702</v>
-      </c>
-      <c r="B170" s="102" t="s">
-        <v>703</v>
-      </c>
-      <c r="C170" s="110" t="s">
-        <v>672</v>
-      </c>
-      <c r="D170" s="110" t="s">
-        <v>673</v>
-      </c>
-      <c r="E170" s="121" t="s">
-        <v>704</v>
-      </c>
-      <c r="F170" s="122"/>
-      <c r="G170" s="110" t="s">
-        <v>692</v>
-      </c>
-      <c r="H170" s="110" t="s">
-        <v>693</v>
-      </c>
-      <c r="I170" s="7"/>
-      <c r="J170" s="7"/>
-      <c r="K170" s="7"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="45" t="s">
-        <v>705</v>
-      </c>
-      <c r="B171" s="46" t="s">
-        <v>706</v>
-      </c>
-      <c r="C171" s="56"/>
-      <c r="D171" s="36"/>
-      <c r="E171" s="123"/>
-      <c r="F171" s="122"/>
-      <c r="G171" s="47"/>
-      <c r="H171" s="47"/>
-      <c r="I171" s="7"/>
-      <c r="J171" s="7"/>
-      <c r="K171" s="7"/>
     </row>
     <row r="172">
-      <c r="A172" s="51" t="s">
-        <v>707</v>
-      </c>
-      <c r="B172" s="52" t="s">
-        <v>708</v>
-      </c>
-      <c r="C172" s="56" t="s">
-        <v>709</v>
-      </c>
-      <c r="D172" s="57"/>
-      <c r="E172" s="123" t="s">
-        <v>710</v>
-      </c>
-      <c r="F172" s="122"/>
-      <c r="G172" s="57"/>
-      <c r="H172" s="57"/>
+      <c r="A172" s="47" t="s">
+        <v>718</v>
+      </c>
+      <c r="B172" s="48" t="s">
+        <v>719</v>
+      </c>
+      <c r="C172" s="58"/>
+      <c r="D172" s="58"/>
+      <c r="E172" s="133"/>
+      <c r="F172" s="130"/>
+      <c r="G172" s="59"/>
+      <c r="H172" s="59"/>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
-      <c r="K172" s="7" t="s">
-        <v>711</v>
-      </c>
+      <c r="K172" s="7"/>
     </row>
     <row r="173">
-      <c r="A173" s="51" t="s">
-        <v>712</v>
-      </c>
-      <c r="B173" s="52" t="s">
-        <v>713</v>
-      </c>
-      <c r="C173" s="56" t="s">
-        <v>714</v>
-      </c>
-      <c r="D173" s="56"/>
-      <c r="E173" s="123" t="s">
-        <v>715</v>
-      </c>
-      <c r="F173" s="122"/>
-      <c r="G173" s="47"/>
-      <c r="H173" s="47"/>
+      <c r="A173" s="53" t="s">
+        <v>720</v>
+      </c>
+      <c r="B173" s="54" t="s">
+        <v>721</v>
+      </c>
+      <c r="C173" s="58" t="s">
+        <v>722</v>
+      </c>
+      <c r="D173" s="58"/>
+      <c r="E173" s="133" t="s">
+        <v>723</v>
+      </c>
+      <c r="F173" s="130"/>
+      <c r="G173" s="49"/>
+      <c r="H173" s="49"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
-      <c r="K173" s="7" t="s">
-        <v>711</v>
+      <c r="K173" s="39" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="38" t="s">
-        <v>716</v>
-      </c>
-      <c r="B174" s="39" t="s">
-        <v>717</v>
-      </c>
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
+      <c r="A174" s="53" t="s">
+        <v>725</v>
+      </c>
+      <c r="B174" s="54" t="s">
+        <v>726</v>
+      </c>
+      <c r="C174" s="58" t="s">
+        <v>727</v>
+      </c>
+      <c r="D174" s="58"/>
+      <c r="E174" s="133" t="s">
+        <v>728</v>
+      </c>
+      <c r="F174" s="130"/>
+      <c r="G174" s="49"/>
+      <c r="H174" s="49"/>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
-      <c r="K174" s="7"/>
+      <c r="K174" s="39" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" s="45" t="s">
-        <v>718</v>
-      </c>
-      <c r="B175" s="46" t="s">
-        <v>719</v>
+      <c r="A175" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="B175" s="41" t="s">
+        <v>730</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
@@ -15007,158 +15193,164 @@
       <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="51" t="s">
-        <v>720</v>
-      </c>
-      <c r="B176" s="52" t="s">
-        <v>721</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>679</v>
-      </c>
+      <c r="A176" s="47" t="s">
+        <v>731</v>
+      </c>
+      <c r="B176" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="C176" s="7"/>
       <c r="D176" s="7"/>
-      <c r="E176" s="18" t="s">
-        <v>722</v>
-      </c>
+      <c r="E176" s="18"/>
       <c r="F176" s="18"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
-      <c r="K176" s="7" t="s">
-        <v>711</v>
-      </c>
+      <c r="K176" s="7"/>
     </row>
     <row r="177">
-      <c r="A177" s="101" t="s">
-        <v>723</v>
-      </c>
-      <c r="B177" s="52" t="s">
-        <v>724</v>
+      <c r="A177" s="53" t="s">
+        <v>733</v>
+      </c>
+      <c r="B177" s="54" t="s">
+        <v>734</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>725</v>
+        <v>685</v>
       </c>
       <c r="D177" s="7"/>
       <c r="E177" s="18" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="F177" s="18"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
-      <c r="I177" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J177" s="7"/>
-      <c r="K177" s="7" t="s">
-        <v>711</v>
+      <c r="I177" s="113" t="s">
+        <v>736</v>
+      </c>
+      <c r="J177" s="113" t="s">
+        <v>737</v>
+      </c>
+      <c r="K177" s="39" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="45" t="s">
-        <v>727</v>
-      </c>
-      <c r="B178" s="46" t="s">
-        <v>728</v>
+      <c r="A178" s="103" t="s">
+        <v>738</v>
+      </c>
+      <c r="B178" s="54" t="s">
+        <v>739</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="D178" s="7"/>
       <c r="E178" s="18" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
       <c r="F178" s="18"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
-      <c r="I178" s="7"/>
-      <c r="J178" s="7"/>
-      <c r="K178" s="7" t="s">
-        <v>711</v>
+      <c r="I178" s="134" t="s">
+        <v>742</v>
+      </c>
+      <c r="J178" s="113" t="s">
+        <v>743</v>
+      </c>
+      <c r="K178" s="39" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="45" t="s">
-        <v>731</v>
-      </c>
-      <c r="B179" s="46" t="s">
-        <v>732</v>
-      </c>
-      <c r="C179" s="4"/>
+      <c r="A179" s="47" t="s">
+        <v>744</v>
+      </c>
+      <c r="B179" s="48" t="s">
+        <v>745</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>746</v>
+      </c>
       <c r="D179" s="7"/>
-      <c r="E179" s="18"/>
+      <c r="E179" s="18" t="s">
+        <v>747</v>
+      </c>
       <c r="F179" s="18"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
-      <c r="K179" s="7"/>
+      <c r="K179" s="39" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="180">
-      <c r="A180" s="51" t="s">
-        <v>733</v>
-      </c>
-      <c r="B180" s="52" t="s">
-        <v>734</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>735</v>
-      </c>
+      <c r="A180" s="47" t="s">
+        <v>748</v>
+      </c>
+      <c r="B180" s="48" t="s">
+        <v>749</v>
+      </c>
+      <c r="C180" s="7"/>
       <c r="D180" s="7"/>
-      <c r="E180" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="E180" s="4"/>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
-      <c r="K180" s="7" t="s">
-        <v>711</v>
-      </c>
+      <c r="K180" s="39"/>
     </row>
     <row r="181">
-      <c r="A181" s="33" t="s">
-        <v>737</v>
-      </c>
-      <c r="B181" s="89" t="s">
-        <v>738</v>
-      </c>
-      <c r="C181" s="7"/>
+      <c r="A181" s="53" t="s">
+        <v>750</v>
+      </c>
+      <c r="B181" s="54" t="s">
+        <v>751</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>752</v>
+      </c>
       <c r="D181" s="7"/>
-      <c r="E181" s="35" t="s">
-        <v>739</v>
+      <c r="E181" s="4" t="s">
+        <v>753</v>
       </c>
       <c r="F181" s="4"/>
-      <c r="G181" s="61"/>
-      <c r="H181" s="61"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
-      <c r="K181" s="7"/>
+      <c r="K181" s="39" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="182">
-      <c r="A182" s="38" t="s">
-        <v>740</v>
-      </c>
-      <c r="B182" s="39" t="s">
-        <v>8</v>
+      <c r="A182" s="34" t="s">
+        <v>754</v>
+      </c>
+      <c r="B182" s="91" t="s">
+        <v>755</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
-      <c r="E182" s="4"/>
+      <c r="E182" s="36" t="s">
+        <v>756</v>
+      </c>
       <c r="F182" s="4"/>
-      <c r="G182" s="4"/>
-      <c r="H182" s="4"/>
+      <c r="G182" s="63"/>
+      <c r="H182" s="63"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
     </row>
     <row r="183">
-      <c r="A183" s="45" t="s">
-        <v>741</v>
-      </c>
-      <c r="B183" s="46" t="s">
-        <v>742</v>
+      <c r="A183" s="40" t="s">
+        <v>757</v>
+      </c>
+      <c r="B183" s="41" t="s">
+        <v>8</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
@@ -15171,453 +15363,474 @@
       <c r="K183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="51" t="s">
-        <v>743</v>
-      </c>
-      <c r="B184" s="52" t="s">
-        <v>744</v>
-      </c>
-      <c r="C184" s="56" t="s">
-        <v>745</v>
-      </c>
-      <c r="D184" s="56" t="s">
-        <v>746</v>
-      </c>
-      <c r="E184" s="47" t="s">
-        <v>747</v>
-      </c>
-      <c r="F184" s="47"/>
-      <c r="G184" s="36" t="s">
-        <v>748</v>
-      </c>
-      <c r="H184" s="97" t="s">
-        <v>749</v>
-      </c>
+      <c r="A184" s="47" t="s">
+        <v>758</v>
+      </c>
+      <c r="B184" s="48" t="s">
+        <v>759</v>
+      </c>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
     </row>
     <row r="185">
-      <c r="A185" s="51" t="s">
-        <v>750</v>
-      </c>
-      <c r="B185" s="52" t="s">
-        <v>751</v>
-      </c>
-      <c r="C185" s="56" t="s">
-        <v>745</v>
-      </c>
-      <c r="D185" s="56" t="s">
-        <v>746</v>
-      </c>
-      <c r="E185" s="47" t="s">
-        <v>752</v>
-      </c>
-      <c r="F185" s="47"/>
-      <c r="G185" s="36" t="s">
-        <v>748</v>
-      </c>
-      <c r="H185" s="47" t="s">
-        <v>753</v>
+      <c r="A185" s="53" t="s">
+        <v>760</v>
+      </c>
+      <c r="B185" s="54" t="s">
+        <v>761</v>
+      </c>
+      <c r="C185" s="59" t="s">
+        <v>762</v>
+      </c>
+      <c r="D185" s="59" t="s">
+        <v>763</v>
+      </c>
+      <c r="E185" s="49" t="s">
+        <v>764</v>
+      </c>
+      <c r="F185" s="49"/>
+      <c r="G185" s="37" t="s">
+        <v>765</v>
+      </c>
+      <c r="H185" s="99" t="s">
+        <v>766</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
     </row>
     <row r="186">
-      <c r="A186" s="51" t="s">
-        <v>754</v>
-      </c>
-      <c r="B186" s="52" t="s">
-        <v>755</v>
-      </c>
-      <c r="C186" s="56" t="s">
-        <v>756</v>
-      </c>
-      <c r="D186" s="56" t="s">
-        <v>757</v>
-      </c>
-      <c r="E186" s="47" t="s">
-        <v>758</v>
-      </c>
-      <c r="F186" s="47"/>
-      <c r="G186" s="36" t="s">
-        <v>759</v>
-      </c>
-      <c r="H186" s="36" t="s">
-        <v>760</v>
+      <c r="A186" s="53" t="s">
+        <v>767</v>
+      </c>
+      <c r="B186" s="54" t="s">
+        <v>768</v>
+      </c>
+      <c r="C186" s="59" t="s">
+        <v>762</v>
+      </c>
+      <c r="D186" s="59" t="s">
+        <v>763</v>
+      </c>
+      <c r="E186" s="49" t="s">
+        <v>769</v>
+      </c>
+      <c r="F186" s="49"/>
+      <c r="G186" s="37" t="s">
+        <v>765</v>
+      </c>
+      <c r="H186" s="49" t="s">
+        <v>770</v>
       </c>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
     </row>
     <row r="187">
-      <c r="A187" s="124" t="s">
-        <v>761</v>
-      </c>
-      <c r="B187" s="125" t="s">
-        <v>762</v>
-      </c>
-      <c r="C187" s="110" t="s">
-        <v>763</v>
-      </c>
-      <c r="D187" s="110" t="s">
-        <v>764</v>
-      </c>
-      <c r="E187" s="111" t="s">
-        <v>765</v>
-      </c>
-      <c r="F187" s="111"/>
-      <c r="G187" s="109"/>
-      <c r="H187" s="109"/>
+      <c r="A187" s="53" t="s">
+        <v>771</v>
+      </c>
+      <c r="B187" s="54" t="s">
+        <v>772</v>
+      </c>
+      <c r="C187" s="59" t="s">
+        <v>773</v>
+      </c>
+      <c r="D187" s="59" t="s">
+        <v>774</v>
+      </c>
+      <c r="E187" s="49" t="s">
+        <v>775</v>
+      </c>
+      <c r="F187" s="49"/>
+      <c r="G187" s="37" t="s">
+        <v>776</v>
+      </c>
+      <c r="H187" s="37" t="s">
+        <v>777</v>
+      </c>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
     </row>
     <row r="188">
-      <c r="A188" s="124" t="s">
-        <v>766</v>
-      </c>
-      <c r="B188" s="125" t="s">
-        <v>767</v>
-      </c>
-      <c r="C188" s="110" t="s">
-        <v>763</v>
-      </c>
-      <c r="D188" s="110" t="s">
-        <v>764</v>
-      </c>
-      <c r="E188" s="111" t="s">
-        <v>768</v>
-      </c>
-      <c r="F188" s="111"/>
-      <c r="G188" s="109"/>
-      <c r="H188" s="109"/>
-      <c r="I188" s="7"/>
-      <c r="J188" s="7"/>
-      <c r="K188" s="7"/>
+      <c r="A188" s="114" t="s">
+        <v>778</v>
+      </c>
+      <c r="B188" s="115" t="s">
+        <v>779</v>
+      </c>
+      <c r="C188" s="113" t="s">
+        <v>780</v>
+      </c>
+      <c r="D188" s="113" t="s">
+        <v>781</v>
+      </c>
+      <c r="E188" s="116" t="s">
+        <v>782</v>
+      </c>
+      <c r="F188" s="116"/>
+      <c r="G188" s="135"/>
+      <c r="H188" s="135"/>
+      <c r="I188" s="58"/>
+      <c r="J188" s="58"/>
+      <c r="K188" s="125" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="189">
-      <c r="A189" s="124" t="s">
-        <v>769</v>
-      </c>
-      <c r="B189" s="125" t="s">
-        <v>770</v>
-      </c>
-      <c r="C189" s="111" t="s">
-        <v>771</v>
-      </c>
-      <c r="D189" s="112" t="s">
-        <v>772</v>
-      </c>
-      <c r="E189" s="111" t="s">
-        <v>773</v>
-      </c>
-      <c r="F189" s="111"/>
-      <c r="G189" s="111" t="s">
-        <v>774</v>
-      </c>
-      <c r="H189" s="111" t="s">
-        <v>775</v>
-      </c>
-      <c r="I189" s="7"/>
-      <c r="J189" s="7"/>
-      <c r="K189" s="7"/>
+      <c r="A189" s="114" t="s">
+        <v>784</v>
+      </c>
+      <c r="B189" s="115" t="s">
+        <v>785</v>
+      </c>
+      <c r="C189" s="112" t="s">
+        <v>780</v>
+      </c>
+      <c r="D189" s="113" t="s">
+        <v>781</v>
+      </c>
+      <c r="E189" s="116" t="s">
+        <v>786</v>
+      </c>
+      <c r="F189" s="116"/>
+      <c r="G189" s="135"/>
+      <c r="H189" s="135"/>
+      <c r="I189" s="58"/>
+      <c r="J189" s="58"/>
+      <c r="K189" s="125" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="190">
-      <c r="A190" s="51" t="s">
-        <v>776</v>
-      </c>
-      <c r="B190" s="52" t="s">
-        <v>777</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>778</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="F190" s="4"/>
-      <c r="G190" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="H190" s="98" t="s">
-        <v>782</v>
-      </c>
-      <c r="I190" s="7"/>
-      <c r="J190" s="7"/>
+      <c r="A190" s="114" t="s">
+        <v>787</v>
+      </c>
+      <c r="B190" s="115" t="s">
+        <v>788</v>
+      </c>
+      <c r="C190" s="117" t="s">
+        <v>789</v>
+      </c>
+      <c r="D190" s="117" t="s">
+        <v>790</v>
+      </c>
+      <c r="E190" s="116" t="s">
+        <v>791</v>
+      </c>
+      <c r="F190" s="116"/>
+      <c r="G190" s="116" t="s">
+        <v>792</v>
+      </c>
+      <c r="H190" s="116" t="s">
+        <v>793</v>
+      </c>
+      <c r="I190" s="58"/>
+      <c r="J190" s="58"/>
       <c r="K190" s="7"/>
     </row>
     <row r="191">
-      <c r="A191" s="124" t="s">
-        <v>783</v>
-      </c>
-      <c r="B191" s="125" t="s">
-        <v>784</v>
-      </c>
-      <c r="C191" s="112" t="s">
-        <v>778</v>
-      </c>
-      <c r="D191" s="112" t="s">
-        <v>779</v>
-      </c>
-      <c r="E191" s="111" t="s">
-        <v>785</v>
+      <c r="A191" s="53" t="s">
+        <v>794</v>
+      </c>
+      <c r="B191" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>798</v>
       </c>
       <c r="F191" s="4"/>
-      <c r="G191" s="111" t="s">
-        <v>786</v>
-      </c>
-      <c r="H191" s="126" t="s">
-        <v>787</v>
-      </c>
-      <c r="I191" s="112"/>
+      <c r="G191" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="H191" s="136" t="s">
+        <v>800</v>
+      </c>
+      <c r="I191" s="7"/>
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
     </row>
     <row r="192">
-      <c r="A192" s="51" t="s">
-        <v>776</v>
-      </c>
-      <c r="B192" s="52" t="s">
-        <v>788</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="D192" s="7"/>
-      <c r="E192" s="4" t="s">
-        <v>790</v>
+      <c r="A192" s="114" t="s">
+        <v>801</v>
+      </c>
+      <c r="B192" s="115" t="s">
+        <v>802</v>
+      </c>
+      <c r="C192" s="117" t="s">
+        <v>796</v>
+      </c>
+      <c r="D192" s="117" t="s">
+        <v>797</v>
+      </c>
+      <c r="E192" s="116" t="s">
+        <v>803</v>
       </c>
       <c r="F192" s="4"/>
-      <c r="G192" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="H192" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="I192" s="7" t="s">
-        <v>793</v>
-      </c>
-      <c r="J192" s="7"/>
+      <c r="G192" s="116" t="s">
+        <v>804</v>
+      </c>
+      <c r="H192" s="137" t="s">
+        <v>805</v>
+      </c>
+      <c r="I192" s="58"/>
+      <c r="J192" s="58"/>
       <c r="K192" s="7"/>
     </row>
     <row r="193">
-      <c r="A193" s="45" t="s">
+      <c r="A193" s="53" t="s">
         <v>794</v>
       </c>
-      <c r="B193" s="46" t="s">
-        <v>795</v>
+      <c r="B193" s="54" t="s">
+        <v>806</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>796</v>
-      </c>
-      <c r="D193" s="56"/>
-      <c r="E193" s="36"/>
-      <c r="F193" s="36"/>
-      <c r="G193" s="36"/>
-      <c r="H193" s="36"/>
-      <c r="I193" s="7"/>
+        <v>807</v>
+      </c>
+      <c r="D193" s="7"/>
+      <c r="E193" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="I193" s="39" t="s">
+        <v>811</v>
+      </c>
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
     </row>
     <row r="194">
-      <c r="A194" s="51" t="s">
-        <v>797</v>
-      </c>
-      <c r="B194" s="52" t="s">
-        <v>798</v>
-      </c>
-      <c r="C194" s="56" t="s">
-        <v>799</v>
-      </c>
-      <c r="D194" s="56" t="s">
-        <v>800</v>
-      </c>
-      <c r="E194" s="47" t="s">
-        <v>801</v>
-      </c>
-      <c r="F194" s="57"/>
-      <c r="G194" s="36" t="s">
-        <v>802</v>
-      </c>
-      <c r="H194" s="97" t="s">
-        <v>803</v>
-      </c>
+      <c r="A194" s="47" t="s">
+        <v>812</v>
+      </c>
+      <c r="B194" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="D194" s="58"/>
+      <c r="E194" s="37"/>
+      <c r="F194" s="58"/>
+      <c r="G194" s="37"/>
+      <c r="H194" s="37"/>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
     </row>
     <row r="195">
-      <c r="A195" s="45" t="s">
-        <v>804</v>
-      </c>
-      <c r="B195" s="46" t="s">
-        <v>805</v>
-      </c>
-      <c r="C195" s="56" t="s">
-        <v>806</v>
-      </c>
-      <c r="D195" s="56" t="s">
-        <v>807</v>
-      </c>
-      <c r="E195" s="47"/>
-      <c r="F195" s="36"/>
-      <c r="G195" s="36"/>
-      <c r="H195" s="36"/>
+      <c r="A195" s="53" t="s">
+        <v>815</v>
+      </c>
+      <c r="B195" s="54" t="s">
+        <v>816</v>
+      </c>
+      <c r="C195" s="59" t="s">
+        <v>817</v>
+      </c>
+      <c r="D195" s="59" t="s">
+        <v>818</v>
+      </c>
+      <c r="E195" s="49" t="s">
+        <v>819</v>
+      </c>
+      <c r="F195" s="49"/>
+      <c r="G195" s="37" t="s">
+        <v>820</v>
+      </c>
+      <c r="H195" s="99" t="s">
+        <v>821</v>
+      </c>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
     </row>
     <row r="196">
-      <c r="A196" s="51" t="s">
-        <v>808</v>
-      </c>
-      <c r="B196" s="52" t="s">
-        <v>809</v>
-      </c>
-      <c r="C196" s="56" t="s">
-        <v>806</v>
-      </c>
-      <c r="D196" s="56" t="s">
-        <v>807</v>
-      </c>
-      <c r="E196" s="47" t="s">
-        <v>810</v>
-      </c>
-      <c r="F196" s="36"/>
-      <c r="G196" s="36" t="s">
-        <v>811</v>
-      </c>
-      <c r="H196" s="97" t="s">
-        <v>812</v>
-      </c>
+      <c r="A196" s="47" t="s">
+        <v>822</v>
+      </c>
+      <c r="B196" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="C196" s="59" t="s">
+        <v>824</v>
+      </c>
+      <c r="D196" s="59" t="s">
+        <v>825</v>
+      </c>
+      <c r="E196" s="49"/>
+      <c r="F196" s="37"/>
+      <c r="G196" s="37"/>
+      <c r="H196" s="37"/>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
     </row>
     <row r="197">
-      <c r="A197" s="51" t="s">
-        <v>813</v>
-      </c>
-      <c r="B197" s="52" t="s">
-        <v>814</v>
-      </c>
-      <c r="C197" s="56" t="s">
-        <v>806</v>
-      </c>
-      <c r="D197" s="56" t="s">
-        <v>807</v>
-      </c>
-      <c r="E197" s="47" t="s">
-        <v>815</v>
-      </c>
-      <c r="F197" s="36"/>
-      <c r="G197" s="36" t="s">
-        <v>811</v>
-      </c>
-      <c r="H197" s="97" t="s">
-        <v>816</v>
+      <c r="A197" s="53" t="s">
+        <v>826</v>
+      </c>
+      <c r="B197" s="54" t="s">
+        <v>827</v>
+      </c>
+      <c r="C197" s="59" t="s">
+        <v>824</v>
+      </c>
+      <c r="D197" s="59" t="s">
+        <v>825</v>
+      </c>
+      <c r="E197" s="49" t="s">
+        <v>828</v>
+      </c>
+      <c r="F197" s="37"/>
+      <c r="G197" s="37" t="s">
+        <v>829</v>
+      </c>
+      <c r="H197" s="99" t="s">
+        <v>830</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
     </row>
     <row r="198">
-      <c r="A198" s="38" t="s">
-        <v>817</v>
-      </c>
-      <c r="B198" s="39" t="s">
-        <v>818</v>
-      </c>
-      <c r="C198" s="7"/>
-      <c r="D198" s="7"/>
-      <c r="E198" s="4"/>
-      <c r="F198" s="4"/>
-      <c r="G198" s="4"/>
-      <c r="H198" s="4"/>
+      <c r="A198" s="53" t="s">
+        <v>831</v>
+      </c>
+      <c r="B198" s="54" t="s">
+        <v>832</v>
+      </c>
+      <c r="C198" s="59" t="s">
+        <v>824</v>
+      </c>
+      <c r="D198" s="59" t="s">
+        <v>825</v>
+      </c>
+      <c r="E198" s="49" t="s">
+        <v>833</v>
+      </c>
+      <c r="F198" s="37"/>
+      <c r="G198" s="37" t="s">
+        <v>829</v>
+      </c>
+      <c r="H198" s="99" t="s">
+        <v>834</v>
+      </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
     </row>
     <row r="199">
-      <c r="A199" s="45" t="s">
-        <v>819</v>
-      </c>
-      <c r="B199" s="46" t="s">
-        <v>820</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>725</v>
-      </c>
+      <c r="A199" s="40" t="s">
+        <v>835</v>
+      </c>
+      <c r="B199" s="41" t="s">
+        <v>836</v>
+      </c>
+      <c r="C199" s="7"/>
       <c r="D199" s="7"/>
-      <c r="E199" s="35" t="s">
-        <v>821</v>
-      </c>
-      <c r="F199" s="35" t="s">
-        <v>822</v>
-      </c>
-      <c r="G199" s="35" t="s">
-        <v>823</v>
-      </c>
-      <c r="H199" s="35" t="s">
-        <v>824</v>
-      </c>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
-      <c r="K199" s="72" t="s">
-        <v>825</v>
-      </c>
+      <c r="K199" s="7"/>
     </row>
     <row r="200">
-      <c r="A200" s="45" t="s">
-        <v>826</v>
-      </c>
-      <c r="B200" s="46" t="s">
-        <v>827</v>
+      <c r="A200" s="47" t="s">
+        <v>837</v>
+      </c>
+      <c r="B200" s="48" t="s">
+        <v>838</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>828</v>
+        <v>740</v>
       </c>
       <c r="D200" s="7"/>
-      <c r="E200" s="35" t="s">
-        <v>829</v>
-      </c>
-      <c r="F200" s="4"/>
-      <c r="G200" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="H200" s="35" t="s">
-        <v>831</v>
+      <c r="E200" s="36" t="s">
+        <v>839</v>
+      </c>
+      <c r="F200" s="36" t="s">
+        <v>840</v>
+      </c>
+      <c r="G200" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="H200" s="36" t="s">
+        <v>842</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
-      <c r="K200" s="7"/>
+      <c r="K200" s="39" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="201">
-      <c r="A201" s="45" t="s">
-        <v>832</v>
-      </c>
-      <c r="B201" s="46" t="s">
-        <v>833</v>
+      <c r="A201" s="47" t="s">
+        <v>844</v>
+      </c>
+      <c r="B201" s="48" t="s">
+        <v>845</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>725</v>
+        <v>846</v>
       </c>
       <c r="D201" s="7"/>
-      <c r="E201" s="4" t="s">
-        <v>834</v>
+      <c r="E201" s="36" t="s">
+        <v>847</v>
       </c>
       <c r="F201" s="4"/>
-      <c r="G201" s="35"/>
-      <c r="H201" s="4"/>
+      <c r="G201" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="H201" s="36" t="s">
+        <v>849</v>
+      </c>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
-      <c r="K201" s="7" t="s">
-        <v>711</v>
+      <c r="K201" s="7"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="47" t="s">
+        <v>850</v>
+      </c>
+      <c r="B202" s="48" t="s">
+        <v>851</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="D202" s="7"/>
+      <c r="E202" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="F202" s="4"/>
+      <c r="G202" s="36"/>
+      <c r="H202" s="4"/>
+      <c r="I202" s="7"/>
+      <c r="J202" s="7"/>
+      <c r="K202" s="39" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -15625,27 +15838,27 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="G1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:B201">
+  <conditionalFormatting sqref="A3:B202">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>REGEXMATCH($A3,"^[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B201">
+  <conditionalFormatting sqref="A3:B202">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B201">
+  <conditionalFormatting sqref="A3:B202">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B201">
+  <conditionalFormatting sqref="A3:B202">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B201">
+  <conditionalFormatting sqref="A3:B202">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
@@ -15661,14 +15874,17 @@
     <hyperlink r:id="rId8" ref="H104"/>
     <hyperlink r:id="rId9" ref="H105"/>
     <hyperlink r:id="rId10" ref="H106"/>
-    <hyperlink r:id="rId11" ref="H145"/>
-    <hyperlink r:id="rId12" ref="H146"/>
-    <hyperlink r:id="rId13" ref="H161"/>
+    <hyperlink r:id="rId11" ref="H146"/>
+    <hyperlink r:id="rId12" ref="H147"/>
+    <hyperlink r:id="rId13" ref="H162"/>
     <hyperlink r:id="rId14" ref="H163"/>
-    <hyperlink r:id="rId15" ref="H167"/>
-    <hyperlink r:id="rId16" ref="H191"/>
+    <hyperlink r:id="rId15" ref="H164"/>
+    <hyperlink r:id="rId16" ref="H167"/>
+    <hyperlink r:id="rId17" ref="H168"/>
+    <hyperlink r:id="rId18" ref="H191"/>
+    <hyperlink r:id="rId19" ref="H192"/>
   </hyperlinks>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -15690,22 +15906,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="139" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15716,277 +15932,277 @@
       <c r="B2" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="39" t="s">
         <v>390</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="39" t="s">
         <v>391</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="F2" s="35" t="s">
-        <v>835</v>
+      <c r="F2" s="36" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>836</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>838</v>
+      <c r="C3" s="59" t="s">
+        <v>854</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="36" t="s">
+        <v>855</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="C4" s="57" t="s">
-        <v>836</v>
-      </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>840</v>
+      <c r="C4" s="59" t="s">
+        <v>854</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="36" t="s">
+        <v>857</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="39" t="s">
         <v>390</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="39" t="s">
         <v>391</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>841</v>
-      </c>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
+        <v>473</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>859</v>
+      </c>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>842</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>843</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>844</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>845</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>846</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="128"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
+        <v>860</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>861</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>862</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>863</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>864</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="140"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="140"/>
+      <c r="Y6" s="140"/>
+      <c r="Z6" s="140"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>847</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>848</v>
+        <v>865</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>866</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>849</v>
+        <v>867</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>851</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>852</v>
+        <v>868</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>869</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>853</v>
+        <v>871</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>854</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>725</v>
+        <v>872</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>740</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="72" t="s">
-        <v>855</v>
-      </c>
-      <c r="F8" s="72" t="s">
-        <v>856</v>
+      <c r="E8" s="39" t="s">
+        <v>873</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="82" t="s">
-        <v>857</v>
-      </c>
-      <c r="B9" s="82" t="s">
-        <v>858</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>725</v>
-      </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82" t="s">
-        <v>859</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>856</v>
+      <c r="A9" s="84" t="s">
+        <v>875</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>876</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>740</v>
+      </c>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84" t="s">
+        <v>877</v>
+      </c>
+      <c r="F9" s="84" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>860</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>861</v>
-      </c>
-      <c r="C10" s="129" t="s">
-        <v>862</v>
+        <v>878</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>879</v>
+      </c>
+      <c r="C10" s="141" t="s">
+        <v>880</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="72" t="s">
-        <v>863</v>
-      </c>
-      <c r="F10" s="72" t="s">
-        <v>864</v>
+      <c r="E10" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>865</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>866</v>
+        <v>883</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>884</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>867</v>
+        <v>885</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="E11" s="72" t="s">
-        <v>869</v>
-      </c>
-      <c r="F11" s="72" t="s">
-        <v>870</v>
+        <v>886</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>887</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="81" t="s">
-        <v>871</v>
-      </c>
-      <c r="B12" s="82" t="s">
-        <v>872</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>543</v>
-      </c>
-      <c r="D12" s="81" t="s">
+      <c r="A12" s="83" t="s">
+        <v>889</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>890</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>542</v>
+      </c>
+      <c r="D12" s="83" t="s">
         <v>411</v>
       </c>
-      <c r="E12" s="82" t="s">
-        <v>873</v>
-      </c>
-      <c r="F12" s="130" t="s">
-        <v>874</v>
+      <c r="E12" s="84" t="s">
+        <v>891</v>
+      </c>
+      <c r="F12" s="142" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="B13" s="72" t="s">
-        <v>876</v>
+        <v>893</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>894</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="72" t="s">
-        <v>877</v>
-      </c>
-      <c r="F13" s="131" t="s">
-        <v>878</v>
+      <c r="E13" s="39" t="s">
+        <v>895</v>
+      </c>
+      <c r="F13" s="143" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="123" t="s">
-        <v>879</v>
-      </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="57" t="s">
-        <v>880</v>
-      </c>
-      <c r="E14" s="72" t="s">
-        <v>881</v>
-      </c>
-      <c r="F14" s="131" t="s">
-        <v>882</v>
+      <c r="A14" s="133" t="s">
+        <v>897</v>
+      </c>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="59" t="s">
+        <v>898</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>899</v>
+      </c>
+      <c r="F14" s="143" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="15">
@@ -19967,108 +20183,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="132" t="s">
-        <v>883</v>
-      </c>
-      <c r="B2" s="133" t="s">
-        <v>884</v>
+      <c r="A2" s="144" t="s">
+        <v>901</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="134" t="s">
-        <v>885</v>
-      </c>
-      <c r="B3" s="133" t="s">
-        <v>886</v>
+      <c r="A3" s="146" t="s">
+        <v>903</v>
+      </c>
+      <c r="B3" s="145" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="135" t="s">
-        <v>887</v>
+      <c r="A4" s="147" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="136" t="s">
-        <v>888</v>
-      </c>
-      <c r="B6" s="133" t="s">
-        <v>889</v>
+      <c r="A6" s="148" t="s">
+        <v>906</v>
+      </c>
+      <c r="B6" s="145" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="133" t="s">
-        <v>890</v>
+      <c r="B7" s="145" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="133"/>
+      <c r="B8" s="145"/>
     </row>
     <row r="9">
-      <c r="B9" s="133"/>
+      <c r="B9" s="145"/>
     </row>
     <row r="10">
-      <c r="A10" s="136" t="s">
-        <v>891</v>
+      <c r="A10" s="148" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="136" t="s">
-        <v>892</v>
-      </c>
-      <c r="B11" s="137" t="s">
-        <v>893</v>
+      <c r="A11" s="148" t="s">
+        <v>910</v>
+      </c>
+      <c r="B11" s="149" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="138" t="s">
-        <v>894</v>
+      <c r="B12" s="150" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="139"/>
-      <c r="B13" s="140" t="s">
-        <v>895</v>
+      <c r="A13" s="151"/>
+      <c r="B13" s="152" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="141" t="s">
-        <v>896</v>
+      <c r="B14" s="153" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="142" t="s">
-        <v>897</v>
+      <c r="B15" s="154" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="143" t="s">
-        <v>898</v>
+      <c r="B16" s="155" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="136"/>
+      <c r="A17" s="148"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="136" t="s">
-        <v>899</v>
-      </c>
-      <c r="B18" s="144" t="s">
-        <v>900</v>
+      <c r="A18" s="148" t="s">
+        <v>917</v>
+      </c>
+      <c r="B18" s="156" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>901</v>
-      </c>
-      <c r="B19" s="145"/>
+        <v>919</v>
+      </c>
+      <c r="B19" s="157"/>
     </row>
     <row r="21">
-      <c r="A21" s="136" t="s">
-        <v>902</v>
-      </c>
-      <c r="B21" s="146" t="s">
-        <v>903</v>
+      <c r="A21" s="148" t="s">
+        <v>920</v>
+      </c>
+      <c r="B21" s="158" t="s">
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -20093,48 +20309,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="136" t="s">
-        <v>904</v>
+      <c r="A1" s="148" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="147" t="s">
-        <v>905</v>
+      <c r="A2" s="159" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="133" t="s">
-        <v>906</v>
+      <c r="A3" s="145" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="147" t="s">
-        <v>907</v>
+      <c r="A4" s="159" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="133" t="s">
-        <v>908</v>
+      <c r="A5" s="145" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="133" t="s">
-        <v>909</v>
+      <c r="A6" s="145" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="133" t="s">
-        <v>910</v>
+      <c r="A7" s="145" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="147" t="s">
-        <v>911</v>
+      <c r="A8" s="159" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="133" t="s">
-        <v>912</v>
+      <c r="A9" s="145" t="s">
+        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -20160,48 +20376,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="B1" s="148" t="s">
-        <v>913</v>
+        <v>922</v>
+      </c>
+      <c r="B1" s="160" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="149" t="s">
-        <v>914</v>
+      <c r="A2" s="161" t="s">
+        <v>932</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>916</v>
+        <v>934</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>917</v>
+        <v>935</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>918</v>
+        <v>936</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>919</v>
+        <v>937</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>920</v>
+        <v>938</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
     </row>
   </sheetData>
@@ -20220,7 +20436,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="137"/>
+      <c r="A1" s="149"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -20244,40 +20460,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="150" t="s">
-        <v>922</v>
-      </c>
-      <c r="C1" s="150" t="s">
-        <v>923</v>
-      </c>
-      <c r="E1" s="151" t="s">
+      <c r="A1" s="162" t="s">
+        <v>940</v>
+      </c>
+      <c r="C1" s="162" t="s">
+        <v>941</v>
+      </c>
+      <c r="E1" s="163" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>924</v>
+        <v>942</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>926</v>
+        <v>944</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>927</v>
+        <v>945</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="35" t="s">
-        <v>928</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>929</v>
+      <c r="A3" s="36" t="s">
+        <v>946</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>947</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>930</v>
+        <v>948</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -20286,14 +20502,14 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="35" t="s">
-        <v>931</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>929</v>
+      <c r="A4" s="36" t="s">
+        <v>949</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>947</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>930</v>
+        <v>948</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20302,288 +20518,288 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="35" t="s">
-        <v>932</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>933</v>
+      <c r="A5" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>951</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>934</v>
+        <v>948</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>952</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>935</v>
+        <v>953</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>936</v>
+        <v>954</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>937</v>
+        <v>955</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>930</v>
+        <v>948</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>938</v>
+        <v>956</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>939</v>
+        <v>957</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>940</v>
+        <v>958</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>941</v>
+        <v>959</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>930</v>
+        <v>948</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>942</v>
+        <v>960</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>943</v>
+        <v>961</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>944</v>
+        <v>962</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>945</v>
+        <v>963</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>930</v>
+        <v>948</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>946</v>
+        <v>964</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>947</v>
+        <v>965</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="164" t="s">
+        <v>966</v>
+      </c>
+      <c r="B9" s="165" t="s">
+        <v>967</v>
+      </c>
+      <c r="C9" s="165" t="s">
         <v>948</v>
       </c>
-      <c r="B9" s="153" t="s">
-        <v>949</v>
-      </c>
-      <c r="C9" s="153" t="s">
-        <v>930</v>
-      </c>
-      <c r="D9" s="153" t="s">
-        <v>950</v>
-      </c>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="153"/>
-      <c r="T9" s="153"/>
-      <c r="U9" s="153"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="153"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="153"/>
+      <c r="D9" s="165" t="s">
+        <v>968</v>
+      </c>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="165"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="165"/>
+      <c r="Q9" s="165"/>
+      <c r="R9" s="165"/>
+      <c r="S9" s="165"/>
+      <c r="T9" s="165"/>
+      <c r="U9" s="165"/>
+      <c r="V9" s="165"/>
+      <c r="W9" s="165"/>
+      <c r="X9" s="165"/>
+      <c r="Y9" s="165"/>
+      <c r="Z9" s="165"/>
     </row>
     <row r="10">
-      <c r="A10" s="152" t="s">
+      <c r="A10" s="164" t="s">
+        <v>969</v>
+      </c>
+      <c r="B10" s="165" t="s">
+        <v>967</v>
+      </c>
+      <c r="C10" s="165" t="s">
+        <v>948</v>
+      </c>
+      <c r="D10" s="165" t="s">
+        <v>970</v>
+      </c>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="166"/>
+      <c r="O10" s="166"/>
+      <c r="P10" s="166"/>
+      <c r="Q10" s="166"/>
+      <c r="R10" s="166"/>
+      <c r="S10" s="166"/>
+      <c r="T10" s="166"/>
+      <c r="U10" s="166"/>
+      <c r="V10" s="166"/>
+      <c r="W10" s="166"/>
+      <c r="X10" s="166"/>
+      <c r="Y10" s="166"/>
+      <c r="Z10" s="166"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="164" t="s">
+        <v>971</v>
+      </c>
+      <c r="B11" s="165" t="s">
+        <v>972</v>
+      </c>
+      <c r="C11" s="165" t="s">
+        <v>948</v>
+      </c>
+      <c r="D11" s="165" t="s">
+        <v>973</v>
+      </c>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="166"/>
+      <c r="O11" s="166"/>
+      <c r="P11" s="166"/>
+      <c r="Q11" s="166"/>
+      <c r="R11" s="166"/>
+      <c r="S11" s="166"/>
+      <c r="T11" s="166"/>
+      <c r="U11" s="166"/>
+      <c r="V11" s="166"/>
+      <c r="W11" s="166"/>
+      <c r="X11" s="166"/>
+      <c r="Y11" s="166"/>
+      <c r="Z11" s="166"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="164" t="s">
+        <v>974</v>
+      </c>
+      <c r="B12" s="165" t="s">
+        <v>972</v>
+      </c>
+      <c r="C12" s="165" t="s">
+        <v>948</v>
+      </c>
+      <c r="D12" s="165" t="s">
+        <v>975</v>
+      </c>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="166"/>
+      <c r="O12" s="166"/>
+      <c r="P12" s="166"/>
+      <c r="Q12" s="166"/>
+      <c r="R12" s="166"/>
+      <c r="S12" s="166"/>
+      <c r="T12" s="166"/>
+      <c r="U12" s="166"/>
+      <c r="V12" s="166"/>
+      <c r="W12" s="166"/>
+      <c r="X12" s="166"/>
+      <c r="Y12" s="166"/>
+      <c r="Z12" s="166"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="164" t="s">
+        <v>976</v>
+      </c>
+      <c r="B13" s="164" t="s">
         <v>951</v>
       </c>
-      <c r="B10" s="153" t="s">
-        <v>949</v>
-      </c>
-      <c r="C10" s="153" t="s">
-        <v>930</v>
-      </c>
-      <c r="D10" s="153" t="s">
-        <v>952</v>
-      </c>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="154"/>
-      <c r="P10" s="154"/>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="154"/>
-      <c r="S10" s="154"/>
-      <c r="T10" s="154"/>
-      <c r="U10" s="154"/>
-      <c r="V10" s="154"/>
-      <c r="W10" s="154"/>
-      <c r="X10" s="154"/>
-      <c r="Y10" s="154"/>
-      <c r="Z10" s="154"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="152" t="s">
-        <v>953</v>
-      </c>
-      <c r="B11" s="153" t="s">
-        <v>954</v>
-      </c>
-      <c r="C11" s="153" t="s">
-        <v>930</v>
-      </c>
-      <c r="D11" s="153" t="s">
-        <v>955</v>
-      </c>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="154"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="154"/>
-      <c r="T11" s="154"/>
-      <c r="U11" s="154"/>
-      <c r="V11" s="154"/>
-      <c r="W11" s="154"/>
-      <c r="X11" s="154"/>
-      <c r="Y11" s="154"/>
-      <c r="Z11" s="154"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="152" t="s">
-        <v>956</v>
-      </c>
-      <c r="B12" s="153" t="s">
-        <v>954</v>
-      </c>
-      <c r="C12" s="153" t="s">
-        <v>930</v>
-      </c>
-      <c r="D12" s="153" t="s">
-        <v>957</v>
-      </c>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="154"/>
-      <c r="P12" s="154"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="154"/>
-      <c r="S12" s="154"/>
-      <c r="T12" s="154"/>
-      <c r="U12" s="154"/>
-      <c r="V12" s="154"/>
-      <c r="W12" s="154"/>
-      <c r="X12" s="154"/>
-      <c r="Y12" s="154"/>
-      <c r="Z12" s="154"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="152" t="s">
-        <v>958</v>
-      </c>
-      <c r="B13" s="152" t="s">
-        <v>933</v>
-      </c>
-      <c r="C13" s="153" t="s">
-        <v>930</v>
-      </c>
-      <c r="D13" s="153" t="s">
-        <v>959</v>
-      </c>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="154"/>
-      <c r="T13" s="154"/>
-      <c r="U13" s="154"/>
-      <c r="V13" s="154"/>
-      <c r="W13" s="154"/>
-      <c r="X13" s="154"/>
-      <c r="Y13" s="154"/>
-      <c r="Z13" s="154"/>
+      <c r="C13" s="165" t="s">
+        <v>948</v>
+      </c>
+      <c r="D13" s="165" t="s">
+        <v>977</v>
+      </c>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="166"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="166"/>
+      <c r="N13" s="166"/>
+      <c r="O13" s="166"/>
+      <c r="P13" s="166"/>
+      <c r="Q13" s="166"/>
+      <c r="R13" s="166"/>
+      <c r="S13" s="166"/>
+      <c r="T13" s="166"/>
+      <c r="U13" s="166"/>
+      <c r="V13" s="166"/>
+      <c r="W13" s="166"/>
+      <c r="X13" s="166"/>
+      <c r="Y13" s="166"/>
+      <c r="Z13" s="166"/>
     </row>
     <row r="14">
-      <c r="A14" s="152" t="s">
-        <v>960</v>
-      </c>
-      <c r="B14" s="152" t="s">
-        <v>933</v>
-      </c>
-      <c r="C14" s="153" t="s">
-        <v>930</v>
-      </c>
-      <c r="D14" s="153" t="s">
-        <v>961</v>
-      </c>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="154"/>
-      <c r="N14" s="154"/>
-      <c r="O14" s="154"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="154"/>
-      <c r="T14" s="154"/>
-      <c r="U14" s="154"/>
-      <c r="V14" s="154"/>
-      <c r="W14" s="154"/>
-      <c r="X14" s="154"/>
-      <c r="Y14" s="154"/>
-      <c r="Z14" s="154"/>
+      <c r="A14" s="164" t="s">
+        <v>978</v>
+      </c>
+      <c r="B14" s="164" t="s">
+        <v>951</v>
+      </c>
+      <c r="C14" s="165" t="s">
+        <v>948</v>
+      </c>
+      <c r="D14" s="165" t="s">
+        <v>979</v>
+      </c>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="166"/>
+      <c r="M14" s="166"/>
+      <c r="N14" s="166"/>
+      <c r="O14" s="166"/>
+      <c r="P14" s="166"/>
+      <c r="Q14" s="166"/>
+      <c r="R14" s="166"/>
+      <c r="S14" s="166"/>
+      <c r="T14" s="166"/>
+      <c r="U14" s="166"/>
+      <c r="V14" s="166"/>
+      <c r="W14" s="166"/>
+      <c r="X14" s="166"/>
+      <c r="Y14" s="166"/>
+      <c r="Z14" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -20611,52 +20827,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="155" t="s">
-        <v>922</v>
+      <c r="A1" s="167" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="136" t="s">
-        <v>924</v>
-      </c>
-      <c r="B2" s="136" t="s">
-        <v>925</v>
-      </c>
-      <c r="C2" s="136" t="s">
-        <v>926</v>
-      </c>
-      <c r="D2" s="136" t="s">
-        <v>927</v>
+      <c r="A2" s="148" t="s">
+        <v>942</v>
+      </c>
+      <c r="B2" s="148" t="s">
+        <v>943</v>
+      </c>
+      <c r="C2" s="148" t="s">
+        <v>944</v>
+      </c>
+      <c r="D2" s="148" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="133" t="s">
-        <v>962</v>
-      </c>
-      <c r="B3" s="133" t="s">
-        <v>963</v>
+      <c r="A3" s="145" t="s">
+        <v>980</v>
+      </c>
+      <c r="B3" s="145" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="133" t="s">
-        <v>964</v>
-      </c>
-      <c r="B4" s="133" t="s">
-        <v>965</v>
+      <c r="A4" s="145" t="s">
+        <v>982</v>
+      </c>
+      <c r="B4" s="145" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="133" t="s">
-        <v>966</v>
-      </c>
-      <c r="B5" s="133" t="s">
-        <v>967</v>
-      </c>
-      <c r="C5" s="156" t="s">
-        <v>965</v>
-      </c>
-      <c r="D5" s="133" t="s">
-        <v>968</v>
+      <c r="A5" s="145" t="s">
+        <v>984</v>
+      </c>
+      <c r="B5" s="145" t="s">
+        <v>985</v>
+      </c>
+      <c r="C5" s="168" t="s">
+        <v>983</v>
+      </c>
+      <c r="D5" s="145" t="s">
+        <v>986</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F01/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F01/transformation/conceptual_mappings.xlsx
@@ -4463,7 +4463,7 @@
         <rFont val="Arial"/>
         <color rgb="FFFF0000"/>
       </rPr>
-      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType &lt;</t>
     </r>
     <r>
       <rPr>
@@ -4510,7 +4510,7 @@
     <t>epo:Lot / epo:SelectionCriterion / rdf:langString</t>
   </si>
   <si>
-    <t>?this epo:specifiesSelectionCriterion / ccev:description ?value .</t>
+    <t>?this epo:specifiesSelectionCriterion / cccev:description ?value .</t>
   </si>
   <si>
     <t>epo:ProfessionalSuitabilitySummary / rdf:langString</t>
@@ -4539,7 +4539,7 @@
         <rFont val="Arial"/>
         <color rgb="FFFF0000"/>
       </rPr>
-      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType &lt;</t>
     </r>
     <r>
       <rPr>
@@ -4620,7 +4620,7 @@
         <rFont val="Arial"/>
         <color rgb="FFFF0000"/>
       </rPr>
-      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType &lt;</t>
     </r>
     <r>
       <rPr>
@@ -6200,7 +6200,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="168">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6276,8 +6276,8 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -6287,9 +6287,6 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -10146,25 +10143,25 @@
       <c r="D2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="32" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="28"/>
@@ -10184,27 +10181,27 @@
       <c r="Z2" s="28"/>
     </row>
     <row r="3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="35" t="s">
         <v>49</v>
       </c>
       <c r="L3" s="28"/>
@@ -10216,25 +10213,25 @@
       <c r="R3" s="28"/>
     </row>
     <row r="4">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="39" t="s">
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="38" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="28"/>
@@ -10246,20 +10243,20 @@
       <c r="R4" s="28"/>
     </row>
     <row r="5">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="7"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -10270,20 +10267,20 @@
       <c r="R5" s="28"/>
     </row>
     <row r="6">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="7"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -10294,26 +10291,26 @@
       <c r="R6" s="28"/>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="7"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
@@ -10324,26 +10321,26 @@
       <c r="R7" s="28"/>
     </row>
     <row r="8">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="7"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
@@ -10354,32 +10351,32 @@
       <c r="R8" s="28"/>
     </row>
     <row r="9">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45" t="s">
+      <c r="F9" s="44"/>
+      <c r="G9" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="36"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="7"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -10390,32 +10387,32 @@
       <c r="R9" s="28"/>
     </row>
     <row r="10">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46" t="s">
+      <c r="F10" s="45"/>
+      <c r="G10" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="36"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="7"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
@@ -10426,10 +10423,10 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -10438,18 +10435,18 @@
       <c r="D11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="7"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
@@ -10460,10 +10457,10 @@
       <c r="R11" s="28"/>
     </row>
     <row r="12">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -10472,18 +10469,18 @@
       <c r="D12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="7"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
@@ -10494,32 +10491,32 @@
       <c r="R12" s="28"/>
     </row>
     <row r="13">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="7"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
@@ -10530,10 +10527,10 @@
       <c r="R13" s="28"/>
     </row>
     <row r="14">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -10542,18 +10539,18 @@
       <c r="D14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="7"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
@@ -10564,30 +10561,30 @@
       <c r="R14" s="28"/>
     </row>
     <row r="15">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45" t="s">
+      <c r="F15" s="44"/>
+      <c r="G15" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="7"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
@@ -10598,32 +10595,32 @@
       <c r="R15" s="28"/>
     </row>
     <row r="16">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="36"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="7"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -10634,10 +10631,10 @@
       <c r="R16" s="28"/>
     </row>
     <row r="17">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>122</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -10646,18 +10643,18 @@
       <c r="D17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37" t="s">
+      <c r="F17" s="35"/>
+      <c r="G17" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="7"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
@@ -10668,10 +10665,10 @@
       <c r="R17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -10680,18 +10677,18 @@
       <c r="D18" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
       <c r="K18" s="7"/>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
@@ -10702,10 +10699,10 @@
       <c r="R18" s="28"/>
     </row>
     <row r="19">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>135</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -10714,18 +10711,18 @@
       <c r="D19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37" t="s">
+      <c r="F19" s="35"/>
+      <c r="G19" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="7"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
@@ -10736,20 +10733,20 @@
       <c r="R19" s="28"/>
     </row>
     <row r="20">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="47" t="s">
         <v>141</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="7"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
@@ -10760,30 +10757,30 @@
       <c r="R20" s="28"/>
     </row>
     <row r="21">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="H21" s="46" t="s">
+      <c r="H21" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="7"/>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
@@ -10794,10 +10791,10 @@
       <c r="R21" s="28"/>
     </row>
     <row r="22">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="53" t="s">
         <v>149</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -10806,18 +10803,18 @@
       <c r="D22" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36" t="s">
+      <c r="F22" s="35"/>
+      <c r="G22" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="7"/>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
@@ -10828,103 +10825,103 @@
       <c r="R22" s="28"/>
     </row>
     <row r="23">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
     </row>
     <row r="24">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="40" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36" t="s">
+      <c r="F24" s="35"/>
+      <c r="G24" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
     </row>
     <row r="25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="I25" s="46" t="s">
+      <c r="I25" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="57"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="56"/>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
@@ -10934,33 +10931,33 @@
       <c r="R25" s="28"/>
     </row>
     <row r="26">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46" t="s">
+      <c r="F26" s="45"/>
+      <c r="G26" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="46" t="s">
+      <c r="H26" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="57"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
       <c r="N26" s="28"/>
@@ -10970,10 +10967,10 @@
       <c r="R26" s="28"/>
     </row>
     <row r="27">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="47" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -10982,18 +10979,18 @@
       <c r="D27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36" t="s">
+      <c r="F27" s="35"/>
+      <c r="G27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="7"/>
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
@@ -11004,10 +11001,10 @@
       <c r="R27" s="28"/>
     </row>
     <row r="28">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -11016,18 +11013,18 @@
       <c r="D28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36" t="s">
+      <c r="F28" s="35"/>
+      <c r="G28" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="H28" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="7"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
@@ -11038,54 +11035,54 @@
       <c r="R28" s="28"/>
     </row>
     <row r="29">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
     </row>
     <row r="30">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="47" t="s">
         <v>102</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -11094,18 +11091,18 @@
       <c r="D30" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36" t="s">
+      <c r="F30" s="35"/>
+      <c r="G30" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
       <c r="K30" s="7"/>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
@@ -11116,31 +11113,31 @@
       <c r="R30" s="28"/>
     </row>
     <row r="31">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45" t="s">
+      <c r="F31" s="44"/>
+      <c r="G31" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="57"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="56"/>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
       <c r="N31" s="28"/>
@@ -11150,10 +11147,10 @@
       <c r="R31" s="28"/>
     </row>
     <row r="32">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="47" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -11162,20 +11159,20 @@
       <c r="D32" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37" t="s">
+      <c r="F32" s="35"/>
+      <c r="G32" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H32" s="49" t="s">
+      <c r="H32" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="I32" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="36"/>
+      <c r="J32" s="35"/>
       <c r="K32" s="7"/>
       <c r="L32" s="28"/>
       <c r="M32" s="28"/>
@@ -11186,10 +11183,10 @@
       <c r="R32" s="28"/>
     </row>
     <row r="33">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="47" t="s">
         <v>122</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -11198,18 +11195,18 @@
       <c r="D33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37" t="s">
+      <c r="F33" s="35"/>
+      <c r="G33" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H33" s="50" t="s">
+      <c r="H33" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
       <c r="K33" s="7"/>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
@@ -11220,10 +11217,10 @@
       <c r="R33" s="28"/>
     </row>
     <row r="34">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="47" t="s">
         <v>128</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -11232,18 +11229,18 @@
       <c r="D34" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="37" t="s">
+      <c r="F34" s="35"/>
+      <c r="G34" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="H34" s="49" t="s">
+      <c r="H34" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
       <c r="K34" s="7"/>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
@@ -11254,10 +11251,10 @@
       <c r="R34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="47" t="s">
         <v>135</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -11266,50 +11263,50 @@
       <c r="D35" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="58" t="s">
+      <c r="F35" s="35"/>
+      <c r="G35" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="59" t="s">
+      <c r="H35" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="55"/>
     </row>
     <row r="36">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="47" t="s">
         <v>141</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
       <c r="K36" s="7"/>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
@@ -11320,31 +11317,31 @@
       <c r="R36" s="28"/>
     </row>
     <row r="37">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="D37" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="E37" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="F37" s="61"/>
-      <c r="G37" s="62" t="s">
+      <c r="F37" s="60"/>
+      <c r="G37" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="H37" s="62" t="s">
+      <c r="H37" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="57"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="56"/>
       <c r="L37" s="28"/>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
@@ -11354,10 +11351,10 @@
       <c r="R37" s="28"/>
     </row>
     <row r="38">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="53" t="s">
         <v>149</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -11366,17 +11363,17 @@
       <c r="D38" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36" t="s">
+      <c r="F38" s="35"/>
+      <c r="G38" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="H38" s="49" t="s">
+      <c r="H38" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="I38" s="39"/>
+      <c r="I38" s="38"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="28"/>
@@ -11388,10 +11385,10 @@
       <c r="R38" s="28"/>
     </row>
     <row r="39">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="40" t="s">
         <v>186</v>
       </c>
       <c r="C39" s="4"/>
@@ -11400,7 +11397,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="39"/>
+      <c r="I39" s="38"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="28"/>
@@ -11412,67 +11409,67 @@
       <c r="R39" s="28"/>
     </row>
     <row r="40">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37" t="s">
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="37" t="s">
+      <c r="F40" s="44"/>
+      <c r="G40" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="H40" s="49" t="s">
+      <c r="H40" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="I40" s="39"/>
+      <c r="I40" s="38"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="56"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="55"/>
     </row>
     <row r="41">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="37" t="s">
+      <c r="E41" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37" t="s">
+      <c r="F41" s="36"/>
+      <c r="G41" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="H41" s="49" t="s">
+      <c r="H41" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="I41" s="39" t="s">
+      <c r="I41" s="38" t="s">
         <v>199</v>
       </c>
       <c r="J41" s="7"/>
@@ -11486,25 +11483,25 @@
       <c r="R41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46" t="s">
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="F42" s="45"/>
-      <c r="G42" s="36" t="s">
+      <c r="F42" s="44"/>
+      <c r="G42" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="H42" s="36" t="s">
+      <c r="H42" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="I42" s="39"/>
+      <c r="I42" s="38"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="28"/>
@@ -11516,24 +11513,24 @@
       <c r="R42" s="28"/>
     </row>
     <row r="43">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="40" t="s">
         <v>206</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="63" t="s">
+      <c r="E43" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="F43" s="63" t="s">
+      <c r="F43" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="G43" s="63" t="s">
+      <c r="G43" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="H43" s="63" t="s">
+      <c r="H43" s="62" t="s">
         <v>210</v>
       </c>
       <c r="I43" s="7"/>
@@ -11548,24 +11545,24 @@
       <c r="R43" s="28"/>
     </row>
     <row r="44">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49" t="s">
+      <c r="D44" s="48"/>
+      <c r="E44" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49" t="s">
+      <c r="F44" s="48"/>
+      <c r="G44" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="H44" s="49" t="s">
+      <c r="H44" s="48" t="s">
         <v>216</v>
       </c>
       <c r="I44" s="7"/>
@@ -11580,26 +11577,26 @@
       <c r="R44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49" t="s">
+      <c r="D45" s="48"/>
+      <c r="E45" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="F45" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="G45" s="49" t="s">
+      <c r="G45" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="H45" s="49" t="s">
+      <c r="H45" s="48" t="s">
         <v>223</v>
       </c>
       <c r="I45" s="7"/>
@@ -11614,24 +11611,24 @@
       <c r="R45" s="28"/>
     </row>
     <row r="46">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59" t="s">
+      <c r="D46" s="58"/>
+      <c r="E46" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59" t="s">
+      <c r="F46" s="58"/>
+      <c r="G46" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="H46" s="65" t="s">
+      <c r="H46" s="64" t="s">
         <v>227</v>
       </c>
       <c r="I46" s="7"/>
@@ -11646,26 +11643,26 @@
       <c r="R46" s="28"/>
     </row>
     <row r="47">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="42" t="s">
+      <c r="D47" s="48"/>
+      <c r="E47" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="F47" s="49" t="s">
+      <c r="F47" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="G47" s="49" t="s">
+      <c r="G47" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="H47" s="49" t="s">
+      <c r="H47" s="48" t="s">
         <v>232</v>
       </c>
       <c r="I47" s="4"/>
@@ -11680,16 +11677,16 @@
       <c r="R47" s="28"/>
     </row>
     <row r="48">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -11704,10 +11701,10 @@
       <c r="R48" s="28"/>
     </row>
     <row r="49">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="53" t="s">
         <v>236</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -11718,50 +11715,50 @@
         <v>238</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="63" t="s">
+      <c r="G49" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H49" s="63" t="s">
+      <c r="H49" s="62" t="s">
         <v>61</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
+      <c r="Z49" s="55"/>
     </row>
     <row r="50">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="C50" s="68" t="s">
+      <c r="C50" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="D50" s="68"/>
-      <c r="E50" s="69" t="s">
+      <c r="D50" s="67"/>
+      <c r="E50" s="68" t="s">
         <v>238</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="63" t="s">
+      <c r="G50" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="H50" s="63" t="s">
+      <c r="H50" s="62" t="s">
         <v>240</v>
       </c>
       <c r="I50" s="7"/>
@@ -11776,10 +11773,10 @@
       <c r="R50" s="28"/>
     </row>
     <row r="51">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="53" t="s">
         <v>242</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -11790,15 +11787,15 @@
         <v>243</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="70" t="s">
+      <c r="G51" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="70" t="s">
+      <c r="H51" s="69" t="s">
         <v>61</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
-      <c r="K51" s="57"/>
+      <c r="K51" s="56"/>
       <c r="L51" s="28"/>
       <c r="M51" s="28"/>
       <c r="N51" s="28"/>
@@ -11808,10 +11805,10 @@
       <c r="R51" s="28"/>
     </row>
     <row r="52">
-      <c r="A52" s="71" t="s">
+      <c r="A52" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="71" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -11824,13 +11821,13 @@
         <v>245</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="70" t="s">
+      <c r="G52" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="H52" s="73" t="s">
+      <c r="H52" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="I52" s="39" t="s">
+      <c r="I52" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J52" s="7"/>
@@ -11844,29 +11841,29 @@
       <c r="R52" s="28"/>
     </row>
     <row r="53">
-      <c r="A53" s="71" t="s">
+      <c r="A53" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="70" t="s">
+      <c r="F53" s="48"/>
+      <c r="G53" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="H53" s="73" t="s">
+      <c r="H53" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="I53" s="39" t="s">
+      <c r="I53" s="38" t="s">
         <v>79</v>
       </c>
       <c r="J53" s="7"/>
@@ -11880,10 +11877,10 @@
       <c r="R53" s="28"/>
     </row>
     <row r="54">
-      <c r="A54" s="71" t="s">
+      <c r="A54" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="B54" s="72" t="s">
+      <c r="B54" s="71" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -11896,10 +11893,10 @@
         <v>251</v>
       </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="74" t="s">
+      <c r="G54" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="H54" s="75" t="s">
+      <c r="H54" s="74" t="s">
         <v>252</v>
       </c>
       <c r="I54" s="7"/>
@@ -11914,10 +11911,10 @@
       <c r="R54" s="28"/>
     </row>
     <row r="55">
-      <c r="A55" s="71" t="s">
+      <c r="A55" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="71" t="s">
         <v>88</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -11930,10 +11927,10 @@
         <v>254</v>
       </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="74" t="s">
+      <c r="G55" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="H55" s="75" t="s">
+      <c r="H55" s="74" t="s">
         <v>255</v>
       </c>
       <c r="I55" s="7"/>
@@ -11948,28 +11945,28 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56">
-      <c r="A56" s="71" t="s">
+      <c r="A56" s="70" t="s">
         <v>256</v>
       </c>
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="F56" s="36" t="s">
+      <c r="F56" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="G56" s="70" t="s">
+      <c r="G56" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="H56" s="73" t="s">
+      <c r="H56" s="72" t="s">
         <v>259</v>
       </c>
       <c r="I56" s="7"/>
@@ -11984,10 +11981,10 @@
       <c r="R56" s="28"/>
     </row>
     <row r="57">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="70" t="s">
         <v>260</v>
       </c>
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="71" t="s">
         <v>102</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -12000,10 +11997,10 @@
         <v>261</v>
       </c>
       <c r="F57" s="4"/>
-      <c r="G57" s="70" t="s">
+      <c r="G57" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="H57" s="73" t="s">
+      <c r="H57" s="72" t="s">
         <v>262</v>
       </c>
       <c r="I57" s="7"/>
@@ -12018,10 +12015,10 @@
       <c r="R57" s="28"/>
     </row>
     <row r="58">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="70" t="s">
         <v>263</v>
       </c>
-      <c r="B58" s="72" t="s">
+      <c r="B58" s="71" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -12034,10 +12031,10 @@
         <v>264</v>
       </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="70" t="s">
+      <c r="G58" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="H58" s="73" t="s">
+      <c r="H58" s="72" t="s">
         <v>265</v>
       </c>
       <c r="I58" s="7"/>
@@ -12052,10 +12049,10 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="71" t="s">
         <v>116</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -12068,13 +12065,13 @@
         <v>267</v>
       </c>
       <c r="F59" s="4"/>
-      <c r="G59" s="70" t="s">
+      <c r="G59" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="H59" s="73" t="s">
+      <c r="H59" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="I59" s="39" t="s">
+      <c r="I59" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J59" s="7"/>
@@ -12088,10 +12085,10 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="71" t="s">
+      <c r="A60" s="70" t="s">
         <v>269</v>
       </c>
-      <c r="B60" s="72" t="s">
+      <c r="B60" s="71" t="s">
         <v>122</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -12104,10 +12101,10 @@
         <v>270</v>
       </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="70" t="s">
+      <c r="G60" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="H60" s="73" t="s">
+      <c r="H60" s="72" t="s">
         <v>271</v>
       </c>
       <c r="I60" s="7"/>
@@ -12122,10 +12119,10 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="71" t="s">
+      <c r="A61" s="70" t="s">
         <v>272</v>
       </c>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="71" t="s">
         <v>128</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -12138,10 +12135,10 @@
         <v>273</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="70" t="s">
+      <c r="G61" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="H61" s="73" t="s">
+      <c r="H61" s="72" t="s">
         <v>274</v>
       </c>
       <c r="I61" s="7"/>
@@ -12156,10 +12153,10 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="71" t="s">
+      <c r="A62" s="70" t="s">
         <v>275</v>
       </c>
-      <c r="B62" s="72" t="s">
+      <c r="B62" s="71" t="s">
         <v>135</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -12172,10 +12169,10 @@
         <v>276</v>
       </c>
       <c r="F62" s="7"/>
-      <c r="G62" s="70" t="s">
+      <c r="G62" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="H62" s="73" t="s">
+      <c r="H62" s="72" t="s">
         <v>277</v>
       </c>
       <c r="I62" s="7"/>
@@ -12190,10 +12187,10 @@
       <c r="R62" s="28"/>
     </row>
     <row r="63">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="70" t="s">
         <v>278</v>
       </c>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="71" t="s">
         <v>141</v>
       </c>
       <c r="C63" s="4"/>
@@ -12214,31 +12211,31 @@
       <c r="R63" s="28"/>
     </row>
     <row r="64">
-      <c r="A64" s="76" t="s">
+      <c r="A64" s="75" t="s">
         <v>279</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="45" t="s">
+      <c r="C64" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="D64" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="E64" s="45" t="s">
+      <c r="E64" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="F64" s="77"/>
-      <c r="G64" s="78" t="s">
+      <c r="F64" s="76"/>
+      <c r="G64" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="H64" s="78" t="s">
+      <c r="H64" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
       <c r="N64" s="28"/>
@@ -12248,10 +12245,10 @@
       <c r="R64" s="28"/>
     </row>
     <row r="65">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="47" t="s">
         <v>283</v>
       </c>
       <c r="C65" s="4"/>
@@ -12272,24 +12269,24 @@
       <c r="R65" s="28"/>
     </row>
     <row r="66">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="B66" s="54" t="s">
+      <c r="B66" s="53" t="s">
         <v>285</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>286</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="63" t="s">
+      <c r="E66" s="62" t="s">
         <v>287</v>
       </c>
-      <c r="F66" s="79"/>
-      <c r="G66" s="63" t="s">
+      <c r="F66" s="78"/>
+      <c r="G66" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="H66" s="63" t="s">
+      <c r="H66" s="62" t="s">
         <v>289</v>
       </c>
       <c r="I66" s="7"/>
@@ -12304,24 +12301,24 @@
       <c r="R66" s="28"/>
     </row>
     <row r="67">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="52" t="s">
         <v>290</v>
       </c>
-      <c r="B67" s="54" t="s">
+      <c r="B67" s="53" t="s">
         <v>291</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="63" t="s">
+      <c r="E67" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="F67" s="79"/>
-      <c r="G67" s="63" t="s">
+      <c r="F67" s="78"/>
+      <c r="G67" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H67" s="63" t="s">
+      <c r="H67" s="62" t="s">
         <v>61</v>
       </c>
       <c r="I67" s="7"/>
@@ -12336,27 +12333,27 @@
       <c r="R67" s="28"/>
     </row>
     <row r="68">
-      <c r="A68" s="80" t="s">
+      <c r="A68" s="79" t="s">
         <v>290</v>
       </c>
-      <c r="B68" s="81" t="s">
+      <c r="B68" s="80" t="s">
         <v>291</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="82" t="s">
+      <c r="E68" s="81" t="s">
         <v>293</v>
       </c>
-      <c r="F68" s="83"/>
-      <c r="G68" s="84" t="s">
+      <c r="F68" s="82"/>
+      <c r="G68" s="83" t="s">
         <v>239</v>
       </c>
-      <c r="H68" s="84" t="s">
+      <c r="H68" s="83" t="s">
         <v>240</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="39" t="s">
+      <c r="K68" s="38" t="s">
         <v>294</v>
       </c>
       <c r="L68" s="28"/>
@@ -12368,24 +12365,24 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="52" t="s">
         <v>295</v>
       </c>
-      <c r="B69" s="54" t="s">
+      <c r="B69" s="53" t="s">
         <v>296</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D69" s="4"/>
-      <c r="E69" s="63" t="s">
+      <c r="E69" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="F69" s="79"/>
-      <c r="G69" s="63" t="s">
+      <c r="F69" s="78"/>
+      <c r="G69" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H69" s="63" t="s">
+      <c r="H69" s="62" t="s">
         <v>61</v>
       </c>
       <c r="I69" s="7"/>
@@ -12400,29 +12397,29 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="71" t="s">
+      <c r="A70" s="70" t="s">
         <v>298</v>
       </c>
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="36" t="s">
+      <c r="D70" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E70" s="63" t="s">
+      <c r="E70" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="F70" s="79"/>
-      <c r="G70" s="63" t="s">
+      <c r="F70" s="78"/>
+      <c r="G70" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="H70" s="63" t="s">
+      <c r="H70" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="I70" s="39" t="s">
+      <c r="I70" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J70" s="7"/>
@@ -12436,29 +12433,29 @@
       <c r="R70" s="28"/>
     </row>
     <row r="71">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="70" t="s">
         <v>301</v>
       </c>
-      <c r="B71" s="72" t="s">
+      <c r="B71" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D71" s="36" t="s">
+      <c r="D71" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E71" s="63" t="s">
+      <c r="E71" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="F71" s="79"/>
-      <c r="G71" s="63" t="s">
+      <c r="F71" s="78"/>
+      <c r="G71" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="H71" s="63" t="s">
+      <c r="H71" s="62" t="s">
         <v>303</v>
       </c>
-      <c r="I71" s="39" t="s">
+      <c r="I71" s="38" t="s">
         <v>79</v>
       </c>
       <c r="J71" s="7"/>
@@ -12472,26 +12469,26 @@
       <c r="R71" s="28"/>
     </row>
     <row r="72">
-      <c r="A72" s="71" t="s">
+      <c r="A72" s="70" t="s">
         <v>304</v>
       </c>
-      <c r="B72" s="72" t="s">
+      <c r="B72" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="39" t="s">
+      <c r="C72" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="39" t="s">
+      <c r="D72" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="63" t="s">
+      <c r="E72" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="F72" s="83"/>
-      <c r="G72" s="63" t="s">
+      <c r="F72" s="82"/>
+      <c r="G72" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="H72" s="63" t="s">
+      <c r="H72" s="62" t="s">
         <v>306</v>
       </c>
       <c r="I72" s="7"/>
@@ -12506,26 +12503,26 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="71" t="s">
+      <c r="A73" s="70" t="s">
         <v>307</v>
       </c>
-      <c r="B73" s="72" t="s">
+      <c r="B73" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="E73" s="63" t="s">
+      <c r="E73" s="62" t="s">
         <v>308</v>
       </c>
-      <c r="F73" s="83"/>
-      <c r="G73" s="63" t="s">
+      <c r="F73" s="82"/>
+      <c r="G73" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="H73" s="85" t="s">
+      <c r="H73" s="84" t="s">
         <v>309</v>
       </c>
       <c r="I73" s="7"/>
@@ -12540,28 +12537,28 @@
       <c r="R73" s="28"/>
     </row>
     <row r="74">
-      <c r="A74" s="71" t="s">
+      <c r="A74" s="70" t="s">
         <v>310</v>
       </c>
-      <c r="B74" s="72" t="s">
+      <c r="B74" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="36" t="s">
+      <c r="D74" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="63" t="s">
+      <c r="E74" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="F74" s="63" t="s">
+      <c r="F74" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="G74" s="63" t="s">
+      <c r="G74" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="H74" s="85" t="s">
+      <c r="H74" s="84" t="s">
         <v>313</v>
       </c>
       <c r="I74" s="7"/>
@@ -12576,26 +12573,26 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="71" t="s">
+      <c r="A75" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="B75" s="72" t="s">
+      <c r="B75" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D75" s="36" t="s">
+      <c r="D75" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="E75" s="63" t="s">
+      <c r="E75" s="62" t="s">
         <v>315</v>
       </c>
-      <c r="F75" s="79"/>
-      <c r="G75" s="63" t="s">
+      <c r="F75" s="78"/>
+      <c r="G75" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="H75" s="63" t="s">
+      <c r="H75" s="62" t="s">
         <v>316</v>
       </c>
       <c r="I75" s="7"/>
@@ -12610,26 +12607,26 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="71" t="s">
+      <c r="A76" s="70" t="s">
         <v>317</v>
       </c>
-      <c r="B76" s="72" t="s">
+      <c r="B76" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="36" t="s">
+      <c r="D76" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E76" s="63" t="s">
+      <c r="E76" s="62" t="s">
         <v>318</v>
       </c>
-      <c r="F76" s="79"/>
-      <c r="G76" s="63" t="s">
+      <c r="F76" s="78"/>
+      <c r="G76" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="H76" s="85" t="s">
+      <c r="H76" s="84" t="s">
         <v>319</v>
       </c>
       <c r="I76" s="7"/>
@@ -12644,29 +12641,29 @@
       <c r="R76" s="28"/>
     </row>
     <row r="77">
-      <c r="A77" s="71" t="s">
+      <c r="A77" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="B77" s="72" t="s">
+      <c r="B77" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="36" t="s">
+      <c r="D77" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="E77" s="63" t="s">
+      <c r="E77" s="62" t="s">
         <v>321</v>
       </c>
-      <c r="F77" s="83"/>
-      <c r="G77" s="63" t="s">
+      <c r="F77" s="82"/>
+      <c r="G77" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="H77" s="85" t="s">
+      <c r="H77" s="84" t="s">
         <v>322</v>
       </c>
-      <c r="I77" s="39" t="s">
+      <c r="I77" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J77" s="7"/>
@@ -12680,26 +12677,26 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="71" t="s">
+      <c r="A78" s="70" t="s">
         <v>323</v>
       </c>
-      <c r="B78" s="72" t="s">
+      <c r="B78" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D78" s="36" t="s">
+      <c r="D78" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E78" s="63" t="s">
+      <c r="E78" s="62" t="s">
         <v>324</v>
       </c>
-      <c r="F78" s="79"/>
-      <c r="G78" s="63" t="s">
+      <c r="F78" s="78"/>
+      <c r="G78" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="H78" s="85" t="s">
+      <c r="H78" s="84" t="s">
         <v>325</v>
       </c>
       <c r="I78" s="7"/>
@@ -12714,26 +12711,26 @@
       <c r="R78" s="28"/>
     </row>
     <row r="79">
-      <c r="A79" s="71" t="s">
+      <c r="A79" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="B79" s="72" t="s">
+      <c r="B79" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D79" s="36" t="s">
+      <c r="D79" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E79" s="63" t="s">
+      <c r="E79" s="62" t="s">
         <v>327</v>
       </c>
-      <c r="F79" s="79"/>
-      <c r="G79" s="63" t="s">
+      <c r="F79" s="78"/>
+      <c r="G79" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="H79" s="63" t="s">
+      <c r="H79" s="62" t="s">
         <v>328</v>
       </c>
       <c r="I79" s="7"/>
@@ -12748,26 +12745,26 @@
       <c r="R79" s="28"/>
     </row>
     <row r="80">
-      <c r="A80" s="71" t="s">
+      <c r="A80" s="70" t="s">
         <v>329</v>
       </c>
-      <c r="B80" s="72" t="s">
+      <c r="B80" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="D80" s="36" t="s">
+      <c r="D80" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E80" s="63" t="s">
+      <c r="E80" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="F80" s="79"/>
-      <c r="G80" s="63" t="s">
+      <c r="F80" s="78"/>
+      <c r="G80" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="H80" s="63" t="s">
+      <c r="H80" s="62" t="s">
         <v>331</v>
       </c>
       <c r="I80" s="7"/>
@@ -12782,18 +12779,18 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="71" t="s">
+      <c r="A81" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="B81" s="72" t="s">
+      <c r="B81" s="71" t="s">
         <v>141</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="83"/>
-      <c r="G81" s="63"/>
-      <c r="H81" s="63"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -12806,26 +12803,26 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="86" t="s">
+      <c r="A82" s="85" t="s">
         <v>333</v>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="36" t="s">
+      <c r="C82" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="36" t="s">
+      <c r="D82" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="E82" s="63" t="s">
+      <c r="E82" s="62" t="s">
         <v>334</v>
       </c>
-      <c r="F82" s="79"/>
-      <c r="G82" s="63" t="s">
+      <c r="F82" s="78"/>
+      <c r="G82" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="H82" s="63" t="s">
+      <c r="H82" s="62" t="s">
         <v>335</v>
       </c>
       <c r="I82" s="7"/>
@@ -12840,24 +12837,24 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="B83" s="48" t="s">
+      <c r="B83" s="47" t="s">
         <v>337</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49" t="s">
+      <c r="D83" s="48"/>
+      <c r="E83" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="49" t="s">
+      <c r="F83" s="58"/>
+      <c r="G83" s="48" t="s">
         <v>340</v>
       </c>
-      <c r="H83" s="49" t="s">
+      <c r="H83" s="48" t="s">
         <v>341</v>
       </c>
       <c r="I83" s="7"/>
@@ -12872,24 +12869,24 @@
       <c r="R83" s="28"/>
     </row>
     <row r="84">
-      <c r="A84" s="87" t="s">
+      <c r="A84" s="86" t="s">
         <v>336</v>
       </c>
-      <c r="B84" s="88" t="s">
+      <c r="B84" s="87" t="s">
         <v>337</v>
       </c>
-      <c r="C84" s="89" t="s">
+      <c r="C84" s="88" t="s">
         <v>338</v>
       </c>
-      <c r="D84" s="89"/>
-      <c r="E84" s="90" t="s">
+      <c r="D84" s="88"/>
+      <c r="E84" s="89" t="s">
         <v>339</v>
       </c>
-      <c r="F84" s="37"/>
-      <c r="G84" s="89" t="s">
+      <c r="F84" s="36"/>
+      <c r="G84" s="88" t="s">
         <v>342</v>
       </c>
-      <c r="H84" s="89" t="s">
+      <c r="H84" s="88" t="s">
         <v>343</v>
       </c>
       <c r="I84" s="7"/>
@@ -12904,10 +12901,10 @@
       <c r="R84" s="28"/>
     </row>
     <row r="85">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="40" t="s">
         <v>345</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -12916,14 +12913,14 @@
       <c r="D85" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E85" s="36" t="s">
+      <c r="E85" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36" t="s">
+      <c r="F85" s="35"/>
+      <c r="G85" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="H85" s="36" t="s">
+      <c r="H85" s="35" t="s">
         <v>350</v>
       </c>
       <c r="I85" s="7"/>
@@ -12938,20 +12935,20 @@
       <c r="R85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="47" t="s">
+      <c r="A86" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="B86" s="48"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="36" t="s">
+      <c r="E86" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36" t="s">
+      <c r="F86" s="35"/>
+      <c r="G86" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="H86" s="36" t="s">
+      <c r="H86" s="35" t="s">
         <v>354</v>
       </c>
       <c r="I86" s="7"/>
@@ -12966,10 +12963,10 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="40" t="s">
         <v>356</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -12978,14 +12975,14 @@
       <c r="D87" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E87" s="39" t="s">
+      <c r="E87" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39" t="s">
+      <c r="F87" s="38"/>
+      <c r="G87" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="H87" s="39" t="s">
+      <c r="H87" s="38" t="s">
         <v>361</v>
       </c>
       <c r="I87" s="7"/>
@@ -12993,20 +12990,20 @@
       <c r="K87" s="7"/>
     </row>
     <row r="88">
-      <c r="A88" s="47" t="s">
+      <c r="A88" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="B88" s="48"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="36" t="s">
+      <c r="E88" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36" t="s">
+      <c r="F88" s="35"/>
+      <c r="G88" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="H88" s="36" t="s">
+      <c r="H88" s="35" t="s">
         <v>364</v>
       </c>
       <c r="I88" s="7"/>
@@ -13014,10 +13011,10 @@
       <c r="K88" s="7"/>
     </row>
     <row r="89">
-      <c r="A89" s="34" t="s">
+      <c r="A89" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="B89" s="91" t="s">
+      <c r="B89" s="90" t="s">
         <v>366</v>
       </c>
       <c r="C89" s="4"/>
@@ -13031,27 +13028,27 @@
       <c r="K89" s="7"/>
     </row>
     <row r="90">
-      <c r="A90" s="40" t="s">
+      <c r="A90" s="39" t="s">
         <v>367</v>
       </c>
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="40" t="s">
         <v>368</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
       <c r="K90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="47" t="s">
+      <c r="A91" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="B91" s="48" t="s">
+      <c r="B91" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="7" t="s">
@@ -13060,56 +13057,56 @@
       <c r="D91" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E91" s="36" t="s">
+      <c r="E91" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="F91" s="39"/>
-      <c r="G91" s="36" t="s">
+      <c r="F91" s="38"/>
+      <c r="G91" s="35" t="s">
         <v>372</v>
       </c>
-      <c r="H91" s="36" t="s">
+      <c r="H91" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="I91" s="39" t="s">
+      <c r="I91" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="J91" s="39"/>
-      <c r="K91" s="39"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="38"/>
     </row>
     <row r="92">
-      <c r="A92" s="51" t="s">
+      <c r="A92" s="50" t="s">
         <v>374</v>
       </c>
-      <c r="B92" s="52" t="s">
+      <c r="B92" s="51" t="s">
         <v>375</v>
       </c>
-      <c r="C92" s="62" t="s">
+      <c r="C92" s="61" t="s">
         <v>376</v>
       </c>
-      <c r="D92" s="62" t="s">
+      <c r="D92" s="61" t="s">
         <v>377</v>
       </c>
-      <c r="E92" s="62" t="s">
+      <c r="E92" s="61" t="s">
         <v>378</v>
       </c>
-      <c r="F92" s="62"/>
-      <c r="G92" s="62" t="s">
+      <c r="F92" s="61"/>
+      <c r="G92" s="61" t="s">
         <v>379</v>
       </c>
-      <c r="H92" s="62" t="s">
+      <c r="H92" s="61" t="s">
         <v>380</v>
       </c>
-      <c r="I92" s="61" t="s">
+      <c r="I92" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="J92" s="57"/>
+      <c r="J92" s="56"/>
       <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="47" t="s">
+      <c r="A93" s="46" t="s">
         <v>381</v>
       </c>
-      <c r="B93" s="48" t="s">
+      <c r="B93" s="47" t="s">
         <v>382</v>
       </c>
       <c r="C93" s="7" t="s">
@@ -13118,14 +13115,14 @@
       <c r="D93" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="E93" s="39" t="s">
+      <c r="E93" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39" t="s">
+      <c r="F93" s="38"/>
+      <c r="G93" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="H93" s="84" t="s">
+      <c r="H93" s="83" t="s">
         <v>387</v>
       </c>
       <c r="I93" s="7"/>
@@ -13133,10 +13130,10 @@
       <c r="K93" s="7"/>
     </row>
     <row r="94">
-      <c r="A94" s="53" t="s">
+      <c r="A94" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="B94" s="54" t="s">
+      <c r="B94" s="53" t="s">
         <v>389</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -13145,23 +13142,23 @@
       <c r="D94" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E94" s="36" t="s">
+      <c r="E94" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
-      <c r="K94" s="39" t="s">
+      <c r="K94" s="38" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="47" t="s">
+      <c r="A95" s="46" t="s">
         <v>394</v>
       </c>
-      <c r="B95" s="48" t="s">
+      <c r="B95" s="47" t="s">
         <v>395</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -13170,14 +13167,14 @@
       <c r="D95" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="E95" s="36" t="s">
+      <c r="E95" s="35" t="s">
         <v>398</v>
       </c>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36" t="s">
+      <c r="F95" s="35"/>
+      <c r="G95" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="H95" s="36" t="s">
+      <c r="H95" s="35" t="s">
         <v>400</v>
       </c>
       <c r="I95" s="7"/>
@@ -13185,39 +13182,39 @@
       <c r="K95" s="7"/>
     </row>
     <row r="96">
-      <c r="A96" s="47" t="s">
+      <c r="A96" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="B96" s="48" t="s">
+      <c r="B96" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="C96" s="49" t="s">
+      <c r="C96" s="48" t="s">
         <v>403</v>
       </c>
-      <c r="D96" s="49" t="s">
+      <c r="D96" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E96" s="37" t="s">
+      <c r="E96" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37" t="s">
+      <c r="F96" s="36"/>
+      <c r="G96" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="H96" s="92" t="s">
+      <c r="H96" s="91" t="s">
         <v>405</v>
       </c>
-      <c r="I96" s="39" t="s">
+      <c r="I96" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
     </row>
     <row r="97">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="46" t="s">
         <v>406</v>
       </c>
-      <c r="B97" s="48" t="s">
+      <c r="B97" s="47" t="s">
         <v>407</v>
       </c>
       <c r="C97" s="4"/>
@@ -13231,10 +13228,10 @@
       <c r="K97" s="7"/>
     </row>
     <row r="98">
-      <c r="A98" s="53" t="s">
+      <c r="A98" s="52" t="s">
         <v>408</v>
       </c>
-      <c r="B98" s="54" t="s">
+      <c r="B98" s="53" t="s">
         <v>409</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -13258,13 +13255,13 @@
       <c r="K98" s="7"/>
     </row>
     <row r="99">
-      <c r="A99" s="53" t="s">
+      <c r="A99" s="52" t="s">
         <v>415</v>
       </c>
-      <c r="B99" s="54" t="s">
+      <c r="B99" s="53" t="s">
         <v>416</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C99" s="35" t="s">
         <v>237</v>
       </c>
       <c r="D99" s="4"/>
@@ -13272,10 +13269,10 @@
         <v>417</v>
       </c>
       <c r="F99" s="4"/>
-      <c r="G99" s="36" t="s">
+      <c r="G99" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="H99" s="36" t="s">
+      <c r="H99" s="35" t="s">
         <v>419</v>
       </c>
       <c r="I99" s="7"/>
@@ -13283,16 +13280,16 @@
       <c r="K99" s="7"/>
     </row>
     <row r="100">
-      <c r="A100" s="47" t="s">
+      <c r="A100" s="46" t="s">
         <v>420</v>
       </c>
-      <c r="B100" s="48" t="s">
+      <c r="B100" s="47" t="s">
         <v>421</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="7"/>
@@ -13300,10 +13297,10 @@
       <c r="K100" s="7"/>
     </row>
     <row r="101">
-      <c r="A101" s="53" t="s">
+      <c r="A101" s="52" t="s">
         <v>422</v>
       </c>
-      <c r="B101" s="54" t="s">
+      <c r="B101" s="53" t="s">
         <v>423</v>
       </c>
       <c r="C101" s="4"/>
@@ -13314,22 +13311,22 @@
       <c r="H101" s="4"/>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
-      <c r="K101" s="59" t="s">
+      <c r="K101" s="58" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="71" t="s">
+      <c r="A102" s="70" t="s">
         <v>425</v>
       </c>
-      <c r="B102" s="72" t="s">
+      <c r="B102" s="71" t="s">
         <v>426</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E102" s="93" t="s">
+      <c r="E102" s="92" t="s">
         <v>428</v>
       </c>
       <c r="F102" s="4"/>
@@ -13344,14 +13341,14 @@
       <c r="K102" s="7"/>
     </row>
     <row r="103">
-      <c r="A103" s="71" t="s">
+      <c r="A103" s="70" t="s">
         <v>431</v>
       </c>
-      <c r="B103" s="72" t="s">
+      <c r="B103" s="71" t="s">
         <v>432</v>
       </c>
       <c r="C103" s="4"/>
-      <c r="D103" s="94" t="s">
+      <c r="D103" s="93" t="s">
         <v>433</v>
       </c>
       <c r="E103" s="4" t="s">
@@ -13361,7 +13358,7 @@
       <c r="G103" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="H103" s="95" t="s">
+      <c r="H103" s="94" t="s">
         <v>436</v>
       </c>
       <c r="I103" s="7"/>
@@ -13369,10 +13366,10 @@
       <c r="K103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="71" t="s">
+      <c r="A104" s="70" t="s">
         <v>437</v>
       </c>
-      <c r="B104" s="72" t="s">
+      <c r="B104" s="71" t="s">
         <v>438</v>
       </c>
       <c r="C104" s="4"/>
@@ -13386,7 +13383,7 @@
       <c r="G104" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H104" s="95" t="s">
+      <c r="H104" s="94" t="s">
         <v>440</v>
       </c>
       <c r="I104" s="7"/>
@@ -13394,10 +13391,10 @@
       <c r="K104" s="7"/>
     </row>
     <row r="105">
-      <c r="A105" s="53" t="s">
+      <c r="A105" s="52" t="s">
         <v>441</v>
       </c>
-      <c r="B105" s="54" t="s">
+      <c r="B105" s="53" t="s">
         <v>442</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -13411,7 +13408,7 @@
       <c r="G105" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="H105" s="95" t="s">
+      <c r="H105" s="94" t="s">
         <v>445</v>
       </c>
       <c r="I105" s="7"/>
@@ -13419,10 +13416,10 @@
       <c r="K105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="53" t="s">
+      <c r="A106" s="52" t="s">
         <v>446</v>
       </c>
-      <c r="B106" s="54" t="s">
+      <c r="B106" s="53" t="s">
         <v>447</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -13436,7 +13433,7 @@
       <c r="G106" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="H106" s="96" t="s">
+      <c r="H106" s="95" t="s">
         <v>450</v>
       </c>
       <c r="I106" s="7"/>
@@ -13444,41 +13441,41 @@
       <c r="K106" s="7"/>
     </row>
     <row r="107">
-      <c r="A107" s="40" t="s">
+      <c r="A107" s="39" t="s">
         <v>451</v>
       </c>
-      <c r="B107" s="41" t="s">
+      <c r="B107" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="42" t="s">
+      <c r="E107" s="41" t="s">
         <v>452</v>
       </c>
       <c r="F107" s="4"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
+      <c r="G107" s="35"/>
+      <c r="H107" s="35"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="97" t="s">
+      <c r="A108" s="96" t="s">
         <v>451</v>
       </c>
-      <c r="B108" s="98" t="s">
+      <c r="B108" s="97" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="42" t="s">
+      <c r="E108" s="41" t="s">
         <v>452</v>
       </c>
       <c r="F108" s="4"/>
-      <c r="G108" s="63" t="s">
+      <c r="G108" s="62" t="s">
         <v>453</v>
       </c>
-      <c r="H108" s="63" t="s">
+      <c r="H108" s="62" t="s">
         <v>454</v>
       </c>
       <c r="I108" s="7"/>
@@ -13486,68 +13483,68 @@
       <c r="K108" s="7"/>
     </row>
     <row r="109">
-      <c r="A109" s="47" t="s">
+      <c r="A109" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="B109" s="48" t="s">
+      <c r="B109" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C109" s="49" t="s">
+      <c r="C109" s="48" t="s">
         <v>370</v>
       </c>
-      <c r="D109" s="59" t="s">
+      <c r="D109" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E109" s="59" t="s">
+      <c r="E109" s="58" t="s">
         <v>456</v>
       </c>
-      <c r="F109" s="59"/>
-      <c r="G109" s="58" t="s">
+      <c r="F109" s="58"/>
+      <c r="G109" s="57" t="s">
         <v>457</v>
       </c>
-      <c r="H109" s="59" t="s">
+      <c r="H109" s="58" t="s">
         <v>458</v>
       </c>
-      <c r="I109" s="39" t="s">
+      <c r="I109" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
     </row>
     <row r="110">
-      <c r="A110" s="53" t="s">
+      <c r="A110" s="52" t="s">
         <v>459</v>
       </c>
-      <c r="B110" s="54" t="s">
+      <c r="B110" s="53" t="s">
         <v>460</v>
       </c>
-      <c r="C110" s="49" t="s">
+      <c r="C110" s="48" t="s">
         <v>461</v>
       </c>
-      <c r="D110" s="49" t="s">
+      <c r="D110" s="48" t="s">
         <v>462</v>
       </c>
-      <c r="E110" s="49" t="s">
+      <c r="E110" s="48" t="s">
         <v>463</v>
       </c>
-      <c r="F110" s="49"/>
-      <c r="G110" s="37" t="s">
+      <c r="F110" s="48"/>
+      <c r="G110" s="36" t="s">
         <v>464</v>
       </c>
-      <c r="H110" s="49" t="s">
+      <c r="H110" s="48" t="s">
         <v>465</v>
       </c>
-      <c r="I110" s="39" t="s">
+      <c r="I110" s="38" t="s">
         <v>79</v>
       </c>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
     </row>
     <row r="111">
-      <c r="A111" s="47" t="s">
+      <c r="A111" s="46" t="s">
         <v>466</v>
       </c>
-      <c r="B111" s="48" t="s">
+      <c r="B111" s="47" t="s">
         <v>467</v>
       </c>
       <c r="C111" s="4"/>
@@ -13561,10 +13558,10 @@
       <c r="K111" s="7"/>
     </row>
     <row r="112">
-      <c r="A112" s="53" t="s">
+      <c r="A112" s="52" t="s">
         <v>468</v>
       </c>
-      <c r="B112" s="54" t="s">
+      <c r="B112" s="53" t="s">
         <v>382</v>
       </c>
       <c r="C112" s="7" t="s">
@@ -13573,14 +13570,14 @@
       <c r="D112" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="E112" s="39" t="s">
+      <c r="E112" s="38" t="s">
         <v>469</v>
       </c>
-      <c r="F112" s="39"/>
-      <c r="G112" s="39" t="s">
+      <c r="F112" s="38"/>
+      <c r="G112" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="H112" s="39" t="s">
+      <c r="H112" s="38" t="s">
         <v>471</v>
       </c>
       <c r="I112" s="7"/>
@@ -13588,10 +13585,10 @@
       <c r="K112" s="7"/>
     </row>
     <row r="113">
-      <c r="A113" s="53" t="s">
+      <c r="A113" s="52" t="s">
         <v>472</v>
       </c>
-      <c r="B113" s="54" t="s">
+      <c r="B113" s="53" t="s">
         <v>389</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -13600,23 +13597,23 @@
       <c r="D113" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E113" s="36" t="s">
+      <c r="E113" s="35" t="s">
         <v>473</v>
       </c>
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
-      <c r="K113" s="39" t="s">
+      <c r="K113" s="38" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="47" t="s">
+      <c r="A114" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="B114" s="48" t="s">
+      <c r="B114" s="47" t="s">
         <v>475</v>
       </c>
       <c r="C114" s="4"/>
@@ -13630,10 +13627,10 @@
       <c r="K114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="53" t="s">
+      <c r="A115" s="52" t="s">
         <v>476</v>
       </c>
-      <c r="B115" s="54" t="s">
+      <c r="B115" s="53" t="s">
         <v>94</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -13642,16 +13639,16 @@
       <c r="D115" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="E115" s="36" t="s">
+      <c r="E115" s="35" t="s">
         <v>479</v>
       </c>
-      <c r="F115" s="36" t="s">
+      <c r="F115" s="35" t="s">
         <v>480</v>
       </c>
-      <c r="G115" s="37" t="s">
+      <c r="G115" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="H115" s="99" t="s">
+      <c r="H115" s="98" t="s">
         <v>482</v>
       </c>
       <c r="I115" s="7"/>
@@ -13659,85 +13656,85 @@
       <c r="K115" s="7"/>
     </row>
     <row r="116">
-      <c r="A116" s="53" t="s">
+      <c r="A116" s="52" t="s">
         <v>483</v>
       </c>
-      <c r="B116" s="54" t="s">
+      <c r="B116" s="53" t="s">
         <v>484</v>
       </c>
-      <c r="C116" s="59" t="s">
+      <c r="C116" s="58" t="s">
         <v>485</v>
       </c>
-      <c r="D116" s="59" t="s">
+      <c r="D116" s="58" t="s">
         <v>486</v>
       </c>
-      <c r="E116" s="39" t="s">
+      <c r="E116" s="38" t="s">
         <v>487</v>
       </c>
-      <c r="F116" s="39"/>
-      <c r="G116" s="37" t="s">
+      <c r="F116" s="38"/>
+      <c r="G116" s="36" t="s">
         <v>488</v>
       </c>
-      <c r="H116" s="58" t="s">
+      <c r="H116" s="57" t="s">
         <v>489</v>
       </c>
-      <c r="I116" s="39" t="s">
+      <c r="I116" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
     </row>
     <row r="117">
-      <c r="A117" s="47" t="s">
+      <c r="A117" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="B117" s="48" t="s">
+      <c r="B117" s="47" t="s">
         <v>491</v>
       </c>
-      <c r="C117" s="49" t="s">
+      <c r="C117" s="48" t="s">
         <v>403</v>
       </c>
-      <c r="D117" s="49" t="s">
+      <c r="D117" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E117" s="36" t="s">
+      <c r="E117" s="35" t="s">
         <v>492</v>
       </c>
-      <c r="F117" s="36"/>
-      <c r="G117" s="36" t="s">
+      <c r="F117" s="35"/>
+      <c r="G117" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="H117" s="100" t="s">
+      <c r="H117" s="99" t="s">
         <v>493</v>
       </c>
-      <c r="I117" s="39" t="s">
+      <c r="I117" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
     </row>
     <row r="118">
-      <c r="A118" s="47" t="s">
+      <c r="A118" s="46" t="s">
         <v>494</v>
       </c>
-      <c r="B118" s="48" t="s">
+      <c r="B118" s="47" t="s">
         <v>495</v>
       </c>
-      <c r="C118" s="37"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="39"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="57"/>
+      <c r="E118" s="38"/>
       <c r="F118" s="7"/>
-      <c r="G118" s="39"/>
-      <c r="H118" s="39"/>
+      <c r="G118" s="38"/>
+      <c r="H118" s="38"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
     </row>
     <row r="119">
-      <c r="A119" s="53" t="s">
+      <c r="A119" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="B119" s="54" t="s">
+      <c r="B119" s="53" t="s">
         <v>497</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -13746,14 +13743,14 @@
       <c r="D119" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="E119" s="36" t="s">
+      <c r="E119" s="35" t="s">
         <v>500</v>
       </c>
-      <c r="F119" s="37"/>
-      <c r="G119" s="37" t="s">
+      <c r="F119" s="36"/>
+      <c r="G119" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="H119" s="99" t="s">
+      <c r="H119" s="98" t="s">
         <v>502</v>
       </c>
       <c r="I119" s="7"/>
@@ -13761,26 +13758,26 @@
       <c r="K119" s="7"/>
     </row>
     <row r="120">
-      <c r="A120" s="80" t="s">
+      <c r="A120" s="79" t="s">
         <v>496</v>
       </c>
-      <c r="B120" s="81" t="s">
+      <c r="B120" s="80" t="s">
         <v>497</v>
       </c>
-      <c r="C120" s="101" t="s">
+      <c r="C120" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="D120" s="101" t="s">
+      <c r="D120" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="E120" s="42" t="s">
+      <c r="E120" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="F120" s="49"/>
-      <c r="G120" s="36" t="s">
+      <c r="F120" s="48"/>
+      <c r="G120" s="35" t="s">
         <v>503</v>
       </c>
-      <c r="H120" s="102" t="s">
+      <c r="H120" s="101" t="s">
         <v>504</v>
       </c>
       <c r="I120" s="7"/>
@@ -13788,68 +13785,68 @@
       <c r="K120" s="7"/>
     </row>
     <row r="121">
-      <c r="A121" s="71" t="s">
+      <c r="A121" s="70" t="s">
         <v>505</v>
       </c>
-      <c r="B121" s="72" t="s">
+      <c r="B121" s="71" t="s">
         <v>506</v>
       </c>
-      <c r="C121" s="59" t="s">
+      <c r="C121" s="58" t="s">
         <v>507</v>
       </c>
-      <c r="D121" s="59" t="s">
+      <c r="D121" s="58" t="s">
         <v>508</v>
       </c>
-      <c r="E121" s="36" t="s">
+      <c r="E121" s="35" t="s">
         <v>509</v>
       </c>
-      <c r="F121" s="49"/>
-      <c r="G121" s="36" t="s">
+      <c r="F121" s="48"/>
+      <c r="G121" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="H121" s="36" t="s">
+      <c r="H121" s="35" t="s">
         <v>511</v>
       </c>
-      <c r="I121" s="39" t="s">
+      <c r="I121" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
     </row>
     <row r="122">
-      <c r="A122" s="71" t="s">
+      <c r="A122" s="70" t="s">
         <v>512</v>
       </c>
-      <c r="B122" s="72" t="s">
+      <c r="B122" s="71" t="s">
         <v>513</v>
       </c>
-      <c r="C122" s="59" t="s">
+      <c r="C122" s="58" t="s">
         <v>514</v>
       </c>
-      <c r="D122" s="59" t="s">
+      <c r="D122" s="58" t="s">
         <v>515</v>
       </c>
-      <c r="E122" s="36" t="s">
+      <c r="E122" s="35" t="s">
         <v>516</v>
       </c>
-      <c r="F122" s="49"/>
-      <c r="G122" s="36" t="s">
+      <c r="F122" s="48"/>
+      <c r="G122" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="H122" s="36" t="s">
+      <c r="H122" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="I122" s="39" t="s">
+      <c r="I122" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
     </row>
     <row r="123">
-      <c r="A123" s="53" t="s">
+      <c r="A123" s="52" t="s">
         <v>518</v>
       </c>
-      <c r="B123" s="54" t="s">
+      <c r="B123" s="53" t="s">
         <v>519</v>
       </c>
       <c r="C123" s="7" t="s">
@@ -13858,14 +13855,14 @@
       <c r="D123" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="E123" s="36" t="s">
+      <c r="E123" s="35" t="s">
         <v>520</v>
       </c>
-      <c r="F123" s="37"/>
-      <c r="G123" s="37" t="s">
+      <c r="F123" s="36"/>
+      <c r="G123" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="H123" s="99" t="s">
+      <c r="H123" s="98" t="s">
         <v>521</v>
       </c>
       <c r="I123" s="7"/>
@@ -13873,26 +13870,26 @@
       <c r="K123" s="7"/>
     </row>
     <row r="124">
-      <c r="A124" s="80" t="s">
+      <c r="A124" s="79" t="s">
         <v>518</v>
       </c>
-      <c r="B124" s="81" t="s">
+      <c r="B124" s="80" t="s">
         <v>519</v>
       </c>
-      <c r="C124" s="101" t="s">
+      <c r="C124" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="D124" s="101" t="s">
+      <c r="D124" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="E124" s="42" t="s">
+      <c r="E124" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="F124" s="49"/>
-      <c r="G124" s="36" t="s">
+      <c r="F124" s="48"/>
+      <c r="G124" s="35" t="s">
         <v>503</v>
       </c>
-      <c r="H124" s="102" t="s">
+      <c r="H124" s="101" t="s">
         <v>522</v>
       </c>
       <c r="I124" s="7"/>
@@ -13900,68 +13897,68 @@
       <c r="K124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="71" t="s">
+      <c r="A125" s="70" t="s">
         <v>523</v>
       </c>
-      <c r="B125" s="72" t="s">
+      <c r="B125" s="71" t="s">
         <v>506</v>
       </c>
-      <c r="C125" s="59" t="s">
+      <c r="C125" s="58" t="s">
         <v>507</v>
       </c>
-      <c r="D125" s="59" t="s">
+      <c r="D125" s="58" t="s">
         <v>508</v>
       </c>
-      <c r="E125" s="36" t="s">
+      <c r="E125" s="35" t="s">
         <v>524</v>
       </c>
-      <c r="F125" s="49"/>
-      <c r="G125" s="36" t="s">
+      <c r="F125" s="48"/>
+      <c r="G125" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="H125" s="36" t="s">
+      <c r="H125" s="35" t="s">
         <v>511</v>
       </c>
-      <c r="I125" s="39" t="s">
+      <c r="I125" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
     </row>
     <row r="126">
-      <c r="A126" s="71" t="s">
+      <c r="A126" s="70" t="s">
         <v>525</v>
       </c>
-      <c r="B126" s="72" t="s">
+      <c r="B126" s="71" t="s">
         <v>513</v>
       </c>
-      <c r="C126" s="59" t="s">
+      <c r="C126" s="58" t="s">
         <v>514</v>
       </c>
-      <c r="D126" s="59" t="s">
+      <c r="D126" s="58" t="s">
         <v>515</v>
       </c>
-      <c r="E126" s="39" t="s">
+      <c r="E126" s="38" t="s">
         <v>526</v>
       </c>
-      <c r="F126" s="59"/>
-      <c r="G126" s="39" t="s">
+      <c r="F126" s="58"/>
+      <c r="G126" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="H126" s="39" t="s">
+      <c r="H126" s="38" t="s">
         <v>517</v>
       </c>
-      <c r="I126" s="39" t="s">
+      <c r="I126" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
     </row>
     <row r="127">
-      <c r="A127" s="53" t="s">
+      <c r="A127" s="52" t="s">
         <v>527</v>
       </c>
-      <c r="B127" s="54" t="s">
+      <c r="B127" s="53" t="s">
         <v>528</v>
       </c>
       <c r="C127" s="7" t="s">
@@ -13970,14 +13967,14 @@
       <c r="D127" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="E127" s="39" t="s">
+      <c r="E127" s="38" t="s">
         <v>529</v>
       </c>
-      <c r="F127" s="58"/>
-      <c r="G127" s="37" t="s">
+      <c r="F127" s="57"/>
+      <c r="G127" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="H127" s="99" t="s">
+      <c r="H127" s="98" t="s">
         <v>530</v>
       </c>
       <c r="I127" s="7"/>
@@ -13985,26 +13982,26 @@
       <c r="K127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="80" t="s">
+      <c r="A128" s="79" t="s">
         <v>527</v>
       </c>
-      <c r="B128" s="81" t="s">
+      <c r="B128" s="80" t="s">
         <v>528</v>
       </c>
-      <c r="C128" s="101" t="s">
+      <c r="C128" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="D128" s="101" t="s">
+      <c r="D128" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="E128" s="42" t="s">
+      <c r="E128" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="F128" s="49"/>
-      <c r="G128" s="36" t="s">
+      <c r="F128" s="48"/>
+      <c r="G128" s="35" t="s">
         <v>503</v>
       </c>
-      <c r="H128" s="102" t="s">
+      <c r="H128" s="101" t="s">
         <v>531</v>
       </c>
       <c r="I128" s="7"/>
@@ -14012,83 +14009,83 @@
       <c r="K128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="71" t="s">
+      <c r="A129" s="70" t="s">
         <v>532</v>
       </c>
-      <c r="B129" s="72" t="s">
+      <c r="B129" s="71" t="s">
         <v>513</v>
       </c>
-      <c r="C129" s="59" t="s">
+      <c r="C129" s="58" t="s">
         <v>514</v>
       </c>
-      <c r="D129" s="59" t="s">
+      <c r="D129" s="58" t="s">
         <v>515</v>
       </c>
-      <c r="E129" s="36" t="s">
+      <c r="E129" s="35" t="s">
         <v>533</v>
       </c>
-      <c r="F129" s="37"/>
-      <c r="G129" s="36" t="s">
+      <c r="F129" s="36"/>
+      <c r="G129" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="H129" s="36" t="s">
+      <c r="H129" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="I129" s="39" t="s">
+      <c r="I129" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="103" t="s">
+      <c r="A130" s="102" t="s">
         <v>534</v>
       </c>
-      <c r="B130" s="104" t="s">
+      <c r="B130" s="103" t="s">
         <v>535</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
-      <c r="E130" s="105" t="s">
+      <c r="E130" s="104" t="s">
         <v>536</v>
       </c>
       <c r="F130" s="4"/>
-      <c r="G130" s="106" t="s">
+      <c r="G130" s="105" t="s">
         <v>501</v>
       </c>
-      <c r="H130" s="107" t="s">
+      <c r="H130" s="106" t="s">
         <v>537</v>
       </c>
-      <c r="I130" s="58"/>
-      <c r="J130" s="58"/>
+      <c r="I130" s="57"/>
+      <c r="J130" s="57"/>
       <c r="K130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="103" t="s">
+      <c r="A131" s="102" t="s">
         <v>534</v>
       </c>
-      <c r="B131" s="104" t="s">
+      <c r="B131" s="103" t="s">
         <v>535</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
-      <c r="E131" s="108" t="s">
+      <c r="E131" s="107" t="s">
         <v>536</v>
       </c>
       <c r="F131" s="7"/>
-      <c r="G131" s="109"/>
-      <c r="H131" s="109"/>
-      <c r="I131" s="58"/>
-      <c r="J131" s="58"/>
-      <c r="K131" s="110" t="s">
+      <c r="G131" s="108"/>
+      <c r="H131" s="108"/>
+      <c r="I131" s="57"/>
+      <c r="J131" s="57"/>
+      <c r="K131" s="109" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="47" t="s">
+      <c r="A132" s="46" t="s">
         <v>539</v>
       </c>
-      <c r="B132" s="48" t="s">
+      <c r="B132" s="47" t="s">
         <v>540</v>
       </c>
       <c r="C132" s="7"/>
@@ -14102,10 +14099,10 @@
       <c r="K132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="53" t="s">
+      <c r="A133" s="52" t="s">
         <v>541</v>
       </c>
-      <c r="B133" s="54" t="s">
+      <c r="B133" s="53" t="s">
         <v>409</v>
       </c>
       <c r="C133" s="7" t="s">
@@ -14118,10 +14115,10 @@
         <v>543</v>
       </c>
       <c r="F133" s="4"/>
-      <c r="G133" s="79" t="s">
+      <c r="G133" s="78" t="s">
         <v>544</v>
       </c>
-      <c r="H133" s="63" t="s">
+      <c r="H133" s="62" t="s">
         <v>545</v>
       </c>
       <c r="I133" s="7"/>
@@ -14129,10 +14126,10 @@
       <c r="K133" s="7"/>
     </row>
     <row r="134">
-      <c r="A134" s="53" t="s">
+      <c r="A134" s="52" t="s">
         <v>546</v>
       </c>
-      <c r="B134" s="54" t="s">
+      <c r="B134" s="53" t="s">
         <v>416</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -14143,10 +14140,10 @@
         <v>547</v>
       </c>
       <c r="F134" s="4"/>
-      <c r="G134" s="63" t="s">
+      <c r="G134" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="H134" s="63" t="s">
+      <c r="H134" s="62" t="s">
         <v>549</v>
       </c>
       <c r="I134" s="7"/>
@@ -14154,10 +14151,10 @@
       <c r="K134" s="7"/>
     </row>
     <row r="135">
-      <c r="A135" s="47" t="s">
+      <c r="A135" s="46" t="s">
         <v>550</v>
       </c>
-      <c r="B135" s="48" t="s">
+      <c r="B135" s="47" t="s">
         <v>551</v>
       </c>
       <c r="C135" s="7"/>
@@ -14171,13 +14168,13 @@
       <c r="K135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="53" t="s">
+      <c r="A136" s="52" t="s">
         <v>552</v>
       </c>
-      <c r="B136" s="54" t="s">
+      <c r="B136" s="53" t="s">
         <v>553</v>
       </c>
-      <c r="C136" s="111" t="s">
+      <c r="C136" s="110" t="s">
         <v>554</v>
       </c>
       <c r="D136" s="7" t="s">
@@ -14187,7 +14184,7 @@
         <v>556</v>
       </c>
       <c r="F136" s="4"/>
-      <c r="G136" s="36" t="s">
+      <c r="G136" s="35" t="s">
         <v>557</v>
       </c>
       <c r="H136" s="4" t="s">
@@ -14198,11 +14195,11 @@
       <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="71" t="s">
+      <c r="A137" s="70" t="s">
         <v>559</v>
       </c>
-      <c r="B137" s="72"/>
-      <c r="C137" s="111"/>
+      <c r="B137" s="71"/>
+      <c r="C137" s="110"/>
       <c r="D137" s="7"/>
       <c r="E137" s="4" t="s">
         <v>560</v>
@@ -14210,7 +14207,7 @@
       <c r="F137" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="G137" s="36" t="s">
+      <c r="G137" s="35" t="s">
         <v>562</v>
       </c>
       <c r="H137" s="4" t="s">
@@ -14221,19 +14218,19 @@
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="71" t="s">
+      <c r="A138" s="70" t="s">
         <v>564</v>
       </c>
-      <c r="B138" s="72"/>
-      <c r="C138" s="111"/>
+      <c r="B138" s="71"/>
+      <c r="C138" s="110"/>
       <c r="D138" s="7"/>
-      <c r="E138" s="42" t="s">
+      <c r="E138" s="41" t="s">
         <v>560</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="G138" s="36" t="s">
+      <c r="G138" s="35" t="s">
         <v>562</v>
       </c>
       <c r="H138" s="4" t="s">
@@ -14244,13 +14241,13 @@
       <c r="K138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="53" t="s">
+      <c r="A139" s="52" t="s">
         <v>567</v>
       </c>
-      <c r="B139" s="54" t="s">
+      <c r="B139" s="53" t="s">
         <v>568</v>
       </c>
-      <c r="C139" s="111" t="s">
+      <c r="C139" s="110" t="s">
         <v>569</v>
       </c>
       <c r="D139" s="7" t="s">
@@ -14260,7 +14257,7 @@
         <v>571</v>
       </c>
       <c r="F139" s="4"/>
-      <c r="G139" s="36" t="s">
+      <c r="G139" s="35" t="s">
         <v>572</v>
       </c>
       <c r="H139" s="4" t="s">
@@ -14271,13 +14268,13 @@
       <c r="K139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="53" t="s">
+      <c r="A140" s="52" t="s">
         <v>574</v>
       </c>
-      <c r="B140" s="54" t="s">
+      <c r="B140" s="53" t="s">
         <v>575</v>
       </c>
-      <c r="C140" s="111" t="s">
+      <c r="C140" s="110" t="s">
         <v>576</v>
       </c>
       <c r="D140" s="7" t="s">
@@ -14287,7 +14284,7 @@
         <v>578</v>
       </c>
       <c r="F140" s="4"/>
-      <c r="G140" s="36" t="s">
+      <c r="G140" s="35" t="s">
         <v>572</v>
       </c>
       <c r="H140" s="4" t="s">
@@ -14298,47 +14295,47 @@
       <c r="K140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="103" t="s">
+      <c r="A141" s="102" t="s">
         <v>580</v>
       </c>
-      <c r="B141" s="104" t="s">
+      <c r="B141" s="103" t="s">
         <v>581</v>
       </c>
-      <c r="C141" s="112" t="s">
+      <c r="C141" s="111" t="s">
         <v>582</v>
       </c>
-      <c r="D141" s="113" t="s">
+      <c r="D141" s="112" t="s">
         <v>583</v>
       </c>
-      <c r="E141" s="37"/>
+      <c r="E141" s="36"/>
       <c r="F141" s="4"/>
-      <c r="G141" s="37"/>
-      <c r="H141" s="37"/>
-      <c r="I141" s="58"/>
-      <c r="J141" s="58"/>
+      <c r="G141" s="36"/>
+      <c r="H141" s="36"/>
+      <c r="I141" s="57"/>
+      <c r="J141" s="57"/>
       <c r="K141" s="7"/>
     </row>
     <row r="142">
-      <c r="A142" s="114" t="s">
+      <c r="A142" s="113" t="s">
         <v>584</v>
       </c>
-      <c r="B142" s="115" t="s">
+      <c r="B142" s="114" t="s">
         <v>581</v>
       </c>
-      <c r="C142" s="113" t="s">
+      <c r="C142" s="112" t="s">
         <v>582</v>
       </c>
-      <c r="D142" s="113" t="s">
+      <c r="D142" s="112" t="s">
         <v>583</v>
       </c>
-      <c r="E142" s="37" t="s">
+      <c r="E142" s="36" t="s">
         <v>585</v>
       </c>
       <c r="F142" s="7"/>
-      <c r="G142" s="116" t="s">
+      <c r="G142" s="115" t="s">
         <v>586</v>
       </c>
-      <c r="H142" s="116" t="s">
+      <c r="H142" s="115" t="s">
         <v>587</v>
       </c>
       <c r="I142" s="7"/>
@@ -14346,26 +14343,26 @@
       <c r="K142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="114" t="s">
+      <c r="A143" s="113" t="s">
         <v>588</v>
       </c>
-      <c r="B143" s="115" t="s">
+      <c r="B143" s="114" t="s">
         <v>581</v>
       </c>
-      <c r="C143" s="113" t="s">
+      <c r="C143" s="112" t="s">
         <v>582</v>
       </c>
-      <c r="D143" s="113" t="s">
+      <c r="D143" s="112" t="s">
         <v>583</v>
       </c>
-      <c r="E143" s="37" t="s">
+      <c r="E143" s="36" t="s">
         <v>589</v>
       </c>
       <c r="F143" s="4"/>
-      <c r="G143" s="116" t="s">
+      <c r="G143" s="115" t="s">
         <v>586</v>
       </c>
-      <c r="H143" s="116" t="s">
+      <c r="H143" s="115" t="s">
         <v>590</v>
       </c>
       <c r="I143" s="7"/>
@@ -14373,26 +14370,26 @@
       <c r="K143" s="7"/>
     </row>
     <row r="144">
-      <c r="A144" s="103" t="s">
+      <c r="A144" s="102" t="s">
         <v>591</v>
       </c>
-      <c r="B144" s="104" t="s">
+      <c r="B144" s="103" t="s">
         <v>592</v>
       </c>
-      <c r="C144" s="117" t="s">
+      <c r="C144" s="116" t="s">
         <v>593</v>
       </c>
-      <c r="D144" s="117" t="s">
+      <c r="D144" s="116" t="s">
         <v>594</v>
       </c>
-      <c r="E144" s="37" t="s">
+      <c r="E144" s="36" t="s">
         <v>595</v>
       </c>
       <c r="F144" s="4"/>
-      <c r="G144" s="116" t="s">
+      <c r="G144" s="115" t="s">
         <v>596</v>
       </c>
-      <c r="H144" s="116" t="s">
+      <c r="H144" s="115" t="s">
         <v>597</v>
       </c>
       <c r="I144" s="7"/>
@@ -14400,43 +14397,43 @@
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="118" t="s">
+      <c r="A145" s="117" t="s">
         <v>598</v>
       </c>
-      <c r="B145" s="119" t="s">
+      <c r="B145" s="118" t="s">
         <v>599</v>
       </c>
-      <c r="C145" s="58"/>
-      <c r="D145" s="58"/>
+      <c r="C145" s="57"/>
+      <c r="D145" s="57"/>
       <c r="E145" s="4"/>
-      <c r="F145" s="106"/>
-      <c r="G145" s="37"/>
-      <c r="H145" s="37"/>
+      <c r="F145" s="105"/>
+      <c r="G145" s="36"/>
+      <c r="H145" s="36"/>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="103" t="s">
+      <c r="A146" s="102" t="s">
         <v>600</v>
       </c>
-      <c r="B146" s="104" t="s">
+      <c r="B146" s="103" t="s">
         <v>601</v>
       </c>
-      <c r="C146" s="58" t="s">
+      <c r="C146" s="57" t="s">
         <v>602</v>
       </c>
-      <c r="D146" s="58" t="s">
+      <c r="D146" s="57" t="s">
         <v>603</v>
       </c>
-      <c r="E146" s="106" t="s">
+      <c r="E146" s="105" t="s">
         <v>604</v>
       </c>
-      <c r="F146" s="106"/>
-      <c r="G146" s="106" t="s">
+      <c r="F146" s="105"/>
+      <c r="G146" s="105" t="s">
         <v>605</v>
       </c>
-      <c r="H146" s="120" t="s">
+      <c r="H146" s="119" t="s">
         <v>606</v>
       </c>
       <c r="I146" s="7"/>
@@ -14444,26 +14441,26 @@
       <c r="K146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="103" t="s">
+      <c r="A147" s="102" t="s">
         <v>600</v>
       </c>
-      <c r="B147" s="104" t="s">
+      <c r="B147" s="103" t="s">
         <v>601</v>
       </c>
-      <c r="C147" s="58" t="s">
+      <c r="C147" s="57" t="s">
         <v>602</v>
       </c>
-      <c r="D147" s="58" t="s">
+      <c r="D147" s="57" t="s">
         <v>603</v>
       </c>
-      <c r="E147" s="106" t="s">
+      <c r="E147" s="105" t="s">
         <v>607</v>
       </c>
-      <c r="F147" s="106"/>
-      <c r="G147" s="106" t="s">
+      <c r="F147" s="105"/>
+      <c r="G147" s="105" t="s">
         <v>605</v>
       </c>
-      <c r="H147" s="120" t="s">
+      <c r="H147" s="119" t="s">
         <v>608</v>
       </c>
       <c r="I147" s="7"/>
@@ -14471,64 +14468,64 @@
       <c r="K147" s="7"/>
     </row>
     <row r="148">
-      <c r="A148" s="47" t="s">
+      <c r="A148" s="46" t="s">
         <v>609</v>
       </c>
-      <c r="B148" s="48" t="s">
+      <c r="B148" s="47" t="s">
         <v>610</v>
       </c>
-      <c r="C148" s="59"/>
-      <c r="D148" s="59"/>
-      <c r="E148" s="36"/>
-      <c r="F148" s="49"/>
-      <c r="G148" s="37"/>
-      <c r="H148" s="37"/>
+      <c r="C148" s="58"/>
+      <c r="D148" s="58"/>
+      <c r="E148" s="35"/>
+      <c r="F148" s="48"/>
+      <c r="G148" s="36"/>
+      <c r="H148" s="36"/>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
     </row>
     <row r="149">
-      <c r="A149" s="53" t="s">
+      <c r="A149" s="52" t="s">
         <v>611</v>
       </c>
-      <c r="B149" s="54" t="s">
+      <c r="B149" s="53" t="s">
         <v>612</v>
       </c>
-      <c r="C149" s="59" t="s">
+      <c r="C149" s="58" t="s">
         <v>613</v>
       </c>
-      <c r="D149" s="59" t="s">
+      <c r="D149" s="58" t="s">
         <v>612</v>
       </c>
-      <c r="E149" s="49"/>
-      <c r="F149" s="36"/>
-      <c r="G149" s="37"/>
-      <c r="H149" s="37"/>
+      <c r="E149" s="48"/>
+      <c r="F149" s="35"/>
+      <c r="G149" s="36"/>
+      <c r="H149" s="36"/>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="71" t="s">
+      <c r="A150" s="70" t="s">
         <v>614</v>
       </c>
-      <c r="B150" s="72" t="s">
+      <c r="B150" s="71" t="s">
         <v>615</v>
       </c>
-      <c r="C150" s="49" t="s">
+      <c r="C150" s="48" t="s">
         <v>613</v>
       </c>
-      <c r="D150" s="59" t="s">
+      <c r="D150" s="58" t="s">
         <v>612</v>
       </c>
-      <c r="E150" s="49" t="s">
+      <c r="E150" s="48" t="s">
         <v>616</v>
       </c>
-      <c r="F150" s="36"/>
-      <c r="G150" s="37" t="s">
+      <c r="F150" s="35"/>
+      <c r="G150" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="H150" s="99" t="s">
+      <c r="H150" s="98" t="s">
         <v>617</v>
       </c>
       <c r="I150" s="7"/>
@@ -14536,26 +14533,26 @@
       <c r="K150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="71" t="s">
+      <c r="A151" s="70" t="s">
         <v>618</v>
       </c>
-      <c r="B151" s="72" t="s">
+      <c r="B151" s="71" t="s">
         <v>619</v>
       </c>
-      <c r="C151" s="59" t="s">
+      <c r="C151" s="58" t="s">
         <v>613</v>
       </c>
-      <c r="D151" s="59" t="s">
+      <c r="D151" s="58" t="s">
         <v>612</v>
       </c>
-      <c r="E151" s="49" t="s">
+      <c r="E151" s="48" t="s">
         <v>620</v>
       </c>
-      <c r="F151" s="36"/>
-      <c r="G151" s="37" t="s">
+      <c r="F151" s="35"/>
+      <c r="G151" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="H151" s="49" t="s">
+      <c r="H151" s="48" t="s">
         <v>621</v>
       </c>
       <c r="I151" s="7"/>
@@ -14563,39 +14560,39 @@
       <c r="K151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="53" t="s">
+      <c r="A152" s="52" t="s">
         <v>622</v>
       </c>
-      <c r="B152" s="54" t="s">
+      <c r="B152" s="53" t="s">
         <v>623</v>
       </c>
-      <c r="C152" s="59" t="s">
+      <c r="C152" s="58" t="s">
         <v>624</v>
       </c>
-      <c r="D152" s="59" t="s">
+      <c r="D152" s="58" t="s">
         <v>625</v>
       </c>
-      <c r="E152" s="49" t="s">
+      <c r="E152" s="48" t="s">
         <v>626</v>
       </c>
-      <c r="F152" s="49"/>
-      <c r="G152" s="49" t="s">
+      <c r="F152" s="48"/>
+      <c r="G152" s="48" t="s">
         <v>596</v>
       </c>
-      <c r="H152" s="49" t="s">
+      <c r="H152" s="48" t="s">
         <v>627</v>
       </c>
-      <c r="I152" s="39" t="s">
+      <c r="I152" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="47" t="s">
+      <c r="A153" s="46" t="s">
         <v>628</v>
       </c>
-      <c r="B153" s="48" t="s">
+      <c r="B153" s="47" t="s">
         <v>629</v>
       </c>
       <c r="C153" s="7"/>
@@ -14609,47 +14606,47 @@
       <c r="K153" s="7"/>
     </row>
     <row r="154">
-      <c r="A154" s="53" t="s">
+      <c r="A154" s="52" t="s">
         <v>630</v>
       </c>
-      <c r="B154" s="54" t="s">
+      <c r="B154" s="53" t="s">
         <v>631</v>
       </c>
-      <c r="C154" s="59" t="s">
+      <c r="C154" s="58" t="s">
         <v>632</v>
       </c>
-      <c r="D154" s="59" t="s">
+      <c r="D154" s="58" t="s">
         <v>633</v>
       </c>
-      <c r="E154" s="49"/>
-      <c r="F154" s="36"/>
-      <c r="G154" s="49"/>
-      <c r="H154" s="37"/>
+      <c r="E154" s="48"/>
+      <c r="F154" s="35"/>
+      <c r="G154" s="48"/>
+      <c r="H154" s="36"/>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
     </row>
     <row r="155">
-      <c r="A155" s="71" t="s">
+      <c r="A155" s="70" t="s">
         <v>634</v>
       </c>
-      <c r="B155" s="72" t="s">
+      <c r="B155" s="71" t="s">
         <v>635</v>
       </c>
-      <c r="C155" s="59" t="s">
+      <c r="C155" s="58" t="s">
         <v>632</v>
       </c>
-      <c r="D155" s="59" t="s">
+      <c r="D155" s="58" t="s">
         <v>633</v>
       </c>
-      <c r="E155" s="49" t="s">
+      <c r="E155" s="48" t="s">
         <v>636</v>
       </c>
-      <c r="F155" s="36"/>
-      <c r="G155" s="49" t="s">
+      <c r="F155" s="35"/>
+      <c r="G155" s="48" t="s">
         <v>637</v>
       </c>
-      <c r="H155" s="121" t="s">
+      <c r="H155" s="120" t="s">
         <v>638</v>
       </c>
       <c r="I155" s="7"/>
@@ -14657,10 +14654,10 @@
       <c r="K155" s="7"/>
     </row>
     <row r="156">
-      <c r="A156" s="71" t="s">
+      <c r="A156" s="70" t="s">
         <v>639</v>
       </c>
-      <c r="B156" s="72" t="s">
+      <c r="B156" s="71" t="s">
         <v>640</v>
       </c>
       <c r="C156" s="7" t="s">
@@ -14669,14 +14666,14 @@
       <c r="D156" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="E156" s="59" t="s">
+      <c r="E156" s="58" t="s">
         <v>641</v>
       </c>
-      <c r="F156" s="39"/>
-      <c r="G156" s="49" t="s">
+      <c r="F156" s="38"/>
+      <c r="G156" s="48" t="s">
         <v>637</v>
       </c>
-      <c r="H156" s="121" t="s">
+      <c r="H156" s="120" t="s">
         <v>642</v>
       </c>
       <c r="I156" s="7"/>
@@ -14684,39 +14681,39 @@
       <c r="K156" s="7"/>
     </row>
     <row r="157">
-      <c r="A157" s="53" t="s">
+      <c r="A157" s="52" t="s">
         <v>643</v>
       </c>
-      <c r="B157" s="54" t="s">
+      <c r="B157" s="53" t="s">
         <v>644</v>
       </c>
-      <c r="C157" s="59" t="s">
+      <c r="C157" s="58" t="s">
         <v>645</v>
       </c>
-      <c r="D157" s="59" t="s">
+      <c r="D157" s="58" t="s">
         <v>646</v>
       </c>
-      <c r="E157" s="42" t="s">
+      <c r="E157" s="41" t="s">
         <v>636</v>
       </c>
-      <c r="F157" s="49"/>
-      <c r="G157" s="49" t="s">
+      <c r="F157" s="48"/>
+      <c r="G157" s="48" t="s">
         <v>647</v>
       </c>
-      <c r="H157" s="121" t="s">
+      <c r="H157" s="120" t="s">
         <v>648</v>
       </c>
-      <c r="I157" s="39" t="s">
+      <c r="I157" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
     </row>
     <row r="158">
-      <c r="A158" s="47" t="s">
+      <c r="A158" s="46" t="s">
         <v>649</v>
       </c>
-      <c r="B158" s="48" t="s">
+      <c r="B158" s="47" t="s">
         <v>650</v>
       </c>
       <c r="C158" s="7" t="s">
@@ -14725,27 +14722,27 @@
       <c r="D158" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="E158" s="36" t="s">
+      <c r="E158" s="35" t="s">
         <v>653</v>
       </c>
-      <c r="F158" s="36"/>
-      <c r="G158" s="36" t="s">
+      <c r="F158" s="35"/>
+      <c r="G158" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="H158" s="122" t="s">
+      <c r="H158" s="121" t="s">
         <v>654</v>
       </c>
-      <c r="I158" s="39" t="s">
+      <c r="I158" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
     </row>
     <row r="159">
-      <c r="A159" s="40" t="s">
+      <c r="A159" s="39" t="s">
         <v>655</v>
       </c>
-      <c r="B159" s="41" t="s">
+      <c r="B159" s="40" t="s">
         <v>656</v>
       </c>
       <c r="C159" s="7" t="s">
@@ -14756,7 +14753,7 @@
         <v>658</v>
       </c>
       <c r="F159" s="4"/>
-      <c r="G159" s="36" t="s">
+      <c r="G159" s="35" t="s">
         <v>659</v>
       </c>
       <c r="H159" s="4" t="s">
@@ -14764,422 +14761,422 @@
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
-      <c r="K159" s="39" t="s">
+      <c r="K159" s="38" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="34" t="s">
+      <c r="A160" s="33" t="s">
         <v>662</v>
       </c>
-      <c r="B160" s="91" t="s">
+      <c r="B160" s="90" t="s">
         <v>663</v>
       </c>
-      <c r="C160" s="58"/>
-      <c r="D160" s="58"/>
-      <c r="E160" s="49"/>
-      <c r="F160" s="37"/>
-      <c r="G160" s="49"/>
-      <c r="H160" s="49"/>
+      <c r="C160" s="57"/>
+      <c r="D160" s="57"/>
+      <c r="E160" s="48"/>
+      <c r="F160" s="36"/>
+      <c r="G160" s="48"/>
+      <c r="H160" s="48"/>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="40" t="s">
+      <c r="A161" s="39" t="s">
         <v>664</v>
       </c>
-      <c r="B161" s="41" t="s">
+      <c r="B161" s="40" t="s">
         <v>665</v>
       </c>
-      <c r="C161" s="58"/>
-      <c r="D161" s="58"/>
-      <c r="E161" s="49"/>
-      <c r="F161" s="37"/>
-      <c r="G161" s="49"/>
-      <c r="H161" s="49"/>
+      <c r="C161" s="57"/>
+      <c r="D161" s="57"/>
+      <c r="E161" s="48"/>
+      <c r="F161" s="36"/>
+      <c r="G161" s="48"/>
+      <c r="H161" s="48"/>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
     </row>
     <row r="162">
-      <c r="A162" s="118" t="s">
+      <c r="A162" s="117" t="s">
         <v>666</v>
       </c>
-      <c r="B162" s="119" t="s">
+      <c r="B162" s="118" t="s">
         <v>667</v>
       </c>
-      <c r="C162" s="58"/>
-      <c r="D162" s="58"/>
-      <c r="E162" s="37" t="s">
+      <c r="C162" s="57"/>
+      <c r="D162" s="57"/>
+      <c r="E162" s="36" t="s">
         <v>668</v>
       </c>
-      <c r="F162" s="37"/>
-      <c r="G162" s="123" t="s">
+      <c r="F162" s="36"/>
+      <c r="G162" s="122" t="s">
         <v>669</v>
       </c>
-      <c r="H162" s="124" t="s">
+      <c r="H162" s="123" t="s">
         <v>670</v>
       </c>
-      <c r="I162" s="117" t="s">
+      <c r="I162" s="116" t="s">
         <v>671</v>
       </c>
-      <c r="J162" s="117" t="s">
+      <c r="J162" s="116" t="s">
         <v>672</v>
       </c>
-      <c r="K162" s="125" t="s">
+      <c r="K162" s="124" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="103" t="s">
+      <c r="A163" s="102" t="s">
         <v>674</v>
       </c>
-      <c r="B163" s="104" t="s">
+      <c r="B163" s="103" t="s">
         <v>675</v>
       </c>
-      <c r="C163" s="126" t="s">
+      <c r="C163" s="125" t="s">
         <v>676</v>
       </c>
-      <c r="D163" s="117" t="s">
+      <c r="D163" s="116" t="s">
         <v>677</v>
       </c>
-      <c r="E163" s="58" t="s">
+      <c r="E163" s="57" t="s">
         <v>678</v>
       </c>
-      <c r="F163" s="58"/>
-      <c r="G163" s="127" t="s">
+      <c r="F163" s="57"/>
+      <c r="G163" s="126" t="s">
         <v>679</v>
       </c>
-      <c r="H163" s="128" t="s">
+      <c r="H163" s="127" t="s">
         <v>680</v>
       </c>
-      <c r="I163" s="117" t="s">
+      <c r="I163" s="116" t="s">
         <v>681</v>
       </c>
-      <c r="J163" s="117" t="s">
+      <c r="J163" s="116" t="s">
         <v>682</v>
       </c>
-      <c r="K163" s="125" t="s">
+      <c r="K163" s="124" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="118" t="s">
+      <c r="A164" s="117" t="s">
         <v>683</v>
       </c>
-      <c r="B164" s="119" t="s">
+      <c r="B164" s="118" t="s">
         <v>684</v>
       </c>
-      <c r="C164" s="126" t="s">
+      <c r="C164" s="125" t="s">
         <v>685</v>
       </c>
-      <c r="D164" s="126" t="s">
+      <c r="D164" s="125" t="s">
         <v>686</v>
       </c>
-      <c r="E164" s="37" t="s">
+      <c r="E164" s="36" t="s">
         <v>687</v>
       </c>
-      <c r="F164" s="37"/>
-      <c r="G164" s="123" t="s">
+      <c r="F164" s="36"/>
+      <c r="G164" s="122" t="s">
         <v>669</v>
       </c>
-      <c r="H164" s="124" t="s">
+      <c r="H164" s="123" t="s">
         <v>688</v>
       </c>
-      <c r="I164" s="117" t="s">
+      <c r="I164" s="116" t="s">
         <v>689</v>
       </c>
-      <c r="J164" s="117" t="s">
+      <c r="J164" s="116" t="s">
         <v>672</v>
       </c>
-      <c r="K164" s="125" t="s">
+      <c r="K164" s="124" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="103" t="s">
+      <c r="A165" s="102" t="s">
         <v>690</v>
       </c>
-      <c r="B165" s="104" t="s">
+      <c r="B165" s="103" t="s">
         <v>691</v>
       </c>
-      <c r="C165" s="129"/>
-      <c r="D165" s="129"/>
-      <c r="E165" s="108" t="s">
+      <c r="C165" s="128"/>
+      <c r="D165" s="128"/>
+      <c r="E165" s="107" t="s">
         <v>687</v>
       </c>
-      <c r="F165" s="58"/>
-      <c r="G165" s="109"/>
-      <c r="H165" s="109"/>
-      <c r="I165" s="58" t="s">
+      <c r="F165" s="57"/>
+      <c r="G165" s="108"/>
+      <c r="H165" s="108"/>
+      <c r="I165" s="57" t="s">
         <v>692</v>
       </c>
-      <c r="J165" s="58" t="s">
+      <c r="J165" s="57" t="s">
         <v>693</v>
       </c>
-      <c r="K165" s="125" t="s">
+      <c r="K165" s="124" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="103" t="s">
+      <c r="A166" s="102" t="s">
         <v>695</v>
       </c>
-      <c r="B166" s="104" t="s">
+      <c r="B166" s="103" t="s">
         <v>696</v>
       </c>
-      <c r="C166" s="106" t="s">
+      <c r="C166" s="105" t="s">
         <v>676</v>
       </c>
-      <c r="D166" s="116" t="s">
+      <c r="D166" s="115" t="s">
         <v>677</v>
       </c>
-      <c r="E166" s="37" t="s">
+      <c r="E166" s="36" t="s">
         <v>697</v>
       </c>
-      <c r="F166" s="37"/>
-      <c r="G166" s="123" t="s">
+      <c r="F166" s="36"/>
+      <c r="G166" s="122" t="s">
         <v>679</v>
       </c>
-      <c r="H166" s="123" t="s">
+      <c r="H166" s="122" t="s">
         <v>680</v>
       </c>
-      <c r="I166" s="58" t="s">
+      <c r="I166" s="57" t="s">
         <v>698</v>
       </c>
-      <c r="J166" s="58" t="s">
+      <c r="J166" s="57" t="s">
         <v>682</v>
       </c>
-      <c r="K166" s="125" t="s">
+      <c r="K166" s="124" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="103" t="s">
+      <c r="A167" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="B167" s="104" t="s">
+      <c r="B167" s="103" t="s">
         <v>700</v>
       </c>
-      <c r="C167" s="113" t="s">
+      <c r="C167" s="112" t="s">
         <v>676</v>
       </c>
-      <c r="D167" s="113" t="s">
+      <c r="D167" s="112" t="s">
         <v>677</v>
       </c>
-      <c r="E167" s="37" t="s">
+      <c r="E167" s="36" t="s">
         <v>701</v>
       </c>
-      <c r="F167" s="37"/>
-      <c r="G167" s="123" t="s">
+      <c r="F167" s="36"/>
+      <c r="G167" s="122" t="s">
         <v>702</v>
       </c>
-      <c r="H167" s="124" t="s">
+      <c r="H167" s="123" t="s">
         <v>703</v>
       </c>
-      <c r="I167" s="58" t="s">
+      <c r="I167" s="57" t="s">
         <v>698</v>
       </c>
-      <c r="J167" s="58" t="s">
+      <c r="J167" s="57" t="s">
         <v>704</v>
       </c>
-      <c r="K167" s="125" t="s">
+      <c r="K167" s="124" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="118" t="s">
+      <c r="A168" s="117" t="s">
         <v>705</v>
       </c>
-      <c r="B168" s="119" t="s">
+      <c r="B168" s="118" t="s">
         <v>706</v>
       </c>
-      <c r="C168" s="126" t="s">
+      <c r="C168" s="125" t="s">
         <v>685</v>
       </c>
-      <c r="D168" s="126" t="s">
+      <c r="D168" s="125" t="s">
         <v>686</v>
       </c>
-      <c r="E168" s="130" t="s">
+      <c r="E168" s="129" t="s">
         <v>707</v>
       </c>
-      <c r="F168" s="130"/>
-      <c r="G168" s="123" t="s">
+      <c r="F168" s="129"/>
+      <c r="G168" s="122" t="s">
         <v>669</v>
       </c>
-      <c r="H168" s="124" t="s">
+      <c r="H168" s="123" t="s">
         <v>708</v>
       </c>
-      <c r="I168" s="117" t="s">
+      <c r="I168" s="116" t="s">
         <v>709</v>
       </c>
-      <c r="J168" s="117" t="s">
+      <c r="J168" s="116" t="s">
         <v>672</v>
       </c>
-      <c r="K168" s="125" t="s">
+      <c r="K168" s="124" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="103" t="s">
+      <c r="A169" s="102" t="s">
         <v>710</v>
       </c>
-      <c r="B169" s="104" t="s">
+      <c r="B169" s="103" t="s">
         <v>691</v>
       </c>
-      <c r="C169" s="129"/>
-      <c r="D169" s="129"/>
-      <c r="E169" s="131" t="s">
+      <c r="C169" s="128"/>
+      <c r="D169" s="128"/>
+      <c r="E169" s="130" t="s">
         <v>707</v>
       </c>
-      <c r="F169" s="130"/>
-      <c r="G169" s="132"/>
-      <c r="H169" s="132"/>
-      <c r="I169" s="58" t="s">
+      <c r="F169" s="129"/>
+      <c r="G169" s="131"/>
+      <c r="H169" s="131"/>
+      <c r="I169" s="57" t="s">
         <v>711</v>
       </c>
-      <c r="J169" s="58" t="s">
+      <c r="J169" s="57" t="s">
         <v>693</v>
       </c>
-      <c r="K169" s="125" t="s">
+      <c r="K169" s="124" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="103" t="s">
+      <c r="A170" s="102" t="s">
         <v>712</v>
       </c>
-      <c r="B170" s="104" t="s">
+      <c r="B170" s="103" t="s">
         <v>696</v>
       </c>
-      <c r="C170" s="126" t="s">
+      <c r="C170" s="125" t="s">
         <v>676</v>
       </c>
-      <c r="D170" s="117" t="s">
+      <c r="D170" s="116" t="s">
         <v>677</v>
       </c>
-      <c r="E170" s="130" t="s">
+      <c r="E170" s="129" t="s">
         <v>713</v>
       </c>
-      <c r="F170" s="130"/>
-      <c r="G170" s="127" t="s">
+      <c r="F170" s="129"/>
+      <c r="G170" s="126" t="s">
         <v>679</v>
       </c>
-      <c r="H170" s="127" t="s">
+      <c r="H170" s="126" t="s">
         <v>680</v>
       </c>
-      <c r="I170" s="58" t="s">
+      <c r="I170" s="57" t="s">
         <v>714</v>
       </c>
-      <c r="J170" s="58" t="s">
+      <c r="J170" s="57" t="s">
         <v>682</v>
       </c>
-      <c r="K170" s="125" t="s">
+      <c r="K170" s="124" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="103" t="s">
+      <c r="A171" s="102" t="s">
         <v>715</v>
       </c>
-      <c r="B171" s="104" t="s">
+      <c r="B171" s="103" t="s">
         <v>716</v>
       </c>
-      <c r="C171" s="113" t="s">
+      <c r="C171" s="112" t="s">
         <v>676</v>
       </c>
-      <c r="D171" s="112" t="s">
+      <c r="D171" s="111" t="s">
         <v>677</v>
       </c>
-      <c r="E171" s="130" t="s">
+      <c r="E171" s="129" t="s">
         <v>717</v>
       </c>
-      <c r="F171" s="130"/>
-      <c r="G171" s="123" t="s">
+      <c r="F171" s="129"/>
+      <c r="G171" s="122" t="s">
         <v>702</v>
       </c>
-      <c r="H171" s="123" t="s">
+      <c r="H171" s="122" t="s">
         <v>703</v>
       </c>
-      <c r="I171" s="58" t="s">
+      <c r="I171" s="57" t="s">
         <v>714</v>
       </c>
-      <c r="J171" s="58" t="s">
+      <c r="J171" s="57" t="s">
         <v>704</v>
       </c>
-      <c r="K171" s="125" t="s">
+      <c r="K171" s="124" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="47" t="s">
+      <c r="A172" s="46" t="s">
         <v>718</v>
       </c>
-      <c r="B172" s="48" t="s">
+      <c r="B172" s="47" t="s">
         <v>719</v>
       </c>
-      <c r="C172" s="58"/>
-      <c r="D172" s="58"/>
-      <c r="E172" s="133"/>
-      <c r="F172" s="130"/>
-      <c r="G172" s="59"/>
-      <c r="H172" s="59"/>
+      <c r="C172" s="57"/>
+      <c r="D172" s="57"/>
+      <c r="E172" s="132"/>
+      <c r="F172" s="129"/>
+      <c r="G172" s="58"/>
+      <c r="H172" s="58"/>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
     <row r="173">
-      <c r="A173" s="53" t="s">
+      <c r="A173" s="52" t="s">
         <v>720</v>
       </c>
-      <c r="B173" s="54" t="s">
+      <c r="B173" s="53" t="s">
         <v>721</v>
       </c>
-      <c r="C173" s="58" t="s">
+      <c r="C173" s="57" t="s">
         <v>722</v>
       </c>
-      <c r="D173" s="58"/>
-      <c r="E173" s="133" t="s">
+      <c r="D173" s="57"/>
+      <c r="E173" s="132" t="s">
         <v>723</v>
       </c>
-      <c r="F173" s="130"/>
-      <c r="G173" s="49"/>
-      <c r="H173" s="49"/>
+      <c r="F173" s="129"/>
+      <c r="G173" s="48"/>
+      <c r="H173" s="48"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
-      <c r="K173" s="39" t="s">
+      <c r="K173" s="38" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="53" t="s">
+      <c r="A174" s="52" t="s">
         <v>725</v>
       </c>
-      <c r="B174" s="54" t="s">
+      <c r="B174" s="53" t="s">
         <v>726</v>
       </c>
-      <c r="C174" s="58" t="s">
+      <c r="C174" s="57" t="s">
         <v>727</v>
       </c>
-      <c r="D174" s="58"/>
-      <c r="E174" s="133" t="s">
+      <c r="D174" s="57"/>
+      <c r="E174" s="132" t="s">
         <v>728</v>
       </c>
-      <c r="F174" s="130"/>
-      <c r="G174" s="49"/>
-      <c r="H174" s="49"/>
+      <c r="F174" s="129"/>
+      <c r="G174" s="48"/>
+      <c r="H174" s="48"/>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
-      <c r="K174" s="39" t="s">
+      <c r="K174" s="38" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="40" t="s">
+      <c r="A175" s="39" t="s">
         <v>729</v>
       </c>
-      <c r="B175" s="41" t="s">
+      <c r="B175" s="40" t="s">
         <v>730</v>
       </c>
       <c r="C175" s="7"/>
@@ -15193,10 +15190,10 @@
       <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="47" t="s">
+      <c r="A176" s="46" t="s">
         <v>731</v>
       </c>
-      <c r="B176" s="48" t="s">
+      <c r="B176" s="47" t="s">
         <v>732</v>
       </c>
       <c r="C176" s="7"/>
@@ -15210,10 +15207,10 @@
       <c r="K176" s="7"/>
     </row>
     <row r="177">
-      <c r="A177" s="53" t="s">
+      <c r="A177" s="52" t="s">
         <v>733</v>
       </c>
-      <c r="B177" s="54" t="s">
+      <c r="B177" s="53" t="s">
         <v>734</v>
       </c>
       <c r="C177" s="7" t="s">
@@ -15226,21 +15223,21 @@
       <c r="F177" s="18"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
-      <c r="I177" s="113" t="s">
+      <c r="I177" s="112" t="s">
         <v>736</v>
       </c>
-      <c r="J177" s="113" t="s">
+      <c r="J177" s="112" t="s">
         <v>737</v>
       </c>
-      <c r="K177" s="39" t="s">
+      <c r="K177" s="38" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="103" t="s">
+      <c r="A178" s="102" t="s">
         <v>738</v>
       </c>
-      <c r="B178" s="54" t="s">
+      <c r="B178" s="53" t="s">
         <v>739</v>
       </c>
       <c r="C178" s="7" t="s">
@@ -15253,21 +15250,21 @@
       <c r="F178" s="18"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
-      <c r="I178" s="134" t="s">
+      <c r="I178" s="133" t="s">
         <v>742</v>
       </c>
-      <c r="J178" s="113" t="s">
+      <c r="J178" s="112" t="s">
         <v>743</v>
       </c>
-      <c r="K178" s="39" t="s">
+      <c r="K178" s="38" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="47" t="s">
+      <c r="A179" s="46" t="s">
         <v>744</v>
       </c>
-      <c r="B179" s="48" t="s">
+      <c r="B179" s="47" t="s">
         <v>745</v>
       </c>
       <c r="C179" s="4" t="s">
@@ -15282,15 +15279,15 @@
       <c r="H179" s="4"/>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
-      <c r="K179" s="39" t="s">
+      <c r="K179" s="38" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="47" t="s">
+      <c r="A180" s="46" t="s">
         <v>748</v>
       </c>
-      <c r="B180" s="48" t="s">
+      <c r="B180" s="47" t="s">
         <v>749</v>
       </c>
       <c r="C180" s="7"/>
@@ -15301,13 +15298,13 @@
       <c r="H180" s="4"/>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
-      <c r="K180" s="39"/>
+      <c r="K180" s="38"/>
     </row>
     <row r="181">
-      <c r="A181" s="53" t="s">
+      <c r="A181" s="52" t="s">
         <v>750</v>
       </c>
-      <c r="B181" s="54" t="s">
+      <c r="B181" s="53" t="s">
         <v>751</v>
       </c>
       <c r="C181" s="7" t="s">
@@ -15322,34 +15319,34 @@
       <c r="H181" s="4"/>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
-      <c r="K181" s="39" t="s">
+      <c r="K181" s="38" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="34" t="s">
+      <c r="A182" s="33" t="s">
         <v>754</v>
       </c>
-      <c r="B182" s="91" t="s">
+      <c r="B182" s="90" t="s">
         <v>755</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
-      <c r="E182" s="36" t="s">
+      <c r="E182" s="35" t="s">
         <v>756</v>
       </c>
       <c r="F182" s="4"/>
-      <c r="G182" s="63"/>
-      <c r="H182" s="63"/>
+      <c r="G182" s="62"/>
+      <c r="H182" s="62"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
     </row>
     <row r="183">
-      <c r="A183" s="40" t="s">
+      <c r="A183" s="39" t="s">
         <v>757</v>
       </c>
-      <c r="B183" s="41" t="s">
+      <c r="B183" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C183" s="7"/>
@@ -15363,10 +15360,10 @@
       <c r="K183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="47" t="s">
+      <c r="A184" s="46" t="s">
         <v>758</v>
       </c>
-      <c r="B184" s="48" t="s">
+      <c r="B184" s="47" t="s">
         <v>759</v>
       </c>
       <c r="C184" s="7"/>
@@ -15380,26 +15377,26 @@
       <c r="K184" s="7"/>
     </row>
     <row r="185">
-      <c r="A185" s="53" t="s">
+      <c r="A185" s="52" t="s">
         <v>760</v>
       </c>
-      <c r="B185" s="54" t="s">
+      <c r="B185" s="53" t="s">
         <v>761</v>
       </c>
-      <c r="C185" s="59" t="s">
+      <c r="C185" s="58" t="s">
         <v>762</v>
       </c>
-      <c r="D185" s="59" t="s">
+      <c r="D185" s="58" t="s">
         <v>763</v>
       </c>
-      <c r="E185" s="49" t="s">
+      <c r="E185" s="48" t="s">
         <v>764</v>
       </c>
-      <c r="F185" s="49"/>
-      <c r="G185" s="37" t="s">
+      <c r="F185" s="48"/>
+      <c r="G185" s="36" t="s">
         <v>765</v>
       </c>
-      <c r="H185" s="99" t="s">
+      <c r="H185" s="98" t="s">
         <v>766</v>
       </c>
       <c r="I185" s="7"/>
@@ -15407,26 +15404,26 @@
       <c r="K185" s="7"/>
     </row>
     <row r="186">
-      <c r="A186" s="53" t="s">
+      <c r="A186" s="52" t="s">
         <v>767</v>
       </c>
-      <c r="B186" s="54" t="s">
+      <c r="B186" s="53" t="s">
         <v>768</v>
       </c>
-      <c r="C186" s="59" t="s">
+      <c r="C186" s="58" t="s">
         <v>762</v>
       </c>
-      <c r="D186" s="59" t="s">
+      <c r="D186" s="58" t="s">
         <v>763</v>
       </c>
-      <c r="E186" s="49" t="s">
+      <c r="E186" s="48" t="s">
         <v>769</v>
       </c>
-      <c r="F186" s="49"/>
-      <c r="G186" s="37" t="s">
+      <c r="F186" s="48"/>
+      <c r="G186" s="36" t="s">
         <v>765</v>
       </c>
-      <c r="H186" s="49" t="s">
+      <c r="H186" s="48" t="s">
         <v>770</v>
       </c>
       <c r="I186" s="7"/>
@@ -15434,26 +15431,26 @@
       <c r="K186" s="7"/>
     </row>
     <row r="187">
-      <c r="A187" s="53" t="s">
+      <c r="A187" s="52" t="s">
         <v>771</v>
       </c>
-      <c r="B187" s="54" t="s">
+      <c r="B187" s="53" t="s">
         <v>772</v>
       </c>
-      <c r="C187" s="59" t="s">
+      <c r="C187" s="58" t="s">
         <v>773</v>
       </c>
-      <c r="D187" s="59" t="s">
+      <c r="D187" s="58" t="s">
         <v>774</v>
       </c>
-      <c r="E187" s="49" t="s">
+      <c r="E187" s="48" t="s">
         <v>775</v>
       </c>
-      <c r="F187" s="49"/>
-      <c r="G187" s="37" t="s">
+      <c r="F187" s="48"/>
+      <c r="G187" s="36" t="s">
         <v>776</v>
       </c>
-      <c r="H187" s="37" t="s">
+      <c r="H187" s="36" t="s">
         <v>777</v>
       </c>
       <c r="I187" s="7"/>
@@ -15461,87 +15458,87 @@
       <c r="K187" s="7"/>
     </row>
     <row r="188">
-      <c r="A188" s="114" t="s">
+      <c r="A188" s="113" t="s">
         <v>778</v>
       </c>
-      <c r="B188" s="115" t="s">
+      <c r="B188" s="114" t="s">
         <v>779</v>
       </c>
-      <c r="C188" s="113" t="s">
+      <c r="C188" s="112" t="s">
         <v>780</v>
       </c>
-      <c r="D188" s="113" t="s">
+      <c r="D188" s="112" t="s">
         <v>781</v>
       </c>
-      <c r="E188" s="116" t="s">
+      <c r="E188" s="115" t="s">
         <v>782</v>
       </c>
-      <c r="F188" s="116"/>
-      <c r="G188" s="135"/>
-      <c r="H188" s="135"/>
-      <c r="I188" s="58"/>
-      <c r="J188" s="58"/>
-      <c r="K188" s="125" t="s">
+      <c r="F188" s="115"/>
+      <c r="G188" s="134"/>
+      <c r="H188" s="134"/>
+      <c r="I188" s="57"/>
+      <c r="J188" s="57"/>
+      <c r="K188" s="124" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="114" t="s">
+      <c r="A189" s="113" t="s">
         <v>784</v>
       </c>
-      <c r="B189" s="115" t="s">
+      <c r="B189" s="114" t="s">
         <v>785</v>
       </c>
-      <c r="C189" s="112" t="s">
+      <c r="C189" s="111" t="s">
         <v>780</v>
       </c>
-      <c r="D189" s="113" t="s">
+      <c r="D189" s="112" t="s">
         <v>781</v>
       </c>
-      <c r="E189" s="116" t="s">
+      <c r="E189" s="115" t="s">
         <v>786</v>
       </c>
-      <c r="F189" s="116"/>
-      <c r="G189" s="135"/>
-      <c r="H189" s="135"/>
-      <c r="I189" s="58"/>
-      <c r="J189" s="58"/>
-      <c r="K189" s="125" t="s">
+      <c r="F189" s="115"/>
+      <c r="G189" s="134"/>
+      <c r="H189" s="134"/>
+      <c r="I189" s="57"/>
+      <c r="J189" s="57"/>
+      <c r="K189" s="124" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="114" t="s">
+      <c r="A190" s="113" t="s">
         <v>787</v>
       </c>
-      <c r="B190" s="115" t="s">
+      <c r="B190" s="114" t="s">
         <v>788</v>
       </c>
-      <c r="C190" s="117" t="s">
+      <c r="C190" s="116" t="s">
         <v>789</v>
       </c>
-      <c r="D190" s="117" t="s">
+      <c r="D190" s="116" t="s">
         <v>790</v>
       </c>
-      <c r="E190" s="116" t="s">
+      <c r="E190" s="115" t="s">
         <v>791</v>
       </c>
-      <c r="F190" s="116"/>
-      <c r="G190" s="116" t="s">
+      <c r="F190" s="115"/>
+      <c r="G190" s="115" t="s">
         <v>792</v>
       </c>
-      <c r="H190" s="116" t="s">
+      <c r="H190" s="115" t="s">
         <v>793</v>
       </c>
-      <c r="I190" s="58"/>
-      <c r="J190" s="58"/>
+      <c r="I190" s="57"/>
+      <c r="J190" s="57"/>
       <c r="K190" s="7"/>
     </row>
     <row r="191">
-      <c r="A191" s="53" t="s">
+      <c r="A191" s="52" t="s">
         <v>794</v>
       </c>
-      <c r="B191" s="54" t="s">
+      <c r="B191" s="53" t="s">
         <v>795</v>
       </c>
       <c r="C191" s="7" t="s">
@@ -15557,7 +15554,7 @@
       <c r="G191" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="H191" s="136" t="s">
+      <c r="H191" s="135" t="s">
         <v>800</v>
       </c>
       <c r="I191" s="7"/>
@@ -15565,37 +15562,37 @@
       <c r="K191" s="7"/>
     </row>
     <row r="192">
-      <c r="A192" s="114" t="s">
+      <c r="A192" s="113" t="s">
         <v>801</v>
       </c>
-      <c r="B192" s="115" t="s">
+      <c r="B192" s="114" t="s">
         <v>802</v>
       </c>
-      <c r="C192" s="117" t="s">
+      <c r="C192" s="116" t="s">
         <v>796</v>
       </c>
-      <c r="D192" s="117" t="s">
+      <c r="D192" s="116" t="s">
         <v>797</v>
       </c>
-      <c r="E192" s="116" t="s">
+      <c r="E192" s="115" t="s">
         <v>803</v>
       </c>
       <c r="F192" s="4"/>
-      <c r="G192" s="116" t="s">
+      <c r="G192" s="115" t="s">
         <v>804</v>
       </c>
-      <c r="H192" s="137" t="s">
+      <c r="H192" s="136" t="s">
         <v>805</v>
       </c>
-      <c r="I192" s="58"/>
-      <c r="J192" s="58"/>
+      <c r="I192" s="57"/>
+      <c r="J192" s="57"/>
       <c r="K192" s="7"/>
     </row>
     <row r="193">
-      <c r="A193" s="53" t="s">
+      <c r="A193" s="52" t="s">
         <v>794</v>
       </c>
-      <c r="B193" s="54" t="s">
+      <c r="B193" s="53" t="s">
         <v>806</v>
       </c>
       <c r="C193" s="7" t="s">
@@ -15612,52 +15609,52 @@
       <c r="H193" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="I193" s="39" t="s">
+      <c r="I193" s="38" t="s">
         <v>811</v>
       </c>
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
     </row>
     <row r="194">
-      <c r="A194" s="47" t="s">
+      <c r="A194" s="46" t="s">
         <v>812</v>
       </c>
-      <c r="B194" s="48" t="s">
+      <c r="B194" s="47" t="s">
         <v>813</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>814</v>
       </c>
-      <c r="D194" s="58"/>
-      <c r="E194" s="37"/>
-      <c r="F194" s="58"/>
-      <c r="G194" s="37"/>
-      <c r="H194" s="37"/>
+      <c r="D194" s="57"/>
+      <c r="E194" s="36"/>
+      <c r="F194" s="57"/>
+      <c r="G194" s="36"/>
+      <c r="H194" s="36"/>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
     </row>
     <row r="195">
-      <c r="A195" s="53" t="s">
+      <c r="A195" s="52" t="s">
         <v>815</v>
       </c>
-      <c r="B195" s="54" t="s">
+      <c r="B195" s="53" t="s">
         <v>816</v>
       </c>
-      <c r="C195" s="59" t="s">
+      <c r="C195" s="58" t="s">
         <v>817</v>
       </c>
-      <c r="D195" s="59" t="s">
+      <c r="D195" s="58" t="s">
         <v>818</v>
       </c>
-      <c r="E195" s="49" t="s">
+      <c r="E195" s="48" t="s">
         <v>819</v>
       </c>
-      <c r="F195" s="49"/>
-      <c r="G195" s="37" t="s">
+      <c r="F195" s="48"/>
+      <c r="G195" s="36" t="s">
         <v>820</v>
       </c>
-      <c r="H195" s="99" t="s">
+      <c r="H195" s="98" t="s">
         <v>821</v>
       </c>
       <c r="I195" s="7"/>
@@ -15665,47 +15662,47 @@
       <c r="K195" s="7"/>
     </row>
     <row r="196">
-      <c r="A196" s="47" t="s">
+      <c r="A196" s="46" t="s">
         <v>822</v>
       </c>
-      <c r="B196" s="48" t="s">
+      <c r="B196" s="47" t="s">
         <v>823</v>
       </c>
-      <c r="C196" s="59" t="s">
+      <c r="C196" s="58" t="s">
         <v>824</v>
       </c>
-      <c r="D196" s="59" t="s">
+      <c r="D196" s="58" t="s">
         <v>825</v>
       </c>
-      <c r="E196" s="49"/>
-      <c r="F196" s="37"/>
-      <c r="G196" s="37"/>
-      <c r="H196" s="37"/>
+      <c r="E196" s="48"/>
+      <c r="F196" s="36"/>
+      <c r="G196" s="36"/>
+      <c r="H196" s="36"/>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
     </row>
     <row r="197">
-      <c r="A197" s="53" t="s">
+      <c r="A197" s="52" t="s">
         <v>826</v>
       </c>
-      <c r="B197" s="54" t="s">
+      <c r="B197" s="53" t="s">
         <v>827</v>
       </c>
-      <c r="C197" s="59" t="s">
+      <c r="C197" s="58" t="s">
         <v>824</v>
       </c>
-      <c r="D197" s="59" t="s">
+      <c r="D197" s="58" t="s">
         <v>825</v>
       </c>
-      <c r="E197" s="49" t="s">
+      <c r="E197" s="48" t="s">
         <v>828</v>
       </c>
-      <c r="F197" s="37"/>
-      <c r="G197" s="37" t="s">
+      <c r="F197" s="36"/>
+      <c r="G197" s="36" t="s">
         <v>829</v>
       </c>
-      <c r="H197" s="99" t="s">
+      <c r="H197" s="98" t="s">
         <v>830</v>
       </c>
       <c r="I197" s="7"/>
@@ -15713,26 +15710,26 @@
       <c r="K197" s="7"/>
     </row>
     <row r="198">
-      <c r="A198" s="53" t="s">
+      <c r="A198" s="52" t="s">
         <v>831</v>
       </c>
-      <c r="B198" s="54" t="s">
+      <c r="B198" s="53" t="s">
         <v>832</v>
       </c>
-      <c r="C198" s="59" t="s">
+      <c r="C198" s="58" t="s">
         <v>824</v>
       </c>
-      <c r="D198" s="59" t="s">
+      <c r="D198" s="58" t="s">
         <v>825</v>
       </c>
-      <c r="E198" s="49" t="s">
+      <c r="E198" s="48" t="s">
         <v>833</v>
       </c>
-      <c r="F198" s="37"/>
-      <c r="G198" s="37" t="s">
+      <c r="F198" s="36"/>
+      <c r="G198" s="36" t="s">
         <v>829</v>
       </c>
-      <c r="H198" s="99" t="s">
+      <c r="H198" s="98" t="s">
         <v>834</v>
       </c>
       <c r="I198" s="7"/>
@@ -15740,10 +15737,10 @@
       <c r="K198" s="7"/>
     </row>
     <row r="199">
-      <c r="A199" s="40" t="s">
+      <c r="A199" s="39" t="s">
         <v>835</v>
       </c>
-      <c r="B199" s="41" t="s">
+      <c r="B199" s="40" t="s">
         <v>836</v>
       </c>
       <c r="C199" s="7"/>
@@ -15757,53 +15754,53 @@
       <c r="K199" s="7"/>
     </row>
     <row r="200">
-      <c r="A200" s="47" t="s">
+      <c r="A200" s="46" t="s">
         <v>837</v>
       </c>
-      <c r="B200" s="48" t="s">
+      <c r="B200" s="47" t="s">
         <v>838</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>740</v>
       </c>
       <c r="D200" s="7"/>
-      <c r="E200" s="36" t="s">
+      <c r="E200" s="35" t="s">
         <v>839</v>
       </c>
-      <c r="F200" s="36" t="s">
+      <c r="F200" s="35" t="s">
         <v>840</v>
       </c>
-      <c r="G200" s="36" t="s">
+      <c r="G200" s="35" t="s">
         <v>841</v>
       </c>
-      <c r="H200" s="36" t="s">
+      <c r="H200" s="35" t="s">
         <v>842</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
-      <c r="K200" s="39" t="s">
+      <c r="K200" s="38" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="47" t="s">
+      <c r="A201" s="46" t="s">
         <v>844</v>
       </c>
-      <c r="B201" s="48" t="s">
+      <c r="B201" s="47" t="s">
         <v>845</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>846</v>
       </c>
       <c r="D201" s="7"/>
-      <c r="E201" s="36" t="s">
+      <c r="E201" s="35" t="s">
         <v>847</v>
       </c>
       <c r="F201" s="4"/>
       <c r="G201" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="H201" s="36" t="s">
+      <c r="H201" s="35" t="s">
         <v>849</v>
       </c>
       <c r="I201" s="7"/>
@@ -15811,10 +15808,10 @@
       <c r="K201" s="7"/>
     </row>
     <row r="202">
-      <c r="A202" s="47" t="s">
+      <c r="A202" s="46" t="s">
         <v>850</v>
       </c>
-      <c r="B202" s="48" t="s">
+      <c r="B202" s="47" t="s">
         <v>851</v>
       </c>
       <c r="C202" s="7" t="s">
@@ -15825,11 +15822,11 @@
         <v>852</v>
       </c>
       <c r="F202" s="4"/>
-      <c r="G202" s="36"/>
+      <c r="G202" s="35"/>
       <c r="H202" s="4"/>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
-      <c r="K202" s="39" t="s">
+      <c r="K202" s="38" t="s">
         <v>724</v>
       </c>
     </row>
@@ -15906,22 +15903,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="139" t="s">
+      <c r="D1" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="139" t="s">
+      <c r="E1" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="139" t="s">
+      <c r="F1" s="138" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15932,16 +15929,16 @@
       <c r="B2" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>391</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>853</v>
       </c>
     </row>
@@ -15949,17 +15946,17 @@
       <c r="A3" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>423</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>854</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="35" t="s">
         <v>855</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>856</v>
       </c>
     </row>
@@ -15967,17 +15964,17 @@
       <c r="A4" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>423</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>854</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="35" t="s">
         <v>857</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="35" t="s">
         <v>858</v>
       </c>
     </row>
@@ -15988,82 +15985,82 @@
       <c r="B5" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>391</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="35" t="s">
         <v>859</v>
       </c>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="140"/>
-      <c r="T5" s="140"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="140"/>
-      <c r="W5" s="140"/>
-      <c r="X5" s="140"/>
-      <c r="Y5" s="140"/>
-      <c r="Z5" s="140"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="139"/>
+      <c r="T5" s="139"/>
+      <c r="U5" s="139"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="139"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
         <v>860</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>861</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>862</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>863</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>864</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="140"/>
-      <c r="O6" s="140"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140"/>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="140"/>
-      <c r="U6" s="140"/>
-      <c r="V6" s="140"/>
-      <c r="W6" s="140"/>
-      <c r="X6" s="140"/>
-      <c r="Y6" s="140"/>
-      <c r="Z6" s="140"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="139"/>
+      <c r="R6" s="139"/>
+      <c r="S6" s="139"/>
+      <c r="T6" s="139"/>
+      <c r="U6" s="139"/>
+      <c r="V6" s="139"/>
+      <c r="W6" s="139"/>
+      <c r="X6" s="139"/>
+      <c r="Y6" s="139"/>
+      <c r="Z6" s="139"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
         <v>865</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>866</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -16072,10 +16069,10 @@
       <c r="D7" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>869</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="35" t="s">
         <v>870</v>
       </c>
     </row>
@@ -16086,32 +16083,32 @@
       <c r="B8" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>740</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="38" t="s">
         <v>873</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="38" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="83" t="s">
         <v>875</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="83" t="s">
         <v>876</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="83" t="s">
         <v>740</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84" t="s">
+      <c r="D9" s="83"/>
+      <c r="E9" s="83" t="s">
         <v>877</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="83" t="s">
         <v>874</v>
       </c>
     </row>
@@ -16119,17 +16116,17 @@
       <c r="A10" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>879</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="140" t="s">
         <v>880</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>881</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="38" t="s">
         <v>882</v>
       </c>
     </row>
@@ -16137,7 +16134,7 @@
       <c r="A11" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>884</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -16146,30 +16143,30 @@
       <c r="D11" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="38" t="s">
         <v>887</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="38" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="82" t="s">
         <v>889</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="83" t="s">
         <v>890</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="82" t="s">
         <v>542</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="82" t="s">
         <v>411</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="83" t="s">
         <v>891</v>
       </c>
-      <c r="F12" s="142" t="s">
+      <c r="F12" s="141" t="s">
         <v>892</v>
       </c>
     </row>
@@ -16177,31 +16174,31 @@
       <c r="A13" s="7" t="s">
         <v>893</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>894</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>895</v>
       </c>
-      <c r="F13" s="143" t="s">
+      <c r="F13" s="142" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="133" t="s">
+      <c r="A14" s="132" t="s">
         <v>897</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="59" t="s">
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="58" t="s">
         <v>898</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>899</v>
       </c>
-      <c r="F14" s="143" t="s">
+      <c r="F14" s="142" t="s">
         <v>900</v>
       </c>
     </row>
@@ -20183,93 +20180,93 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="143" t="s">
         <v>901</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="144" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="145" t="s">
         <v>903</v>
       </c>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="144" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="146" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="147" t="s">
         <v>906</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="144" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="144" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="145"/>
+      <c r="B8" s="144"/>
     </row>
     <row r="9">
-      <c r="B9" s="145"/>
+      <c r="B9" s="144"/>
     </row>
     <row r="10">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="147" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="148" t="s">
+      <c r="A11" s="147" t="s">
         <v>910</v>
       </c>
-      <c r="B11" s="149" t="s">
+      <c r="B11" s="148" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="149" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="151"/>
-      <c r="B13" s="152" t="s">
+      <c r="A13" s="150"/>
+      <c r="B13" s="151" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="153" t="s">
+      <c r="B14" s="152" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="154" t="s">
+      <c r="B15" s="153" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="155" t="s">
+      <c r="B16" s="154" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="148"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="148" t="s">
+      <c r="A18" s="147" t="s">
         <v>917</v>
       </c>
-      <c r="B18" s="156" t="s">
+      <c r="B18" s="155" t="s">
         <v>918</v>
       </c>
     </row>
@@ -20277,13 +20274,13 @@
       <c r="A19" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="B19" s="157"/>
+      <c r="B19" s="156"/>
     </row>
     <row r="21">
-      <c r="A21" s="148" t="s">
+      <c r="A21" s="147" t="s">
         <v>920</v>
       </c>
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="157" t="s">
         <v>921</v>
       </c>
     </row>
@@ -20309,47 +20306,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="147" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="158" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="144" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="158" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="144" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="144" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="145" t="s">
+      <c r="A7" s="144" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="158" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="144" t="s">
         <v>930</v>
       </c>
     </row>
@@ -20378,12 +20375,12 @@
       <c r="A1" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="159" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="160" t="s">
         <v>932</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -20436,7 +20433,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="149"/>
+      <c r="A1" s="148"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -20460,13 +20457,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="161" t="s">
         <v>940</v>
       </c>
-      <c r="C1" s="162" t="s">
+      <c r="C1" s="161" t="s">
         <v>941</v>
       </c>
-      <c r="E1" s="163" t="s">
+      <c r="E1" s="162" t="s">
         <v>2</v>
       </c>
     </row>
@@ -20486,10 +20483,10 @@
       <c r="E2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>946</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>947</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -20502,10 +20499,10 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>949</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>947</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -20518,16 +20515,16 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>950</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>951</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>952</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -20586,220 +20583,220 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="164" t="s">
+      <c r="A9" s="163" t="s">
         <v>966</v>
       </c>
-      <c r="B9" s="165" t="s">
+      <c r="B9" s="164" t="s">
         <v>967</v>
       </c>
-      <c r="C9" s="165" t="s">
+      <c r="C9" s="164" t="s">
         <v>948</v>
       </c>
-      <c r="D9" s="165" t="s">
+      <c r="D9" s="164" t="s">
         <v>968</v>
       </c>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="165"/>
-      <c r="N9" s="165"/>
-      <c r="O9" s="165"/>
-      <c r="P9" s="165"/>
-      <c r="Q9" s="165"/>
-      <c r="R9" s="165"/>
-      <c r="S9" s="165"/>
-      <c r="T9" s="165"/>
-      <c r="U9" s="165"/>
-      <c r="V9" s="165"/>
-      <c r="W9" s="165"/>
-      <c r="X9" s="165"/>
-      <c r="Y9" s="165"/>
-      <c r="Z9" s="165"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="164"/>
+      <c r="P9" s="164"/>
+      <c r="Q9" s="164"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="164"/>
+      <c r="T9" s="164"/>
+      <c r="U9" s="164"/>
+      <c r="V9" s="164"/>
+      <c r="W9" s="164"/>
+      <c r="X9" s="164"/>
+      <c r="Y9" s="164"/>
+      <c r="Z9" s="164"/>
     </row>
     <row r="10">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="163" t="s">
         <v>969</v>
       </c>
-      <c r="B10" s="165" t="s">
+      <c r="B10" s="164" t="s">
         <v>967</v>
       </c>
-      <c r="C10" s="165" t="s">
+      <c r="C10" s="164" t="s">
         <v>948</v>
       </c>
-      <c r="D10" s="165" t="s">
+      <c r="D10" s="164" t="s">
         <v>970</v>
       </c>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="166"/>
-      <c r="J10" s="166"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="166"/>
-      <c r="O10" s="166"/>
-      <c r="P10" s="166"/>
-      <c r="Q10" s="166"/>
-      <c r="R10" s="166"/>
-      <c r="S10" s="166"/>
-      <c r="T10" s="166"/>
-      <c r="U10" s="166"/>
-      <c r="V10" s="166"/>
-      <c r="W10" s="166"/>
-      <c r="X10" s="166"/>
-      <c r="Y10" s="166"/>
-      <c r="Z10" s="166"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="165"/>
+      <c r="O10" s="165"/>
+      <c r="P10" s="165"/>
+      <c r="Q10" s="165"/>
+      <c r="R10" s="165"/>
+      <c r="S10" s="165"/>
+      <c r="T10" s="165"/>
+      <c r="U10" s="165"/>
+      <c r="V10" s="165"/>
+      <c r="W10" s="165"/>
+      <c r="X10" s="165"/>
+      <c r="Y10" s="165"/>
+      <c r="Z10" s="165"/>
     </row>
     <row r="11">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="163" t="s">
         <v>971</v>
       </c>
-      <c r="B11" s="165" t="s">
+      <c r="B11" s="164" t="s">
         <v>972</v>
       </c>
-      <c r="C11" s="165" t="s">
+      <c r="C11" s="164" t="s">
         <v>948</v>
       </c>
-      <c r="D11" s="165" t="s">
+      <c r="D11" s="164" t="s">
         <v>973</v>
       </c>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="166"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="166"/>
-      <c r="M11" s="166"/>
-      <c r="N11" s="166"/>
-      <c r="O11" s="166"/>
-      <c r="P11" s="166"/>
-      <c r="Q11" s="166"/>
-      <c r="R11" s="166"/>
-      <c r="S11" s="166"/>
-      <c r="T11" s="166"/>
-      <c r="U11" s="166"/>
-      <c r="V11" s="166"/>
-      <c r="W11" s="166"/>
-      <c r="X11" s="166"/>
-      <c r="Y11" s="166"/>
-      <c r="Z11" s="166"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="165"/>
+      <c r="O11" s="165"/>
+      <c r="P11" s="165"/>
+      <c r="Q11" s="165"/>
+      <c r="R11" s="165"/>
+      <c r="S11" s="165"/>
+      <c r="T11" s="165"/>
+      <c r="U11" s="165"/>
+      <c r="V11" s="165"/>
+      <c r="W11" s="165"/>
+      <c r="X11" s="165"/>
+      <c r="Y11" s="165"/>
+      <c r="Z11" s="165"/>
     </row>
     <row r="12">
-      <c r="A12" s="164" t="s">
+      <c r="A12" s="163" t="s">
         <v>974</v>
       </c>
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="164" t="s">
         <v>972</v>
       </c>
-      <c r="C12" s="165" t="s">
+      <c r="C12" s="164" t="s">
         <v>948</v>
       </c>
-      <c r="D12" s="165" t="s">
+      <c r="D12" s="164" t="s">
         <v>975</v>
       </c>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="166"/>
-      <c r="K12" s="166"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="166"/>
-      <c r="N12" s="166"/>
-      <c r="O12" s="166"/>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="166"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="166"/>
-      <c r="T12" s="166"/>
-      <c r="U12" s="166"/>
-      <c r="V12" s="166"/>
-      <c r="W12" s="166"/>
-      <c r="X12" s="166"/>
-      <c r="Y12" s="166"/>
-      <c r="Z12" s="166"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="165"/>
+      <c r="Q12" s="165"/>
+      <c r="R12" s="165"/>
+      <c r="S12" s="165"/>
+      <c r="T12" s="165"/>
+      <c r="U12" s="165"/>
+      <c r="V12" s="165"/>
+      <c r="W12" s="165"/>
+      <c r="X12" s="165"/>
+      <c r="Y12" s="165"/>
+      <c r="Z12" s="165"/>
     </row>
     <row r="13">
-      <c r="A13" s="164" t="s">
+      <c r="A13" s="163" t="s">
         <v>976</v>
       </c>
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="163" t="s">
         <v>951</v>
       </c>
-      <c r="C13" s="165" t="s">
+      <c r="C13" s="164" t="s">
         <v>948</v>
       </c>
-      <c r="D13" s="165" t="s">
+      <c r="D13" s="164" t="s">
         <v>977</v>
       </c>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="166"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="166"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="166"/>
-      <c r="T13" s="166"/>
-      <c r="U13" s="166"/>
-      <c r="V13" s="166"/>
-      <c r="W13" s="166"/>
-      <c r="X13" s="166"/>
-      <c r="Y13" s="166"/>
-      <c r="Z13" s="166"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="165"/>
+      <c r="K13" s="165"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="165"/>
+      <c r="N13" s="165"/>
+      <c r="O13" s="165"/>
+      <c r="P13" s="165"/>
+      <c r="Q13" s="165"/>
+      <c r="R13" s="165"/>
+      <c r="S13" s="165"/>
+      <c r="T13" s="165"/>
+      <c r="U13" s="165"/>
+      <c r="V13" s="165"/>
+      <c r="W13" s="165"/>
+      <c r="X13" s="165"/>
+      <c r="Y13" s="165"/>
+      <c r="Z13" s="165"/>
     </row>
     <row r="14">
-      <c r="A14" s="164" t="s">
+      <c r="A14" s="163" t="s">
         <v>978</v>
       </c>
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="163" t="s">
         <v>951</v>
       </c>
-      <c r="C14" s="165" t="s">
+      <c r="C14" s="164" t="s">
         <v>948</v>
       </c>
-      <c r="D14" s="165" t="s">
+      <c r="D14" s="164" t="s">
         <v>979</v>
       </c>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="166"/>
-      <c r="M14" s="166"/>
-      <c r="N14" s="166"/>
-      <c r="O14" s="166"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="166"/>
-      <c r="R14" s="166"/>
-      <c r="S14" s="166"/>
-      <c r="T14" s="166"/>
-      <c r="U14" s="166"/>
-      <c r="V14" s="166"/>
-      <c r="W14" s="166"/>
-      <c r="X14" s="166"/>
-      <c r="Y14" s="166"/>
-      <c r="Z14" s="166"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="165"/>
+      <c r="P14" s="165"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="165"/>
+      <c r="S14" s="165"/>
+      <c r="T14" s="165"/>
+      <c r="U14" s="165"/>
+      <c r="V14" s="165"/>
+      <c r="W14" s="165"/>
+      <c r="X14" s="165"/>
+      <c r="Y14" s="165"/>
+      <c r="Z14" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -20827,51 +20824,51 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="166" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="147" t="s">
         <v>942</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="147" t="s">
         <v>943</v>
       </c>
-      <c r="C2" s="148" t="s">
+      <c r="C2" s="147" t="s">
         <v>944</v>
       </c>
-      <c r="D2" s="148" t="s">
+      <c r="D2" s="147" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="144" t="s">
         <v>980</v>
       </c>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="144" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="144" t="s">
         <v>982</v>
       </c>
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="144" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="144" t="s">
         <v>984</v>
       </c>
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="144" t="s">
         <v>985</v>
       </c>
-      <c r="C5" s="168" t="s">
+      <c r="C5" s="167" t="s">
         <v>983</v>
       </c>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="144" t="s">
         <v>986</v>
       </c>
     </row>

--- a/mappings/package_F01/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F01/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="983">
   <si>
     <t>Field</t>
   </si>
@@ -111,14 +111,11 @@
     <t>eForms Subtype</t>
   </si>
   <si>
-    <t>10,4.1,7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Stands for Standard Form F01, all directives, as per: </t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">10,4.1,7 would stand for Standard Form F01, all directives, as per: </t>
     </r>
     <r>
       <rPr>
@@ -7012,53 +7009,53 @@
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="16">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="C15" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -10020,7 +10017,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -10028,7 +10025,7 @@
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -10052,37 +10049,37 @@
     </row>
     <row r="2">
       <c r="A2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="C2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="F2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="G2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="H2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="I2" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="J2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="K2" s="32" t="s">
         <v>42</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>43</v>
       </c>
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
@@ -10102,27 +10099,27 @@
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="I3" s="35" t="s">
         <v>47</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>48</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
@@ -10134,25 +10131,25 @@
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="37" t="s">
         <v>51</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>52</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -10164,10 +10161,10 @@
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>55</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -10188,10 +10185,10 @@
     </row>
     <row r="6">
       <c r="A6" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -10212,22 +10209,22 @@
     </row>
     <row r="7">
       <c r="A7" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>57</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>58</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>60</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>61</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -10242,29 +10239,29 @@
     </row>
     <row r="8">
       <c r="A8" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="C8" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="D8" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="E8" s="35" t="s">
         <v>65</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>66</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="I8" s="35" t="s">
         <v>68</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>69</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="7"/>
@@ -10278,26 +10275,26 @@
     </row>
     <row r="9">
       <c r="A9" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="C9" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="D9" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="E9" s="35" t="s">
         <v>73</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>74</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="44" t="s">
         <v>75</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>76</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -10312,26 +10309,26 @@
     </row>
     <row r="10">
       <c r="A10" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="C10" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="D10" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="E10" s="35" t="s">
         <v>80</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>81</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="44" t="s">
         <v>82</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>83</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -10346,10 +10343,10 @@
     </row>
     <row r="11">
       <c r="A11" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>84</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>85</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
@@ -10370,26 +10367,26 @@
     </row>
     <row r="12">
       <c r="A12" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="C12" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="D12" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="E12" s="35" t="s">
         <v>89</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>90</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -10404,26 +10401,26 @@
     </row>
     <row r="13">
       <c r="A13" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="C13" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="D13" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="E13" s="35" t="s">
         <v>95</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>96</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="44" t="s">
         <v>97</v>
-      </c>
-      <c r="H13" s="44" t="s">
-        <v>98</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -10438,29 +10435,29 @@
     </row>
     <row r="14">
       <c r="A14" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="C14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="D14" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="E14" s="44" t="s">
         <v>102</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>103</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="I14" s="35" t="s">
         <v>105</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>106</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="7"/>
@@ -10474,26 +10471,26 @@
     </row>
     <row r="15">
       <c r="A15" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="C15" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="D15" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="E15" s="35" t="s">
         <v>110</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>111</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="35" t="s">
         <v>112</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>113</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -10508,26 +10505,26 @@
     </row>
     <row r="16">
       <c r="A16" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="C16" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="D16" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="E16" s="35" t="s">
         <v>117</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>118</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -10542,28 +10539,28 @@
     </row>
     <row r="17">
       <c r="A17" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="C17" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="D17" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="E17" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="F17" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="G17" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="H17" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="H17" s="44" t="s">
-        <v>127</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -10578,26 +10575,26 @@
     </row>
     <row r="18">
       <c r="A18" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="C18" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="D18" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="E18" s="35" t="s">
         <v>131</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>132</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="35" t="s">
         <v>133</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>134</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -10612,26 +10609,26 @@
     </row>
     <row r="19">
       <c r="A19" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="C19" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="D19" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="E19" s="35" t="s">
         <v>138</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>139</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="44" t="s">
         <v>140</v>
-      </c>
-      <c r="H19" s="44" t="s">
-        <v>141</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -10646,29 +10643,29 @@
     </row>
     <row r="20">
       <c r="A20" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="C20" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="D20" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="35" t="s">
         <v>144</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>145</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I20" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="7"/>
@@ -10682,26 +10679,26 @@
     </row>
     <row r="21">
       <c r="A21" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="C21" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="D21" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="E21" s="35" t="s">
         <v>150</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>151</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -10716,10 +10713,10 @@
     </row>
     <row r="22">
       <c r="A22" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -10740,22 +10737,22 @@
     </row>
     <row r="23">
       <c r="A23" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="41" t="s">
         <v>57</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>58</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -10778,29 +10775,29 @@
     </row>
     <row r="24">
       <c r="A24" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="C24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="E24" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J24" s="36"/>
       <c r="K24" s="7"/>
@@ -10822,26 +10819,26 @@
     </row>
     <row r="25">
       <c r="A25" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="C25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="E25" s="57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -10856,26 +10853,26 @@
     </row>
     <row r="26">
       <c r="A26" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="C26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="E26" s="57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -10890,10 +10887,10 @@
     </row>
     <row r="27">
       <c r="A27" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="43" t="s">
         <v>84</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>85</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -10914,26 +10911,26 @@
     </row>
     <row r="28">
       <c r="A28" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="C28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="E28" s="57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -10948,26 +10945,26 @@
     </row>
     <row r="29">
       <c r="A29" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="C29" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="E29" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -10990,29 +10987,29 @@
     </row>
     <row r="30">
       <c r="A30" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="C30" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="D30" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="36" t="s">
-        <v>102</v>
-      </c>
       <c r="E30" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H30" s="44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="7"/>
@@ -11026,26 +11023,26 @@
     </row>
     <row r="31">
       <c r="A31" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="C31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="E31" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -11060,26 +11057,26 @@
     </row>
     <row r="32">
       <c r="A32" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="C32" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="E32" s="57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -11094,28 +11091,28 @@
     </row>
     <row r="33">
       <c r="A33" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="C33" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="D33" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="36" t="s">
-        <v>123</v>
-      </c>
       <c r="E33" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="44" t="s">
         <v>173</v>
-      </c>
-      <c r="G33" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="H33" s="44" t="s">
-        <v>174</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -11130,26 +11127,26 @@
     </row>
     <row r="34">
       <c r="A34" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="C34" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="E34" s="57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -11164,26 +11161,26 @@
     </row>
     <row r="35">
       <c r="A35" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="C35" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="E35" s="57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -11206,29 +11203,29 @@
     </row>
     <row r="36">
       <c r="A36" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="C36" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="D36" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="57" t="s">
         <v>179</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>180</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -11242,26 +11239,26 @@
     </row>
     <row r="37">
       <c r="A37" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="C37" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="E37" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -11276,10 +11273,10 @@
     </row>
     <row r="38">
       <c r="A38" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="41" t="s">
         <v>184</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>185</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -11300,22 +11297,22 @@
     </row>
     <row r="39">
       <c r="A39" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>186</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>187</v>
       </c>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
       <c r="E39" s="44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="H39" s="44" t="s">
         <v>189</v>
-      </c>
-      <c r="H39" s="44" t="s">
-        <v>190</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -11330,29 +11327,29 @@
     </row>
     <row r="40">
       <c r="A40" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="C40" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="D40" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="E40" s="44" t="s">
         <v>194</v>
-      </c>
-      <c r="E40" s="44" t="s">
-        <v>195</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="H40" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="H40" s="44" t="s">
+      <c r="I40" s="38" t="s">
         <v>197</v>
-      </c>
-      <c r="I40" s="38" t="s">
-        <v>198</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
@@ -11374,22 +11371,22 @@
     </row>
     <row r="41">
       <c r="A41" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="43" t="s">
         <v>199</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>200</v>
       </c>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
       <c r="E41" s="44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="H41" s="35" t="s">
         <v>202</v>
-      </c>
-      <c r="H41" s="35" t="s">
-        <v>203</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -11404,24 +11401,24 @@
     </row>
     <row r="42">
       <c r="A42" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="41" t="s">
         <v>204</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>205</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="F42" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="F42" s="62" t="s">
+      <c r="G42" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="G42" s="62" t="s">
+      <c r="H42" s="62" t="s">
         <v>208</v>
-      </c>
-      <c r="H42" s="62" t="s">
-        <v>209</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -11436,24 +11433,24 @@
     </row>
     <row r="43">
       <c r="A43" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="B43" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="C43" s="44" t="s">
         <v>211</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>212</v>
       </c>
       <c r="D43" s="36"/>
       <c r="E43" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F43" s="36"/>
       <c r="G43" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="H43" s="44" t="s">
         <v>214</v>
-      </c>
-      <c r="H43" s="44" t="s">
-        <v>215</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -11468,26 +11465,26 @@
     </row>
     <row r="44">
       <c r="A44" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="C44" s="44" t="s">
         <v>217</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>218</v>
       </c>
       <c r="D44" s="36"/>
       <c r="E44" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="F44" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="F44" s="44" t="s">
+      <c r="G44" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="G44" s="44" t="s">
+      <c r="H44" s="44" t="s">
         <v>221</v>
-      </c>
-      <c r="H44" s="44" t="s">
-        <v>222</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -11502,24 +11499,24 @@
     </row>
     <row r="45">
       <c r="A45" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="B45" s="43" t="s">
-        <v>224</v>
-      </c>
       <c r="C45" s="44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D45" s="36"/>
       <c r="E45" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F45" s="36"/>
       <c r="G45" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H45" s="63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -11534,26 +11531,26 @@
     </row>
     <row r="46">
       <c r="A46" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="C46" s="61" t="s">
         <v>228</v>
-      </c>
-      <c r="C46" s="61" t="s">
-        <v>229</v>
       </c>
       <c r="D46" s="60"/>
       <c r="E46" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F46" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="G46" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="H46" s="61" t="s">
         <v>230</v>
-      </c>
-      <c r="G46" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="H46" s="61" t="s">
-        <v>231</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -11568,10 +11565,10 @@
     </row>
     <row r="47">
       <c r="A47" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="B47" s="46" t="s">
         <v>232</v>
-      </c>
-      <c r="B47" s="46" t="s">
-        <v>233</v>
       </c>
       <c r="C47" s="53"/>
       <c r="D47" s="53"/>
@@ -11592,24 +11589,24 @@
     </row>
     <row r="48">
       <c r="A48" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="B48" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="C48" s="35" t="s">
         <v>235</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>236</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H48" s="62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -11624,24 +11621,24 @@
     </row>
     <row r="49">
       <c r="A49" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="B49" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="B49" s="67" t="s">
+      <c r="C49" s="68" t="s">
         <v>235</v>
-      </c>
-      <c r="C49" s="68" t="s">
-        <v>236</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="H49" s="62" t="s">
         <v>238</v>
-      </c>
-      <c r="H49" s="62" t="s">
-        <v>239</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -11664,24 +11661,24 @@
     </row>
     <row r="50">
       <c r="A50" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="B50" s="50" t="s">
-        <v>241</v>
-      </c>
       <c r="C50" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H50" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -11696,29 +11693,29 @@
     </row>
     <row r="51">
       <c r="A51" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="B51" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="35" t="s">
         <v>243</v>
-      </c>
-      <c r="B51" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>244</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H51" s="73" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
@@ -11732,26 +11729,26 @@
     </row>
     <row r="52">
       <c r="A52" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="35" t="s">
         <v>246</v>
-      </c>
-      <c r="B52" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>247</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H52" s="73" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -11766,26 +11763,26 @@
     </row>
     <row r="53">
       <c r="A53" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="B53" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="35" t="s">
         <v>249</v>
-      </c>
-      <c r="B53" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>250</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H53" s="73" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -11800,10 +11797,10 @@
     </row>
     <row r="54">
       <c r="A54" s="71" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B54" s="72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -11824,26 +11821,26 @@
     </row>
     <row r="55">
       <c r="A55" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="44" t="s">
         <v>253</v>
-      </c>
-      <c r="B55" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55" s="44" t="s">
-        <v>254</v>
       </c>
       <c r="F55" s="36"/>
       <c r="G55" s="61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H55" s="61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I55" s="60"/>
       <c r="J55" s="60"/>
@@ -11858,29 +11855,29 @@
     </row>
     <row r="56">
       <c r="A56" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="44" t="s">
         <v>256</v>
-      </c>
-      <c r="B56" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="E56" s="44" t="s">
-        <v>257</v>
       </c>
       <c r="F56" s="36"/>
       <c r="G56" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H56" s="73" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
@@ -11894,26 +11891,26 @@
     </row>
     <row r="57">
       <c r="A57" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="B57" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="35" t="s">
         <v>259</v>
-      </c>
-      <c r="B57" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E57" s="35" t="s">
-        <v>260</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H57" s="73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -11928,26 +11925,26 @@
     </row>
     <row r="58">
       <c r="A58" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="B58" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" s="35" t="s">
         <v>262</v>
-      </c>
-      <c r="B58" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>263</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H58" s="73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -11962,28 +11959,28 @@
     </row>
     <row r="59">
       <c r="A59" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="B59" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="75" t="s">
         <v>265</v>
       </c>
-      <c r="B59" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E59" s="75" t="s">
+      <c r="F59" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="F59" s="35" t="s">
+      <c r="G59" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="H59" s="73" t="s">
         <v>267</v>
-      </c>
-      <c r="G59" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="H59" s="73" t="s">
-        <v>268</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -11998,26 +11995,26 @@
     </row>
     <row r="60">
       <c r="A60" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="35" t="s">
         <v>269</v>
-      </c>
-      <c r="B60" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" s="76" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="35" t="s">
-        <v>270</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H60" s="73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -12032,26 +12029,26 @@
     </row>
     <row r="61">
       <c r="A61" s="71" t="s">
+        <v>271</v>
+      </c>
+      <c r="B61" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="35" t="s">
         <v>272</v>
-      </c>
-      <c r="B61" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>273</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H61" s="73" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -12066,29 +12063,29 @@
     </row>
     <row r="62">
       <c r="A62" s="71" t="s">
+        <v>274</v>
+      </c>
+      <c r="B62" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" s="35" t="s">
         <v>275</v>
-      </c>
-      <c r="B62" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="C62" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>276</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H62" s="73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
@@ -12102,26 +12099,26 @@
     </row>
     <row r="63">
       <c r="A63" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="B63" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="35" t="s">
         <v>278</v>
-      </c>
-      <c r="B63" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>279</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H63" s="73" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -12136,10 +12133,10 @@
     </row>
     <row r="64">
       <c r="A64" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="B64" s="43" t="s">
         <v>281</v>
-      </c>
-      <c r="B64" s="43" t="s">
-        <v>282</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -12160,24 +12157,24 @@
     </row>
     <row r="65">
       <c r="A65" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B65" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="C65" s="35" t="s">
         <v>284</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>285</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="77" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F65" s="78"/>
       <c r="G65" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="H65" s="77" t="s">
         <v>287</v>
-      </c>
-      <c r="H65" s="77" t="s">
-        <v>288</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -12192,24 +12189,24 @@
     </row>
     <row r="66">
       <c r="A66" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="B66" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="B66" s="50" t="s">
+      <c r="C66" s="35" t="s">
         <v>290</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>291</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="62" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F66" s="79"/>
       <c r="G66" s="62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H66" s="62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -12224,27 +12221,27 @@
     </row>
     <row r="67">
       <c r="A67" s="80" t="s">
+        <v>288</v>
+      </c>
+      <c r="B67" s="81" t="s">
         <v>289</v>
-      </c>
-      <c r="B67" s="81" t="s">
-        <v>290</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F67" s="79"/>
       <c r="G67" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="H67" s="62" t="s">
         <v>238</v>
-      </c>
-      <c r="H67" s="62" t="s">
-        <v>239</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L67" s="28"/>
       <c r="M67" s="28"/>
@@ -12256,24 +12253,24 @@
     </row>
     <row r="68">
       <c r="A68" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="B68" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="B68" s="50" t="s">
-        <v>295</v>
-      </c>
       <c r="C68" s="35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F68" s="78"/>
       <c r="G68" s="77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H68" s="77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
@@ -12288,29 +12285,29 @@
     </row>
     <row r="69">
       <c r="A69" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="B69" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="62" t="s">
         <v>297</v>
-      </c>
-      <c r="B69" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D69" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E69" s="62" t="s">
-        <v>298</v>
       </c>
       <c r="F69" s="79"/>
       <c r="G69" s="62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H69" s="62" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
@@ -12324,26 +12321,26 @@
     </row>
     <row r="70">
       <c r="A70" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="B70" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" s="62" t="s">
         <v>300</v>
-      </c>
-      <c r="B70" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D70" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="E70" s="62" t="s">
-        <v>301</v>
       </c>
       <c r="F70" s="79"/>
       <c r="G70" s="62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H70" s="62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
@@ -12358,26 +12355,26 @@
     </row>
     <row r="71">
       <c r="A71" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="B71" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71" s="62" t="s">
         <v>303</v>
-      </c>
-      <c r="B71" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" s="62" t="s">
-        <v>304</v>
       </c>
       <c r="F71" s="79"/>
       <c r="G71" s="62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H71" s="62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -12392,10 +12389,10 @@
     </row>
     <row r="72">
       <c r="A72" s="71" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B72" s="72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -12416,26 +12413,26 @@
     </row>
     <row r="73">
       <c r="A73" s="83" t="s">
+        <v>306</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="62" t="s">
         <v>307</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D73" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E73" s="62" t="s">
-        <v>308</v>
       </c>
       <c r="F73" s="78"/>
       <c r="G73" s="62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H73" s="84" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
@@ -12450,29 +12447,29 @@
     </row>
     <row r="74">
       <c r="A74" s="71" t="s">
+        <v>309</v>
+      </c>
+      <c r="B74" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="62" t="s">
         <v>310</v>
-      </c>
-      <c r="B74" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D74" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74" s="62" t="s">
-        <v>311</v>
       </c>
       <c r="F74" s="79"/>
       <c r="G74" s="62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H74" s="84" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
@@ -12486,26 +12483,26 @@
     </row>
     <row r="75">
       <c r="A75" s="71" t="s">
+        <v>312</v>
+      </c>
+      <c r="B75" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75" s="62" t="s">
         <v>313</v>
-      </c>
-      <c r="B75" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E75" s="62" t="s">
-        <v>314</v>
       </c>
       <c r="F75" s="79"/>
       <c r="G75" s="62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H75" s="62" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -12520,26 +12517,26 @@
     </row>
     <row r="76">
       <c r="A76" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="B76" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E76" s="62" t="s">
         <v>316</v>
-      </c>
-      <c r="B76" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D76" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="E76" s="62" t="s">
-        <v>317</v>
       </c>
       <c r="F76" s="79"/>
       <c r="G76" s="62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H76" s="84" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
@@ -12554,28 +12551,28 @@
     </row>
     <row r="77">
       <c r="A77" s="71" t="s">
+        <v>318</v>
+      </c>
+      <c r="B77" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E77" s="62" t="s">
         <v>319</v>
       </c>
-      <c r="B77" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D77" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="E77" s="62" t="s">
+      <c r="F77" s="77" t="s">
         <v>320</v>
       </c>
-      <c r="F77" s="77" t="s">
+      <c r="G77" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="H77" s="84" t="s">
         <v>321</v>
-      </c>
-      <c r="G77" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="H77" s="84" t="s">
-        <v>322</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
@@ -12590,26 +12587,26 @@
     </row>
     <row r="78">
       <c r="A78" s="71" t="s">
+        <v>322</v>
+      </c>
+      <c r="B78" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" s="62" t="s">
         <v>323</v>
-      </c>
-      <c r="B78" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="C78" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D78" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E78" s="62" t="s">
-        <v>324</v>
       </c>
       <c r="F78" s="79"/>
       <c r="G78" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H78" s="84" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
@@ -12624,26 +12621,26 @@
     </row>
     <row r="79">
       <c r="A79" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="B79" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E79" s="62" t="s">
         <v>326</v>
-      </c>
-      <c r="B79" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D79" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E79" s="62" t="s">
-        <v>327</v>
       </c>
       <c r="F79" s="79"/>
       <c r="G79" s="62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H79" s="62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
@@ -12658,29 +12655,29 @@
     </row>
     <row r="80">
       <c r="A80" s="71" t="s">
+        <v>328</v>
+      </c>
+      <c r="B80" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" s="62" t="s">
         <v>329</v>
-      </c>
-      <c r="B80" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="E80" s="62" t="s">
-        <v>330</v>
       </c>
       <c r="F80" s="79"/>
       <c r="G80" s="62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H80" s="62" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
@@ -12694,26 +12691,26 @@
     </row>
     <row r="81">
       <c r="A81" s="71" t="s">
+        <v>331</v>
+      </c>
+      <c r="B81" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E81" s="62" t="s">
         <v>332</v>
-      </c>
-      <c r="B81" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="C81" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="D81" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="E81" s="62" t="s">
-        <v>333</v>
       </c>
       <c r="F81" s="78"/>
       <c r="G81" s="62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H81" s="62" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
@@ -12728,24 +12725,24 @@
     </row>
     <row r="82">
       <c r="A82" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="B82" s="43" t="s">
         <v>335</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="C82" s="44" t="s">
         <v>336</v>
-      </c>
-      <c r="C82" s="44" t="s">
-        <v>337</v>
       </c>
       <c r="D82" s="36"/>
       <c r="E82" s="44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F82" s="36"/>
       <c r="G82" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="H82" s="44" t="s">
         <v>339</v>
-      </c>
-      <c r="H82" s="44" t="s">
-        <v>340</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
@@ -12760,24 +12757,24 @@
     </row>
     <row r="83">
       <c r="A83" s="85" t="s">
+        <v>334</v>
+      </c>
+      <c r="B83" s="86" t="s">
         <v>335</v>
       </c>
-      <c r="B83" s="86" t="s">
+      <c r="C83" s="87" t="s">
         <v>336</v>
-      </c>
-      <c r="C83" s="87" t="s">
-        <v>337</v>
       </c>
       <c r="D83" s="36"/>
       <c r="E83" s="88" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F83" s="60"/>
       <c r="G83" s="87" t="s">
+        <v>340</v>
+      </c>
+      <c r="H83" s="87" t="s">
         <v>341</v>
-      </c>
-      <c r="H83" s="87" t="s">
-        <v>342</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
@@ -12792,26 +12789,26 @@
     </row>
     <row r="84">
       <c r="A84" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="B84" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="C84" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="D84" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="D84" s="35" t="s">
+      <c r="E84" s="35" t="s">
         <v>346</v>
-      </c>
-      <c r="E84" s="35" t="s">
-        <v>347</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="H84" s="35" t="s">
         <v>348</v>
-      </c>
-      <c r="H84" s="35" t="s">
-        <v>349</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
@@ -12826,20 +12823,20 @@
     </row>
     <row r="85">
       <c r="A85" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B85" s="89"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="H85" s="35" t="s">
         <v>352</v>
-      </c>
-      <c r="H85" s="35" t="s">
-        <v>353</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
@@ -12854,26 +12851,26 @@
     </row>
     <row r="86">
       <c r="A86" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="B86" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="B86" s="41" t="s">
+      <c r="C86" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="C86" s="35" t="s">
+      <c r="D86" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="D86" s="35" t="s">
+      <c r="E86" s="35" t="s">
         <v>357</v>
-      </c>
-      <c r="E86" s="35" t="s">
-        <v>358</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="H86" s="35" t="s">
         <v>359</v>
-      </c>
-      <c r="H86" s="35" t="s">
-        <v>360</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
@@ -12888,20 +12885,20 @@
     </row>
     <row r="87">
       <c r="A87" s="42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B87" s="89"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H87" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
@@ -12909,10 +12906,10 @@
     </row>
     <row r="88">
       <c r="A88" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="B88" s="39" t="s">
         <v>364</v>
-      </c>
-      <c r="B88" s="39" t="s">
-        <v>365</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -12926,10 +12923,10 @@
     </row>
     <row r="89">
       <c r="A89" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="B89" s="41" t="s">
         <v>366</v>
-      </c>
-      <c r="B89" s="41" t="s">
-        <v>367</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -12943,84 +12940,84 @@
     </row>
     <row r="90">
       <c r="A90" s="42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B90" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D90" s="35" t="s">
         <v>6</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="H90" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="H90" s="35" t="s">
-        <v>372</v>
-      </c>
       <c r="I90" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
     </row>
     <row r="91">
       <c r="A91" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="B91" s="50" t="s">
         <v>373</v>
       </c>
-      <c r="B91" s="50" t="s">
+      <c r="C91" s="61" t="s">
         <v>374</v>
       </c>
-      <c r="C91" s="61" t="s">
+      <c r="D91" s="61" t="s">
         <v>375</v>
       </c>
-      <c r="D91" s="61" t="s">
+      <c r="E91" s="44" t="s">
         <v>376</v>
-      </c>
-      <c r="E91" s="44" t="s">
-        <v>377</v>
       </c>
       <c r="F91" s="60"/>
       <c r="G91" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="H91" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="H91" s="44" t="s">
-        <v>379</v>
-      </c>
       <c r="I91" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
     </row>
     <row r="92">
       <c r="A92" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="B92" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="B92" s="43" t="s">
+      <c r="C92" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="C92" s="38" t="s">
+      <c r="D92" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="D92" s="38" t="s">
+      <c r="E92" s="38" t="s">
         <v>383</v>
-      </c>
-      <c r="E92" s="38" t="s">
-        <v>384</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="H92" s="77" t="s">
         <v>385</v>
-      </c>
-      <c r="H92" s="77" t="s">
-        <v>386</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
@@ -13028,19 +13025,19 @@
     </row>
     <row r="93">
       <c r="A93" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="B93" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="B93" s="50" t="s">
+      <c r="C93" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="C93" s="38" t="s">
+      <c r="D93" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="D93" s="38" t="s">
+      <c r="E93" s="38" t="s">
         <v>390</v>
-      </c>
-      <c r="E93" s="38" t="s">
-        <v>391</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
@@ -13048,31 +13045,31 @@
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="38" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="B94" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="B94" s="43" t="s">
+      <c r="C94" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="D94" s="35" t="s">
         <v>395</v>
       </c>
-      <c r="D94" s="35" t="s">
+      <c r="E94" s="35" t="s">
         <v>396</v>
-      </c>
-      <c r="E94" s="35" t="s">
-        <v>397</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="H94" s="35" t="s">
         <v>398</v>
-      </c>
-      <c r="H94" s="35" t="s">
-        <v>399</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
@@ -13080,39 +13077,39 @@
     </row>
     <row r="95">
       <c r="A95" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="B95" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="B95" s="43" t="s">
+      <c r="C95" s="44" t="s">
         <v>401</v>
-      </c>
-      <c r="C95" s="44" t="s">
-        <v>402</v>
       </c>
       <c r="D95" s="44" t="s">
         <v>8</v>
       </c>
       <c r="E95" s="44" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F95" s="36"/>
       <c r="G95" s="44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H95" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I95" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
     </row>
     <row r="96">
       <c r="A96" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="B96" s="43" t="s">
         <v>405</v>
-      </c>
-      <c r="B96" s="43" t="s">
-        <v>406</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -13126,26 +13123,26 @@
     </row>
     <row r="97">
       <c r="A97" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="B97" s="50" t="s">
         <v>407</v>
       </c>
-      <c r="B97" s="50" t="s">
+      <c r="C97" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="C97" s="35" t="s">
+      <c r="D97" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="D97" s="35" t="s">
+      <c r="E97" s="35" t="s">
         <v>410</v>
-      </c>
-      <c r="E97" s="35" t="s">
-        <v>411</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="H97" s="35" t="s">
         <v>412</v>
-      </c>
-      <c r="H97" s="35" t="s">
-        <v>413</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
@@ -13153,24 +13150,24 @@
     </row>
     <row r="98">
       <c r="A98" s="49" t="s">
+        <v>413</v>
+      </c>
+      <c r="B98" s="50" t="s">
         <v>414</v>
       </c>
-      <c r="B98" s="50" t="s">
-        <v>415</v>
-      </c>
       <c r="C98" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="H98" s="35" t="s">
         <v>417</v>
-      </c>
-      <c r="H98" s="35" t="s">
-        <v>418</v>
       </c>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
@@ -13178,10 +13175,10 @@
     </row>
     <row r="99">
       <c r="A99" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="B99" s="43" t="s">
         <v>419</v>
-      </c>
-      <c r="B99" s="43" t="s">
-        <v>420</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -13195,10 +13192,10 @@
     </row>
     <row r="100">
       <c r="A100" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="B100" s="50" t="s">
         <v>421</v>
-      </c>
-      <c r="B100" s="50" t="s">
-        <v>422</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -13209,29 +13206,29 @@
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="61" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="71" t="s">
+        <v>423</v>
+      </c>
+      <c r="B101" s="72" t="s">
         <v>424</v>
-      </c>
-      <c r="B101" s="72" t="s">
-        <v>425</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="E101" s="35" t="s">
         <v>426</v>
-      </c>
-      <c r="E101" s="35" t="s">
-        <v>427</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="H101" s="35" t="s">
         <v>428</v>
-      </c>
-      <c r="H101" s="35" t="s">
-        <v>429</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
@@ -13239,24 +13236,24 @@
     </row>
     <row r="102">
       <c r="A102" s="71" t="s">
+        <v>429</v>
+      </c>
+      <c r="B102" s="72" t="s">
         <v>430</v>
-      </c>
-      <c r="B102" s="72" t="s">
-        <v>431</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="E102" s="35" t="s">
         <v>432</v>
-      </c>
-      <c r="E102" s="35" t="s">
-        <v>433</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="H102" s="35" t="s">
         <v>434</v>
-      </c>
-      <c r="H102" s="35" t="s">
-        <v>435</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
@@ -13264,24 +13261,24 @@
     </row>
     <row r="103">
       <c r="A103" s="71" t="s">
+        <v>435</v>
+      </c>
+      <c r="B103" s="72" t="s">
         <v>436</v>
-      </c>
-      <c r="B103" s="72" t="s">
-        <v>437</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H103" s="90" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
@@ -13289,24 +13286,24 @@
     </row>
     <row r="104">
       <c r="A104" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="B104" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="B104" s="50" t="s">
+      <c r="C104" s="35" t="s">
         <v>441</v>
-      </c>
-      <c r="C104" s="35" t="s">
-        <v>442</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H104" s="90" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
@@ -13314,24 +13311,24 @@
     </row>
     <row r="105">
       <c r="A105" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="B105" s="50" t="s">
         <v>445</v>
       </c>
-      <c r="B105" s="50" t="s">
-        <v>446</v>
-      </c>
       <c r="C105" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="H105" s="90" t="s">
         <v>448</v>
-      </c>
-      <c r="H105" s="90" t="s">
-        <v>449</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
@@ -13339,7 +13336,7 @@
     </row>
     <row r="106">
       <c r="A106" s="40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B106" s="41" t="s">
         <v>8</v>
@@ -13347,7 +13344,7 @@
       <c r="C106" s="4"/>
       <c r="D106" s="7"/>
       <c r="E106" s="65" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
@@ -13358,7 +13355,7 @@
     </row>
     <row r="107">
       <c r="A107" s="91" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B107" s="92" t="s">
         <v>8</v>
@@ -13366,14 +13363,14 @@
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="54" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="H107" s="62" t="s">
         <v>452</v>
-      </c>
-      <c r="H107" s="62" t="s">
-        <v>453</v>
       </c>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
@@ -13381,68 +13378,68 @@
     </row>
     <row r="108">
       <c r="A108" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B108" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C108" s="44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D108" s="44" t="s">
         <v>6</v>
       </c>
       <c r="E108" s="44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F108" s="36"/>
       <c r="G108" s="44" t="s">
+        <v>455</v>
+      </c>
+      <c r="H108" s="44" t="s">
         <v>456</v>
       </c>
-      <c r="H108" s="44" t="s">
-        <v>457</v>
-      </c>
       <c r="I108" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
     </row>
     <row r="109">
       <c r="A109" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="B109" s="50" t="s">
         <v>458</v>
       </c>
-      <c r="B109" s="50" t="s">
+      <c r="C109" s="44" t="s">
         <v>459</v>
       </c>
-      <c r="C109" s="44" t="s">
+      <c r="D109" s="61" t="s">
         <v>460</v>
       </c>
-      <c r="D109" s="61" t="s">
+      <c r="E109" s="61" t="s">
         <v>461</v>
-      </c>
-      <c r="E109" s="61" t="s">
-        <v>462</v>
       </c>
       <c r="F109" s="60"/>
       <c r="G109" s="61" t="s">
+        <v>462</v>
+      </c>
+      <c r="H109" s="61" t="s">
         <v>463</v>
       </c>
-      <c r="H109" s="61" t="s">
-        <v>464</v>
-      </c>
       <c r="I109" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
     </row>
     <row r="110">
       <c r="A110" s="93" t="s">
+        <v>464</v>
+      </c>
+      <c r="B110" s="94" t="s">
         <v>465</v>
-      </c>
-      <c r="B110" s="94" t="s">
-        <v>466</v>
       </c>
       <c r="C110" s="36"/>
       <c r="D110" s="36"/>
@@ -13456,26 +13453,26 @@
     </row>
     <row r="111">
       <c r="A111" s="95" t="s">
+        <v>466</v>
+      </c>
+      <c r="B111" s="96" t="s">
         <v>467</v>
       </c>
-      <c r="B111" s="96" t="s">
+      <c r="C111" s="97" t="s">
         <v>468</v>
       </c>
-      <c r="C111" s="97" t="s">
+      <c r="D111" s="97" t="s">
         <v>469</v>
       </c>
-      <c r="D111" s="97" t="s">
+      <c r="E111" s="97" t="s">
         <v>470</v>
-      </c>
-      <c r="E111" s="97" t="s">
-        <v>471</v>
       </c>
       <c r="F111" s="36"/>
       <c r="G111" s="97" t="s">
+        <v>471</v>
+      </c>
+      <c r="H111" s="98" t="s">
         <v>472</v>
-      </c>
-      <c r="H111" s="98" t="s">
-        <v>473</v>
       </c>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
@@ -13483,26 +13480,26 @@
     </row>
     <row r="112">
       <c r="A112" s="95" t="s">
+        <v>466</v>
+      </c>
+      <c r="B112" s="96" t="s">
         <v>467</v>
       </c>
-      <c r="B112" s="96" t="s">
+      <c r="C112" s="99" t="s">
         <v>468</v>
       </c>
-      <c r="C112" s="99" t="s">
+      <c r="D112" s="99" t="s">
         <v>469</v>
       </c>
-      <c r="D112" s="99" t="s">
-        <v>470</v>
-      </c>
       <c r="E112" s="99" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F112" s="60"/>
       <c r="G112" s="99" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H112" s="100" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
@@ -13510,10 +13507,10 @@
     </row>
     <row r="113">
       <c r="A113" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="B113" s="43" t="s">
         <v>476</v>
-      </c>
-      <c r="B113" s="43" t="s">
-        <v>477</v>
       </c>
       <c r="C113" s="36"/>
       <c r="D113" s="36"/>
@@ -13527,16 +13524,16 @@
     </row>
     <row r="114">
       <c r="A114" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="B114" s="50" t="s">
         <v>478</v>
       </c>
-      <c r="B114" s="50" t="s">
+      <c r="C114" s="44" t="s">
         <v>479</v>
       </c>
-      <c r="C114" s="44" t="s">
-        <v>480</v>
-      </c>
       <c r="D114" s="44" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E114" s="36"/>
       <c r="F114" s="4"/>
@@ -13548,26 +13545,26 @@
     </row>
     <row r="115">
       <c r="A115" s="71" t="s">
+        <v>480</v>
+      </c>
+      <c r="B115" s="72" t="s">
         <v>481</v>
       </c>
-      <c r="B115" s="72" t="s">
+      <c r="C115" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="D115" s="44" t="s">
+        <v>478</v>
+      </c>
+      <c r="E115" s="44" t="s">
         <v>482</v>
-      </c>
-      <c r="C115" s="44" t="s">
-        <v>480</v>
-      </c>
-      <c r="D115" s="44" t="s">
-        <v>479</v>
-      </c>
-      <c r="E115" s="44" t="s">
-        <v>483</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="44" t="s">
+        <v>483</v>
+      </c>
+      <c r="H115" s="63" t="s">
         <v>484</v>
-      </c>
-      <c r="H115" s="63" t="s">
-        <v>485</v>
       </c>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
@@ -13575,26 +13572,26 @@
     </row>
     <row r="116">
       <c r="A116" s="71" t="s">
+        <v>485</v>
+      </c>
+      <c r="B116" s="72" t="s">
         <v>486</v>
       </c>
-      <c r="B116" s="72" t="s">
+      <c r="C116" s="61" t="s">
+        <v>479</v>
+      </c>
+      <c r="D116" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="E116" s="61" t="s">
         <v>487</v>
-      </c>
-      <c r="C116" s="61" t="s">
-        <v>480</v>
-      </c>
-      <c r="D116" s="61" t="s">
-        <v>479</v>
-      </c>
-      <c r="E116" s="61" t="s">
-        <v>488</v>
       </c>
       <c r="F116" s="7"/>
       <c r="G116" s="44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H116" s="61" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
@@ -13602,39 +13599,39 @@
     </row>
     <row r="117">
       <c r="A117" s="49" t="s">
+        <v>489</v>
+      </c>
+      <c r="B117" s="50" t="s">
         <v>490</v>
       </c>
-      <c r="B117" s="50" t="s">
+      <c r="C117" s="44" t="s">
         <v>491</v>
       </c>
-      <c r="C117" s="44" t="s">
+      <c r="D117" s="44" t="s">
         <v>492</v>
       </c>
-      <c r="D117" s="44" t="s">
+      <c r="E117" s="44" t="s">
         <v>493</v>
-      </c>
-      <c r="E117" s="44" t="s">
-        <v>494</v>
       </c>
       <c r="F117" s="36"/>
       <c r="G117" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="H117" s="44" t="s">
         <v>495</v>
       </c>
-      <c r="H117" s="44" t="s">
-        <v>496</v>
-      </c>
       <c r="I117" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
     </row>
     <row r="118">
       <c r="A118" s="42" t="s">
+        <v>496</v>
+      </c>
+      <c r="B118" s="43" t="s">
         <v>497</v>
-      </c>
-      <c r="B118" s="43" t="s">
-        <v>498</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="7"/>
@@ -13648,16 +13645,16 @@
     </row>
     <row r="119">
       <c r="A119" s="49" t="s">
+        <v>498</v>
+      </c>
+      <c r="B119" s="50" t="s">
         <v>499</v>
       </c>
-      <c r="B119" s="50" t="s">
+      <c r="C119" s="44" t="s">
         <v>500</v>
       </c>
-      <c r="C119" s="44" t="s">
+      <c r="D119" s="44" t="s">
         <v>501</v>
-      </c>
-      <c r="D119" s="44" t="s">
-        <v>502</v>
       </c>
       <c r="E119" s="36"/>
       <c r="F119" s="4"/>
@@ -13669,26 +13666,26 @@
     </row>
     <row r="120">
       <c r="A120" s="71" t="s">
+        <v>502</v>
+      </c>
+      <c r="B120" s="72" t="s">
         <v>503</v>
       </c>
-      <c r="B120" s="72" t="s">
+      <c r="C120" s="61" t="s">
+        <v>500</v>
+      </c>
+      <c r="D120" s="61" t="s">
+        <v>501</v>
+      </c>
+      <c r="E120" s="44" t="s">
         <v>504</v>
-      </c>
-      <c r="C120" s="61" t="s">
-        <v>501</v>
-      </c>
-      <c r="D120" s="61" t="s">
-        <v>502</v>
-      </c>
-      <c r="E120" s="44" t="s">
-        <v>505</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="44" t="s">
+        <v>505</v>
+      </c>
+      <c r="H120" s="101" t="s">
         <v>506</v>
-      </c>
-      <c r="H120" s="101" t="s">
-        <v>507</v>
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
@@ -13696,26 +13693,26 @@
     </row>
     <row r="121">
       <c r="A121" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="B121" s="72" t="s">
         <v>508</v>
       </c>
-      <c r="B121" s="72" t="s">
+      <c r="C121" s="38" t="s">
+        <v>500</v>
+      </c>
+      <c r="D121" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="E121" s="44" t="s">
         <v>509</v>
-      </c>
-      <c r="C121" s="38" t="s">
-        <v>501</v>
-      </c>
-      <c r="D121" s="38" t="s">
-        <v>502</v>
-      </c>
-      <c r="E121" s="44" t="s">
-        <v>510</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="44" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H121" s="101" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
@@ -13723,68 +13720,68 @@
     </row>
     <row r="122">
       <c r="A122" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="B122" s="50" t="s">
         <v>512</v>
       </c>
-      <c r="B122" s="50" t="s">
+      <c r="C122" s="61" t="s">
         <v>513</v>
       </c>
-      <c r="C122" s="61" t="s">
+      <c r="D122" s="61" t="s">
         <v>514</v>
       </c>
-      <c r="D122" s="61" t="s">
-        <v>515</v>
-      </c>
       <c r="E122" s="54" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F122" s="36"/>
       <c r="G122" s="44" t="s">
+        <v>515</v>
+      </c>
+      <c r="H122" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="H122" s="101" t="s">
-        <v>517</v>
-      </c>
       <c r="I122" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
     </row>
     <row r="123">
       <c r="A123" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="B123" s="43" t="s">
         <v>518</v>
       </c>
-      <c r="B123" s="43" t="s">
+      <c r="C123" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="C123" s="38" t="s">
+      <c r="D123" s="38" t="s">
         <v>520</v>
       </c>
-      <c r="D123" s="38" t="s">
+      <c r="E123" s="35" t="s">
         <v>521</v>
-      </c>
-      <c r="E123" s="35" t="s">
-        <v>522</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H123" s="102" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
     </row>
     <row r="124">
       <c r="A124" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="B124" s="43" t="s">
         <v>524</v>
-      </c>
-      <c r="B124" s="43" t="s">
-        <v>525</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -13798,26 +13795,26 @@
     </row>
     <row r="125">
       <c r="A125" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="B125" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="C125" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="D125" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="E125" s="35" t="s">
         <v>526</v>
-      </c>
-      <c r="B125" s="50" t="s">
-        <v>381</v>
-      </c>
-      <c r="C125" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="D125" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="E125" s="35" t="s">
-        <v>527</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="35" t="s">
+        <v>527</v>
+      </c>
+      <c r="H125" s="35" t="s">
         <v>528</v>
-      </c>
-      <c r="H125" s="35" t="s">
-        <v>529</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
@@ -13825,19 +13822,19 @@
     </row>
     <row r="126">
       <c r="A126" s="49" t="s">
+        <v>529</v>
+      </c>
+      <c r="B126" s="50" t="s">
+        <v>387</v>
+      </c>
+      <c r="C126" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="D126" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="E126" s="38" t="s">
         <v>530</v>
-      </c>
-      <c r="B126" s="50" t="s">
-        <v>388</v>
-      </c>
-      <c r="C126" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="D126" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="E126" s="38" t="s">
-        <v>531</v>
       </c>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
@@ -13845,15 +13842,15 @@
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
       <c r="K126" s="38" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="B127" s="43" t="s">
         <v>532</v>
-      </c>
-      <c r="B127" s="43" t="s">
-        <v>533</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -13867,28 +13864,28 @@
     </row>
     <row r="128">
       <c r="A128" s="49" t="s">
+        <v>533</v>
+      </c>
+      <c r="B128" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C128" s="38" t="s">
         <v>534</v>
       </c>
-      <c r="B128" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C128" s="38" t="s">
+      <c r="D128" s="38" t="s">
         <v>535</v>
       </c>
-      <c r="D128" s="38" t="s">
+      <c r="E128" s="35" t="s">
         <v>536</v>
       </c>
-      <c r="E128" s="35" t="s">
+      <c r="F128" s="35" t="s">
         <v>537</v>
       </c>
-      <c r="F128" s="35" t="s">
+      <c r="G128" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="G128" s="44" t="s">
+      <c r="H128" s="63" t="s">
         <v>539</v>
-      </c>
-      <c r="H128" s="63" t="s">
-        <v>540</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
@@ -13896,68 +13893,68 @@
     </row>
     <row r="129">
       <c r="A129" s="49" t="s">
+        <v>540</v>
+      </c>
+      <c r="B129" s="50" t="s">
         <v>541</v>
       </c>
-      <c r="B129" s="50" t="s">
+      <c r="C129" s="61" t="s">
         <v>542</v>
       </c>
-      <c r="C129" s="61" t="s">
+      <c r="D129" s="61" t="s">
         <v>543</v>
       </c>
-      <c r="D129" s="61" t="s">
+      <c r="E129" s="35" t="s">
         <v>544</v>
-      </c>
-      <c r="E129" s="35" t="s">
-        <v>545</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="44" t="s">
+        <v>545</v>
+      </c>
+      <c r="H129" s="44" t="s">
         <v>546</v>
       </c>
-      <c r="H129" s="44" t="s">
-        <v>547</v>
-      </c>
       <c r="I129" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
       <c r="A130" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="B130" s="43" t="s">
         <v>548</v>
       </c>
-      <c r="B130" s="43" t="s">
-        <v>549</v>
-      </c>
       <c r="C130" s="61" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D130" s="61" t="s">
         <v>8</v>
       </c>
       <c r="E130" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H130" s="103" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
     </row>
     <row r="131">
       <c r="A131" s="42" t="s">
+        <v>551</v>
+      </c>
+      <c r="B131" s="43" t="s">
         <v>552</v>
-      </c>
-      <c r="B131" s="43" t="s">
-        <v>553</v>
       </c>
       <c r="C131" s="60"/>
       <c r="D131" s="60"/>
@@ -13971,26 +13968,26 @@
     </row>
     <row r="132">
       <c r="A132" s="49" t="s">
+        <v>553</v>
+      </c>
+      <c r="B132" s="50" t="s">
         <v>554</v>
       </c>
-      <c r="B132" s="50" t="s">
+      <c r="C132" s="38" t="s">
         <v>555</v>
       </c>
-      <c r="C132" s="38" t="s">
+      <c r="D132" s="38" t="s">
         <v>556</v>
       </c>
-      <c r="D132" s="38" t="s">
+      <c r="E132" s="35" t="s">
         <v>557</v>
-      </c>
-      <c r="E132" s="35" t="s">
-        <v>558</v>
       </c>
       <c r="F132" s="36"/>
       <c r="G132" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="H132" s="63" t="s">
         <v>559</v>
-      </c>
-      <c r="H132" s="63" t="s">
-        <v>560</v>
       </c>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
@@ -13998,26 +13995,26 @@
     </row>
     <row r="133">
       <c r="A133" s="80" t="s">
+        <v>553</v>
+      </c>
+      <c r="B133" s="81" t="s">
         <v>554</v>
       </c>
-      <c r="B133" s="81" t="s">
+      <c r="C133" s="104" t="s">
         <v>555</v>
       </c>
-      <c r="C133" s="104" t="s">
+      <c r="D133" s="104" t="s">
         <v>556</v>
       </c>
-      <c r="D133" s="104" t="s">
+      <c r="E133" s="54" t="s">
         <v>557</v>
-      </c>
-      <c r="E133" s="54" t="s">
-        <v>558</v>
       </c>
       <c r="F133" s="36"/>
       <c r="G133" s="35" t="s">
+        <v>560</v>
+      </c>
+      <c r="H133" s="105" t="s">
         <v>561</v>
-      </c>
-      <c r="H133" s="105" t="s">
-        <v>562</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
@@ -14025,84 +14022,84 @@
     </row>
     <row r="134">
       <c r="A134" s="71" t="s">
+        <v>562</v>
+      </c>
+      <c r="B134" s="72" t="s">
         <v>563</v>
       </c>
-      <c r="B134" s="72" t="s">
+      <c r="C134" s="61" t="s">
         <v>564</v>
       </c>
-      <c r="C134" s="61" t="s">
+      <c r="D134" s="61" t="s">
         <v>565</v>
       </c>
-      <c r="D134" s="61" t="s">
+      <c r="E134" s="35" t="s">
         <v>566</v>
-      </c>
-      <c r="E134" s="35" t="s">
-        <v>567</v>
       </c>
       <c r="F134" s="36"/>
       <c r="G134" s="35" t="s">
+        <v>567</v>
+      </c>
+      <c r="H134" s="35" t="s">
         <v>568</v>
       </c>
-      <c r="H134" s="35" t="s">
-        <v>569</v>
-      </c>
       <c r="I134" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
     </row>
     <row r="135">
       <c r="A135" s="71" t="s">
+        <v>569</v>
+      </c>
+      <c r="B135" s="72" t="s">
         <v>570</v>
       </c>
-      <c r="B135" s="72" t="s">
+      <c r="C135" s="61" t="s">
         <v>571</v>
       </c>
-      <c r="C135" s="61" t="s">
+      <c r="D135" s="61" t="s">
         <v>572</v>
       </c>
-      <c r="D135" s="61" t="s">
+      <c r="E135" s="35" t="s">
         <v>573</v>
-      </c>
-      <c r="E135" s="35" t="s">
-        <v>574</v>
       </c>
       <c r="F135" s="36"/>
       <c r="G135" s="35" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H135" s="35" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
     </row>
     <row r="136">
       <c r="A136" s="49" t="s">
+        <v>575</v>
+      </c>
+      <c r="B136" s="50" t="s">
         <v>576</v>
       </c>
-      <c r="B136" s="50" t="s">
+      <c r="C136" s="38" t="s">
+        <v>555</v>
+      </c>
+      <c r="D136" s="38" t="s">
+        <v>556</v>
+      </c>
+      <c r="E136" s="35" t="s">
         <v>577</v>
-      </c>
-      <c r="C136" s="38" t="s">
-        <v>556</v>
-      </c>
-      <c r="D136" s="38" t="s">
-        <v>557</v>
-      </c>
-      <c r="E136" s="35" t="s">
-        <v>578</v>
       </c>
       <c r="F136" s="36"/>
       <c r="G136" s="44" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H136" s="63" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
@@ -14110,26 +14107,26 @@
     </row>
     <row r="137">
       <c r="A137" s="80" t="s">
+        <v>575</v>
+      </c>
+      <c r="B137" s="81" t="s">
         <v>576</v>
       </c>
-      <c r="B137" s="81" t="s">
+      <c r="C137" s="104" t="s">
+        <v>555</v>
+      </c>
+      <c r="D137" s="104" t="s">
+        <v>556</v>
+      </c>
+      <c r="E137" s="54" t="s">
         <v>577</v>
-      </c>
-      <c r="C137" s="104" t="s">
-        <v>556</v>
-      </c>
-      <c r="D137" s="104" t="s">
-        <v>557</v>
-      </c>
-      <c r="E137" s="54" t="s">
-        <v>578</v>
       </c>
       <c r="F137" s="36"/>
       <c r="G137" s="35" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H137" s="105" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
@@ -14137,84 +14134,84 @@
     </row>
     <row r="138">
       <c r="A138" s="71" t="s">
+        <v>580</v>
+      </c>
+      <c r="B138" s="72" t="s">
+        <v>563</v>
+      </c>
+      <c r="C138" s="61" t="s">
+        <v>564</v>
+      </c>
+      <c r="D138" s="61" t="s">
+        <v>565</v>
+      </c>
+      <c r="E138" s="35" t="s">
         <v>581</v>
-      </c>
-      <c r="B138" s="72" t="s">
-        <v>564</v>
-      </c>
-      <c r="C138" s="61" t="s">
-        <v>565</v>
-      </c>
-      <c r="D138" s="61" t="s">
-        <v>566</v>
-      </c>
-      <c r="E138" s="35" t="s">
-        <v>582</v>
       </c>
       <c r="F138" s="36"/>
       <c r="G138" s="35" t="s">
+        <v>567</v>
+      </c>
+      <c r="H138" s="35" t="s">
         <v>568</v>
       </c>
-      <c r="H138" s="35" t="s">
-        <v>569</v>
-      </c>
       <c r="I138" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
     </row>
     <row r="139">
       <c r="A139" s="71" t="s">
+        <v>582</v>
+      </c>
+      <c r="B139" s="72" t="s">
+        <v>570</v>
+      </c>
+      <c r="C139" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="D139" s="61" t="s">
+        <v>572</v>
+      </c>
+      <c r="E139" s="35" t="s">
         <v>583</v>
-      </c>
-      <c r="B139" s="72" t="s">
-        <v>571</v>
-      </c>
-      <c r="C139" s="61" t="s">
-        <v>572</v>
-      </c>
-      <c r="D139" s="61" t="s">
-        <v>573</v>
-      </c>
-      <c r="E139" s="35" t="s">
-        <v>584</v>
       </c>
       <c r="F139" s="36"/>
       <c r="G139" s="35" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H139" s="35" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I139" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
     </row>
     <row r="140">
       <c r="A140" s="49" t="s">
+        <v>584</v>
+      </c>
+      <c r="B140" s="50" t="s">
         <v>585</v>
       </c>
-      <c r="B140" s="50" t="s">
+      <c r="C140" s="38" t="s">
+        <v>555</v>
+      </c>
+      <c r="D140" s="38" t="s">
+        <v>556</v>
+      </c>
+      <c r="E140" s="35" t="s">
         <v>586</v>
-      </c>
-      <c r="C140" s="38" t="s">
-        <v>556</v>
-      </c>
-      <c r="D140" s="38" t="s">
-        <v>557</v>
-      </c>
-      <c r="E140" s="35" t="s">
-        <v>587</v>
       </c>
       <c r="F140" s="36"/>
       <c r="G140" s="44" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H140" s="63" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
@@ -14222,26 +14219,26 @@
     </row>
     <row r="141">
       <c r="A141" s="80" t="s">
+        <v>584</v>
+      </c>
+      <c r="B141" s="81" t="s">
         <v>585</v>
       </c>
-      <c r="B141" s="81" t="s">
+      <c r="C141" s="106" t="s">
+        <v>555</v>
+      </c>
+      <c r="D141" s="104" t="s">
+        <v>556</v>
+      </c>
+      <c r="E141" s="54" t="s">
         <v>586</v>
-      </c>
-      <c r="C141" s="106" t="s">
-        <v>556</v>
-      </c>
-      <c r="D141" s="104" t="s">
-        <v>557</v>
-      </c>
-      <c r="E141" s="54" t="s">
-        <v>587</v>
       </c>
       <c r="F141" s="36"/>
       <c r="G141" s="35" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H141" s="105" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
@@ -14249,51 +14246,51 @@
     </row>
     <row r="142">
       <c r="A142" s="71" t="s">
+        <v>589</v>
+      </c>
+      <c r="B142" s="72" t="s">
+        <v>570</v>
+      </c>
+      <c r="C142" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="D142" s="61" t="s">
+        <v>572</v>
+      </c>
+      <c r="E142" s="35" t="s">
         <v>590</v>
-      </c>
-      <c r="B142" s="72" t="s">
-        <v>571</v>
-      </c>
-      <c r="C142" s="61" t="s">
-        <v>572</v>
-      </c>
-      <c r="D142" s="61" t="s">
-        <v>573</v>
-      </c>
-      <c r="E142" s="35" t="s">
-        <v>591</v>
       </c>
       <c r="F142" s="60"/>
       <c r="G142" s="35" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H142" s="35" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I142" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
     </row>
     <row r="143">
       <c r="A143" s="95" t="s">
+        <v>591</v>
+      </c>
+      <c r="B143" s="96" t="s">
         <v>592</v>
-      </c>
-      <c r="B143" s="96" t="s">
-        <v>593</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="107" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="97" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H143" s="108" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I143" s="60"/>
       <c r="J143" s="60"/>
@@ -14301,15 +14298,15 @@
     </row>
     <row r="144">
       <c r="A144" s="95" t="s">
+        <v>591</v>
+      </c>
+      <c r="B144" s="96" t="s">
         <v>592</v>
-      </c>
-      <c r="B144" s="96" t="s">
-        <v>593</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="107" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="109"/>
@@ -14317,15 +14314,15 @@
       <c r="I144" s="60"/>
       <c r="J144" s="60"/>
       <c r="K144" s="110" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="B145" s="43" t="s">
         <v>597</v>
-      </c>
-      <c r="B145" s="43" t="s">
-        <v>598</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
@@ -14339,26 +14336,26 @@
     </row>
     <row r="146">
       <c r="A146" s="49" t="s">
+        <v>598</v>
+      </c>
+      <c r="B146" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="C146" s="38" t="s">
         <v>599</v>
       </c>
-      <c r="B146" s="50" t="s">
-        <v>408</v>
-      </c>
-      <c r="C146" s="38" t="s">
+      <c r="D146" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="E146" s="35" t="s">
         <v>600</v>
-      </c>
-      <c r="D146" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="E146" s="35" t="s">
-        <v>601</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="62" t="s">
+        <v>601</v>
+      </c>
+      <c r="H146" s="84" t="s">
         <v>602</v>
-      </c>
-      <c r="H146" s="84" t="s">
-        <v>603</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
@@ -14366,24 +14363,24 @@
     </row>
     <row r="147">
       <c r="A147" s="49" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B147" s="50" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C147" s="38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="35" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="62" t="s">
+        <v>605</v>
+      </c>
+      <c r="H147" s="62" t="s">
         <v>606</v>
-      </c>
-      <c r="H147" s="62" t="s">
-        <v>607</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
@@ -14391,10 +14388,10 @@
     </row>
     <row r="148">
       <c r="A148" s="42" t="s">
+        <v>607</v>
+      </c>
+      <c r="B148" s="43" t="s">
         <v>608</v>
-      </c>
-      <c r="B148" s="43" t="s">
-        <v>609</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
@@ -14408,26 +14405,26 @@
     </row>
     <row r="149">
       <c r="A149" s="49" t="s">
+        <v>609</v>
+      </c>
+      <c r="B149" s="50" t="s">
         <v>610</v>
       </c>
-      <c r="B149" s="50" t="s">
+      <c r="C149" s="111" t="s">
         <v>611</v>
       </c>
-      <c r="C149" s="111" t="s">
+      <c r="D149" s="38" t="s">
         <v>612</v>
       </c>
-      <c r="D149" s="38" t="s">
+      <c r="E149" s="35" t="s">
         <v>613</v>
-      </c>
-      <c r="E149" s="35" t="s">
-        <v>614</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="35" t="s">
+        <v>614</v>
+      </c>
+      <c r="H149" s="35" t="s">
         <v>615</v>
-      </c>
-      <c r="H149" s="35" t="s">
-        <v>616</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
@@ -14435,76 +14432,76 @@
     </row>
     <row r="150">
       <c r="A150" s="71" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B150" s="112"/>
       <c r="C150" s="4"/>
       <c r="D150" s="7"/>
       <c r="E150" s="35" t="s">
+        <v>617</v>
+      </c>
+      <c r="F150" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="F150" s="35" t="s">
+      <c r="G150" s="35" t="s">
         <v>619</v>
       </c>
-      <c r="G150" s="35" t="s">
+      <c r="H150" s="35" t="s">
         <v>620</v>
-      </c>
-      <c r="H150" s="35" t="s">
-        <v>621</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="71" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B151" s="112"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="54" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F151" s="35" t="s">
+        <v>623</v>
+      </c>
+      <c r="G151" s="35" t="s">
+        <v>619</v>
+      </c>
+      <c r="H151" s="35" t="s">
         <v>624</v>
-      </c>
-      <c r="G151" s="35" t="s">
-        <v>620</v>
-      </c>
-      <c r="H151" s="35" t="s">
-        <v>625</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="49" t="s">
+        <v>625</v>
+      </c>
+      <c r="B152" s="50" t="s">
         <v>626</v>
       </c>
-      <c r="B152" s="50" t="s">
+      <c r="C152" s="111" t="s">
         <v>627</v>
       </c>
-      <c r="C152" s="111" t="s">
+      <c r="D152" s="38" t="s">
         <v>628</v>
       </c>
-      <c r="D152" s="38" t="s">
+      <c r="E152" s="35" t="s">
         <v>629</v>
-      </c>
-      <c r="E152" s="35" t="s">
-        <v>630</v>
       </c>
       <c r="F152" s="4"/>
       <c r="G152" s="35" t="s">
+        <v>630</v>
+      </c>
+      <c r="H152" s="35" t="s">
         <v>631</v>
-      </c>
-      <c r="H152" s="35" t="s">
-        <v>632</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
@@ -14512,26 +14509,26 @@
     </row>
     <row r="153">
       <c r="A153" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="B153" s="50" t="s">
         <v>633</v>
       </c>
-      <c r="B153" s="50" t="s">
+      <c r="C153" s="111" t="s">
         <v>634</v>
       </c>
-      <c r="C153" s="111" t="s">
+      <c r="D153" s="38" t="s">
         <v>635</v>
       </c>
-      <c r="D153" s="38" t="s">
+      <c r="E153" s="35" t="s">
         <v>636</v>
-      </c>
-      <c r="E153" s="35" t="s">
-        <v>637</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="35" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H153" s="35" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
@@ -14539,16 +14536,16 @@
     </row>
     <row r="154">
       <c r="A154" s="95" t="s">
+        <v>638</v>
+      </c>
+      <c r="B154" s="96" t="s">
         <v>639</v>
       </c>
-      <c r="B154" s="96" t="s">
+      <c r="C154" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="C154" s="113" t="s">
+      <c r="D154" s="113" t="s">
         <v>641</v>
-      </c>
-      <c r="D154" s="113" t="s">
-        <v>642</v>
       </c>
       <c r="E154" s="36"/>
       <c r="F154" s="4"/>
@@ -14560,26 +14557,26 @@
     </row>
     <row r="155">
       <c r="A155" s="114" t="s">
+        <v>642</v>
+      </c>
+      <c r="B155" s="115" t="s">
+        <v>639</v>
+      </c>
+      <c r="C155" s="113" t="s">
+        <v>640</v>
+      </c>
+      <c r="D155" s="113" t="s">
+        <v>641</v>
+      </c>
+      <c r="E155" s="97" t="s">
         <v>643</v>
-      </c>
-      <c r="B155" s="115" t="s">
-        <v>640</v>
-      </c>
-      <c r="C155" s="113" t="s">
-        <v>641</v>
-      </c>
-      <c r="D155" s="113" t="s">
-        <v>642</v>
-      </c>
-      <c r="E155" s="97" t="s">
-        <v>644</v>
       </c>
       <c r="F155" s="4"/>
       <c r="G155" s="116" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H155" s="116" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
@@ -14587,26 +14584,26 @@
     </row>
     <row r="156">
       <c r="A156" s="114" t="s">
+        <v>645</v>
+      </c>
+      <c r="B156" s="115" t="s">
+        <v>639</v>
+      </c>
+      <c r="C156" s="113" t="s">
+        <v>640</v>
+      </c>
+      <c r="D156" s="113" t="s">
+        <v>641</v>
+      </c>
+      <c r="E156" s="99" t="s">
         <v>646</v>
-      </c>
-      <c r="B156" s="115" t="s">
-        <v>640</v>
-      </c>
-      <c r="C156" s="113" t="s">
-        <v>641</v>
-      </c>
-      <c r="D156" s="113" t="s">
-        <v>642</v>
-      </c>
-      <c r="E156" s="99" t="s">
-        <v>647</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="116" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H156" s="116" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
@@ -14614,26 +14611,26 @@
     </row>
     <row r="157">
       <c r="A157" s="95" t="s">
+        <v>648</v>
+      </c>
+      <c r="B157" s="96" t="s">
         <v>649</v>
       </c>
-      <c r="B157" s="96" t="s">
+      <c r="C157" s="117" t="s">
         <v>650</v>
       </c>
-      <c r="C157" s="117" t="s">
+      <c r="D157" s="117" t="s">
         <v>651</v>
       </c>
-      <c r="D157" s="117" t="s">
+      <c r="E157" s="97" t="s">
         <v>652</v>
-      </c>
-      <c r="E157" s="97" t="s">
-        <v>653</v>
       </c>
       <c r="F157" s="4"/>
       <c r="G157" s="116" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H157" s="116" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
@@ -14641,10 +14638,10 @@
     </row>
     <row r="158">
       <c r="A158" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="B158" s="39" t="s">
         <v>655</v>
-      </c>
-      <c r="B158" s="39" t="s">
-        <v>656</v>
       </c>
       <c r="C158" s="60"/>
       <c r="D158" s="60"/>
@@ -14658,37 +14655,37 @@
     </row>
     <row r="159">
       <c r="A159" s="40" t="s">
+        <v>656</v>
+      </c>
+      <c r="B159" s="41" t="s">
         <v>657</v>
       </c>
-      <c r="B159" s="41" t="s">
+      <c r="C159" s="38" t="s">
         <v>658</v>
-      </c>
-      <c r="C159" s="38" t="s">
-        <v>659</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="35" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F159" s="4"/>
       <c r="G159" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="H159" s="35" t="s">
         <v>661</v>
-      </c>
-      <c r="H159" s="35" t="s">
-        <v>662</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="40" t="s">
+        <v>663</v>
+      </c>
+      <c r="B160" s="41" t="s">
         <v>664</v>
-      </c>
-      <c r="B160" s="41" t="s">
-        <v>665</v>
       </c>
       <c r="C160" s="60"/>
       <c r="D160" s="60"/>
@@ -14702,288 +14699,288 @@
     </row>
     <row r="161">
       <c r="A161" s="93" t="s">
+        <v>665</v>
+      </c>
+      <c r="B161" s="94" t="s">
         <v>666</v>
-      </c>
-      <c r="B161" s="94" t="s">
-        <v>667</v>
       </c>
       <c r="C161" s="60"/>
       <c r="D161" s="60"/>
       <c r="E161" s="97" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F161" s="36"/>
       <c r="G161" s="118"/>
       <c r="H161" s="118"/>
       <c r="I161" s="117" t="s">
+        <v>668</v>
+      </c>
+      <c r="J161" s="117" t="s">
         <v>669</v>
       </c>
-      <c r="J161" s="117" t="s">
+      <c r="K161" s="119" t="s">
         <v>670</v>
-      </c>
-      <c r="K161" s="119" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="95" t="s">
+        <v>671</v>
+      </c>
+      <c r="B162" s="96" t="s">
         <v>672</v>
       </c>
-      <c r="B162" s="96" t="s">
+      <c r="C162" s="99" t="s">
         <v>673</v>
       </c>
-      <c r="C162" s="99" t="s">
+      <c r="D162" s="117" t="s">
         <v>674</v>
       </c>
-      <c r="D162" s="117" t="s">
+      <c r="E162" s="97" t="s">
         <v>675</v>
-      </c>
-      <c r="E162" s="97" t="s">
-        <v>676</v>
       </c>
       <c r="F162" s="36"/>
       <c r="G162" s="118"/>
       <c r="H162" s="118"/>
       <c r="I162" s="117" t="s">
+        <v>676</v>
+      </c>
+      <c r="J162" s="117" t="s">
         <v>677</v>
       </c>
-      <c r="J162" s="117" t="s">
+      <c r="K162" s="119" t="s">
         <v>678</v>
-      </c>
-      <c r="K162" s="119" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="93" t="s">
+        <v>679</v>
+      </c>
+      <c r="B163" s="94" t="s">
         <v>680</v>
       </c>
-      <c r="B163" s="94" t="s">
+      <c r="C163" s="99" t="s">
         <v>681</v>
       </c>
-      <c r="C163" s="99" t="s">
+      <c r="D163" s="99" t="s">
         <v>682</v>
       </c>
-      <c r="D163" s="99" t="s">
+      <c r="E163" s="99" t="s">
         <v>683</v>
-      </c>
-      <c r="E163" s="99" t="s">
-        <v>684</v>
       </c>
       <c r="F163" s="60"/>
       <c r="G163" s="120"/>
       <c r="H163" s="120"/>
       <c r="I163" s="117" t="s">
+        <v>684</v>
+      </c>
+      <c r="J163" s="117" t="s">
+        <v>669</v>
+      </c>
+      <c r="K163" s="119" t="s">
         <v>685</v>
-      </c>
-      <c r="J163" s="117" t="s">
-        <v>670</v>
-      </c>
-      <c r="K163" s="119" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="95" t="s">
+        <v>686</v>
+      </c>
+      <c r="B164" s="96" t="s">
         <v>687</v>
-      </c>
-      <c r="B164" s="96" t="s">
-        <v>688</v>
       </c>
       <c r="C164" s="121"/>
       <c r="D164" s="121"/>
       <c r="E164" s="107" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F164" s="36"/>
       <c r="G164" s="109"/>
       <c r="H164" s="109"/>
       <c r="I164" s="99" t="s">
+        <v>688</v>
+      </c>
+      <c r="J164" s="99" t="s">
         <v>689</v>
       </c>
-      <c r="J164" s="99" t="s">
+      <c r="K164" s="119" t="s">
         <v>690</v>
-      </c>
-      <c r="K164" s="119" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="95" t="s">
+        <v>691</v>
+      </c>
+      <c r="B165" s="96" t="s">
         <v>692</v>
       </c>
-      <c r="B165" s="96" t="s">
+      <c r="C165" s="99" t="s">
+        <v>673</v>
+      </c>
+      <c r="D165" s="117" t="s">
+        <v>674</v>
+      </c>
+      <c r="E165" s="99" t="s">
         <v>693</v>
-      </c>
-      <c r="C165" s="99" t="s">
-        <v>674</v>
-      </c>
-      <c r="D165" s="117" t="s">
-        <v>675</v>
-      </c>
-      <c r="E165" s="99" t="s">
-        <v>694</v>
       </c>
       <c r="F165" s="60"/>
       <c r="G165" s="120"/>
       <c r="H165" s="120"/>
       <c r="I165" s="99" t="s">
+        <v>694</v>
+      </c>
+      <c r="J165" s="99" t="s">
+        <v>677</v>
+      </c>
+      <c r="K165" s="119" t="s">
         <v>695</v>
-      </c>
-      <c r="J165" s="99" t="s">
-        <v>678</v>
-      </c>
-      <c r="K165" s="119" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="95" t="s">
+        <v>696</v>
+      </c>
+      <c r="B166" s="96" t="s">
         <v>697</v>
       </c>
-      <c r="B166" s="96" t="s">
+      <c r="C166" s="122" t="s">
+        <v>673</v>
+      </c>
+      <c r="D166" s="122" t="s">
+        <v>674</v>
+      </c>
+      <c r="E166" s="97" t="s">
         <v>698</v>
-      </c>
-      <c r="C166" s="122" t="s">
-        <v>674</v>
-      </c>
-      <c r="D166" s="122" t="s">
-        <v>675</v>
-      </c>
-      <c r="E166" s="97" t="s">
-        <v>699</v>
       </c>
       <c r="F166" s="36"/>
       <c r="G166" s="118"/>
       <c r="H166" s="118"/>
       <c r="I166" s="99" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J166" s="99" t="s">
+        <v>699</v>
+      </c>
+      <c r="K166" s="119" t="s">
         <v>700</v>
-      </c>
-      <c r="K166" s="119" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="93" t="s">
+        <v>701</v>
+      </c>
+      <c r="B167" s="94" t="s">
         <v>702</v>
       </c>
-      <c r="B167" s="94" t="s">
+      <c r="C167" s="99" t="s">
+        <v>681</v>
+      </c>
+      <c r="D167" s="99" t="s">
+        <v>682</v>
+      </c>
+      <c r="E167" s="97" t="s">
         <v>703</v>
-      </c>
-      <c r="C167" s="99" t="s">
-        <v>682</v>
-      </c>
-      <c r="D167" s="99" t="s">
-        <v>683</v>
-      </c>
-      <c r="E167" s="97" t="s">
-        <v>704</v>
       </c>
       <c r="F167" s="36"/>
       <c r="G167" s="118"/>
       <c r="H167" s="118"/>
       <c r="I167" s="117" t="s">
+        <v>704</v>
+      </c>
+      <c r="J167" s="117" t="s">
+        <v>669</v>
+      </c>
+      <c r="K167" s="119" t="s">
         <v>705</v>
-      </c>
-      <c r="J167" s="117" t="s">
-        <v>670</v>
-      </c>
-      <c r="K167" s="119" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="95" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B168" s="96" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C168" s="121"/>
       <c r="D168" s="121"/>
       <c r="E168" s="123" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F168" s="124"/>
       <c r="G168" s="109"/>
       <c r="H168" s="109"/>
       <c r="I168" s="99" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J168" s="99" t="s">
+        <v>689</v>
+      </c>
+      <c r="K168" s="119" t="s">
         <v>690</v>
-      </c>
-      <c r="K168" s="119" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="95" t="s">
+        <v>708</v>
+      </c>
+      <c r="B169" s="96" t="s">
+        <v>692</v>
+      </c>
+      <c r="C169" s="99" t="s">
+        <v>673</v>
+      </c>
+      <c r="D169" s="117" t="s">
+        <v>674</v>
+      </c>
+      <c r="E169" s="125" t="s">
         <v>709</v>
-      </c>
-      <c r="B169" s="96" t="s">
-        <v>693</v>
-      </c>
-      <c r="C169" s="99" t="s">
-        <v>674</v>
-      </c>
-      <c r="D169" s="117" t="s">
-        <v>675</v>
-      </c>
-      <c r="E169" s="125" t="s">
-        <v>710</v>
       </c>
       <c r="F169" s="124"/>
       <c r="G169" s="118"/>
       <c r="H169" s="118"/>
       <c r="I169" s="99" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J169" s="99" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K169" s="119" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="95" t="s">
+        <v>711</v>
+      </c>
+      <c r="B170" s="96" t="s">
         <v>712</v>
       </c>
-      <c r="B170" s="96" t="s">
+      <c r="C170" s="113" t="s">
+        <v>673</v>
+      </c>
+      <c r="D170" s="113" t="s">
+        <v>674</v>
+      </c>
+      <c r="E170" s="125" t="s">
         <v>713</v>
-      </c>
-      <c r="C170" s="113" t="s">
-        <v>674</v>
-      </c>
-      <c r="D170" s="113" t="s">
-        <v>675</v>
-      </c>
-      <c r="E170" s="125" t="s">
-        <v>714</v>
       </c>
       <c r="F170" s="124"/>
       <c r="G170" s="120"/>
       <c r="H170" s="120"/>
       <c r="I170" s="99" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J170" s="99" t="s">
+        <v>699</v>
+      </c>
+      <c r="K170" s="119" t="s">
         <v>700</v>
-      </c>
-      <c r="K170" s="119" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="42" t="s">
+        <v>714</v>
+      </c>
+      <c r="B171" s="43" t="s">
         <v>715</v>
-      </c>
-      <c r="B171" s="43" t="s">
-        <v>716</v>
       </c>
       <c r="C171" s="60"/>
       <c r="D171" s="36"/>
@@ -14997,17 +14994,17 @@
     </row>
     <row r="172">
       <c r="A172" s="49" t="s">
+        <v>716</v>
+      </c>
+      <c r="B172" s="50" t="s">
         <v>717</v>
       </c>
-      <c r="B172" s="50" t="s">
+      <c r="C172" s="61" t="s">
         <v>718</v>
-      </c>
-      <c r="C172" s="61" t="s">
-        <v>719</v>
       </c>
       <c r="D172" s="60"/>
       <c r="E172" s="74" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F172" s="124"/>
       <c r="G172" s="60"/>
@@ -15015,22 +15012,22 @@
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
       <c r="K172" s="38" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="49" t="s">
+        <v>721</v>
+      </c>
+      <c r="B173" s="50" t="s">
         <v>722</v>
       </c>
-      <c r="B173" s="50" t="s">
+      <c r="C173" s="61" t="s">
         <v>723</v>
-      </c>
-      <c r="C173" s="61" t="s">
-        <v>724</v>
       </c>
       <c r="D173" s="60"/>
       <c r="E173" s="74" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F173" s="124"/>
       <c r="G173" s="36"/>
@@ -15038,15 +15035,15 @@
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
       <c r="K173" s="38" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="40" t="s">
+        <v>725</v>
+      </c>
+      <c r="B174" s="41" t="s">
         <v>726</v>
-      </c>
-      <c r="B174" s="41" t="s">
-        <v>727</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
@@ -15060,10 +15057,10 @@
     </row>
     <row r="175">
       <c r="A175" s="42" t="s">
+        <v>727</v>
+      </c>
+      <c r="B175" s="43" t="s">
         <v>728</v>
-      </c>
-      <c r="B175" s="43" t="s">
-        <v>729</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
@@ -15077,71 +15074,71 @@
     </row>
     <row r="176">
       <c r="A176" s="49" t="s">
+        <v>729</v>
+      </c>
+      <c r="B176" s="50" t="s">
         <v>730</v>
       </c>
-      <c r="B176" s="50" t="s">
-        <v>731</v>
-      </c>
       <c r="C176" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D176" s="7"/>
       <c r="E176" s="83" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F176" s="18"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="I176" s="113" t="s">
+        <v>732</v>
+      </c>
+      <c r="J176" s="113" t="s">
         <v>733</v>
       </c>
-      <c r="J176" s="113" t="s">
-        <v>734</v>
-      </c>
       <c r="K176" s="38" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="95" t="s">
+        <v>734</v>
+      </c>
+      <c r="B177" s="50" t="s">
         <v>735</v>
       </c>
-      <c r="B177" s="50" t="s">
+      <c r="C177" s="38" t="s">
         <v>736</v>
-      </c>
-      <c r="C177" s="38" t="s">
-        <v>737</v>
       </c>
       <c r="D177" s="7"/>
       <c r="E177" s="83" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F177" s="18"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
       <c r="I177" s="126" t="s">
+        <v>738</v>
+      </c>
+      <c r="J177" s="113" t="s">
         <v>739</v>
       </c>
-      <c r="J177" s="113" t="s">
-        <v>740</v>
-      </c>
       <c r="K177" s="38" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="42" t="s">
+        <v>740</v>
+      </c>
+      <c r="B178" s="43" t="s">
         <v>741</v>
       </c>
-      <c r="B178" s="43" t="s">
+      <c r="C178" s="38" t="s">
         <v>742</v>
-      </c>
-      <c r="C178" s="38" t="s">
-        <v>743</v>
       </c>
       <c r="D178" s="7"/>
       <c r="E178" s="83" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F178" s="18"/>
       <c r="G178" s="4"/>
@@ -15149,15 +15146,15 @@
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
       <c r="K178" s="38" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="42" t="s">
+        <v>744</v>
+      </c>
+      <c r="B179" s="43" t="s">
         <v>745</v>
-      </c>
-      <c r="B179" s="43" t="s">
-        <v>746</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="7"/>
@@ -15171,17 +15168,17 @@
     </row>
     <row r="180">
       <c r="A180" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="B180" s="50" t="s">
         <v>747</v>
       </c>
-      <c r="B180" s="50" t="s">
+      <c r="C180" s="38" t="s">
         <v>748</v>
-      </c>
-      <c r="C180" s="38" t="s">
-        <v>749</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="35" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
@@ -15189,20 +15186,20 @@
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
       <c r="K180" s="38" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="33" t="s">
+        <v>750</v>
+      </c>
+      <c r="B181" s="39" t="s">
         <v>751</v>
-      </c>
-      <c r="B181" s="39" t="s">
-        <v>752</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F181" s="4"/>
       <c r="G181" s="79"/>
@@ -15213,7 +15210,7 @@
     </row>
     <row r="182">
       <c r="A182" s="40" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B182" s="41" t="s">
         <v>8</v>
@@ -15230,10 +15227,10 @@
     </row>
     <row r="183">
       <c r="A183" s="42" t="s">
+        <v>754</v>
+      </c>
+      <c r="B183" s="43" t="s">
         <v>755</v>
-      </c>
-      <c r="B183" s="43" t="s">
-        <v>756</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
@@ -15247,26 +15244,26 @@
     </row>
     <row r="184">
       <c r="A184" s="49" t="s">
+        <v>756</v>
+      </c>
+      <c r="B184" s="50" t="s">
         <v>757</v>
       </c>
-      <c r="B184" s="50" t="s">
+      <c r="C184" s="61" t="s">
         <v>758</v>
       </c>
-      <c r="C184" s="61" t="s">
+      <c r="D184" s="61" t="s">
         <v>759</v>
       </c>
-      <c r="D184" s="61" t="s">
+      <c r="E184" s="44" t="s">
         <v>760</v>
-      </c>
-      <c r="E184" s="44" t="s">
-        <v>761</v>
       </c>
       <c r="F184" s="36"/>
       <c r="G184" s="44" t="s">
+        <v>761</v>
+      </c>
+      <c r="H184" s="63" t="s">
         <v>762</v>
-      </c>
-      <c r="H184" s="63" t="s">
-        <v>763</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
@@ -15274,26 +15271,26 @@
     </row>
     <row r="185">
       <c r="A185" s="49" t="s">
+        <v>763</v>
+      </c>
+      <c r="B185" s="50" t="s">
         <v>764</v>
       </c>
-      <c r="B185" s="50" t="s">
+      <c r="C185" s="61" t="s">
+        <v>758</v>
+      </c>
+      <c r="D185" s="61" t="s">
+        <v>759</v>
+      </c>
+      <c r="E185" s="44" t="s">
         <v>765</v>
-      </c>
-      <c r="C185" s="61" t="s">
-        <v>759</v>
-      </c>
-      <c r="D185" s="61" t="s">
-        <v>760</v>
-      </c>
-      <c r="E185" s="44" t="s">
-        <v>766</v>
       </c>
       <c r="F185" s="36"/>
       <c r="G185" s="44" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H185" s="44" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
@@ -15301,26 +15298,26 @@
     </row>
     <row r="186">
       <c r="A186" s="49" t="s">
+        <v>767</v>
+      </c>
+      <c r="B186" s="50" t="s">
         <v>768</v>
       </c>
-      <c r="B186" s="50" t="s">
+      <c r="C186" s="61" t="s">
         <v>769</v>
       </c>
-      <c r="C186" s="61" t="s">
+      <c r="D186" s="61" t="s">
         <v>770</v>
       </c>
-      <c r="D186" s="61" t="s">
+      <c r="E186" s="44" t="s">
         <v>771</v>
-      </c>
-      <c r="E186" s="44" t="s">
-        <v>772</v>
       </c>
       <c r="F186" s="36"/>
       <c r="G186" s="44" t="s">
+        <v>772</v>
+      </c>
+      <c r="H186" s="44" t="s">
         <v>773</v>
-      </c>
-      <c r="H186" s="44" t="s">
-        <v>774</v>
       </c>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
@@ -15328,19 +15325,19 @@
     </row>
     <row r="187">
       <c r="A187" s="114" t="s">
+        <v>774</v>
+      </c>
+      <c r="B187" s="115" t="s">
         <v>775</v>
       </c>
-      <c r="B187" s="115" t="s">
+      <c r="C187" s="113" t="s">
         <v>776</v>
       </c>
-      <c r="C187" s="113" t="s">
+      <c r="D187" s="113" t="s">
         <v>777</v>
       </c>
-      <c r="D187" s="113" t="s">
+      <c r="E187" s="116" t="s">
         <v>778</v>
-      </c>
-      <c r="E187" s="116" t="s">
-        <v>779</v>
       </c>
       <c r="F187" s="4"/>
       <c r="G187" s="109"/>
@@ -15348,24 +15345,24 @@
       <c r="I187" s="60"/>
       <c r="J187" s="60"/>
       <c r="K187" s="119" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="114" t="s">
+        <v>780</v>
+      </c>
+      <c r="B188" s="115" t="s">
         <v>781</v>
       </c>
-      <c r="B188" s="115" t="s">
+      <c r="C188" s="113" t="s">
+        <v>776</v>
+      </c>
+      <c r="D188" s="113" t="s">
+        <v>777</v>
+      </c>
+      <c r="E188" s="116" t="s">
         <v>782</v>
-      </c>
-      <c r="C188" s="113" t="s">
-        <v>777</v>
-      </c>
-      <c r="D188" s="113" t="s">
-        <v>778</v>
-      </c>
-      <c r="E188" s="116" t="s">
-        <v>783</v>
       </c>
       <c r="F188" s="4"/>
       <c r="G188" s="109"/>
@@ -15373,31 +15370,31 @@
       <c r="I188" s="60"/>
       <c r="J188" s="60"/>
       <c r="K188" s="119" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="114" t="s">
+        <v>783</v>
+      </c>
+      <c r="B189" s="115" t="s">
         <v>784</v>
       </c>
-      <c r="B189" s="115" t="s">
+      <c r="C189" s="116" t="s">
         <v>785</v>
       </c>
-      <c r="C189" s="116" t="s">
+      <c r="D189" s="117" t="s">
         <v>786</v>
       </c>
-      <c r="D189" s="117" t="s">
+      <c r="E189" s="116" t="s">
         <v>787</v>
-      </c>
-      <c r="E189" s="116" t="s">
-        <v>788</v>
       </c>
       <c r="F189" s="4"/>
       <c r="G189" s="116" t="s">
+        <v>788</v>
+      </c>
+      <c r="H189" s="116" t="s">
         <v>789</v>
-      </c>
-      <c r="H189" s="116" t="s">
-        <v>790</v>
       </c>
       <c r="I189" s="60"/>
       <c r="J189" s="60"/>
@@ -15405,26 +15402,26 @@
     </row>
     <row r="190">
       <c r="A190" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="B190" s="50" t="s">
         <v>791</v>
       </c>
-      <c r="B190" s="50" t="s">
+      <c r="C190" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="D190" s="38" t="s">
         <v>793</v>
       </c>
-      <c r="D190" s="38" t="s">
+      <c r="E190" s="35" t="s">
         <v>794</v>
-      </c>
-      <c r="E190" s="35" t="s">
-        <v>795</v>
       </c>
       <c r="F190" s="4"/>
       <c r="G190" s="35" t="s">
+        <v>795</v>
+      </c>
+      <c r="H190" s="103" t="s">
         <v>796</v>
-      </c>
-      <c r="H190" s="103" t="s">
-        <v>797</v>
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
@@ -15432,53 +15429,53 @@
     </row>
     <row r="191">
       <c r="A191" s="49" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B191" s="50" t="s">
+        <v>797</v>
+      </c>
+      <c r="C191" s="38" t="s">
         <v>798</v>
-      </c>
-      <c r="C191" s="38" t="s">
-        <v>799</v>
       </c>
       <c r="D191" s="7"/>
       <c r="E191" s="35" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F191" s="4"/>
       <c r="G191" s="35" t="s">
+        <v>800</v>
+      </c>
+      <c r="H191" s="90" t="s">
         <v>801</v>
       </c>
-      <c r="H191" s="90" t="s">
+      <c r="I191" s="38" t="s">
         <v>802</v>
-      </c>
-      <c r="I191" s="38" t="s">
-        <v>803</v>
       </c>
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
     </row>
     <row r="192">
       <c r="A192" s="114" t="s">
+        <v>803</v>
+      </c>
+      <c r="B192" s="115" t="s">
         <v>804</v>
       </c>
-      <c r="B192" s="115" t="s">
+      <c r="C192" s="117" t="s">
+        <v>792</v>
+      </c>
+      <c r="D192" s="117" t="s">
+        <v>793</v>
+      </c>
+      <c r="E192" s="116" t="s">
         <v>805</v>
-      </c>
-      <c r="C192" s="117" t="s">
-        <v>793</v>
-      </c>
-      <c r="D192" s="117" t="s">
-        <v>794</v>
-      </c>
-      <c r="E192" s="116" t="s">
-        <v>806</v>
       </c>
       <c r="F192" s="4"/>
       <c r="G192" s="116" t="s">
+        <v>806</v>
+      </c>
+      <c r="H192" s="127" t="s">
         <v>807</v>
-      </c>
-      <c r="H192" s="127" t="s">
-        <v>808</v>
       </c>
       <c r="I192" s="60"/>
       <c r="J192" s="60"/>
@@ -15486,13 +15483,13 @@
     </row>
     <row r="193">
       <c r="A193" s="42" t="s">
+        <v>808</v>
+      </c>
+      <c r="B193" s="43" t="s">
         <v>809</v>
       </c>
-      <c r="B193" s="43" t="s">
+      <c r="C193" s="38" t="s">
         <v>810</v>
-      </c>
-      <c r="C193" s="38" t="s">
-        <v>811</v>
       </c>
       <c r="D193" s="60"/>
       <c r="E193" s="36"/>
@@ -15505,26 +15502,26 @@
     </row>
     <row r="194">
       <c r="A194" s="49" t="s">
+        <v>811</v>
+      </c>
+      <c r="B194" s="50" t="s">
         <v>812</v>
       </c>
-      <c r="B194" s="50" t="s">
+      <c r="C194" s="61" t="s">
         <v>813</v>
       </c>
-      <c r="C194" s="61" t="s">
+      <c r="D194" s="61" t="s">
         <v>814</v>
       </c>
-      <c r="D194" s="61" t="s">
+      <c r="E194" s="44" t="s">
         <v>815</v>
-      </c>
-      <c r="E194" s="44" t="s">
-        <v>816</v>
       </c>
       <c r="F194" s="60"/>
       <c r="G194" s="44" t="s">
+        <v>816</v>
+      </c>
+      <c r="H194" s="63" t="s">
         <v>817</v>
-      </c>
-      <c r="H194" s="63" t="s">
-        <v>818</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
@@ -15532,16 +15529,16 @@
     </row>
     <row r="195">
       <c r="A195" s="42" t="s">
+        <v>818</v>
+      </c>
+      <c r="B195" s="43" t="s">
         <v>819</v>
       </c>
-      <c r="B195" s="43" t="s">
+      <c r="C195" s="61" t="s">
         <v>820</v>
       </c>
-      <c r="C195" s="61" t="s">
+      <c r="D195" s="61" t="s">
         <v>821</v>
-      </c>
-      <c r="D195" s="61" t="s">
-        <v>822</v>
       </c>
       <c r="E195" s="36"/>
       <c r="F195" s="36"/>
@@ -15553,26 +15550,26 @@
     </row>
     <row r="196">
       <c r="A196" s="49" t="s">
+        <v>822</v>
+      </c>
+      <c r="B196" s="50" t="s">
         <v>823</v>
       </c>
-      <c r="B196" s="50" t="s">
+      <c r="C196" s="61" t="s">
+        <v>820</v>
+      </c>
+      <c r="D196" s="61" t="s">
+        <v>821</v>
+      </c>
+      <c r="E196" s="44" t="s">
         <v>824</v>
-      </c>
-      <c r="C196" s="61" t="s">
-        <v>821</v>
-      </c>
-      <c r="D196" s="61" t="s">
-        <v>822</v>
-      </c>
-      <c r="E196" s="44" t="s">
-        <v>825</v>
       </c>
       <c r="F196" s="36"/>
       <c r="G196" s="44" t="s">
+        <v>825</v>
+      </c>
+      <c r="H196" s="63" t="s">
         <v>826</v>
-      </c>
-      <c r="H196" s="63" t="s">
-        <v>827</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
@@ -15580,26 +15577,26 @@
     </row>
     <row r="197">
       <c r="A197" s="49" t="s">
+        <v>827</v>
+      </c>
+      <c r="B197" s="50" t="s">
         <v>828</v>
       </c>
-      <c r="B197" s="50" t="s">
+      <c r="C197" s="61" t="s">
+        <v>820</v>
+      </c>
+      <c r="D197" s="61" t="s">
+        <v>821</v>
+      </c>
+      <c r="E197" s="44" t="s">
         <v>829</v>
-      </c>
-      <c r="C197" s="61" t="s">
-        <v>821</v>
-      </c>
-      <c r="D197" s="61" t="s">
-        <v>822</v>
-      </c>
-      <c r="E197" s="44" t="s">
-        <v>830</v>
       </c>
       <c r="F197" s="36"/>
       <c r="G197" s="44" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H197" s="63" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
@@ -15607,10 +15604,10 @@
     </row>
     <row r="198">
       <c r="A198" s="40" t="s">
+        <v>831</v>
+      </c>
+      <c r="B198" s="41" t="s">
         <v>832</v>
-      </c>
-      <c r="B198" s="41" t="s">
-        <v>833</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
@@ -15624,53 +15621,53 @@
     </row>
     <row r="199">
       <c r="A199" s="42" t="s">
+        <v>833</v>
+      </c>
+      <c r="B199" s="43" t="s">
         <v>834</v>
       </c>
-      <c r="B199" s="43" t="s">
-        <v>835</v>
-      </c>
       <c r="C199" s="38" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D199" s="7"/>
       <c r="E199" s="54" t="s">
+        <v>835</v>
+      </c>
+      <c r="F199" s="35" t="s">
         <v>836</v>
       </c>
-      <c r="F199" s="35" t="s">
+      <c r="G199" s="35" t="s">
         <v>837</v>
       </c>
-      <c r="G199" s="35" t="s">
+      <c r="H199" s="35" t="s">
         <v>838</v>
-      </c>
-      <c r="H199" s="35" t="s">
-        <v>839</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
       <c r="K199" s="38" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="42" t="s">
+        <v>840</v>
+      </c>
+      <c r="B200" s="43" t="s">
         <v>841</v>
       </c>
-      <c r="B200" s="43" t="s">
+      <c r="C200" s="38" t="s">
         <v>842</v>
-      </c>
-      <c r="C200" s="38" t="s">
-        <v>843</v>
       </c>
       <c r="D200" s="7"/>
       <c r="E200" s="35" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F200" s="4"/>
       <c r="G200" s="35" t="s">
+        <v>844</v>
+      </c>
+      <c r="H200" s="35" t="s">
         <v>845</v>
-      </c>
-      <c r="H200" s="35" t="s">
-        <v>846</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
@@ -15678,17 +15675,17 @@
     </row>
     <row r="201">
       <c r="A201" s="42" t="s">
+        <v>846</v>
+      </c>
+      <c r="B201" s="43" t="s">
         <v>847</v>
       </c>
-      <c r="B201" s="43" t="s">
-        <v>848</v>
-      </c>
       <c r="C201" s="38" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D201" s="7"/>
       <c r="E201" s="35" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
@@ -15696,7 +15693,7 @@
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
       <c r="K201" s="38" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -15767,19 +15764,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="128" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="C1" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="D1" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="E1" s="129" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="129" t="s">
-        <v>37</v>
       </c>
       <c r="F1" s="129" t="s">
         <v>2</v>
@@ -15787,78 +15784,78 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>391</v>
-      </c>
       <c r="F2" s="35" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>421</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>422</v>
-      </c>
       <c r="C3" s="61" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D3" s="61"/>
       <c r="E3" s="35" t="s">
+        <v>851</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>852</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>421</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>422</v>
-      </c>
       <c r="C4" s="61" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D4" s="61"/>
       <c r="E4" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>854</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>531</v>
-      </c>
       <c r="F5" s="35" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G5" s="130"/>
       <c r="H5" s="130"/>
@@ -15883,19 +15880,19 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>857</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="C6" s="61" t="s">
         <v>858</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="D6" s="61" t="s">
         <v>859</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="E6" s="35" t="s">
         <v>860</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>861</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="130"/>
@@ -15921,148 +15918,148 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>862</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="C7" s="7" t="s">
         <v>863</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>864</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="35" t="s">
         <v>865</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="F7" s="35" t="s">
         <v>866</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>869</v>
-      </c>
       <c r="C8" s="38" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="38" t="s">
+        <v>869</v>
+      </c>
+      <c r="F8" s="38" t="s">
         <v>870</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="77" t="s">
+        <v>871</v>
+      </c>
+      <c r="B9" s="77" t="s">
         <v>872</v>
       </c>
-      <c r="B9" s="77" t="s">
-        <v>873</v>
-      </c>
       <c r="C9" s="77" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D9" s="77"/>
       <c r="E9" s="77" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>875</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="C10" s="131" t="s">
         <v>876</v>
-      </c>
-      <c r="C10" s="131" t="s">
-        <v>877</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="38" t="s">
+        <v>877</v>
+      </c>
+      <c r="F10" s="38" t="s">
         <v>878</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>880</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="C11" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="38" t="s">
         <v>883</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="F11" s="38" t="s">
         <v>884</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
+        <v>885</v>
+      </c>
+      <c r="B12" s="77" t="s">
         <v>886</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="C12" s="78" t="s">
+        <v>599</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>409</v>
+      </c>
+      <c r="E12" s="77" t="s">
         <v>887</v>
       </c>
-      <c r="C12" s="78" t="s">
-        <v>600</v>
-      </c>
-      <c r="D12" s="78" t="s">
-        <v>410</v>
-      </c>
-      <c r="E12" s="77" t="s">
+      <c r="F12" s="132" t="s">
         <v>888</v>
-      </c>
-      <c r="F12" s="132" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="B13" s="38" t="s">
         <v>890</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>891</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="38" t="s">
+        <v>891</v>
+      </c>
+      <c r="F13" s="133" t="s">
         <v>892</v>
-      </c>
-      <c r="F13" s="133" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="74" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B14" s="124"/>
       <c r="C14" s="124"/>
       <c r="D14" s="61" t="s">
+        <v>894</v>
+      </c>
+      <c r="E14" s="38" t="s">
         <v>895</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="F14" s="133" t="s">
         <v>896</v>
-      </c>
-      <c r="F14" s="133" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="15">
@@ -20044,36 +20041,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="134" t="s">
+        <v>897</v>
+      </c>
+      <c r="B2" s="135" t="s">
         <v>898</v>
-      </c>
-      <c r="B2" s="135" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="136" t="s">
+        <v>899</v>
+      </c>
+      <c r="B3" s="135" t="s">
         <v>900</v>
-      </c>
-      <c r="B3" s="135" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="137" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="138" t="s">
+        <v>902</v>
+      </c>
+      <c r="B6" s="135" t="s">
         <v>903</v>
-      </c>
-      <c r="B6" s="135" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="135" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="8">
@@ -20084,41 +20081,41 @@
     </row>
     <row r="10">
       <c r="A10" s="138" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="138" t="s">
+        <v>906</v>
+      </c>
+      <c r="B11" s="139" t="s">
         <v>907</v>
-      </c>
-      <c r="B11" s="139" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="140" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="141"/>
       <c r="B13" s="142" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="143" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="144" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="145" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="17">
@@ -20127,24 +20124,24 @@
     </row>
     <row r="18">
       <c r="A18" s="138" t="s">
+        <v>913</v>
+      </c>
+      <c r="B18" s="146" t="s">
         <v>914</v>
-      </c>
-      <c r="B18" s="146" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B19" s="147"/>
     </row>
     <row r="21">
       <c r="A21" s="138" t="s">
+        <v>916</v>
+      </c>
+      <c r="B21" s="148" t="s">
         <v>917</v>
-      </c>
-      <c r="B21" s="148" t="s">
-        <v>918</v>
       </c>
     </row>
   </sheetData>
@@ -20170,47 +20167,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="138" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="149" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="135" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="149" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="135" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="135" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="135" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="149" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="135" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>
@@ -20236,48 +20233,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B1" s="150" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="151" t="s">
+        <v>928</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>929</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
   </sheetData>
@@ -20321,10 +20318,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="152" t="s">
+        <v>936</v>
+      </c>
+      <c r="C1" s="152" t="s">
         <v>937</v>
-      </c>
-      <c r="C1" s="152" t="s">
-        <v>938</v>
       </c>
       <c r="E1" s="153" t="s">
         <v>2</v>
@@ -20332,28 +20329,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>942</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
+        <v>942</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>943</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="C3" s="4" t="s">
         <v>944</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>945</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -20363,13 +20360,13 @@
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>943</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>944</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>945</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20379,84 +20376,84 @@
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
+        <v>946</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>947</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>948</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="E5" s="7" t="s">
         <v>949</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>953</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>957</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="19" t="s">
         <v>961</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="154" t="s">
+        <v>962</v>
+      </c>
+      <c r="B9" s="155" t="s">
         <v>963</v>
       </c>
-      <c r="B9" s="155" t="s">
+      <c r="C9" s="155" t="s">
+        <v>944</v>
+      </c>
+      <c r="D9" s="155" t="s">
         <v>964</v>
-      </c>
-      <c r="C9" s="155" t="s">
-        <v>945</v>
-      </c>
-      <c r="D9" s="155" t="s">
-        <v>965</v>
       </c>
       <c r="E9" s="155"/>
       <c r="F9" s="155"/>
@@ -20483,16 +20480,16 @@
     </row>
     <row r="10">
       <c r="A10" s="154" t="s">
+        <v>965</v>
+      </c>
+      <c r="B10" s="155" t="s">
+        <v>963</v>
+      </c>
+      <c r="C10" s="155" t="s">
+        <v>944</v>
+      </c>
+      <c r="D10" s="155" t="s">
         <v>966</v>
-      </c>
-      <c r="B10" s="155" t="s">
-        <v>964</v>
-      </c>
-      <c r="C10" s="155" t="s">
-        <v>945</v>
-      </c>
-      <c r="D10" s="155" t="s">
-        <v>967</v>
       </c>
       <c r="E10" s="156"/>
       <c r="F10" s="156"/>
@@ -20519,16 +20516,16 @@
     </row>
     <row r="11">
       <c r="A11" s="154" t="s">
+        <v>967</v>
+      </c>
+      <c r="B11" s="155" t="s">
         <v>968</v>
       </c>
-      <c r="B11" s="155" t="s">
+      <c r="C11" s="155" t="s">
+        <v>944</v>
+      </c>
+      <c r="D11" s="155" t="s">
         <v>969</v>
-      </c>
-      <c r="C11" s="155" t="s">
-        <v>945</v>
-      </c>
-      <c r="D11" s="155" t="s">
-        <v>970</v>
       </c>
       <c r="E11" s="156"/>
       <c r="F11" s="156"/>
@@ -20555,16 +20552,16 @@
     </row>
     <row r="12">
       <c r="A12" s="154" t="s">
+        <v>970</v>
+      </c>
+      <c r="B12" s="155" t="s">
+        <v>968</v>
+      </c>
+      <c r="C12" s="155" t="s">
+        <v>944</v>
+      </c>
+      <c r="D12" s="155" t="s">
         <v>971</v>
-      </c>
-      <c r="B12" s="155" t="s">
-        <v>969</v>
-      </c>
-      <c r="C12" s="155" t="s">
-        <v>945</v>
-      </c>
-      <c r="D12" s="155" t="s">
-        <v>972</v>
       </c>
       <c r="E12" s="156"/>
       <c r="F12" s="156"/>
@@ -20591,16 +20588,16 @@
     </row>
     <row r="13">
       <c r="A13" s="154" t="s">
+        <v>972</v>
+      </c>
+      <c r="B13" s="154" t="s">
+        <v>947</v>
+      </c>
+      <c r="C13" s="155" t="s">
+        <v>944</v>
+      </c>
+      <c r="D13" s="155" t="s">
         <v>973</v>
-      </c>
-      <c r="B13" s="154" t="s">
-        <v>948</v>
-      </c>
-      <c r="C13" s="155" t="s">
-        <v>945</v>
-      </c>
-      <c r="D13" s="155" t="s">
-        <v>974</v>
       </c>
       <c r="E13" s="156"/>
       <c r="F13" s="156"/>
@@ -20627,16 +20624,16 @@
     </row>
     <row r="14">
       <c r="A14" s="154" t="s">
+        <v>974</v>
+      </c>
+      <c r="B14" s="154" t="s">
+        <v>947</v>
+      </c>
+      <c r="C14" s="155" t="s">
+        <v>944</v>
+      </c>
+      <c r="D14" s="155" t="s">
         <v>975</v>
-      </c>
-      <c r="B14" s="154" t="s">
-        <v>948</v>
-      </c>
-      <c r="C14" s="155" t="s">
-        <v>945</v>
-      </c>
-      <c r="D14" s="155" t="s">
-        <v>976</v>
       </c>
       <c r="E14" s="156"/>
       <c r="F14" s="156"/>
@@ -20688,51 +20685,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="157" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="138" t="s">
+        <v>938</v>
+      </c>
+      <c r="B2" s="138" t="s">
         <v>939</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="C2" s="138" t="s">
         <v>940</v>
       </c>
-      <c r="C2" s="138" t="s">
+      <c r="D2" s="138" t="s">
         <v>941</v>
-      </c>
-      <c r="D2" s="138" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="135" t="s">
+        <v>976</v>
+      </c>
+      <c r="B3" s="135" t="s">
         <v>977</v>
-      </c>
-      <c r="B3" s="135" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="135" t="s">
+        <v>978</v>
+      </c>
+      <c r="B4" s="135" t="s">
         <v>979</v>
-      </c>
-      <c r="B4" s="135" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="135" t="s">
+        <v>980</v>
+      </c>
+      <c r="B5" s="135" t="s">
         <v>981</v>
       </c>
-      <c r="B5" s="135" t="s">
+      <c r="C5" s="158" t="s">
+        <v>979</v>
+      </c>
+      <c r="D5" s="135" t="s">
         <v>982</v>
-      </c>
-      <c r="C5" s="158" t="s">
-        <v>980</v>
-      </c>
-      <c r="D5" s="135" t="s">
-        <v>983</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F01/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F01/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.2.0-alpha.1</t>
+    <t>2.2.0-rc.1</t>
   </si>
   <si>
     <r>
